--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
@@ -9,39 +9,37 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
     <sheet name="Акт приемки" sheetId="14" r:id="rId2"/>
-    <sheet name="Ресурс" sheetId="13" r:id="rId3"/>
-    <sheet name="Чист. форма" sheetId="8" r:id="rId4"/>
-    <sheet name="Чист.  поддон" sheetId="4" r:id="rId5"/>
-    <sheet name="Черн. форма" sheetId="3" r:id="rId6"/>
-    <sheet name="Черн. поддон" sheetId="1" r:id="rId7"/>
-    <sheet name="Горл. кольцо" sheetId="9" r:id="rId8"/>
-    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId9"/>
-    <sheet name="Плунжер" sheetId="10" r:id="rId10"/>
-    <sheet name="Втулка" sheetId="11" r:id="rId11"/>
-    <sheet name="Дут. головка" sheetId="6" r:id="rId12"/>
-    <sheet name="Воронка" sheetId="12" r:id="rId13"/>
+    <sheet name="Чист. форма" sheetId="8" r:id="rId3"/>
+    <sheet name="Чист.  поддон" sheetId="4" r:id="rId4"/>
+    <sheet name="Черн. форма" sheetId="3" r:id="rId5"/>
+    <sheet name="Черн. поддон" sheetId="1" r:id="rId6"/>
+    <sheet name="Горл. кольцо" sheetId="9" r:id="rId7"/>
+    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId8"/>
+    <sheet name="Плунжер" sheetId="10" r:id="rId9"/>
+    <sheet name="Втулка" sheetId="11" r:id="rId10"/>
+    <sheet name="Дут. головка" sheetId="6" r:id="rId11"/>
+    <sheet name="Воронка" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Ресурс!$A$1:$J$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Плунжер!$A$1:$S$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Черн. форма'!$A$1:$R$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист.  поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="124">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -223,13 +221,7 @@
     <t>Утверждаю</t>
   </si>
   <si>
-    <t>Унитарное предприятие "Белстеклопром"</t>
-  </si>
-  <si>
     <t>«     »</t>
-  </si>
-  <si>
-    <t>Справка</t>
   </si>
   <si>
     <t>Участок ремота форм</t>
@@ -242,12 +234,6 @@
   </si>
   <si>
     <t>члены:</t>
-  </si>
-  <si>
-    <t>_____________________</t>
-  </si>
-  <si>
-    <t>о присвоении ресурса формокомплекту</t>
   </si>
   <si>
     <t>Акт</t>
@@ -268,9 +254,6 @@
     <t>Примечания</t>
   </si>
   <si>
-    <t>Хватки для съема</t>
-  </si>
-  <si>
     <t>Плита охлаждения</t>
   </si>
   <si>
@@ -286,13 +269,7 @@
     <t>приемки формокомплекта для производства бутылки:</t>
   </si>
   <si>
-    <t>начальник участка ремонта форм:</t>
-  </si>
-  <si>
     <t xml:space="preserve">составила настоящий акт в том, что указанный формокомплект прибывший </t>
-  </si>
-  <si>
-    <t>Присваивает формокомплекту  Х-К-700-33 (GRAPE), приобретенному в собственность Унитарного предприятия "Белстеклопром", согласно договора №101016 от 10.10.2016 г., ресурс в количестве 22 400 000 капель стекломассы, прошедших через чистовые формы формокомплекта, после чего считать формокомплект 100% изношенным.</t>
   </si>
   <si>
     <t>имеет в наличии следующие детали:</t>
@@ -304,19 +281,7 @@
     <t>Штангенрейсмус</t>
   </si>
   <si>
-    <t>Главный инженер</t>
-  </si>
-  <si>
-    <t>20      г.</t>
-  </si>
-  <si>
     <t>20       г.</t>
-  </si>
-  <si>
-    <t>токарь участка ремонта форм:</t>
-  </si>
-  <si>
-    <t>С.В. Гельфер</t>
   </si>
   <si>
     <t>Текстовый формат ячейки?   </t>
@@ -341,9 +306,6 @@
   </si>
   <si>
     <t>начальник производственного участка</t>
-  </si>
-  <si>
-    <t>Комиссия созданная приказом №97 от 15/05/2019 в составе:</t>
   </si>
   <si>
     <t>PCI</t>
@@ -410,6 +372,45 @@
   </si>
   <si>
     <t>49,4 / 48,4</t>
+  </si>
+  <si>
+    <t>Чистовая форма (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Поддон (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Черновая форма (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Пресс головка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Горловое кольцо (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Направляющее кольцо (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Плунжер (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Втулка плунжера (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Воронка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Дутьевая головка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Плита охлаждения (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Трубка дутьевой головки (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Трубка дутьевой головки</t>
   </si>
 </sst>
 </file>
@@ -758,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -1834,13 +1835,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="514">
+  <cellXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -2794,18 +2808,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3003,10 +3009,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3049,110 +3062,41 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3204,73 +3148,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3294,6 +3241,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3320,19 +3336,19 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3350,12 +3366,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5614,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5627,282 +5637,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="G1" s="380" t="s">
-        <v>94</v>
+      <c r="A1" s="394" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="G1" s="374" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="398" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="399"/>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="400"/>
-      <c r="G2" s="379" t="s">
-        <v>92</v>
+      <c r="A2" s="395" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="397"/>
+      <c r="G2" s="373" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="379" t="s">
-        <v>93</v>
+      <c r="G3" s="373" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="402" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="403"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="403"/>
+      <c r="A4" s="399" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="400"/>
+      <c r="C4" s="400"/>
+      <c r="D4" s="400"/>
+      <c r="E4" s="400"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="404" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="405"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="405"/>
-      <c r="E5" s="406"/>
+      <c r="A5" s="401" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="402"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="403"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="397" t="s">
+      <c r="A7" s="394" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="398"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="404"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="405"/>
+      <c r="E8" s="406"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="394" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="394"/>
+      <c r="C10" s="375"/>
+      <c r="D10" s="383" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="375"/>
+      <c r="F10" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="401"/>
-      <c r="C7" s="401"/>
-      <c r="D7" s="401"/>
-      <c r="E7" s="401"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="407"/>
-      <c r="B8" s="408"/>
-      <c r="C8" s="408"/>
-      <c r="D8" s="408"/>
-      <c r="E8" s="409"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="397"/>
-      <c r="C10" s="381"/>
-      <c r="D10" s="389" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="381"/>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="392"/>
+      <c r="B11" s="393"/>
+      <c r="D11" s="382">
+        <v>43741</v>
+      </c>
+      <c r="F11" s="407" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="407"/>
+      <c r="H11" s="407"/>
+      <c r="I11" s="407"/>
+      <c r="J11" s="408" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="408"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="407" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="407"/>
+      <c r="H12" s="407"/>
+      <c r="I12" s="407"/>
+      <c r="J12" s="408" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="408"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="376" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="377" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="389" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="407" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="407"/>
+      <c r="H13" s="407"/>
+      <c r="I13" s="407"/>
+      <c r="J13" s="408" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="408"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="378" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="379">
+        <v>24</v>
+      </c>
+      <c r="C14" s="385" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="395"/>
-      <c r="B11" s="396"/>
-      <c r="D11" s="388">
-        <v>43741</v>
-      </c>
-      <c r="F11" s="393" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="393"/>
-      <c r="H11" s="393"/>
-      <c r="I11" s="393"/>
-      <c r="J11" s="394" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="394"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="393" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="393"/>
-      <c r="H12" s="393"/>
-      <c r="I12" s="393"/>
-      <c r="J12" s="394" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="394"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="382" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="383" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="512" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="393" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="393"/>
-      <c r="H13" s="393"/>
-      <c r="I13" s="393"/>
-      <c r="J13" s="394" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="394"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="384" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="385">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="378" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="379">
         <v>24</v>
       </c>
-      <c r="C14" s="513" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="384" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="385">
-        <v>24</v>
-      </c>
-      <c r="C15" s="513" t="s">
-        <v>121</v>
+      <c r="C15" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="384" t="s">
+      <c r="A16" s="378" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="385">
+      <c r="B16" s="379">
         <v>32</v>
       </c>
-      <c r="C16" s="513" t="s">
-        <v>121</v>
+      <c r="C16" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="384" t="s">
+      <c r="A17" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="385">
+      <c r="B17" s="379">
         <v>32</v>
       </c>
-      <c r="C17" s="513" t="s">
-        <v>121</v>
+      <c r="C17" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="384" t="s">
+      <c r="A18" s="378" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="385">
+      <c r="B18" s="379">
         <v>60</v>
       </c>
-      <c r="C18" s="513" t="s">
-        <v>121</v>
+      <c r="C18" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="384" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="385">
+      <c r="A19" s="378" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="379">
         <v>60</v>
       </c>
-      <c r="C19" s="513" t="s">
-        <v>121</v>
+      <c r="C19" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="384" t="s">
+      <c r="A20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="385">
+      <c r="B20" s="379">
         <v>50</v>
       </c>
-      <c r="C20" s="513" t="s">
-        <v>121</v>
+      <c r="C20" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="385">
+      <c r="B21" s="379">
         <v>20</v>
       </c>
-      <c r="C21" s="513" t="s">
-        <v>121</v>
+      <c r="C21" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="384" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="391" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="513"/>
+      <c r="A22" s="378" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="385" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="385"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="384" t="s">
+      <c r="A23" s="378" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="385">
+      <c r="B23" s="379">
         <v>20</v>
       </c>
-      <c r="C23" s="513" t="s">
-        <v>121</v>
+      <c r="C23" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="384" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="385">
+      <c r="A24" s="378" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="379">
         <v>8</v>
       </c>
-      <c r="C24" s="513" t="s">
-        <v>121</v>
+      <c r="C24" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="384" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="391" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="513"/>
+      <c r="A25" s="378" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="385" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="385"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="386" t="s">
+      <c r="A26" s="380" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="387">
+      <c r="B26" s="381">
         <v>20</v>
       </c>
-      <c r="C26" s="513" t="s">
-        <v>121</v>
-      </c>
+      <c r="C26" s="385" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="380" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="387">
+        <v>18</v>
+      </c>
+      <c r="C27" s="390"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="390" t="s">
-        <v>118</v>
-      </c>
+      <c r="A28" s="384"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
@@ -5911,12 +5934,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5924,619 +5941,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
-  <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
-    <col min="8" max="18" width="9" style="171" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="171"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="170"/>
-    </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="172"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
-        <f>Данные!B20</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="483"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="501"/>
-      <c r="Q2" s="501"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="177"/>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="177"/>
-    </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="172"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="177"/>
-    </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="172"/>
-      <c r="B5" s="448" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
-        <f>Данные!$A5</f>
-        <v>PCI</v>
-      </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="177"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172"/>
-      <c r="B6" s="448" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
-        <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="177"/>
-    </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
-      <c r="B7" s="455" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
-        <f>Данные!$A8</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
-        <f>Данные!$A11</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="396"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="177"/>
-    </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="187"/>
-      <c r="S8" s="188"/>
-    </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="256" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="259" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="260" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="353"/>
-      <c r="O9" s="353"/>
-      <c r="P9" s="354"/>
-      <c r="Q9" s="353"/>
-      <c r="R9" s="355"/>
-      <c r="S9" s="204"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="182"/>
-      <c r="B10" s="191" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="192">
-        <v>70.72</v>
-      </c>
-      <c r="D10" s="192">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="192">
-        <v>-0.05</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="356" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="356"/>
-      <c r="P10" s="356"/>
-      <c r="Q10" s="356"/>
-      <c r="R10" s="357"/>
-      <c r="S10" s="188"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="182"/>
-      <c r="B11" s="193" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="194">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D11" s="194">
-        <v>0.02</v>
-      </c>
-      <c r="E11" s="194">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="358"/>
-      <c r="O11" s="358"/>
-      <c r="P11" s="358"/>
-      <c r="Q11" s="358"/>
-      <c r="R11" s="359"/>
-      <c r="S11" s="188"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182"/>
-      <c r="B12" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="368">
-        <v>45.2</v>
-      </c>
-      <c r="D12" s="194">
-        <v>0</v>
-      </c>
-      <c r="E12" s="205">
-        <v>-0.1</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="358"/>
-      <c r="O12" s="358"/>
-      <c r="P12" s="358"/>
-      <c r="Q12" s="358"/>
-      <c r="R12" s="359"/>
-      <c r="S12" s="188"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
-      <c r="B13" s="193" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="368">
-        <v>37</v>
-      </c>
-      <c r="D13" s="194">
-        <v>0</v>
-      </c>
-      <c r="E13" s="194">
-        <v>-0.1</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="358"/>
-      <c r="O13" s="358"/>
-      <c r="P13" s="358"/>
-      <c r="Q13" s="358"/>
-      <c r="R13" s="359"/>
-      <c r="S13" s="188"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
-      <c r="B14" s="193" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="368">
-        <v>28.5</v>
-      </c>
-      <c r="D14" s="194">
-        <v>0</v>
-      </c>
-      <c r="E14" s="194">
-        <v>-0.1</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="358"/>
-      <c r="O14" s="358"/>
-      <c r="P14" s="358"/>
-      <c r="Q14" s="358"/>
-      <c r="R14" s="359"/>
-      <c r="S14" s="188"/>
-    </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
-      <c r="B15" s="193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="368">
-        <v>9.5</v>
-      </c>
-      <c r="D15" s="194">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="194">
-        <v>-0.05</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="358"/>
-      <c r="O15" s="358"/>
-      <c r="P15" s="358"/>
-      <c r="Q15" s="358"/>
-      <c r="R15" s="359"/>
-      <c r="S15" s="188"/>
-    </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="193" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="368">
-        <v>23.8</v>
-      </c>
-      <c r="D16" s="194">
-        <v>0</v>
-      </c>
-      <c r="E16" s="194">
-        <v>-0.05</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="358"/>
-      <c r="O16" s="358"/>
-      <c r="P16" s="358"/>
-      <c r="Q16" s="358"/>
-      <c r="R16" s="359"/>
-      <c r="S16" s="188"/>
-    </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
-      <c r="B17" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="194">
-        <v>34.92</v>
-      </c>
-      <c r="D17" s="194">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="194">
-        <v>0</v>
-      </c>
-      <c r="F17" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="358"/>
-      <c r="O17" s="358"/>
-      <c r="P17" s="358"/>
-      <c r="Q17" s="358"/>
-      <c r="R17" s="359"/>
-      <c r="S17" s="188"/>
-    </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
-      <c r="B18" s="193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="368">
-        <v>28.5</v>
-      </c>
-      <c r="D18" s="194">
-        <v>0</v>
-      </c>
-      <c r="E18" s="194">
-        <v>-0.03</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="358"/>
-      <c r="O18" s="358"/>
-      <c r="P18" s="358"/>
-      <c r="Q18" s="358"/>
-      <c r="R18" s="359"/>
-      <c r="S18" s="188"/>
-    </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
-      <c r="S19" s="198"/>
-    </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notBetween">
-      <formula>$C14+$D14</formula>
-      <formula>$C14+$E14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -6583,47 +5987,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="483"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="502"/>
-      <c r="Q2" s="502"/>
+      <c r="P2" s="503"/>
+      <c r="Q2" s="503"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -6634,9 +6038,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6655,22 +6059,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -6681,22 +6085,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -6707,27 +6111,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -6795,7 +6199,7 @@
       <c r="B10" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="371">
+      <c r="C10" s="365">
         <v>58.6</v>
       </c>
       <c r="D10" s="233">
@@ -6828,7 +6232,7 @@
       <c r="B11" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="372">
+      <c r="C11" s="366">
         <v>45.2</v>
       </c>
       <c r="D11" s="238">
@@ -6861,7 +6265,7 @@
       <c r="B12" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="372">
+      <c r="C12" s="366">
         <v>28.6</v>
       </c>
       <c r="D12" s="238">
@@ -6894,7 +6298,7 @@
       <c r="B13" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="372">
+      <c r="C13" s="366">
         <v>45.3</v>
       </c>
       <c r="D13" s="238">
@@ -6927,7 +6331,7 @@
       <c r="B14" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="372">
+      <c r="C14" s="366">
         <v>70</v>
       </c>
       <c r="D14" s="238">
@@ -6960,7 +6364,7 @@
       <c r="B15" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="372">
+      <c r="C15" s="366">
         <v>9.1</v>
       </c>
       <c r="D15" s="238">
@@ -6993,7 +6397,7 @@
       <c r="B16" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="372">
+      <c r="C16" s="366">
         <v>46</v>
       </c>
       <c r="D16" s="238">
@@ -7026,7 +6430,7 @@
       <c r="B17" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="366">
         <v>57.9</v>
       </c>
       <c r="D17" s="238">
@@ -7056,12 +6460,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="503" t="s">
+      <c r="B18" s="500" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="504"/>
-      <c r="D18" s="504"/>
-      <c r="E18" s="505"/>
+      <c r="C18" s="501"/>
+      <c r="D18" s="501"/>
+      <c r="E18" s="502"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -7105,6 +6509,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7116,14 +6528,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7162,7 +6566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -7209,47 +6613,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="483"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="506"/>
-      <c r="Q2" s="506"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -7260,9 +6664,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7281,22 +6685,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -7307,22 +6711,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -7333,27 +6737,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -7421,7 +6825,7 @@
       <c r="B10" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="374">
+      <c r="C10" s="368">
         <v>42</v>
       </c>
       <c r="D10" s="157" t="s">
@@ -7454,7 +6858,7 @@
       <c r="B11" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="374">
+      <c r="C11" s="368">
         <v>15.9</v>
       </c>
       <c r="D11" s="157" t="s">
@@ -7487,7 +6891,7 @@
       <c r="B12" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="373">
+      <c r="C12" s="367">
         <v>60</v>
       </c>
       <c r="D12" s="157" t="s">
@@ -7520,7 +6924,7 @@
       <c r="B13" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="373">
+      <c r="C13" s="367">
         <v>65</v>
       </c>
       <c r="D13" s="157">
@@ -7553,7 +6957,7 @@
       <c r="B14" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="373">
+      <c r="C14" s="367">
         <v>12.7</v>
       </c>
       <c r="D14" s="157">
@@ -7586,7 +6990,7 @@
       <c r="B15" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="373">
+      <c r="C15" s="367">
         <v>50.6</v>
       </c>
       <c r="D15" s="157">
@@ -7619,7 +7023,7 @@
       <c r="B16" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="367">
         <v>62</v>
       </c>
       <c r="D16" s="157">
@@ -7734,17 +7138,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7752,6 +7145,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7770,11 +7174,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -7817,47 +7221,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="508">
+      <c r="J2" s="484"/>
+      <c r="K2" s="506">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="507"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="507"/>
-      <c r="Q2" s="507"/>
+      <c r="P2" s="505"/>
+      <c r="Q2" s="505"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="510"/>
-      <c r="L3" s="511"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="508"/>
+      <c r="L3" s="509"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -7868,9 +7272,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7889,22 +7293,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -7915,22 +7319,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -7941,27 +7345,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -8014,14 +7418,14 @@
       <c r="H9" s="286"/>
       <c r="I9" s="286"/>
       <c r="J9" s="286"/>
-      <c r="K9" s="360"/>
-      <c r="L9" s="360"/>
-      <c r="M9" s="360"/>
-      <c r="N9" s="360"/>
-      <c r="O9" s="360"/>
-      <c r="P9" s="360"/>
-      <c r="Q9" s="360"/>
-      <c r="R9" s="361"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="354"/>
+      <c r="O9" s="354"/>
+      <c r="P9" s="354"/>
+      <c r="Q9" s="354"/>
+      <c r="R9" s="355"/>
       <c r="S9" s="287"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8047,14 +7451,14 @@
       <c r="H10" s="290"/>
       <c r="I10" s="289"/>
       <c r="J10" s="289"/>
-      <c r="K10" s="362"/>
-      <c r="L10" s="362"/>
-      <c r="M10" s="362"/>
-      <c r="N10" s="362"/>
-      <c r="O10" s="362"/>
-      <c r="P10" s="362"/>
-      <c r="Q10" s="362"/>
-      <c r="R10" s="363"/>
+      <c r="K10" s="356"/>
+      <c r="L10" s="356"/>
+      <c r="M10" s="356"/>
+      <c r="N10" s="356"/>
+      <c r="O10" s="356"/>
+      <c r="P10" s="356"/>
+      <c r="Q10" s="356"/>
+      <c r="R10" s="357"/>
       <c r="S10" s="284"/>
     </row>
     <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -8062,7 +7466,7 @@
       <c r="B11" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="375">
+      <c r="C11" s="369">
         <v>65.099999999999994</v>
       </c>
       <c r="D11" s="293">
@@ -8080,14 +7484,14 @@
       <c r="H11" s="294"/>
       <c r="I11" s="291"/>
       <c r="J11" s="291"/>
-      <c r="K11" s="362"/>
-      <c r="L11" s="362"/>
-      <c r="M11" s="362"/>
-      <c r="N11" s="362"/>
-      <c r="O11" s="362"/>
-      <c r="P11" s="362"/>
-      <c r="Q11" s="362"/>
-      <c r="R11" s="364"/>
+      <c r="K11" s="356"/>
+      <c r="L11" s="356"/>
+      <c r="M11" s="356"/>
+      <c r="N11" s="356"/>
+      <c r="O11" s="356"/>
+      <c r="P11" s="356"/>
+      <c r="Q11" s="356"/>
+      <c r="R11" s="358"/>
       <c r="S11" s="284"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8095,7 +7499,7 @@
       <c r="B12" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="369">
+      <c r="C12" s="363">
         <v>89</v>
       </c>
       <c r="D12" s="293">
@@ -8113,14 +7517,14 @@
       <c r="H12" s="295"/>
       <c r="I12" s="293"/>
       <c r="J12" s="293"/>
-      <c r="K12" s="365"/>
-      <c r="L12" s="365"/>
-      <c r="M12" s="365"/>
-      <c r="N12" s="365"/>
-      <c r="O12" s="365"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="365"/>
-      <c r="R12" s="366"/>
+      <c r="K12" s="359"/>
+      <c r="L12" s="359"/>
+      <c r="M12" s="359"/>
+      <c r="N12" s="359"/>
+      <c r="O12" s="359"/>
+      <c r="P12" s="359"/>
+      <c r="Q12" s="359"/>
+      <c r="R12" s="360"/>
       <c r="S12" s="284"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8128,7 +7532,7 @@
       <c r="B13" s="292" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="369">
+      <c r="C13" s="363">
         <v>12</v>
       </c>
       <c r="D13" s="293">
@@ -8146,14 +7550,14 @@
       <c r="H13" s="295"/>
       <c r="I13" s="293"/>
       <c r="J13" s="293"/>
-      <c r="K13" s="365"/>
-      <c r="L13" s="365"/>
-      <c r="M13" s="365"/>
-      <c r="N13" s="365"/>
-      <c r="O13" s="365"/>
-      <c r="P13" s="365"/>
-      <c r="Q13" s="365"/>
-      <c r="R13" s="366"/>
+      <c r="K13" s="359"/>
+      <c r="L13" s="359"/>
+      <c r="M13" s="359"/>
+      <c r="N13" s="359"/>
+      <c r="O13" s="359"/>
+      <c r="P13" s="359"/>
+      <c r="Q13" s="359"/>
+      <c r="R13" s="360"/>
       <c r="S13" s="284"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8161,7 +7565,7 @@
       <c r="B14" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="375">
+      <c r="C14" s="369">
         <v>52</v>
       </c>
       <c r="D14" s="293">
@@ -8179,14 +7583,14 @@
       <c r="H14" s="295"/>
       <c r="I14" s="293"/>
       <c r="J14" s="293"/>
-      <c r="K14" s="365"/>
-      <c r="L14" s="365"/>
-      <c r="M14" s="365"/>
-      <c r="N14" s="365"/>
-      <c r="O14" s="365"/>
-      <c r="P14" s="365"/>
-      <c r="Q14" s="365"/>
-      <c r="R14" s="366"/>
+      <c r="K14" s="359"/>
+      <c r="L14" s="359"/>
+      <c r="M14" s="359"/>
+      <c r="N14" s="359"/>
+      <c r="O14" s="359"/>
+      <c r="P14" s="359"/>
+      <c r="Q14" s="359"/>
+      <c r="R14" s="360"/>
       <c r="S14" s="284"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8200,14 +7604,14 @@
       <c r="H15" s="299"/>
       <c r="I15" s="299"/>
       <c r="J15" s="299"/>
-      <c r="K15" s="367"/>
-      <c r="L15" s="367"/>
-      <c r="M15" s="367"/>
-      <c r="N15" s="367"/>
-      <c r="O15" s="367"/>
-      <c r="P15" s="367"/>
-      <c r="Q15" s="367"/>
-      <c r="R15" s="348"/>
+      <c r="K15" s="361"/>
+      <c r="L15" s="361"/>
+      <c r="M15" s="361"/>
+      <c r="N15" s="361"/>
+      <c r="O15" s="361"/>
+      <c r="P15" s="361"/>
+      <c r="Q15" s="361"/>
+      <c r="R15" s="342"/>
       <c r="S15" s="284"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8234,7 +7638,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -8252,6 +7655,7 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8280,8 +7684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8293,103 +7697,103 @@
     <col min="10" max="16384" width="9.109375" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G2" s="325" t="s">
+    <row r="2" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G2" s="319" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-    </row>
-    <row r="3" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G3" s="325" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-    </row>
-    <row r="4" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G4" s="325" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-    </row>
-    <row r="5" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G6" s="377"/>
-      <c r="H6" s="325" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="326"/>
-      <c r="J6" s="326"/>
-    </row>
-    <row r="7" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="326"/>
-    </row>
-    <row r="8" spans="1:11" s="376" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+    </row>
+    <row r="3" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G3" s="319" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+    </row>
+    <row r="4" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G4" s="319" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="320"/>
+    </row>
+    <row r="5" spans="1:11" s="370" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G6" s="371"/>
+      <c r="H6" s="319" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="320"/>
+      <c r="J6" s="320"/>
+    </row>
+    <row r="7" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H7" s="320"/>
+      <c r="I7" s="320"/>
+      <c r="J7" s="320"/>
+    </row>
+    <row r="8" spans="1:11" s="370" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="G8" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="325" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="326"/>
-      <c r="J8" s="326"/>
+        <v>60</v>
+      </c>
+      <c r="H8" s="319" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="320"/>
+      <c r="J8" s="320"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="416" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="416"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="416"/>
-      <c r="E11" s="416"/>
-      <c r="F11" s="416"/>
-      <c r="G11" s="416"/>
-      <c r="H11" s="416"/>
-      <c r="I11" s="416"/>
-      <c r="J11" s="416"/>
+      <c r="A11" s="415" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="415"/>
+      <c r="C11" s="415"/>
+      <c r="D11" s="415"/>
+      <c r="E11" s="415"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="415"/>
+      <c r="H11" s="415"/>
+      <c r="I11" s="415"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="415" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="415"/>
-      <c r="C12" s="415"/>
-      <c r="D12" s="415"/>
-      <c r="E12" s="415"/>
-      <c r="F12" s="415"/>
-      <c r="G12" s="415"/>
-      <c r="H12" s="415"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="415"/>
+      <c r="A12" s="414" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="414"/>
+      <c r="C12" s="414"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="414"/>
+      <c r="F12" s="414"/>
+      <c r="G12" s="414"/>
+      <c r="H12" s="414"/>
+      <c r="I12" s="414"/>
+      <c r="J12" s="414"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="417" t="str">
+      <c r="A13" s="416" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="B13" s="416"/>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
-      <c r="E13" s="416"/>
-      <c r="F13" s="416"/>
-      <c r="G13" s="416"/>
-      <c r="H13" s="416"/>
-      <c r="I13" s="416"/>
-      <c r="J13" s="416"/>
+      <c r="B13" s="415"/>
+      <c r="C13" s="415"/>
+      <c r="D13" s="415"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="415"/>
+      <c r="H13" s="415"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="313"/>
       <c r="C15" s="313"/>
@@ -8406,7 +7810,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="313" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B16" s="313"/>
       <c r="C16" s="313"/>
@@ -8418,61 +7822,61 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="328" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="329" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="329"/>
-      <c r="D17" s="330" t="str">
+    <row r="17" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="322" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="323" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="323"/>
+      <c r="D17" s="324" t="str">
         <f>Данные!F11</f>
         <v>начальник производства</v>
       </c>
-      <c r="E17" s="329"/>
-      <c r="F17" s="329"/>
-      <c r="H17" s="329"/>
-      <c r="I17" s="329" t="str">
+      <c r="E17" s="323"/>
+      <c r="F17" s="323"/>
+      <c r="H17" s="323"/>
+      <c r="I17" s="323" t="str">
         <f>Данные!J11</f>
         <v>Я.В. Карчмит</v>
       </c>
       <c r="J17" s="314"/>
     </row>
-    <row r="18" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="328" t="s">
+    <row r="18" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="322" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="323" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="329" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="329"/>
-      <c r="D18" s="330" t="str">
+      <c r="C18" s="323"/>
+      <c r="D18" s="324" t="str">
         <f>Данные!F12</f>
         <v>начальник производственного участка</v>
       </c>
-      <c r="E18" s="329"/>
-      <c r="F18" s="329"/>
-      <c r="G18" s="329"/>
-      <c r="I18" s="329" t="str">
+      <c r="E18" s="323"/>
+      <c r="F18" s="323"/>
+      <c r="G18" s="323"/>
+      <c r="I18" s="323" t="str">
         <f>Данные!J12</f>
         <v>Д.Е. Серков</v>
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="329"/>
-      <c r="B19" s="329"/>
-      <c r="C19" s="329"/>
-      <c r="D19" s="329" t="str">
+    <row r="19" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="323"/>
+      <c r="B19" s="323"/>
+      <c r="C19" s="323"/>
+      <c r="D19" s="323" t="str">
         <f>Данные!F13</f>
         <v>начальник участка ремонта форм</v>
       </c>
-      <c r="E19" s="329"/>
-      <c r="F19" s="329"/>
-      <c r="G19" s="329"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329" t="str">
+      <c r="E19" s="323"/>
+      <c r="F19" s="323"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="323"/>
+      <c r="I19" s="323" t="str">
         <f>Данные!J13</f>
         <v>А.Д. Гавриленко</v>
       </c>
@@ -8480,7 +7884,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="313" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B20" s="313"/>
       <c r="C20" s="313"/>
@@ -8497,7 +7901,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="313" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B21" s="313"/>
       <c r="C21" s="313"/>
@@ -8510,313 +7914,310 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="417" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="417" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="417"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="417" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="417"/>
+      <c r="G22" s="418" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="417" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="413" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="413"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="413" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="413"/>
-      <c r="G22" s="414" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="413" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="413"/>
-      <c r="J22" s="413"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="413"/>
-      <c r="B23" s="413"/>
-      <c r="C23" s="413"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="413"/>
-      <c r="F23" s="413"/>
-      <c r="G23" s="414"/>
-      <c r="H23" s="413"/>
-      <c r="I23" s="413"/>
-      <c r="J23" s="413"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="392">
+      <c r="I22" s="417"/>
+      <c r="J22" s="417"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="417"/>
+      <c r="B23" s="417"/>
+      <c r="C23" s="417"/>
+      <c r="D23" s="417"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="418"/>
+      <c r="H23" s="417"/>
+      <c r="I23" s="417"/>
+      <c r="J23" s="417"/>
+    </row>
+    <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="386">
         <v>1</v>
       </c>
-      <c r="B24" s="410" t="s">
-        <v>44</v>
+      <c r="B24" s="409" t="s">
+        <v>111</v>
       </c>
       <c r="C24" s="410"/>
-      <c r="D24" s="410"/>
-      <c r="E24" s="411" t="str">
+      <c r="D24" s="411"/>
+      <c r="E24" s="412" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F24" s="411"/>
-      <c r="G24" s="324">
+      <c r="F24" s="412"/>
+      <c r="G24" s="318">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="412"/>
-      <c r="I24" s="412"/>
-      <c r="J24" s="412"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="392">
+      <c r="H24" s="413"/>
+      <c r="I24" s="413"/>
+      <c r="J24" s="413"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="410" t="s">
-        <v>45</v>
+      <c r="B25" s="409" t="s">
+        <v>112</v>
       </c>
       <c r="C25" s="410"/>
-      <c r="D25" s="410"/>
-      <c r="E25" s="411" t="str">
+      <c r="D25" s="411"/>
+      <c r="E25" s="412" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F25" s="411"/>
-      <c r="G25" s="324">
+      <c r="F25" s="412"/>
+      <c r="G25" s="318">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H25" s="412"/>
-      <c r="I25" s="412"/>
-      <c r="J25" s="412"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="392">
+      <c r="H25" s="413"/>
+      <c r="I25" s="413"/>
+      <c r="J25" s="413"/>
+    </row>
+    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="386">
         <f t="shared" ref="A26:A35" si="0">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="410" t="s">
-        <v>38</v>
+      <c r="B26" s="409" t="s">
+        <v>113</v>
       </c>
       <c r="C26" s="410"/>
-      <c r="D26" s="410"/>
-      <c r="E26" s="411" t="str">
+      <c r="D26" s="411"/>
+      <c r="E26" s="412" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F26" s="411"/>
-      <c r="G26" s="324">
+      <c r="F26" s="412"/>
+      <c r="G26" s="318">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H26" s="412"/>
-      <c r="I26" s="412"/>
-      <c r="J26" s="412"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="392">
+      <c r="H26" s="413"/>
+      <c r="I26" s="413"/>
+      <c r="J26" s="413"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B27" s="410" t="s">
-        <v>23</v>
+      <c r="B27" s="409" t="s">
+        <v>114</v>
       </c>
       <c r="C27" s="410"/>
-      <c r="D27" s="410"/>
-      <c r="E27" s="411" t="str">
+      <c r="D27" s="411"/>
+      <c r="E27" s="412" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F27" s="411"/>
-      <c r="G27" s="324">
+      <c r="F27" s="412"/>
+      <c r="G27" s="318">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H27" s="412"/>
-      <c r="I27" s="412"/>
-      <c r="J27" s="412"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="392">
+      <c r="H27" s="413"/>
+      <c r="I27" s="413"/>
+      <c r="J27" s="413"/>
+    </row>
+    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B28" s="410" t="s">
-        <v>48</v>
+      <c r="B28" s="409" t="s">
+        <v>115</v>
       </c>
       <c r="C28" s="410"/>
-      <c r="D28" s="410"/>
-      <c r="E28" s="411" t="str">
+      <c r="D28" s="411"/>
+      <c r="E28" s="412" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F28" s="411"/>
-      <c r="G28" s="324">
+      <c r="F28" s="412"/>
+      <c r="G28" s="318">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H28" s="412"/>
-      <c r="I28" s="412"/>
-      <c r="J28" s="412"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="392">
+      <c r="H28" s="413"/>
+      <c r="I28" s="413"/>
+      <c r="J28" s="413"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B29" s="410" t="s">
-        <v>104</v>
+      <c r="B29" s="409" t="s">
+        <v>116</v>
       </c>
       <c r="C29" s="410"/>
-      <c r="D29" s="410"/>
-      <c r="E29" s="411" t="str">
+      <c r="D29" s="411"/>
+      <c r="E29" s="412" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F29" s="411"/>
-      <c r="G29" s="324">
+      <c r="F29" s="412"/>
+      <c r="G29" s="318">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H29" s="412"/>
-      <c r="I29" s="412"/>
-      <c r="J29" s="412"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="392">
+      <c r="H29" s="413"/>
+      <c r="I29" s="413"/>
+      <c r="J29" s="413"/>
+    </row>
+    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B30" s="410" t="s">
-        <v>52</v>
+      <c r="B30" s="409" t="s">
+        <v>117</v>
       </c>
       <c r="C30" s="410"/>
-      <c r="D30" s="410"/>
-      <c r="E30" s="411" t="str">
+      <c r="D30" s="411"/>
+      <c r="E30" s="412" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F30" s="411"/>
-      <c r="G30" s="324">
+      <c r="F30" s="412"/>
+      <c r="G30" s="318">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H30" s="412"/>
-      <c r="I30" s="412"/>
-      <c r="J30" s="412"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="392">
+      <c r="H30" s="413"/>
+      <c r="I30" s="413"/>
+      <c r="J30" s="413"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B31" s="410" t="s">
-        <v>54</v>
+      <c r="B31" s="409" t="s">
+        <v>118</v>
       </c>
       <c r="C31" s="410"/>
-      <c r="D31" s="410"/>
-      <c r="E31" s="411" t="str">
+      <c r="D31" s="411"/>
+      <c r="E31" s="412" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F31" s="411"/>
-      <c r="G31" s="324">
+      <c r="F31" s="412"/>
+      <c r="G31" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H31" s="412"/>
-      <c r="I31" s="412"/>
-      <c r="J31" s="412"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="392">
+      <c r="H31" s="413"/>
+      <c r="I31" s="413"/>
+      <c r="J31" s="413"/>
+    </row>
+    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B32" s="410" t="s">
-        <v>57</v>
+      <c r="B32" s="409" t="s">
+        <v>119</v>
       </c>
       <c r="C32" s="410"/>
-      <c r="D32" s="410"/>
-      <c r="E32" s="411" t="str">
+      <c r="D32" s="411"/>
+      <c r="E32" s="412" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F32" s="411"/>
-      <c r="G32" s="324">
+      <c r="F32" s="412"/>
+      <c r="G32" s="318">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H32" s="412"/>
-      <c r="I32" s="412"/>
-      <c r="J32" s="412"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="392">
+      <c r="H32" s="413"/>
+      <c r="I32" s="413"/>
+      <c r="J32" s="413"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B33" s="410" t="s">
-        <v>56</v>
+      <c r="B33" s="409" t="s">
+        <v>120</v>
       </c>
       <c r="C33" s="410"/>
-      <c r="D33" s="410"/>
-      <c r="E33" s="411" t="str">
+      <c r="D33" s="411"/>
+      <c r="E33" s="412" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F33" s="411"/>
-      <c r="G33" s="324">
+      <c r="F33" s="412"/>
+      <c r="G33" s="318">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H33" s="412"/>
-      <c r="I33" s="412"/>
-      <c r="J33" s="412"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="392">
+      <c r="H33" s="413"/>
+      <c r="I33" s="413"/>
+      <c r="J33" s="413"/>
+    </row>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B34" s="410" t="s">
-        <v>75</v>
+      <c r="B34" s="409" t="s">
+        <v>122</v>
       </c>
       <c r="C34" s="410"/>
-      <c r="D34" s="410"/>
-      <c r="E34" s="411">
-        <f>Данные!C22</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="411"/>
-      <c r="G34" s="324" t="str">
-        <f>Данные!B22</f>
-        <v>нет</v>
-      </c>
-      <c r="H34" s="412"/>
-      <c r="I34" s="412"/>
-      <c r="J34" s="412"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="392">
+      <c r="D34" s="411"/>
+      <c r="E34" s="412"/>
+      <c r="F34" s="412"/>
+      <c r="G34" s="388">
+        <f>Данные!B27</f>
+        <v>18</v>
+      </c>
+      <c r="H34" s="413"/>
+      <c r="I34" s="413"/>
+      <c r="J34" s="413"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B35" s="410" t="s">
-        <v>76</v>
+      <c r="B35" s="409" t="s">
+        <v>121</v>
       </c>
       <c r="C35" s="410"/>
-      <c r="D35" s="410"/>
-      <c r="E35" s="411" t="str">
+      <c r="D35" s="411"/>
+      <c r="E35" s="412" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F35" s="411"/>
-      <c r="G35" s="324">
+      <c r="F35" s="412"/>
+      <c r="G35" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H35" s="412"/>
-      <c r="I35" s="412"/>
-      <c r="J35" s="412"/>
+      <c r="H35" s="413"/>
+      <c r="I35" s="413"/>
+      <c r="J35" s="413"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="313"/>
@@ -8832,7 +8233,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="313" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B37" s="313"/>
       <c r="C37" s="313"/>
@@ -8848,21 +8249,21 @@
       <c r="A38" s="313"/>
       <c r="B38" s="313"/>
       <c r="C38" s="313"/>
-      <c r="D38" s="327"/>
-      <c r="E38" s="327"/>
-      <c r="F38" s="327"/>
-      <c r="G38" s="327"/>
-      <c r="H38" s="327"/>
+      <c r="D38" s="321"/>
+      <c r="E38" s="321"/>
+      <c r="F38" s="321"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="321"/>
       <c r="I38" s="313"/>
       <c r="J38" s="314"/>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="313"/>
-      <c r="B39" s="320" t="s">
-        <v>78</v>
+      <c r="B39" s="316" t="s">
+        <v>73</v>
       </c>
       <c r="C39" s="313" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D39" s="313"/>
       <c r="E39" s="313"/>
@@ -8890,8 +8291,8 @@
       <c r="C41" s="313"/>
       <c r="D41" s="313"/>
       <c r="E41" s="313"/>
-      <c r="G41" s="321"/>
-      <c r="H41" s="321"/>
+      <c r="G41" s="317"/>
+      <c r="H41" s="317"/>
       <c r="I41" s="313" t="str">
         <f>I17</f>
         <v>Я.В. Карчмит</v>
@@ -8935,8 +8336,8 @@
       <c r="C45" s="310"/>
       <c r="D45" s="310"/>
       <c r="E45" s="310"/>
-      <c r="G45" s="321"/>
-      <c r="H45" s="321"/>
+      <c r="G45" s="317"/>
+      <c r="H45" s="317"/>
       <c r="I45" s="313" t="str">
         <f>I19</f>
         <v>А.Д. Гавриленко</v>
@@ -8945,18 +8346,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="H31:J31"/>
@@ -8967,508 +8384,20 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K44"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="309" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="309"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E2" s="310" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E3" s="310" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E4" s="310" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E6" s="377"/>
-      <c r="F6" s="377"/>
-      <c r="G6" s="310" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E8" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="312"/>
-      <c r="G8" s="310" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="419" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="419"/>
-      <c r="C11" s="419"/>
-      <c r="D11" s="419"/>
-      <c r="E11" s="419"/>
-      <c r="F11" s="419"/>
-      <c r="G11" s="419"/>
-      <c r="H11" s="419"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="419"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="420" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="420"/>
-      <c r="C12" s="420"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="420"/>
-      <c r="F12" s="420"/>
-      <c r="G12" s="420"/>
-      <c r="H12" s="420"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="420"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="420" t="str">
-        <f>'Акт приемки'!A13:J13</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="B13" s="420"/>
-      <c r="C13" s="420"/>
-      <c r="D13" s="420"/>
-      <c r="E13" s="420"/>
-      <c r="F13" s="420"/>
-      <c r="G13" s="420"/>
-      <c r="H13" s="420"/>
-      <c r="I13" s="420"/>
-      <c r="J13" s="420"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="313" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="313"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="313"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="315">
-        <f>'Акт приемки'!H15</f>
-        <v>43741</v>
-      </c>
-      <c r="I15" s="313"/>
-      <c r="J15" s="314"/>
-    </row>
-    <row r="16" spans="1:10" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="329" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="313"/>
-      <c r="C16" s="313"/>
-      <c r="D16" s="313"/>
-      <c r="E16" s="313"/>
-      <c r="F16" s="313"/>
-      <c r="G16" s="313"/>
-      <c r="H16" s="313"/>
-      <c r="I16" s="313"/>
-      <c r="J16" s="314"/>
-    </row>
-    <row r="17" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="328" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="329" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="329"/>
-      <c r="D17" s="330" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="329"/>
-      <c r="F17" s="329"/>
-      <c r="H17" s="329"/>
-      <c r="I17" s="329" t="str">
-        <f>'Акт приемки'!I17</f>
-        <v>Я.В. Карчмит</v>
-      </c>
-      <c r="J17" s="314"/>
-    </row>
-    <row r="18" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="328" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="329" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="329"/>
-      <c r="D18" s="330" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="329"/>
-      <c r="F18" s="329"/>
-      <c r="G18" s="329"/>
-      <c r="I18" s="329" t="str">
-        <f>'Акт приемки'!I18</f>
-        <v>Д.Е. Серков</v>
-      </c>
-      <c r="J18" s="314"/>
-    </row>
-    <row r="19" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="329"/>
-      <c r="B19" s="329"/>
-      <c r="C19" s="329"/>
-      <c r="D19" s="329" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="329"/>
-      <c r="F19" s="329"/>
-      <c r="G19" s="329"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329" t="str">
-        <f>'Акт приемки'!I19</f>
-        <v>А.Д. Гавриленко</v>
-      </c>
-      <c r="J19" s="314"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="317"/>
-      <c r="B20" s="317"/>
-      <c r="C20" s="317"/>
-      <c r="D20" s="317"/>
-      <c r="E20" s="317"/>
-      <c r="F20" s="317"/>
-      <c r="G20" s="317"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="317"/>
-      <c r="J20" s="318"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="418" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="418"/>
-      <c r="C21" s="418"/>
-      <c r="D21" s="418"/>
-      <c r="E21" s="418"/>
-      <c r="F21" s="418"/>
-      <c r="G21" s="418"/>
-      <c r="H21" s="418"/>
-      <c r="I21" s="418"/>
-      <c r="J21" s="418"/>
-      <c r="K21" s="319"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="418"/>
-      <c r="B22" s="418"/>
-      <c r="C22" s="418"/>
-      <c r="D22" s="418"/>
-      <c r="E22" s="418"/>
-      <c r="F22" s="418"/>
-      <c r="G22" s="418"/>
-      <c r="H22" s="418"/>
-      <c r="I22" s="418"/>
-      <c r="J22" s="418"/>
-      <c r="K22" s="319"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="418"/>
-      <c r="B23" s="418"/>
-      <c r="C23" s="418"/>
-      <c r="D23" s="418"/>
-      <c r="E23" s="418"/>
-      <c r="F23" s="418"/>
-      <c r="G23" s="418"/>
-      <c r="H23" s="418"/>
-      <c r="I23" s="418"/>
-      <c r="J23" s="418"/>
-      <c r="K23" s="319"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="418"/>
-      <c r="B24" s="418"/>
-      <c r="C24" s="418"/>
-      <c r="D24" s="418"/>
-      <c r="E24" s="418"/>
-      <c r="F24" s="418"/>
-      <c r="G24" s="418"/>
-      <c r="H24" s="418"/>
-      <c r="I24" s="418"/>
-      <c r="J24" s="418"/>
-      <c r="K24" s="319"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="418"/>
-      <c r="B25" s="418"/>
-      <c r="C25" s="418"/>
-      <c r="D25" s="418"/>
-      <c r="E25" s="418"/>
-      <c r="F25" s="418"/>
-      <c r="G25" s="418"/>
-      <c r="H25" s="418"/>
-      <c r="I25" s="418"/>
-      <c r="J25" s="418"/>
-      <c r="K25" s="319"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="418"/>
-      <c r="B26" s="418"/>
-      <c r="C26" s="418"/>
-      <c r="D26" s="418"/>
-      <c r="E26" s="418"/>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="418"/>
-      <c r="I26" s="418"/>
-      <c r="J26" s="418"/>
-      <c r="K26" s="319"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="319"/>
-      <c r="B27" s="319"/>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
-      <c r="E27" s="319"/>
-      <c r="F27" s="319"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="319"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="319"/>
-      <c r="K27" s="319"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="313"/>
-      <c r="B28" s="313"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="313"/>
-      <c r="F28" s="313"/>
-      <c r="G28" s="313"/>
-      <c r="H28" s="313"/>
-      <c r="I28" s="313"/>
-      <c r="J28" s="314"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="313"/>
-      <c r="B29" s="313"/>
-      <c r="C29" s="313"/>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="313"/>
-      <c r="I29" s="313"/>
-      <c r="J29" s="314"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="313"/>
-      <c r="B30" s="313"/>
-      <c r="C30" s="313"/>
-      <c r="D30" s="313"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="313"/>
-      <c r="G30" s="313"/>
-      <c r="H30" s="313"/>
-      <c r="I30" s="313"/>
-      <c r="J30" s="314"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="313"/>
-      <c r="B31" s="320"/>
-      <c r="C31" s="313"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="313"/>
-      <c r="I31" s="313"/>
-      <c r="J31" s="314"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="313"/>
-      <c r="B32" s="313"/>
-      <c r="C32" s="313"/>
-      <c r="D32" s="313"/>
-      <c r="E32" s="313"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="313"/>
-      <c r="I32" s="313"/>
-      <c r="J32" s="314"/>
-    </row>
-    <row r="33" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="313"/>
-      <c r="B33" s="313"/>
-      <c r="C33" s="313"/>
-      <c r="D33" s="313"/>
-      <c r="G33" s="321"/>
-      <c r="H33" s="321"/>
-      <c r="I33" s="316" t="str">
-        <f>I17</f>
-        <v>Я.В. Карчмит</v>
-      </c>
-      <c r="J33" s="313"/>
-    </row>
-    <row r="34" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="313"/>
-      <c r="B34" s="313"/>
-      <c r="C34" s="313"/>
-      <c r="D34" s="313"/>
-      <c r="G34" s="313"/>
-      <c r="H34" s="313"/>
-      <c r="I34" s="313"/>
-      <c r="J34" s="313"/>
-    </row>
-    <row r="35" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="313"/>
-      <c r="B35" s="313"/>
-      <c r="C35" s="313"/>
-      <c r="D35" s="313"/>
-      <c r="G35" s="377"/>
-      <c r="H35" s="377"/>
-      <c r="I35" s="316" t="str">
-        <f>I18</f>
-        <v>Д.Е. Серков</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="310"/>
-      <c r="B36" s="310"/>
-      <c r="C36" s="310"/>
-      <c r="D36" s="310"/>
-    </row>
-    <row r="37" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G37" s="376" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="313"/>
-      <c r="I37" s="313" t="str">
-        <f>I19</f>
-        <v>А.Д. Гавриленко</v>
-      </c>
-      <c r="J37" s="313"/>
-      <c r="K37" s="313"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G38" s="313"/>
-      <c r="H38" s="313"/>
-      <c r="I38" s="313"/>
-      <c r="J38" s="313"/>
-      <c r="K38" s="313"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F39" s="322"/>
-      <c r="G39" s="322"/>
-      <c r="H39" s="322"/>
-      <c r="I39" s="322"/>
-    </row>
-    <row r="40" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="310"/>
-      <c r="B40" s="310"/>
-      <c r="C40" s="310"/>
-      <c r="D40" s="310"/>
-      <c r="E40" s="310"/>
-      <c r="F40" s="322"/>
-      <c r="G40" s="322"/>
-      <c r="H40" s="317"/>
-      <c r="I40" s="317"/>
-      <c r="J40" s="313"/>
-    </row>
-    <row r="41" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="310"/>
-      <c r="B41" s="310"/>
-      <c r="C41" s="310"/>
-      <c r="D41" s="310"/>
-      <c r="E41" s="310"/>
-      <c r="F41" s="322"/>
-      <c r="G41" s="323"/>
-      <c r="H41" s="323"/>
-      <c r="I41" s="323"/>
-      <c r="J41" s="310"/>
-    </row>
-    <row r="42" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="310"/>
-      <c r="B42" s="310"/>
-      <c r="C42" s="310"/>
-      <c r="D42" s="310"/>
-      <c r="E42" s="310"/>
-      <c r="F42" s="323"/>
-      <c r="G42" s="322"/>
-      <c r="H42" s="317"/>
-      <c r="I42" s="317"/>
-      <c r="J42" s="310"/>
-    </row>
-    <row r="43" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="F43" s="322"/>
-      <c r="G43" s="322"/>
-      <c r="H43" s="323"/>
-      <c r="I43" s="322"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F44" s="322"/>
-      <c r="G44" s="322"/>
-      <c r="H44" s="322"/>
-      <c r="I44" s="322"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A21:J26"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
@@ -9515,47 +8444,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="430" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="437" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="438"/>
-      <c r="K2" s="441">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="442"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="433"/>
-      <c r="Q2" s="433"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="434" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="436"/>
-      <c r="I3" s="439"/>
-      <c r="J3" s="440"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="444"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9566,9 +8495,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="427"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="429"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9587,22 +8516,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="449"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="423"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="451"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9613,22 +8542,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="452"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="426"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="450"/>
-      <c r="J6" s="451"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9639,27 +8568,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="456"/>
-      <c r="D7" s="407">
+      <c r="C7" s="430"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="455" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="459"/>
-      <c r="K7" s="395">
+      <c r="J7" s="433"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9713,13 +8642,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="333"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="334"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="327"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="327"/>
+      <c r="P9" s="327"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="328"/>
       <c r="S9" s="199"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9746,13 +8675,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="335"/>
-      <c r="R10" s="336"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
+      <c r="Q10" s="329"/>
+      <c r="R10" s="330"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9760,7 +8689,7 @@
       <c r="B11" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="325">
         <v>136.19999999999999</v>
       </c>
       <c r="D11" s="98">
@@ -9779,13 +8708,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="337"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="338"/>
+      <c r="L11" s="331"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="332"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9812,13 +8741,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
-      <c r="O12" s="337"/>
-      <c r="P12" s="337"/>
-      <c r="Q12" s="337"/>
-      <c r="R12" s="338"/>
+      <c r="L12" s="331"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="331"/>
+      <c r="O12" s="331"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="331"/>
+      <c r="R12" s="332"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9826,7 +8755,7 @@
       <c r="B13" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="325">
         <v>5</v>
       </c>
       <c r="D13" s="98">
@@ -9845,13 +8774,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="337"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
-      <c r="O13" s="337"/>
-      <c r="P13" s="337"/>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="338"/>
+      <c r="L13" s="331"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="331"/>
+      <c r="O13" s="331"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="331"/>
+      <c r="R13" s="332"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9859,7 +8788,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="331">
+      <c r="C14" s="325">
         <v>10</v>
       </c>
       <c r="D14" s="98">
@@ -9878,13 +8807,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="337"/>
-      <c r="M14" s="337"/>
-      <c r="N14" s="337"/>
-      <c r="O14" s="337"/>
-      <c r="P14" s="337"/>
-      <c r="Q14" s="337"/>
-      <c r="R14" s="338"/>
+      <c r="L14" s="331"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="331"/>
+      <c r="O14" s="331"/>
+      <c r="P14" s="331"/>
+      <c r="Q14" s="331"/>
+      <c r="R14" s="332"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9892,7 +8821,7 @@
       <c r="B15" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="325">
         <v>114.2</v>
       </c>
       <c r="D15" s="98">
@@ -9911,13 +8840,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="337"/>
-      <c r="M15" s="337"/>
-      <c r="N15" s="337"/>
-      <c r="O15" s="337"/>
-      <c r="P15" s="337"/>
-      <c r="Q15" s="337"/>
-      <c r="R15" s="338"/>
+      <c r="L15" s="331"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="331"/>
+      <c r="O15" s="331"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="331"/>
+      <c r="R15" s="332"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9944,13 +8873,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="337"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="337"/>
-      <c r="O16" s="337"/>
-      <c r="P16" s="337"/>
-      <c r="Q16" s="337"/>
-      <c r="R16" s="338"/>
+      <c r="L16" s="331"/>
+      <c r="M16" s="331"/>
+      <c r="N16" s="331"/>
+      <c r="O16" s="331"/>
+      <c r="P16" s="331"/>
+      <c r="Q16" s="331"/>
+      <c r="R16" s="332"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9958,7 +8887,7 @@
       <c r="B17" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="331">
+      <c r="C17" s="325">
         <v>136.19999999999999</v>
       </c>
       <c r="D17" s="98">
@@ -9977,13 +8906,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="337"/>
-      <c r="M17" s="337"/>
-      <c r="N17" s="337"/>
-      <c r="O17" s="337"/>
-      <c r="P17" s="337"/>
-      <c r="Q17" s="337"/>
-      <c r="R17" s="338"/>
+      <c r="L17" s="331"/>
+      <c r="M17" s="331"/>
+      <c r="N17" s="331"/>
+      <c r="O17" s="331"/>
+      <c r="P17" s="331"/>
+      <c r="Q17" s="331"/>
+      <c r="R17" s="332"/>
       <c r="S17" s="86"/>
     </row>
     <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -10010,13 +8939,13 @@
       <c r="I18" s="106"/>
       <c r="J18" s="106"/>
       <c r="K18" s="106"/>
-      <c r="L18" s="339"/>
-      <c r="M18" s="339"/>
-      <c r="N18" s="339"/>
-      <c r="O18" s="339"/>
-      <c r="P18" s="339"/>
-      <c r="Q18" s="339"/>
-      <c r="R18" s="340"/>
+      <c r="L18" s="333"/>
+      <c r="M18" s="333"/>
+      <c r="N18" s="333"/>
+      <c r="O18" s="333"/>
+      <c r="P18" s="333"/>
+      <c r="Q18" s="333"/>
+      <c r="R18" s="334"/>
       <c r="S18" s="86"/>
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10043,13 +8972,13 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="339"/>
-      <c r="N19" s="339"/>
-      <c r="O19" s="339"/>
-      <c r="P19" s="339"/>
-      <c r="Q19" s="339"/>
-      <c r="R19" s="340"/>
+      <c r="L19" s="333"/>
+      <c r="M19" s="333"/>
+      <c r="N19" s="333"/>
+      <c r="O19" s="333"/>
+      <c r="P19" s="333"/>
+      <c r="Q19" s="333"/>
+      <c r="R19" s="334"/>
       <c r="S19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10058,7 +8987,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D20" s="106">
         <v>0.05</v>
@@ -10076,13 +9005,13 @@
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
       <c r="K20" s="106"/>
-      <c r="L20" s="339"/>
-      <c r="M20" s="339"/>
-      <c r="N20" s="339"/>
-      <c r="O20" s="339"/>
-      <c r="P20" s="339"/>
-      <c r="Q20" s="339"/>
-      <c r="R20" s="340"/>
+      <c r="L20" s="333"/>
+      <c r="M20" s="333"/>
+      <c r="N20" s="333"/>
+      <c r="O20" s="333"/>
+      <c r="P20" s="333"/>
+      <c r="Q20" s="333"/>
+      <c r="R20" s="334"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -10090,7 +9019,7 @@
       <c r="B21" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="332">
+      <c r="C21" s="326">
         <v>0.2</v>
       </c>
       <c r="D21" s="106">
@@ -10109,13 +9038,13 @@
       <c r="I21" s="106"/>
       <c r="J21" s="106"/>
       <c r="K21" s="106"/>
-      <c r="L21" s="339"/>
-      <c r="M21" s="339"/>
-      <c r="N21" s="339"/>
-      <c r="O21" s="339"/>
-      <c r="P21" s="339"/>
-      <c r="Q21" s="339"/>
-      <c r="R21" s="340"/>
+      <c r="L21" s="333"/>
+      <c r="M21" s="333"/>
+      <c r="N21" s="333"/>
+      <c r="O21" s="333"/>
+      <c r="P21" s="333"/>
+      <c r="Q21" s="333"/>
+      <c r="R21" s="334"/>
       <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -10123,7 +9052,7 @@
       <c r="B22" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="332">
+      <c r="C22" s="326">
         <v>0.2</v>
       </c>
       <c r="D22" s="106">
@@ -10142,23 +9071,23 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
       <c r="K22" s="106"/>
-      <c r="L22" s="339"/>
-      <c r="M22" s="339"/>
-      <c r="N22" s="339"/>
-      <c r="O22" s="339"/>
-      <c r="P22" s="339"/>
-      <c r="Q22" s="339"/>
-      <c r="R22" s="340"/>
+      <c r="L22" s="333"/>
+      <c r="M22" s="333"/>
+      <c r="N22" s="333"/>
+      <c r="O22" s="333"/>
+      <c r="P22" s="333"/>
+      <c r="Q22" s="333"/>
+      <c r="R22" s="334"/>
       <c r="S22" s="86"/>
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="460" t="s">
+      <c r="B23" s="434" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="461"/>
-      <c r="D23" s="461"/>
-      <c r="E23" s="462"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="435"/>
+      <c r="E23" s="436"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -10169,23 +9098,23 @@
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
       <c r="K23" s="106"/>
-      <c r="L23" s="339"/>
-      <c r="M23" s="339"/>
-      <c r="N23" s="339"/>
-      <c r="O23" s="339"/>
-      <c r="P23" s="339"/>
-      <c r="Q23" s="339"/>
-      <c r="R23" s="340"/>
+      <c r="L23" s="333"/>
+      <c r="M23" s="333"/>
+      <c r="N23" s="333"/>
+      <c r="O23" s="333"/>
+      <c r="P23" s="333"/>
+      <c r="Q23" s="333"/>
+      <c r="R23" s="334"/>
       <c r="S23" s="86"/>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="445" t="s">
+      <c r="B24" s="419" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="446"/>
-      <c r="D24" s="446"/>
-      <c r="E24" s="447"/>
+      <c r="C24" s="420"/>
+      <c r="D24" s="420"/>
+      <c r="E24" s="421"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -10196,13 +9125,13 @@
       <c r="I24" s="110"/>
       <c r="J24" s="110"/>
       <c r="K24" s="110"/>
-      <c r="L24" s="341"/>
-      <c r="M24" s="341"/>
-      <c r="N24" s="341"/>
-      <c r="O24" s="341"/>
-      <c r="P24" s="341"/>
-      <c r="Q24" s="341"/>
-      <c r="R24" s="342"/>
+      <c r="L24" s="335"/>
+      <c r="M24" s="335"/>
+      <c r="N24" s="335"/>
+      <c r="O24" s="335"/>
+      <c r="P24" s="335"/>
+      <c r="Q24" s="335"/>
+      <c r="R24" s="336"/>
       <c r="S24" s="86"/>
     </row>
     <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10229,6 +9158,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -10243,12 +9178,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -10267,11 +9196,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -10314,50 +9243,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="463">
+      <c r="B2" s="468">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="483"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="433"/>
-      <c r="Q2" s="433"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10368,9 +9297,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -10389,22 +9318,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10415,22 +9344,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10441,27 +9370,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -10515,13 +9444,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="333"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="334"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="327"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="327"/>
+      <c r="P9" s="327"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="328"/>
       <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -10548,13 +9477,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="335"/>
-      <c r="R10" s="336"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
+      <c r="Q10" s="329"/>
+      <c r="R10" s="330"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10562,7 +9491,7 @@
       <c r="B11" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="325">
         <v>25.5</v>
       </c>
       <c r="D11" s="98">
@@ -10581,13 +9510,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="337"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="338"/>
+      <c r="L11" s="331"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="332"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10595,7 +9524,7 @@
       <c r="B12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="331">
+      <c r="C12" s="325">
         <v>20</v>
       </c>
       <c r="D12" s="98">
@@ -10614,13 +9543,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
-      <c r="O12" s="337"/>
-      <c r="P12" s="337"/>
-      <c r="Q12" s="337"/>
-      <c r="R12" s="338"/>
+      <c r="L12" s="331"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="331"/>
+      <c r="O12" s="331"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="331"/>
+      <c r="R12" s="332"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10628,7 +9557,7 @@
       <c r="B13" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="325">
         <v>45.4</v>
       </c>
       <c r="D13" s="98">
@@ -10647,48 +9576,48 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="337"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
-      <c r="O13" s="337"/>
-      <c r="P13" s="337"/>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="338"/>
+      <c r="L13" s="331"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="331"/>
+      <c r="O13" s="331"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="331"/>
+      <c r="R13" s="332"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="460" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="461"/>
-      <c r="D14" s="461"/>
-      <c r="E14" s="461"/>
-      <c r="F14" s="492"/>
+      <c r="B14" s="434" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="435"/>
+      <c r="D14" s="435"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="467"/>
       <c r="G14" s="56" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" s="107"/>
       <c r="I14" s="106"/>
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
-      <c r="L14" s="339"/>
-      <c r="M14" s="339"/>
-      <c r="N14" s="339"/>
-      <c r="O14" s="339"/>
-      <c r="P14" s="339"/>
-      <c r="Q14" s="339"/>
-      <c r="R14" s="340"/>
+      <c r="L14" s="333"/>
+      <c r="M14" s="333"/>
+      <c r="N14" s="333"/>
+      <c r="O14" s="333"/>
+      <c r="P14" s="333"/>
+      <c r="Q14" s="333"/>
+      <c r="R14" s="334"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="445" t="s">
+      <c r="B15" s="419" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="446"/>
-      <c r="D15" s="446"/>
-      <c r="E15" s="447"/>
+      <c r="C15" s="420"/>
+      <c r="D15" s="420"/>
+      <c r="E15" s="421"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -10699,13 +9628,13 @@
       <c r="I15" s="110"/>
       <c r="J15" s="110"/>
       <c r="K15" s="110"/>
-      <c r="L15" s="341"/>
-      <c r="M15" s="341"/>
-      <c r="N15" s="341"/>
-      <c r="O15" s="341"/>
-      <c r="P15" s="341"/>
-      <c r="Q15" s="341"/>
-      <c r="R15" s="342"/>
+      <c r="L15" s="335"/>
+      <c r="M15" s="335"/>
+      <c r="N15" s="335"/>
+      <c r="O15" s="335"/>
+      <c r="P15" s="335"/>
+      <c r="Q15" s="335"/>
+      <c r="R15" s="336"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10739,6 +9668,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -10753,12 +9688,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -10785,7 +9714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
@@ -10832,47 +9761,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="430" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="437" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="438"/>
-      <c r="K2" s="441">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="442"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="433"/>
-      <c r="Q2" s="433"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="434" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="436"/>
-      <c r="I3" s="439"/>
-      <c r="J3" s="440"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="444"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10883,9 +9812,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="427"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="429"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10904,22 +9833,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="449"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="423"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="451"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10930,22 +9859,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="452"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="426"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="450"/>
-      <c r="J6" s="451"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10956,27 +9885,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="456"/>
-      <c r="D7" s="407">
+      <c r="C7" s="430"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="455" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="459"/>
-      <c r="K7" s="395">
+      <c r="J7" s="433"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11030,13 +9959,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="333"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="334"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="327"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="327"/>
+      <c r="P9" s="327"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="328"/>
       <c r="S9" s="90"/>
       <c r="V9" s="91"/>
       <c r="W9" s="91"/>
@@ -11066,13 +9995,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="335"/>
-      <c r="R10" s="336"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
+      <c r="Q10" s="329"/>
+      <c r="R10" s="330"/>
       <c r="S10" s="86"/>
       <c r="V10" s="91"/>
       <c r="W10" s="91"/>
@@ -11083,7 +10012,7 @@
       <c r="B11" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="325">
         <v>5</v>
       </c>
       <c r="D11" s="98">
@@ -11102,13 +10031,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="337"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="338"/>
+      <c r="L11" s="331"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="332"/>
       <c r="S11" s="86"/>
       <c r="V11" s="91"/>
       <c r="W11" s="101"/>
@@ -11119,7 +10048,7 @@
       <c r="B12" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="331">
+      <c r="C12" s="325">
         <v>10</v>
       </c>
       <c r="D12" s="98">
@@ -11138,13 +10067,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
-      <c r="O12" s="337"/>
-      <c r="P12" s="337"/>
-      <c r="Q12" s="337"/>
-      <c r="R12" s="338"/>
+      <c r="L12" s="331"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="331"/>
+      <c r="O12" s="331"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="331"/>
+      <c r="R12" s="332"/>
       <c r="S12" s="86"/>
       <c r="V12" s="91"/>
       <c r="W12" s="102"/>
@@ -11155,7 +10084,7 @@
       <c r="B13" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="325">
         <v>109.1</v>
       </c>
       <c r="D13" s="98">
@@ -11174,13 +10103,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="337"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
-      <c r="O13" s="337"/>
-      <c r="P13" s="337"/>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="338"/>
+      <c r="L13" s="331"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="331"/>
+      <c r="O13" s="331"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="331"/>
+      <c r="R13" s="332"/>
       <c r="S13" s="86"/>
       <c r="V13" s="91"/>
       <c r="W13" s="102"/>
@@ -11210,13 +10139,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="337"/>
-      <c r="M14" s="337"/>
-      <c r="N14" s="337"/>
-      <c r="O14" s="337"/>
-      <c r="P14" s="337"/>
-      <c r="Q14" s="337"/>
-      <c r="R14" s="338"/>
+      <c r="L14" s="331"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="331"/>
+      <c r="O14" s="331"/>
+      <c r="P14" s="331"/>
+      <c r="Q14" s="331"/>
+      <c r="R14" s="332"/>
       <c r="S14" s="86"/>
       <c r="V14" s="91"/>
       <c r="W14" s="102"/>
@@ -11227,7 +10156,7 @@
       <c r="B15" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="325">
         <v>136.19999999999999</v>
       </c>
       <c r="D15" s="98">
@@ -11246,13 +10175,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="337"/>
-      <c r="M15" s="337"/>
-      <c r="N15" s="337"/>
-      <c r="O15" s="337"/>
-      <c r="P15" s="337"/>
-      <c r="Q15" s="337"/>
-      <c r="R15" s="338"/>
+      <c r="L15" s="331"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="331"/>
+      <c r="O15" s="331"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="331"/>
+      <c r="R15" s="332"/>
       <c r="S15" s="86"/>
       <c r="V15" s="91"/>
       <c r="W15" s="101"/>
@@ -11263,7 +10192,7 @@
       <c r="B16" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="331">
+      <c r="C16" s="325">
         <v>75.400000000000006</v>
       </c>
       <c r="D16" s="98">
@@ -11282,13 +10211,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="337"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="337"/>
-      <c r="O16" s="337"/>
-      <c r="P16" s="337"/>
-      <c r="Q16" s="337"/>
-      <c r="R16" s="338"/>
+      <c r="L16" s="331"/>
+      <c r="M16" s="331"/>
+      <c r="N16" s="331"/>
+      <c r="O16" s="331"/>
+      <c r="P16" s="331"/>
+      <c r="Q16" s="331"/>
+      <c r="R16" s="332"/>
       <c r="S16" s="86"/>
       <c r="V16" s="91"/>
       <c r="W16" s="102"/>
@@ -11318,13 +10247,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="337"/>
-      <c r="M17" s="337"/>
-      <c r="N17" s="337"/>
-      <c r="O17" s="337"/>
-      <c r="P17" s="337"/>
-      <c r="Q17" s="337"/>
-      <c r="R17" s="338"/>
+      <c r="L17" s="331"/>
+      <c r="M17" s="331"/>
+      <c r="N17" s="331"/>
+      <c r="O17" s="331"/>
+      <c r="P17" s="331"/>
+      <c r="Q17" s="331"/>
+      <c r="R17" s="332"/>
       <c r="S17" s="86"/>
       <c r="V17" s="91"/>
       <c r="W17" s="101"/>
@@ -11354,13 +10283,13 @@
       <c r="I18" s="98"/>
       <c r="J18" s="98"/>
       <c r="K18" s="98"/>
-      <c r="L18" s="337"/>
-      <c r="M18" s="337"/>
-      <c r="N18" s="337"/>
-      <c r="O18" s="337"/>
-      <c r="P18" s="337"/>
-      <c r="Q18" s="337"/>
-      <c r="R18" s="338"/>
+      <c r="L18" s="331"/>
+      <c r="M18" s="331"/>
+      <c r="N18" s="331"/>
+      <c r="O18" s="331"/>
+      <c r="P18" s="331"/>
+      <c r="Q18" s="331"/>
+      <c r="R18" s="332"/>
       <c r="S18" s="86"/>
       <c r="V18" s="91"/>
       <c r="W18" s="101"/>
@@ -11371,7 +10300,7 @@
       <c r="B19" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="370">
+      <c r="C19" s="364">
         <v>65.2</v>
       </c>
       <c r="D19" s="106">
@@ -11390,13 +10319,13 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="339"/>
-      <c r="N19" s="339"/>
-      <c r="O19" s="339"/>
-      <c r="P19" s="339"/>
-      <c r="Q19" s="339"/>
-      <c r="R19" s="340"/>
+      <c r="L19" s="333"/>
+      <c r="M19" s="333"/>
+      <c r="N19" s="333"/>
+      <c r="O19" s="333"/>
+      <c r="P19" s="333"/>
+      <c r="Q19" s="333"/>
+      <c r="R19" s="334"/>
       <c r="S19" s="86"/>
       <c r="V19" s="91"/>
       <c r="W19" s="101"/>
@@ -11407,7 +10336,7 @@
       <c r="B20" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="332">
+      <c r="C20" s="326">
         <v>0.2</v>
       </c>
       <c r="D20" s="106">
@@ -11426,13 +10355,13 @@
       <c r="I20" s="110"/>
       <c r="J20" s="110"/>
       <c r="K20" s="110"/>
-      <c r="L20" s="341"/>
-      <c r="M20" s="341"/>
-      <c r="N20" s="341"/>
-      <c r="O20" s="341"/>
-      <c r="P20" s="341"/>
-      <c r="Q20" s="341"/>
-      <c r="R20" s="342"/>
+      <c r="L20" s="335"/>
+      <c r="M20" s="335"/>
+      <c r="N20" s="335"/>
+      <c r="O20" s="335"/>
+      <c r="P20" s="335"/>
+      <c r="Q20" s="335"/>
+      <c r="R20" s="336"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11459,7 +10388,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
@@ -11477,6 +10405,7 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -11497,7 +10426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -11544,47 +10473,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="430" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="437" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="438"/>
-      <c r="K2" s="441">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="442"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
+      <c r="P2" s="491"/>
+      <c r="Q2" s="491"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="434" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="436"/>
-      <c r="I3" s="439"/>
-      <c r="J3" s="440"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="444"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -11595,9 +10524,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="427"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="429"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11616,22 +10545,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="449"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="423"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="451"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -11642,22 +10571,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="452"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="426"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="450"/>
-      <c r="J6" s="451"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -11668,27 +10597,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="456"/>
-      <c r="D7" s="407">
+      <c r="C7" s="430"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="455" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="459"/>
-      <c r="K7" s="395">
+      <c r="J7" s="433"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -11742,13 +10671,13 @@
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="343"/>
-      <c r="M9" s="343"/>
-      <c r="N9" s="343"/>
-      <c r="O9" s="343"/>
-      <c r="P9" s="343"/>
-      <c r="Q9" s="343"/>
-      <c r="R9" s="344"/>
+      <c r="L9" s="337"/>
+      <c r="M9" s="337"/>
+      <c r="N9" s="337"/>
+      <c r="O9" s="337"/>
+      <c r="P9" s="337"/>
+      <c r="Q9" s="337"/>
+      <c r="R9" s="338"/>
       <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -11775,13 +10704,13 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="345"/>
-      <c r="M10" s="345"/>
-      <c r="N10" s="345"/>
-      <c r="O10" s="345"/>
-      <c r="P10" s="345"/>
-      <c r="Q10" s="345"/>
-      <c r="R10" s="346"/>
+      <c r="L10" s="339"/>
+      <c r="M10" s="339"/>
+      <c r="N10" s="339"/>
+      <c r="O10" s="339"/>
+      <c r="P10" s="339"/>
+      <c r="Q10" s="339"/>
+      <c r="R10" s="340"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11808,13 +10737,13 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="345"/>
-      <c r="M11" s="345"/>
-      <c r="N11" s="345"/>
-      <c r="O11" s="345"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="346"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="339"/>
+      <c r="N11" s="339"/>
+      <c r="O11" s="339"/>
+      <c r="P11" s="339"/>
+      <c r="Q11" s="339"/>
+      <c r="R11" s="340"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11822,7 +10751,7 @@
       <c r="B12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="349">
+      <c r="C12" s="343">
         <v>57</v>
       </c>
       <c r="D12" s="44">
@@ -11841,13 +10770,13 @@
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="345"/>
-      <c r="N12" s="345"/>
-      <c r="O12" s="345"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="346"/>
+      <c r="L12" s="339"/>
+      <c r="M12" s="339"/>
+      <c r="N12" s="339"/>
+      <c r="O12" s="339"/>
+      <c r="P12" s="339"/>
+      <c r="Q12" s="339"/>
+      <c r="R12" s="340"/>
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11855,7 +10784,7 @@
       <c r="B13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="349">
+      <c r="C13" s="343">
         <v>50</v>
       </c>
       <c r="D13" s="44">
@@ -11874,13 +10803,13 @@
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="345"/>
-      <c r="M13" s="345"/>
-      <c r="N13" s="345"/>
-      <c r="O13" s="345"/>
-      <c r="P13" s="345"/>
-      <c r="Q13" s="345"/>
-      <c r="R13" s="346"/>
+      <c r="L13" s="339"/>
+      <c r="M13" s="339"/>
+      <c r="N13" s="339"/>
+      <c r="O13" s="339"/>
+      <c r="P13" s="339"/>
+      <c r="Q13" s="339"/>
+      <c r="R13" s="340"/>
       <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11888,7 +10817,7 @@
       <c r="B14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="349">
+      <c r="C14" s="343">
         <v>62</v>
       </c>
       <c r="D14" s="44">
@@ -11907,13 +10836,13 @@
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
-      <c r="L14" s="345"/>
-      <c r="M14" s="345"/>
-      <c r="N14" s="345"/>
-      <c r="O14" s="345"/>
-      <c r="P14" s="345"/>
-      <c r="Q14" s="345"/>
-      <c r="R14" s="346"/>
+      <c r="L14" s="339"/>
+      <c r="M14" s="339"/>
+      <c r="N14" s="339"/>
+      <c r="O14" s="339"/>
+      <c r="P14" s="339"/>
+      <c r="Q14" s="339"/>
+      <c r="R14" s="340"/>
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11921,7 +10850,7 @@
       <c r="B15" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="350">
+      <c r="C15" s="344">
         <v>12.7</v>
       </c>
       <c r="D15" s="49">
@@ -11940,13 +10869,13 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
-      <c r="L15" s="347"/>
-      <c r="M15" s="347"/>
-      <c r="N15" s="347"/>
-      <c r="O15" s="347"/>
-      <c r="P15" s="347"/>
-      <c r="Q15" s="347"/>
-      <c r="R15" s="348"/>
+      <c r="L15" s="341"/>
+      <c r="M15" s="341"/>
+      <c r="N15" s="341"/>
+      <c r="O15" s="341"/>
+      <c r="P15" s="341"/>
+      <c r="Q15" s="341"/>
+      <c r="R15" s="342"/>
       <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11973,6 +10902,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11980,17 +10920,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -12012,7 +10941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12062,60 +10991,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="483"/>
-      <c r="M2" s="494"/>
-      <c r="N2" s="495"/>
-      <c r="O2" s="495"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
+      <c r="L2" s="488"/>
+      <c r="M2" s="492"/>
+      <c r="N2" s="493"/>
+      <c r="O2" s="493"/>
+      <c r="P2" s="493"/>
+      <c r="Q2" s="493"/>
+      <c r="R2" s="494"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
-      <c r="M3" s="497"/>
-      <c r="N3" s="498"/>
-      <c r="O3" s="498"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="496"/>
+      <c r="P3" s="496"/>
+      <c r="Q3" s="496"/>
+      <c r="R3" s="497"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12124,95 +11053,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="497"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="498"/>
-      <c r="R4" s="499"/>
+      <c r="M4" s="495"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="496"/>
+      <c r="R4" s="497"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="497"/>
-      <c r="N5" s="498"/>
-      <c r="O5" s="498"/>
-      <c r="P5" s="498"/>
-      <c r="Q5" s="498"/>
-      <c r="R5" s="499"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="495"/>
+      <c r="N5" s="496"/>
+      <c r="O5" s="496"/>
+      <c r="P5" s="496"/>
+      <c r="Q5" s="496"/>
+      <c r="R5" s="497"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
-      <c r="M6" s="497"/>
-      <c r="N6" s="498"/>
-      <c r="O6" s="498"/>
-      <c r="P6" s="498"/>
-      <c r="Q6" s="498"/>
-      <c r="R6" s="499"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="495"/>
+      <c r="N6" s="496"/>
+      <c r="O6" s="496"/>
+      <c r="P6" s="496"/>
+      <c r="Q6" s="496"/>
+      <c r="R6" s="497"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
-      <c r="M7" s="497"/>
-      <c r="N7" s="498"/>
-      <c r="O7" s="498"/>
-      <c r="P7" s="498"/>
-      <c r="Q7" s="498"/>
-      <c r="R7" s="499"/>
+      <c r="L7" s="393"/>
+      <c r="M7" s="495"/>
+      <c r="N7" s="496"/>
+      <c r="O7" s="496"/>
+      <c r="P7" s="496"/>
+      <c r="Q7" s="496"/>
+      <c r="R7" s="497"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12274,7 +11203,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="351">
+      <c r="C10" s="345">
         <v>75.400000000000006</v>
       </c>
       <c r="D10" s="93">
@@ -12373,7 +11302,7 @@
       <c r="B13" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="352">
+      <c r="C13" s="346">
         <v>38.1</v>
       </c>
       <c r="D13" s="133">
@@ -12406,7 +11335,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="331">
+      <c r="C14" s="325">
         <v>45.3</v>
       </c>
       <c r="D14" s="98">
@@ -12538,7 +11467,7 @@
       <c r="B18" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="331">
+      <c r="C18" s="325">
         <v>9.52</v>
       </c>
       <c r="D18" s="98">
@@ -12634,12 +11563,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="445" t="s">
+      <c r="B21" s="419" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="446"/>
-      <c r="D21" s="446"/>
-      <c r="E21" s="447"/>
+      <c r="C21" s="420"/>
+      <c r="D21" s="420"/>
+      <c r="E21" s="421"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -12685,13 +11614,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -12704,6 +11626,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -12722,7 +11651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -12768,47 +11697,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="483"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="500"/>
-      <c r="Q2" s="500"/>
+      <c r="P2" s="498"/>
+      <c r="Q2" s="498"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12819,9 +11748,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12840,22 +11769,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12866,22 +11795,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12892,27 +11821,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13046,7 +11975,7 @@
       <c r="B12" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="331">
+      <c r="C12" s="325">
         <v>28.6</v>
       </c>
       <c r="D12" s="98">
@@ -13079,7 +12008,7 @@
       <c r="B13" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="325">
         <v>62</v>
       </c>
       <c r="D13" s="98">
@@ -13145,7 +12074,7 @@
       <c r="B15" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="325">
         <v>9.5</v>
       </c>
       <c r="D15" s="98">
@@ -13175,12 +12104,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="445" t="s">
+      <c r="B16" s="419" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="446"/>
-      <c r="D16" s="446"/>
-      <c r="E16" s="447"/>
+      <c r="C16" s="420"/>
+      <c r="D16" s="420"/>
+      <c r="E16" s="421"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -13226,15 +12155,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -13245,6 +12165,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -13263,4 +12192,617 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
+    <col min="8" max="18" width="9" style="171" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="171"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="167"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="170"/>
+    </row>
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="172"/>
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
+        <f>Данные!B20</f>
+        <v>50</v>
+      </c>
+      <c r="L2" s="488"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="499"/>
+      <c r="Q2" s="499"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="177"/>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="172"/>
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="177"/>
+    </row>
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="172"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="177"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="172"/>
+      <c r="B5" s="422" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
+        <f>Данные!$A5</f>
+        <v>PCI</v>
+      </c>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="177"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="172"/>
+      <c r="B6" s="422" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
+        <f>Данные!$A2</f>
+        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
+      </c>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="177"/>
+    </row>
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="172"/>
+      <c r="B7" s="429" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
+        <f>Данные!$A8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
+        <f>Данные!$A11</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="393"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="177"/>
+    </row>
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="187"/>
+      <c r="S8" s="188"/>
+    </row>
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="189"/>
+      <c r="B9" s="256" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="257" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="258" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="259" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="260" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="347"/>
+      <c r="R9" s="349"/>
+      <c r="S9" s="204"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="182"/>
+      <c r="B10" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="192">
+        <v>70.72</v>
+      </c>
+      <c r="D10" s="192">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="192">
+        <v>-0.05</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="350" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="350"/>
+      <c r="P10" s="350"/>
+      <c r="Q10" s="350"/>
+      <c r="R10" s="351"/>
+      <c r="S10" s="188"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="182"/>
+      <c r="B11" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="194">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D11" s="194">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="194">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="352"/>
+      <c r="O11" s="352"/>
+      <c r="P11" s="352"/>
+      <c r="Q11" s="352"/>
+      <c r="R11" s="353"/>
+      <c r="S11" s="188"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="182"/>
+      <c r="B12" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="362">
+        <v>45.2</v>
+      </c>
+      <c r="D12" s="194">
+        <v>0</v>
+      </c>
+      <c r="E12" s="205">
+        <v>-0.1</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="352"/>
+      <c r="O12" s="352"/>
+      <c r="P12" s="352"/>
+      <c r="Q12" s="352"/>
+      <c r="R12" s="353"/>
+      <c r="S12" s="188"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="182"/>
+      <c r="B13" s="193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="362">
+        <v>37</v>
+      </c>
+      <c r="D13" s="194">
+        <v>0</v>
+      </c>
+      <c r="E13" s="194">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="352"/>
+      <c r="O13" s="352"/>
+      <c r="P13" s="352"/>
+      <c r="Q13" s="352"/>
+      <c r="R13" s="353"/>
+      <c r="S13" s="188"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="182"/>
+      <c r="B14" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="362">
+        <v>28.5</v>
+      </c>
+      <c r="D14" s="194">
+        <v>0</v>
+      </c>
+      <c r="E14" s="194">
+        <v>-0.1</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="352"/>
+      <c r="O14" s="352"/>
+      <c r="P14" s="352"/>
+      <c r="Q14" s="352"/>
+      <c r="R14" s="353"/>
+      <c r="S14" s="188"/>
+    </row>
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="182"/>
+      <c r="B15" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="362">
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="194">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="194">
+        <v>-0.05</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="352"/>
+      <c r="O15" s="352"/>
+      <c r="P15" s="352"/>
+      <c r="Q15" s="352"/>
+      <c r="R15" s="353"/>
+      <c r="S15" s="188"/>
+    </row>
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="182"/>
+      <c r="B16" s="193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="362">
+        <v>23.8</v>
+      </c>
+      <c r="D16" s="194">
+        <v>0</v>
+      </c>
+      <c r="E16" s="194">
+        <v>-0.05</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="352"/>
+      <c r="O16" s="352"/>
+      <c r="P16" s="352"/>
+      <c r="Q16" s="352"/>
+      <c r="R16" s="353"/>
+      <c r="S16" s="188"/>
+    </row>
+    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="182"/>
+      <c r="B17" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="194">
+        <v>34.92</v>
+      </c>
+      <c r="D17" s="194">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="194">
+        <v>0</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="352"/>
+      <c r="O17" s="352"/>
+      <c r="P17" s="352"/>
+      <c r="Q17" s="352"/>
+      <c r="R17" s="353"/>
+      <c r="S17" s="188"/>
+    </row>
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="182"/>
+      <c r="B18" s="193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="362">
+        <v>28.5</v>
+      </c>
+      <c r="D18" s="194">
+        <v>0</v>
+      </c>
+      <c r="E18" s="194">
+        <v>-0.03</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="352"/>
+      <c r="O18" s="352"/>
+      <c r="P18" s="352"/>
+      <c r="Q18" s="352"/>
+      <c r="R18" s="353"/>
+      <c r="S18" s="188"/>
+    </row>
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="195"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="196"/>
+      <c r="S19" s="198"/>
+    </row>
+    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R14:R15">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notBetween">
+      <formula>$C14+$D14</formula>
+      <formula>$C14+$E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="3"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="Воронка" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Черн. форма'!$A$1:$R$21</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="119">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Черновая форма</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>имеет в наличии следующие детали:</t>
   </si>
   <si>
-    <t>Полная высота 67,4 мм</t>
-  </si>
-  <si>
     <t>Штангенрейсмус</t>
   </si>
   <si>
@@ -365,52 +359,43 @@
     <t>ООО "Стеклозавод "Ведатранзит"</t>
   </si>
   <si>
-    <t>ХXI-В-28-1-200 (Бутылка 0.2 л.)</t>
+    <t>Трубка дутьевой головки</t>
   </si>
   <si>
-    <t>ХХI-В-28-1-200-5</t>
+    <t>ХXI-В-30-4А-500 (Байрон 0.5 л.)</t>
   </si>
   <si>
-    <t>49,4 / 48,4</t>
+    <t>В-30-4А-500</t>
   </si>
   <si>
-    <t>Чистовая форма (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>Принадлежность деталей формокомплекта</t>
   </si>
   <si>
-    <t>Поддон (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</t>
   </si>
   <si>
-    <t>Черновая форма (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>78 / 54</t>
   </si>
   <si>
-    <t>Пресс головка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>77,98 / 53,98</t>
   </si>
   <si>
-    <t>Горловое кольцо (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>Полная высота 52,5 мм</t>
   </si>
   <si>
-    <t>Направляющее кольцо (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>58,93 / 35,83</t>
   </si>
   <si>
-    <t>Плунжер (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>48 / 32</t>
   </si>
   <si>
-    <t>Втулка плунжера (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>59 / 36</t>
   </si>
   <si>
-    <t>Воронка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+    <t>Поддон</t>
   </si>
   <si>
-    <t>Дутьевая головка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Плита охлаждения (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Трубка дутьевой головки (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Трубка дутьевой головки</t>
+    <t>Пресс головка</t>
   </si>
 </sst>
 </file>
@@ -759,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -1843,9 +1828,38 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1854,7 +1868,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="528">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -2165,9 +2179,6 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2175,9 +2186,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2812,9 +2820,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -3005,20 +3010,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3068,34 +3077,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3366,6 +3420,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5622,10 +5691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5637,295 +5706,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="394" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="G1" s="374" t="s">
+      <c r="A1" s="392" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="G1" s="371" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="393" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="395"/>
+      <c r="G2" s="370" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="370" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="397" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="395" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="396"/>
-      <c r="C2" s="396"/>
-      <c r="D2" s="396"/>
-      <c r="E2" s="397"/>
-      <c r="G2" s="373" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="373" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="399" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="400"/>
-      <c r="C4" s="400"/>
-      <c r="D4" s="400"/>
-      <c r="E4" s="400"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="401" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="402"/>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="403"/>
+      <c r="A5" s="399" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="400"/>
+      <c r="C5" s="400"/>
+      <c r="D5" s="400"/>
+      <c r="E5" s="401"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="394" t="s">
+      <c r="A7" s="392" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="396"/>
+      <c r="C7" s="396"/>
+      <c r="D7" s="396"/>
+      <c r="E7" s="396"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="402"/>
+      <c r="B8" s="403"/>
+      <c r="C8" s="403"/>
+      <c r="D8" s="403"/>
+      <c r="E8" s="404"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="392" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="392"/>
+      <c r="C10" s="372"/>
+      <c r="D10" s="380" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="372"/>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="390"/>
+      <c r="B11" s="391"/>
+      <c r="D11" s="379">
+        <v>43753</v>
+      </c>
+      <c r="F11" s="405" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="405"/>
+      <c r="H11" s="405"/>
+      <c r="I11" s="405"/>
+      <c r="J11" s="406" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="406"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="405" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="398"/>
-      <c r="C7" s="398"/>
-      <c r="D7" s="398"/>
-      <c r="E7" s="398"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="404"/>
-      <c r="B8" s="405"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="405"/>
-      <c r="E8" s="406"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="394" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="394"/>
-      <c r="C10" s="375"/>
-      <c r="D10" s="383" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="375"/>
-      <c r="F10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="392"/>
-      <c r="B11" s="393"/>
-      <c r="D11" s="382">
-        <v>43741</v>
-      </c>
-      <c r="F11" s="407" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="407"/>
-      <c r="H11" s="407"/>
-      <c r="I11" s="407"/>
-      <c r="J11" s="408" t="s">
+      <c r="G12" s="405"/>
+      <c r="H12" s="405"/>
+      <c r="I12" s="405"/>
+      <c r="J12" s="406" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="406"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="373" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="374" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="384" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="405" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="405"/>
+      <c r="H13" s="405"/>
+      <c r="I13" s="405"/>
+      <c r="J13" s="406" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="408"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="407" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="407"/>
-      <c r="H12" s="407"/>
-      <c r="I12" s="407"/>
-      <c r="J12" s="408" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="408"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="376" t="s">
+      <c r="K13" s="406"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="375" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="376">
+        <v>22</v>
+      </c>
+      <c r="C14" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="375" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="376">
+        <v>22</v>
+      </c>
+      <c r="C15" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="375" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="376">
+        <v>26</v>
+      </c>
+      <c r="C16" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="375" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="376">
+        <v>26</v>
+      </c>
+      <c r="C17" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="375" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="376">
+        <v>50</v>
+      </c>
+      <c r="C18" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B19" s="376">
+        <v>50</v>
+      </c>
+      <c r="C19" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="375" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="376">
+        <v>40</v>
+      </c>
+      <c r="C20" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="375" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="376">
+        <v>20</v>
+      </c>
+      <c r="C21" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="375" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="389" t="s">
+      <c r="B22" s="382" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="382"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="375" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="376">
+        <v>18</v>
+      </c>
+      <c r="C23" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="375" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="376">
+        <v>8</v>
+      </c>
+      <c r="C24" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="375" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="382" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="382"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="377" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="378">
+        <v>18</v>
+      </c>
+      <c r="C26" s="382" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="377" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="407" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="407"/>
-      <c r="H13" s="407"/>
-      <c r="I13" s="407"/>
-      <c r="J13" s="408" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="408"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="378" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="379">
-        <v>24</v>
-      </c>
-      <c r="C14" s="385" t="s">
+      <c r="B27" s="383">
+        <v>18</v>
+      </c>
+      <c r="C27" s="385"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="381"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="389" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="378" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="379">
-        <v>24</v>
-      </c>
-      <c r="C15" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="378" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="379">
-        <v>32</v>
-      </c>
-      <c r="C16" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="378" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="379">
-        <v>32</v>
-      </c>
-      <c r="C17" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="378" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="379">
-        <v>60</v>
-      </c>
-      <c r="C18" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="378" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="379">
-        <v>60</v>
-      </c>
-      <c r="C19" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="378" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="379">
-        <v>50</v>
-      </c>
-      <c r="C20" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="378" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="379">
-        <v>20</v>
-      </c>
-      <c r="C21" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="378" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="385" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="385"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="378" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="379">
-        <v>20</v>
-      </c>
-      <c r="C23" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="378" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="379">
-        <v>8</v>
-      </c>
-      <c r="C24" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="378" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="385" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="385"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="380" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="381">
-        <v>20</v>
-      </c>
-      <c r="C26" s="385" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="380" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="387">
-        <v>18</v>
-      </c>
-      <c r="C27" s="390"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="384"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="391"/>
+      <c r="B29" s="389"/>
+      <c r="C29" s="389"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
@@ -5953,259 +6032,259 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="210" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="210" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="210" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="210" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="210" customWidth="1"/>
-    <col min="8" max="18" width="9" style="210" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="210" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="210"/>
+    <col min="1" max="1" width="1.33203125" style="208" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="208" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="208" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" style="208" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="208" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="208" customWidth="1"/>
+    <col min="8" max="18" width="9" style="208" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="208" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="208"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="206"/>
-      <c r="B1" s="207"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="209"/>
+      <c r="A1" s="204"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="207"/>
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="211"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="A2" s="209"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="490" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="492"/>
+      <c r="I2" s="496" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="497"/>
+      <c r="K2" s="500">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="488"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="503"/>
-      <c r="Q2" s="503"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="216"/>
+      <c r="L2" s="501"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="516"/>
+      <c r="Q2" s="516"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="211"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="216"/>
+      <c r="A3" s="209"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="493" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="499"/>
+      <c r="K3" s="502"/>
+      <c r="L3" s="503"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="214"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="211"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
-      <c r="P4" s="218"/>
-      <c r="Q4" s="218"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="216"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="216"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="214"/>
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="211"/>
-      <c r="B5" s="422" t="s">
+      <c r="A5" s="209"/>
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="474"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="218"/>
-      <c r="R5" s="219"/>
-      <c r="S5" s="216"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="477"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="214"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="211"/>
-      <c r="B6" s="422" t="s">
+      <c r="A6" s="209"/>
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="474"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
-      <c r="M6" s="217"/>
-      <c r="N6" s="218"/>
-      <c r="O6" s="218"/>
-      <c r="P6" s="218"/>
-      <c r="Q6" s="218"/>
-      <c r="R6" s="219"/>
-      <c r="S6" s="216"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="476"/>
+      <c r="K6" s="477"/>
+      <c r="L6" s="401"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="216"/>
+      <c r="R6" s="217"/>
+      <c r="S6" s="214"/>
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="211"/>
-      <c r="B7" s="429" t="s">
+      <c r="A7" s="209"/>
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="478"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="478"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="219"/>
-      <c r="S7" s="216"/>
+      <c r="L7" s="391"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="217"/>
+      <c r="S7" s="214"/>
     </row>
     <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="221"/>
-      <c r="B8" s="222"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="225"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="226"/>
-      <c r="S8" s="227"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="222"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="222"/>
+      <c r="P8" s="222"/>
+      <c r="Q8" s="222"/>
+      <c r="R8" s="224"/>
+      <c r="S8" s="225"/>
     </row>
     <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="228"/>
-      <c r="B9" s="256" t="s">
+      <c r="A9" s="226"/>
+      <c r="B9" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="258" t="s">
+      <c r="E9" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="259" t="s">
+      <c r="F9" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="260" t="s">
+      <c r="G9" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="229"/>
-      <c r="N9" s="229"/>
-      <c r="O9" s="229"/>
-      <c r="P9" s="229"/>
-      <c r="Q9" s="229"/>
-      <c r="R9" s="230"/>
-      <c r="S9" s="231"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="227"/>
+      <c r="N9" s="227"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="227"/>
+      <c r="Q9" s="227"/>
+      <c r="R9" s="228"/>
+      <c r="S9" s="229"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
-      <c r="B10" s="232" t="s">
+      <c r="A10" s="219"/>
+      <c r="B10" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="365">
+      <c r="C10" s="362">
         <v>58.6</v>
       </c>
-      <c r="D10" s="233">
+      <c r="D10" s="231">
         <v>0</v>
       </c>
-      <c r="E10" s="233">
+      <c r="E10" s="231">
         <v>-0.2</v>
       </c>
       <c r="F10" s="51" t="s">
@@ -6214,31 +6293,31 @@
       <c r="G10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="234"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="235"/>
-      <c r="M10" s="235"/>
-      <c r="N10" s="235"/>
-      <c r="O10" s="235"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="227"/>
+      <c r="H10" s="232"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="233"/>
+      <c r="L10" s="233"/>
+      <c r="M10" s="233"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="233"/>
+      <c r="Q10" s="233"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="225"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
-      <c r="B11" s="237" t="s">
+      <c r="A11" s="219"/>
+      <c r="B11" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="366">
+      <c r="C11" s="363">
         <v>45.2</v>
       </c>
-      <c r="D11" s="238">
+      <c r="D11" s="236">
         <v>0.03</v>
       </c>
-      <c r="E11" s="238">
+      <c r="E11" s="236">
         <v>-0.03</v>
       </c>
       <c r="F11" s="51" t="s">
@@ -6247,97 +6326,97 @@
       <c r="G11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="239"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="240"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="240"/>
-      <c r="O11" s="240"/>
-      <c r="P11" s="240"/>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="241"/>
-      <c r="S11" s="227"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="239"/>
+      <c r="S11" s="225"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="221"/>
-      <c r="B12" s="237" t="s">
+      <c r="A12" s="219"/>
+      <c r="B12" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="366">
+      <c r="C12" s="363">
         <v>28.6</v>
       </c>
-      <c r="D12" s="238">
+      <c r="D12" s="236">
         <v>0</v>
       </c>
-      <c r="E12" s="238">
+      <c r="E12" s="236">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="239"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="240"/>
-      <c r="N12" s="240"/>
-      <c r="O12" s="240"/>
-      <c r="P12" s="240"/>
-      <c r="Q12" s="240"/>
-      <c r="R12" s="241"/>
-      <c r="S12" s="227"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="238"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="239"/>
+      <c r="S12" s="225"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="221"/>
-      <c r="B13" s="237" t="s">
+      <c r="A13" s="219"/>
+      <c r="B13" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="366">
+      <c r="C13" s="363">
         <v>45.3</v>
       </c>
-      <c r="D13" s="238">
+      <c r="D13" s="236">
         <v>0.05</v>
       </c>
-      <c r="E13" s="238">
+      <c r="E13" s="236">
         <v>-0.05</v>
       </c>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="239"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="240"/>
-      <c r="N13" s="240"/>
-      <c r="O13" s="240"/>
-      <c r="P13" s="240"/>
-      <c r="Q13" s="240"/>
-      <c r="R13" s="241"/>
-      <c r="S13" s="227"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="238"/>
+      <c r="O13" s="238"/>
+      <c r="P13" s="238"/>
+      <c r="Q13" s="238"/>
+      <c r="R13" s="239"/>
+      <c r="S13" s="225"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
-      <c r="B14" s="237" t="s">
+      <c r="A14" s="219"/>
+      <c r="B14" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="366">
+      <c r="C14" s="363">
         <v>70</v>
       </c>
-      <c r="D14" s="238">
+      <c r="D14" s="236">
         <v>0.1</v>
       </c>
-      <c r="E14" s="238">
+      <c r="E14" s="236">
         <v>-0.1</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -6346,31 +6425,31 @@
       <c r="G14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="239"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="240"/>
-      <c r="O14" s="240"/>
-      <c r="P14" s="240"/>
-      <c r="Q14" s="240"/>
-      <c r="R14" s="241"/>
-      <c r="S14" s="227"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="236"/>
+      <c r="L14" s="236"/>
+      <c r="M14" s="236"/>
+      <c r="N14" s="238"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="238"/>
+      <c r="Q14" s="238"/>
+      <c r="R14" s="239"/>
+      <c r="S14" s="225"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
-      <c r="B15" s="237" t="s">
+      <c r="A15" s="219"/>
+      <c r="B15" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="366">
+      <c r="C15" s="363">
         <v>9.1</v>
       </c>
-      <c r="D15" s="238">
+      <c r="D15" s="236">
         <v>0.05</v>
       </c>
-      <c r="E15" s="238">
+      <c r="E15" s="236">
         <v>-0.05</v>
       </c>
       <c r="F15" s="51" t="s">
@@ -6379,31 +6458,31 @@
       <c r="G15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="242"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="240"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="240"/>
-      <c r="M15" s="240"/>
-      <c r="N15" s="240"/>
-      <c r="O15" s="240"/>
-      <c r="P15" s="240"/>
-      <c r="Q15" s="240"/>
-      <c r="R15" s="241"/>
-      <c r="S15" s="227"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="238"/>
+      <c r="Q15" s="238"/>
+      <c r="R15" s="239"/>
+      <c r="S15" s="225"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
-      <c r="B16" s="237" t="s">
+      <c r="A16" s="219"/>
+      <c r="B16" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="366">
+      <c r="C16" s="363">
         <v>46</v>
       </c>
-      <c r="D16" s="238">
+      <c r="D16" s="236">
         <v>0.05</v>
       </c>
-      <c r="E16" s="238">
+      <c r="E16" s="236">
         <v>-0.05</v>
       </c>
       <c r="F16" s="51" t="s">
@@ -6412,31 +6491,31 @@
       <c r="G16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="239"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="240"/>
-      <c r="O16" s="240"/>
-      <c r="P16" s="240"/>
-      <c r="Q16" s="240"/>
-      <c r="R16" s="241"/>
-      <c r="S16" s="227"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="236"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="236"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="238"/>
+      <c r="P16" s="238"/>
+      <c r="Q16" s="238"/>
+      <c r="R16" s="239"/>
+      <c r="S16" s="225"/>
     </row>
     <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
-      <c r="B17" s="237" t="s">
+      <c r="A17" s="219"/>
+      <c r="B17" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="366">
+      <c r="C17" s="363">
         <v>57.9</v>
       </c>
-      <c r="D17" s="238">
+      <c r="D17" s="236">
         <v>0.05</v>
       </c>
-      <c r="E17" s="238">
+      <c r="E17" s="236">
         <v>-0.05</v>
       </c>
       <c r="F17" s="51" t="s">
@@ -6445,66 +6524,66 @@
       <c r="G17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="239"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="240"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="240"/>
-      <c r="M17" s="240"/>
-      <c r="N17" s="240"/>
-      <c r="O17" s="240"/>
-      <c r="P17" s="240"/>
-      <c r="Q17" s="240"/>
-      <c r="R17" s="241"/>
-      <c r="S17" s="227"/>
+      <c r="H17" s="237"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="238"/>
+      <c r="O17" s="238"/>
+      <c r="P17" s="238"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="239"/>
+      <c r="S17" s="225"/>
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="221"/>
-      <c r="B18" s="500" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="501"/>
-      <c r="D18" s="501"/>
-      <c r="E18" s="502"/>
-      <c r="F18" s="118" t="s">
+      <c r="A18" s="219"/>
+      <c r="B18" s="513" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="514"/>
+      <c r="D18" s="514"/>
+      <c r="E18" s="515"/>
+      <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="262" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="243"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="244"/>
-      <c r="K18" s="244"/>
-      <c r="L18" s="244"/>
-      <c r="M18" s="244"/>
-      <c r="N18" s="244"/>
-      <c r="O18" s="244"/>
-      <c r="P18" s="244"/>
-      <c r="Q18" s="244"/>
-      <c r="R18" s="245"/>
-      <c r="S18" s="227"/>
+      <c r="G18" s="260" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="241"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="242"/>
+      <c r="M18" s="242"/>
+      <c r="N18" s="242"/>
+      <c r="O18" s="242"/>
+      <c r="P18" s="242"/>
+      <c r="Q18" s="242"/>
+      <c r="R18" s="243"/>
+      <c r="S18" s="225"/>
     </row>
     <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="246"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="247"/>
-      <c r="E19" s="248"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="247"/>
-      <c r="N19" s="247"/>
-      <c r="O19" s="247"/>
-      <c r="P19" s="247"/>
-      <c r="Q19" s="247"/>
-      <c r="R19" s="247"/>
-      <c r="S19" s="249"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="245"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="245"/>
+      <c r="N19" s="245"/>
+      <c r="O19" s="245"/>
+      <c r="P19" s="245"/>
+      <c r="Q19" s="245"/>
+      <c r="R19" s="245"/>
+      <c r="S19" s="247"/>
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6574,7 +6653,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6612,226 +6691,226 @@
       <c r="S1" s="63"/>
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="490" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="492"/>
+      <c r="I2" s="496" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="497"/>
+      <c r="K2" s="500">
         <f>Данные!B26</f>
-        <v>20</v>
-      </c>
-      <c r="L2" s="488"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="140"/>
+        <v>18</v>
+      </c>
+      <c r="L2" s="501"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="517"/>
+      <c r="Q2" s="517"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="135"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="140"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="493" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="499"/>
+      <c r="K3" s="502"/>
+      <c r="L3" s="503"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="138"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="135"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="140"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="138"/>
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="135"/>
-      <c r="B5" s="422" t="s">
+      <c r="A5" s="133"/>
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="474"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="140"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="477"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="138"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135"/>
-      <c r="B6" s="422" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="474"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="140"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="476"/>
+      <c r="K6" s="477"/>
+      <c r="L6" s="401"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="138"/>
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="135"/>
-      <c r="B7" s="429" t="s">
+      <c r="A7" s="133"/>
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="478"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="478"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="140"/>
+      <c r="L7" s="391"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="138"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="147"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="82"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="82"/>
       <c r="N8" s="83"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="149"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="147"/>
       <c r="S8" s="86"/>
     </row>
     <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="150"/>
-      <c r="B9" s="256" t="s">
+      <c r="A9" s="148"/>
+      <c r="B9" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="258" t="s">
+      <c r="E9" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="259" t="s">
+      <c r="F9" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="260" t="s">
+      <c r="G9" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="154"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="152"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156" t="s">
+      <c r="A10" s="153"/>
+      <c r="B10" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="368">
+      <c r="C10" s="365">
         <v>42</v>
       </c>
-      <c r="D10" s="157" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="157">
+      <c r="D10" s="155" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="155">
         <v>-0.1</v>
       </c>
       <c r="F10" s="51" t="s">
@@ -6840,31 +6919,31 @@
       <c r="G10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="159"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="157"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156" t="s">
+      <c r="A11" s="153"/>
+      <c r="B11" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="368">
-        <v>15.9</v>
-      </c>
-      <c r="D11" s="157" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="157">
+      <c r="C11" s="365">
+        <v>27.2</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="155">
         <v>0</v>
       </c>
       <c r="F11" s="51" t="s">
@@ -6873,31 +6952,31 @@
       <c r="G11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="159"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="157"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="156" t="s">
+      <c r="A12" s="153"/>
+      <c r="B12" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="364">
         <v>60</v>
       </c>
-      <c r="D12" s="157" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="157">
+      <c r="D12" s="155" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="155">
         <v>-0.1</v>
       </c>
       <c r="F12" s="51" t="s">
@@ -6906,31 +6985,31 @@
       <c r="G12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="159"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="157"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="156" t="s">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="367">
-        <v>65</v>
-      </c>
-      <c r="D13" s="157">
+      <c r="C13" s="365">
+        <v>70</v>
+      </c>
+      <c r="D13" s="155">
         <v>0.1</v>
       </c>
-      <c r="E13" s="157">
+      <c r="E13" s="155">
         <v>-0.1</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -6939,97 +7018,97 @@
       <c r="G13" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="159"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="157"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="156" t="s">
+      <c r="A14" s="153"/>
+      <c r="B14" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="367">
+      <c r="C14" s="364">
         <v>12.7</v>
       </c>
-      <c r="D14" s="157">
+      <c r="D14" s="155">
         <v>0</v>
       </c>
-      <c r="E14" s="157">
+      <c r="E14" s="155">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="157"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="156" t="s">
+      <c r="A15" s="153"/>
+      <c r="B15" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="367">
+      <c r="C15" s="364">
         <v>50.6</v>
       </c>
-      <c r="D15" s="157">
+      <c r="D15" s="155">
         <v>0.05</v>
       </c>
-      <c r="E15" s="161">
+      <c r="E15" s="159">
         <v>-0.05</v>
       </c>
-      <c r="F15" s="118" t="s">
+      <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="159"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="157"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="156" t="s">
+      <c r="A16" s="153"/>
+      <c r="B16" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="367">
+      <c r="C16" s="364">
         <v>62</v>
       </c>
-      <c r="D16" s="157">
+      <c r="D16" s="155">
         <v>0.1</v>
       </c>
-      <c r="E16" s="157">
+      <c r="E16" s="155">
         <v>-0.1</v>
       </c>
       <c r="F16" s="51" t="s">
@@ -7038,18 +7117,18 @@
       <c r="G16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="159"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="157"/>
     </row>
     <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
@@ -7057,8 +7136,8 @@
       <c r="C17" s="98"/>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="163"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="161"/>
       <c r="H17" s="99"/>
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
@@ -7078,8 +7157,8 @@
       <c r="C18" s="98"/>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="163"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="161"/>
       <c r="H18" s="99"/>
       <c r="I18" s="98"/>
       <c r="J18" s="98"/>
@@ -7095,45 +7174,45 @@
     </row>
     <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="98"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="111"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
       <c r="S19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="112"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="116"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="114"/>
     </row>
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7182,330 +7261,330 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="267" customWidth="1"/>
-    <col min="2" max="2" width="5" style="267" customWidth="1"/>
-    <col min="3" max="3" width="11" style="267" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="267" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="267" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="267" customWidth="1"/>
-    <col min="8" max="18" width="9" style="267" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="267" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="267"/>
+    <col min="1" max="1" width="1.33203125" style="265" customWidth="1"/>
+    <col min="2" max="2" width="5" style="265" customWidth="1"/>
+    <col min="3" max="3" width="11" style="265" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" style="265" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="265" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="265" customWidth="1"/>
+    <col min="8" max="18" width="9" style="265" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="265" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="265"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="263"/>
-      <c r="B1" s="264"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="265"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="266"/>
+      <c r="A1" s="261"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="264"/>
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="268"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="A2" s="266"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="490" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="492"/>
+      <c r="I2" s="496" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="506">
+      <c r="J2" s="497"/>
+      <c r="K2" s="519">
         <f>Данные!B23</f>
-        <v>20</v>
-      </c>
-      <c r="L2" s="507"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="505"/>
-      <c r="Q2" s="505"/>
-      <c r="R2" s="272"/>
-      <c r="S2" s="273"/>
+        <v>18</v>
+      </c>
+      <c r="L2" s="520"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="518"/>
+      <c r="Q2" s="518"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="268"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="275"/>
-      <c r="O3" s="275"/>
-      <c r="P3" s="275"/>
-      <c r="Q3" s="275"/>
-      <c r="R3" s="276"/>
-      <c r="S3" s="273"/>
+      <c r="A3" s="266"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="493" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="499"/>
+      <c r="K3" s="521"/>
+      <c r="L3" s="522"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="271"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="268"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="274"/>
-      <c r="N4" s="275"/>
-      <c r="O4" s="275"/>
-      <c r="P4" s="275"/>
-      <c r="Q4" s="275"/>
-      <c r="R4" s="276"/>
-      <c r="S4" s="273"/>
+      <c r="A4" s="266"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="271"/>
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="268"/>
-      <c r="B5" s="422" t="s">
+      <c r="A5" s="266"/>
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="474"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="275"/>
-      <c r="O5" s="275"/>
-      <c r="P5" s="275"/>
-      <c r="Q5" s="275"/>
-      <c r="R5" s="276"/>
-      <c r="S5" s="273"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="477"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="275"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="271"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="268"/>
-      <c r="B6" s="422" t="s">
+      <c r="A6" s="266"/>
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="474"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
-      <c r="M6" s="274"/>
-      <c r="N6" s="275"/>
-      <c r="O6" s="275"/>
-      <c r="P6" s="275"/>
-      <c r="Q6" s="275"/>
-      <c r="R6" s="276"/>
-      <c r="S6" s="273"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="476"/>
+      <c r="K6" s="477"/>
+      <c r="L6" s="401"/>
+      <c r="M6" s="272"/>
+      <c r="N6" s="273"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="274"/>
+      <c r="S6" s="271"/>
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="268"/>
-      <c r="B7" s="429" t="s">
+      <c r="A7" s="266"/>
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="478"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="478"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="275"/>
-      <c r="O7" s="275"/>
-      <c r="P7" s="275"/>
-      <c r="Q7" s="275"/>
-      <c r="R7" s="276"/>
-      <c r="S7" s="273"/>
+      <c r="L7" s="391"/>
+      <c r="M7" s="275"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274"/>
+      <c r="S7" s="271"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="278"/>
-      <c r="B8" s="279"/>
-      <c r="C8" s="280"/>
-      <c r="D8" s="280"/>
-      <c r="E8" s="281"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="281"/>
-      <c r="H8" s="281"/>
-      <c r="I8" s="281"/>
-      <c r="J8" s="281"/>
-      <c r="K8" s="281"/>
-      <c r="L8" s="281"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="281"/>
-      <c r="P8" s="281"/>
-      <c r="Q8" s="281"/>
-      <c r="R8" s="283"/>
-      <c r="S8" s="284"/>
+      <c r="A8" s="276"/>
+      <c r="B8" s="277"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="279"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="279"/>
+      <c r="L8" s="279"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="279"/>
+      <c r="Q8" s="279"/>
+      <c r="R8" s="281"/>
+      <c r="S8" s="282"/>
     </row>
     <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="285"/>
-      <c r="B9" s="256" t="s">
+      <c r="A9" s="283"/>
+      <c r="B9" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="258" t="s">
+      <c r="E9" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="259" t="s">
+      <c r="F9" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="260" t="s">
+      <c r="G9" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="286"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="354"/>
-      <c r="L9" s="354"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="354"/>
-      <c r="O9" s="354"/>
-      <c r="P9" s="354"/>
-      <c r="Q9" s="354"/>
-      <c r="R9" s="355"/>
-      <c r="S9" s="287"/>
+      <c r="H9" s="284"/>
+      <c r="I9" s="284"/>
+      <c r="J9" s="284"/>
+      <c r="K9" s="351"/>
+      <c r="L9" s="351"/>
+      <c r="M9" s="351"/>
+      <c r="N9" s="351"/>
+      <c r="O9" s="351"/>
+      <c r="P9" s="351"/>
+      <c r="Q9" s="351"/>
+      <c r="R9" s="352"/>
+      <c r="S9" s="285"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="278"/>
-      <c r="B10" s="288" t="s">
+      <c r="A10" s="276"/>
+      <c r="B10" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="289">
-        <v>28</v>
-      </c>
-      <c r="D10" s="289">
+      <c r="C10" s="388" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="287">
         <v>0.1</v>
       </c>
-      <c r="E10" s="289">
+      <c r="E10" s="287">
         <v>-0.1</v>
       </c>
       <c r="F10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="305" t="s">
+      <c r="G10" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="290"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="356"/>
-      <c r="L10" s="356"/>
-      <c r="M10" s="356"/>
-      <c r="N10" s="356"/>
-      <c r="O10" s="356"/>
-      <c r="P10" s="356"/>
-      <c r="Q10" s="356"/>
-      <c r="R10" s="357"/>
-      <c r="S10" s="284"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="287"/>
+      <c r="K10" s="353"/>
+      <c r="L10" s="353"/>
+      <c r="M10" s="353"/>
+      <c r="N10" s="353"/>
+      <c r="O10" s="353"/>
+      <c r="P10" s="353"/>
+      <c r="Q10" s="353"/>
+      <c r="R10" s="354"/>
+      <c r="S10" s="282"/>
     </row>
     <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="278"/>
-      <c r="B11" s="292" t="s">
+      <c r="A11" s="276"/>
+      <c r="B11" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="369">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="D11" s="293">
+      <c r="C11" s="366">
+        <v>77.8</v>
+      </c>
+      <c r="D11" s="291">
         <v>0</v>
       </c>
-      <c r="E11" s="293">
+      <c r="E11" s="291">
         <v>-0.05</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="306" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="294"/>
-      <c r="I11" s="291"/>
-      <c r="J11" s="291"/>
-      <c r="K11" s="356"/>
-      <c r="L11" s="356"/>
-      <c r="M11" s="356"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="356"/>
-      <c r="P11" s="356"/>
-      <c r="Q11" s="356"/>
-      <c r="R11" s="358"/>
-      <c r="S11" s="284"/>
+      <c r="G11" s="304" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="292"/>
+      <c r="I11" s="289"/>
+      <c r="J11" s="289"/>
+      <c r="K11" s="353"/>
+      <c r="L11" s="353"/>
+      <c r="M11" s="353"/>
+      <c r="N11" s="353"/>
+      <c r="O11" s="353"/>
+      <c r="P11" s="353"/>
+      <c r="Q11" s="353"/>
+      <c r="R11" s="355"/>
+      <c r="S11" s="282"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="278"/>
-      <c r="B12" s="292" t="s">
+      <c r="A12" s="276"/>
+      <c r="B12" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="363">
+      <c r="C12" s="360">
         <v>89</v>
       </c>
-      <c r="D12" s="293">
+      <c r="D12" s="291">
         <v>0.1</v>
       </c>
-      <c r="E12" s="293">
+      <c r="E12" s="291">
         <v>-0.1</v>
       </c>
       <c r="F12" s="51" t="s">
@@ -7514,31 +7593,31 @@
       <c r="G12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="295"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="293"/>
-      <c r="K12" s="359"/>
-      <c r="L12" s="359"/>
-      <c r="M12" s="359"/>
-      <c r="N12" s="359"/>
-      <c r="O12" s="359"/>
-      <c r="P12" s="359"/>
-      <c r="Q12" s="359"/>
-      <c r="R12" s="360"/>
-      <c r="S12" s="284"/>
+      <c r="H12" s="293"/>
+      <c r="I12" s="291"/>
+      <c r="J12" s="291"/>
+      <c r="K12" s="356"/>
+      <c r="L12" s="356"/>
+      <c r="M12" s="356"/>
+      <c r="N12" s="356"/>
+      <c r="O12" s="356"/>
+      <c r="P12" s="356"/>
+      <c r="Q12" s="356"/>
+      <c r="R12" s="357"/>
+      <c r="S12" s="282"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="278"/>
-      <c r="B13" s="292" t="s">
+      <c r="A13" s="276"/>
+      <c r="B13" s="290" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="363">
+      <c r="C13" s="360">
         <v>12</v>
       </c>
-      <c r="D13" s="293">
+      <c r="D13" s="291">
         <v>0.1</v>
       </c>
-      <c r="E13" s="296">
+      <c r="E13" s="294">
         <v>-0.1</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -7547,31 +7626,31 @@
       <c r="G13" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="295"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="359"/>
-      <c r="L13" s="359"/>
-      <c r="M13" s="359"/>
-      <c r="N13" s="359"/>
-      <c r="O13" s="359"/>
-      <c r="P13" s="359"/>
-      <c r="Q13" s="359"/>
-      <c r="R13" s="360"/>
-      <c r="S13" s="284"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="291"/>
+      <c r="J13" s="291"/>
+      <c r="K13" s="356"/>
+      <c r="L13" s="356"/>
+      <c r="M13" s="356"/>
+      <c r="N13" s="356"/>
+      <c r="O13" s="356"/>
+      <c r="P13" s="356"/>
+      <c r="Q13" s="356"/>
+      <c r="R13" s="357"/>
+      <c r="S13" s="282"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="278"/>
-      <c r="B14" s="292" t="s">
+      <c r="A14" s="276"/>
+      <c r="B14" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="369">
+      <c r="C14" s="366">
         <v>52</v>
       </c>
-      <c r="D14" s="293">
+      <c r="D14" s="291">
         <v>0.1</v>
       </c>
-      <c r="E14" s="293">
+      <c r="E14" s="291">
         <v>-0.1</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -7580,67 +7659,64 @@
       <c r="G14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="295"/>
-      <c r="I14" s="293"/>
-      <c r="J14" s="293"/>
-      <c r="K14" s="359"/>
-      <c r="L14" s="359"/>
-      <c r="M14" s="359"/>
-      <c r="N14" s="359"/>
-      <c r="O14" s="359"/>
-      <c r="P14" s="359"/>
-      <c r="Q14" s="359"/>
-      <c r="R14" s="360"/>
-      <c r="S14" s="284"/>
+      <c r="H14" s="293"/>
+      <c r="I14" s="291"/>
+      <c r="J14" s="291"/>
+      <c r="K14" s="356"/>
+      <c r="L14" s="356"/>
+      <c r="M14" s="356"/>
+      <c r="N14" s="356"/>
+      <c r="O14" s="356"/>
+      <c r="P14" s="356"/>
+      <c r="Q14" s="356"/>
+      <c r="R14" s="357"/>
+      <c r="S14" s="282"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="278"/>
-      <c r="B15" s="298"/>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="297"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="307"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="361"/>
-      <c r="L15" s="361"/>
-      <c r="M15" s="361"/>
-      <c r="N15" s="361"/>
-      <c r="O15" s="361"/>
-      <c r="P15" s="361"/>
-      <c r="Q15" s="361"/>
-      <c r="R15" s="342"/>
-      <c r="S15" s="284"/>
+      <c r="A15" s="276"/>
+      <c r="B15" s="296"/>
+      <c r="C15" s="297"/>
+      <c r="D15" s="297"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="297"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="297"/>
+      <c r="K15" s="358"/>
+      <c r="L15" s="358"/>
+      <c r="M15" s="358"/>
+      <c r="N15" s="358"/>
+      <c r="O15" s="358"/>
+      <c r="P15" s="358"/>
+      <c r="Q15" s="358"/>
+      <c r="R15" s="339"/>
+      <c r="S15" s="282"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="301"/>
-      <c r="B16" s="302"/>
-      <c r="C16" s="302"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="303"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="302"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="302"/>
-      <c r="K16" s="302"/>
-      <c r="L16" s="302"/>
-      <c r="M16" s="302"/>
-      <c r="N16" s="302"/>
-      <c r="O16" s="302"/>
-      <c r="P16" s="302"/>
-      <c r="Q16" s="302"/>
-      <c r="R16" s="302"/>
-      <c r="S16" s="304"/>
+      <c r="A16" s="299"/>
+      <c r="B16" s="300"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="300"/>
+      <c r="E16" s="301"/>
+      <c r="F16" s="301"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="300"/>
+      <c r="K16" s="300"/>
+      <c r="L16" s="300"/>
+      <c r="M16" s="300"/>
+      <c r="N16" s="300"/>
+      <c r="O16" s="300"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="300"/>
+      <c r="R16" s="300"/>
+      <c r="S16" s="302"/>
     </row>
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -7656,6 +7732,9 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7682,718 +7761,928 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K45"/>
+  <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="309"/>
+    <col min="1" max="3" width="9.109375" style="307"/>
+    <col min="4" max="4" width="8" style="307" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="307"/>
+    <col min="7" max="7" width="9.109375" style="307" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="307" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="307" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="307"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G2" s="319" t="s">
+    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G2" s="316" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+    </row>
+    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G3" s="316" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
+    </row>
+    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G4" s="316" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="317"/>
+      <c r="I4" s="317"/>
+      <c r="J4" s="317"/>
+      <c r="K4" s="317"/>
+    </row>
+    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G6" s="368"/>
+      <c r="H6" s="316" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="317"/>
+      <c r="J6" s="317"/>
+    </row>
+    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H7" s="317"/>
+      <c r="I7" s="317"/>
+      <c r="J7" s="317"/>
+    </row>
+    <row r="8" spans="1:11" s="367" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="G8" s="310" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-    </row>
-    <row r="3" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G3" s="319" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="320"/>
-    </row>
-    <row r="4" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G4" s="319" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-    </row>
-    <row r="5" spans="1:11" s="370" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G6" s="371"/>
-      <c r="H6" s="319" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="320"/>
-      <c r="J6" s="320"/>
-    </row>
-    <row r="7" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="H7" s="320"/>
-      <c r="I7" s="320"/>
-      <c r="J7" s="320"/>
-    </row>
-    <row r="8" spans="1:11" s="370" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="G8" s="312" t="s">
+      <c r="H8" s="368"/>
+      <c r="I8" s="316" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="317"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="408" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="408"/>
+      <c r="C11" s="408"/>
+      <c r="D11" s="408"/>
+      <c r="E11" s="408"/>
+      <c r="F11" s="408"/>
+      <c r="G11" s="408"/>
+      <c r="H11" s="408"/>
+      <c r="I11" s="408"/>
+      <c r="J11" s="408"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="407" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="407"/>
+      <c r="C12" s="407"/>
+      <c r="D12" s="407"/>
+      <c r="E12" s="407"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="407"/>
+      <c r="H12" s="407"/>
+      <c r="I12" s="407"/>
+      <c r="J12" s="407"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="409" t="str">
+        <f>Данные!A2</f>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="B13" s="408"/>
+      <c r="C13" s="408"/>
+      <c r="D13" s="408"/>
+      <c r="E13" s="408"/>
+      <c r="F13" s="408"/>
+      <c r="G13" s="408"/>
+      <c r="H13" s="408"/>
+      <c r="I13" s="408"/>
+      <c r="J13" s="408"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="311" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="319" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="320"/>
-      <c r="J8" s="320"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="415" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="415"/>
-      <c r="C11" s="415"/>
-      <c r="D11" s="415"/>
-      <c r="E11" s="415"/>
-      <c r="F11" s="415"/>
-      <c r="G11" s="415"/>
-      <c r="H11" s="415"/>
-      <c r="I11" s="415"/>
-      <c r="J11" s="415"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="414" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="414"/>
-      <c r="C12" s="414"/>
-      <c r="D12" s="414"/>
-      <c r="E12" s="414"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="414"/>
-      <c r="H12" s="414"/>
-      <c r="I12" s="414"/>
-      <c r="J12" s="414"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="416" t="str">
-        <f>Данные!A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="B13" s="415"/>
-      <c r="C13" s="415"/>
-      <c r="D13" s="415"/>
-      <c r="E13" s="415"/>
-      <c r="F13" s="415"/>
-      <c r="G13" s="415"/>
-      <c r="H13" s="415"/>
-      <c r="I13" s="415"/>
-      <c r="J13" s="415"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="313" t="s">
+      <c r="B15" s="311"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="312"/>
+      <c r="H15" s="313">
+        <f>Данные!D11</f>
+        <v>43753</v>
+      </c>
+      <c r="I15" s="311"/>
+      <c r="J15" s="312"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="311" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="311"/>
+      <c r="C16" s="311"/>
+      <c r="D16" s="311"/>
+      <c r="E16" s="311"/>
+      <c r="F16" s="311"/>
+      <c r="G16" s="311"/>
+      <c r="H16" s="311"/>
+      <c r="I16" s="311"/>
+      <c r="J16" s="312"/>
+    </row>
+    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="319" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="313"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="313"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="315">
-        <f>Данные!D11</f>
-        <v>43741</v>
-      </c>
-      <c r="I15" s="313"/>
-      <c r="J15" s="314"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="313" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="313"/>
-      <c r="C16" s="313"/>
-      <c r="D16" s="313"/>
-      <c r="E16" s="313"/>
-      <c r="F16" s="313"/>
-      <c r="G16" s="313"/>
-      <c r="H16" s="313"/>
-      <c r="I16" s="313"/>
-      <c r="J16" s="314"/>
-    </row>
-    <row r="17" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="322" t="s">
+      <c r="B17" s="320" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="323" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="323"/>
-      <c r="D17" s="324" t="str">
+      <c r="C17" s="320"/>
+      <c r="D17" s="321" t="str">
         <f>Данные!F11</f>
         <v>начальник производства</v>
       </c>
-      <c r="E17" s="323"/>
-      <c r="F17" s="323"/>
-      <c r="H17" s="323"/>
-      <c r="I17" s="323" t="str">
+      <c r="E17" s="320"/>
+      <c r="F17" s="320"/>
+      <c r="H17" s="320"/>
+      <c r="I17" s="320" t="str">
         <f>Данные!J11</f>
         <v>Я.В. Карчмит</v>
       </c>
-      <c r="J17" s="314"/>
-    </row>
-    <row r="18" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="322" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="323" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="323"/>
-      <c r="D18" s="324" t="str">
+      <c r="J17" s="312"/>
+    </row>
+    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="319" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="320" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="320"/>
+      <c r="D18" s="321" t="str">
         <f>Данные!F12</f>
         <v>начальник производственного участка</v>
       </c>
-      <c r="E18" s="323"/>
-      <c r="F18" s="323"/>
-      <c r="G18" s="323"/>
-      <c r="I18" s="323" t="str">
+      <c r="E18" s="320"/>
+      <c r="F18" s="320"/>
+      <c r="G18" s="320"/>
+      <c r="I18" s="320" t="str">
         <f>Данные!J12</f>
         <v>Д.Е. Серков</v>
       </c>
-      <c r="J18" s="314"/>
-    </row>
-    <row r="19" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="323"/>
-      <c r="B19" s="323"/>
-      <c r="C19" s="323"/>
-      <c r="D19" s="323" t="str">
+      <c r="J18" s="312"/>
+    </row>
+    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="320"/>
+      <c r="B19" s="320"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="320" t="str">
         <f>Данные!F13</f>
         <v>начальник участка ремонта форм</v>
       </c>
-      <c r="E19" s="323"/>
-      <c r="F19" s="323"/>
-      <c r="G19" s="323"/>
-      <c r="H19" s="323"/>
-      <c r="I19" s="323" t="str">
+      <c r="E19" s="320"/>
+      <c r="F19" s="320"/>
+      <c r="G19" s="320"/>
+      <c r="H19" s="320"/>
+      <c r="I19" s="320" t="str">
         <f>Данные!J13</f>
         <v>А.Д. Гавриленко</v>
       </c>
-      <c r="J19" s="314"/>
+      <c r="J19" s="312"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="313" t="s">
+      <c r="A20" s="311" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="311"/>
+      <c r="C20" s="311"/>
+      <c r="D20" s="311"/>
+      <c r="E20" s="311"/>
+      <c r="F20" s="311"/>
+      <c r="G20" s="311"/>
+      <c r="H20" s="311"/>
+      <c r="I20" s="313">
+        <f>H15</f>
+        <v>43753</v>
+      </c>
+      <c r="J20" s="312"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="313"/>
-      <c r="C20" s="313"/>
-      <c r="D20" s="313"/>
-      <c r="E20" s="313"/>
-      <c r="F20" s="313"/>
-      <c r="G20" s="313"/>
-      <c r="H20" s="313"/>
-      <c r="I20" s="315">
-        <f>H15</f>
-        <v>43741</v>
-      </c>
-      <c r="J20" s="314"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="313" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="313"/>
-      <c r="C21" s="313"/>
-      <c r="D21" s="313"/>
-      <c r="E21" s="313"/>
-      <c r="F21" s="313"/>
-      <c r="G21" s="313"/>
-      <c r="H21" s="313"/>
-      <c r="I21" s="313"/>
-      <c r="J21" s="314"/>
+      <c r="B21" s="311"/>
+      <c r="C21" s="311"/>
+      <c r="D21" s="311"/>
+      <c r="E21" s="311"/>
+      <c r="F21" s="311"/>
+      <c r="G21" s="311"/>
+      <c r="H21" s="311"/>
+      <c r="I21" s="311"/>
+      <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="417" t="s">
+      <c r="A22" s="413" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="413" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="417" t="s">
+      <c r="C22" s="413"/>
+      <c r="D22" s="413"/>
+      <c r="E22" s="413" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417" t="s">
+      <c r="F22" s="413"/>
+      <c r="G22" s="414" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="417"/>
-      <c r="G22" s="418" t="s">
+      <c r="H22" s="413" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="417" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
+      <c r="I22" s="413"/>
+      <c r="J22" s="413"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="417"/>
-      <c r="B23" s="417"/>
-      <c r="C23" s="417"/>
-      <c r="D23" s="417"/>
-      <c r="E23" s="417"/>
-      <c r="F23" s="417"/>
-      <c r="G23" s="418"/>
-      <c r="H23" s="417"/>
-      <c r="I23" s="417"/>
-      <c r="J23" s="417"/>
-    </row>
-    <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="386">
+      <c r="A23" s="413"/>
+      <c r="B23" s="413"/>
+      <c r="C23" s="413"/>
+      <c r="D23" s="413"/>
+      <c r="E23" s="413"/>
+      <c r="F23" s="413"/>
+      <c r="G23" s="414"/>
+      <c r="H23" s="413"/>
+      <c r="I23" s="413"/>
+      <c r="J23" s="413"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="415">
         <v>1</v>
       </c>
-      <c r="B24" s="409" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="410"/>
-      <c r="D24" s="411"/>
-      <c r="E24" s="412" t="str">
+      <c r="B24" s="523" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="524"/>
+      <c r="D24" s="525"/>
+      <c r="E24" s="420" t="str">
         <f>Данные!C14</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F24" s="412"/>
-      <c r="G24" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F24" s="421"/>
+      <c r="G24" s="424">
         <f>Данные!B14</f>
-        <v>24</v>
-      </c>
-      <c r="H24" s="413"/>
-      <c r="I24" s="413"/>
-      <c r="J24" s="413"/>
+        <v>22</v>
+      </c>
+      <c r="H24" s="426"/>
+      <c r="I24" s="427"/>
+      <c r="J24" s="428"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="386">
-        <f>A24+1</f>
-        <v>2</v>
-      </c>
-      <c r="B25" s="409" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="410"/>
-      <c r="D25" s="411"/>
-      <c r="E25" s="412" t="str">
+      <c r="A25" s="416"/>
+      <c r="B25" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C25" s="418"/>
+      <c r="D25" s="419"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="423"/>
+      <c r="G25" s="425"/>
+      <c r="H25" s="429"/>
+      <c r="I25" s="430"/>
+      <c r="J25" s="431"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="415">
+        <v>1</v>
+      </c>
+      <c r="B26" s="410" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="411"/>
+      <c r="D26" s="412"/>
+      <c r="E26" s="420" t="str">
         <f>Данные!C15</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F25" s="412"/>
-      <c r="G25" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F26" s="421"/>
+      <c r="G26" s="424">
         <f>Данные!B15</f>
-        <v>24</v>
-      </c>
-      <c r="H25" s="413"/>
-      <c r="I25" s="413"/>
-      <c r="J25" s="413"/>
-    </row>
-    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="386">
-        <f t="shared" ref="A26:A35" si="0">A25+1</f>
-        <v>3</v>
-      </c>
-      <c r="B26" s="409" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="410"/>
-      <c r="D26" s="411"/>
-      <c r="E26" s="412" t="str">
+        <v>22</v>
+      </c>
+      <c r="H26" s="426"/>
+      <c r="I26" s="427"/>
+      <c r="J26" s="428"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="416"/>
+      <c r="B27" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C27" s="418"/>
+      <c r="D27" s="419"/>
+      <c r="E27" s="422"/>
+      <c r="F27" s="423"/>
+      <c r="G27" s="425"/>
+      <c r="H27" s="429"/>
+      <c r="I27" s="430"/>
+      <c r="J27" s="431"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="415">
+        <v>1</v>
+      </c>
+      <c r="B28" s="410" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="411"/>
+      <c r="D28" s="412"/>
+      <c r="E28" s="420" t="str">
         <f>Данные!C16</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F26" s="412"/>
-      <c r="G26" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F28" s="421"/>
+      <c r="G28" s="424">
         <f>Данные!B16</f>
-        <v>32</v>
-      </c>
-      <c r="H26" s="413"/>
-      <c r="I26" s="413"/>
-      <c r="J26" s="413"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="386">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B27" s="409" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="410"/>
-      <c r="D27" s="411"/>
-      <c r="E27" s="412" t="str">
+        <v>26</v>
+      </c>
+      <c r="H28" s="426"/>
+      <c r="I28" s="427"/>
+      <c r="J28" s="428"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="416"/>
+      <c r="B29" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C29" s="418"/>
+      <c r="D29" s="419"/>
+      <c r="E29" s="422"/>
+      <c r="F29" s="423"/>
+      <c r="G29" s="425"/>
+      <c r="H29" s="429"/>
+      <c r="I29" s="430"/>
+      <c r="J29" s="431"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="415">
+        <v>1</v>
+      </c>
+      <c r="B30" s="410" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="411"/>
+      <c r="D30" s="412"/>
+      <c r="E30" s="420" t="str">
         <f>Данные!C17</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F27" s="412"/>
-      <c r="G27" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F30" s="421"/>
+      <c r="G30" s="424">
         <f>Данные!B17</f>
-        <v>32</v>
-      </c>
-      <c r="H27" s="413"/>
-      <c r="I27" s="413"/>
-      <c r="J27" s="413"/>
-    </row>
-    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="386">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B28" s="409" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="410"/>
-      <c r="D28" s="411"/>
-      <c r="E28" s="412" t="str">
+        <v>26</v>
+      </c>
+      <c r="H30" s="426"/>
+      <c r="I30" s="427"/>
+      <c r="J30" s="428"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="527"/>
+      <c r="B31" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C31" s="418"/>
+      <c r="D31" s="419"/>
+      <c r="E31" s="526"/>
+      <c r="F31" s="423"/>
+      <c r="G31" s="425"/>
+      <c r="H31" s="429"/>
+      <c r="I31" s="430"/>
+      <c r="J31" s="431"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="415">
+        <v>1</v>
+      </c>
+      <c r="B32" s="410" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="411"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="420" t="str">
         <f>Данные!C18</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F28" s="412"/>
-      <c r="G28" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F32" s="421"/>
+      <c r="G32" s="424">
         <f>Данные!B18</f>
-        <v>60</v>
-      </c>
-      <c r="H28" s="413"/>
-      <c r="I28" s="413"/>
-      <c r="J28" s="413"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="386">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B29" s="409" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="410"/>
-      <c r="D29" s="411"/>
-      <c r="E29" s="412" t="str">
+        <v>50</v>
+      </c>
+      <c r="H32" s="426"/>
+      <c r="I32" s="427"/>
+      <c r="J32" s="428"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="527"/>
+      <c r="B33" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C33" s="418"/>
+      <c r="D33" s="419"/>
+      <c r="E33" s="526"/>
+      <c r="F33" s="423"/>
+      <c r="G33" s="425"/>
+      <c r="H33" s="429"/>
+      <c r="I33" s="430"/>
+      <c r="J33" s="431"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="415">
+        <v>1</v>
+      </c>
+      <c r="B34" s="410" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="411"/>
+      <c r="D34" s="412"/>
+      <c r="E34" s="420" t="str">
         <f>Данные!C19</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F29" s="412"/>
-      <c r="G29" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F34" s="421"/>
+      <c r="G34" s="424">
         <f>Данные!B19</f>
-        <v>60</v>
-      </c>
-      <c r="H29" s="413"/>
-      <c r="I29" s="413"/>
-      <c r="J29" s="413"/>
-    </row>
-    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="386">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B30" s="409" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="410"/>
-      <c r="D30" s="411"/>
-      <c r="E30" s="412" t="str">
+        <v>50</v>
+      </c>
+      <c r="H34" s="426"/>
+      <c r="I34" s="427"/>
+      <c r="J34" s="428"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="527"/>
+      <c r="B35" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C35" s="418"/>
+      <c r="D35" s="419"/>
+      <c r="E35" s="526"/>
+      <c r="F35" s="423"/>
+      <c r="G35" s="425"/>
+      <c r="H35" s="429"/>
+      <c r="I35" s="430"/>
+      <c r="J35" s="431"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="415">
+        <v>1</v>
+      </c>
+      <c r="B36" s="410" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="411"/>
+      <c r="D36" s="412"/>
+      <c r="E36" s="420" t="str">
         <f>Данные!C20</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F30" s="412"/>
-      <c r="G30" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F36" s="421"/>
+      <c r="G36" s="424">
         <f>Данные!B20</f>
-        <v>50</v>
-      </c>
-      <c r="H30" s="413"/>
-      <c r="I30" s="413"/>
-      <c r="J30" s="413"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="386">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B31" s="409" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="410"/>
-      <c r="D31" s="411"/>
-      <c r="E31" s="412" t="str">
+        <v>40</v>
+      </c>
+      <c r="H36" s="426"/>
+      <c r="I36" s="427"/>
+      <c r="J36" s="428"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="527"/>
+      <c r="B37" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C37" s="418"/>
+      <c r="D37" s="419"/>
+      <c r="E37" s="526"/>
+      <c r="F37" s="423"/>
+      <c r="G37" s="425"/>
+      <c r="H37" s="429"/>
+      <c r="I37" s="430"/>
+      <c r="J37" s="431"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="415">
+        <v>1</v>
+      </c>
+      <c r="B38" s="410" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="411"/>
+      <c r="D38" s="412"/>
+      <c r="E38" s="420" t="str">
         <f>Данные!C21</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F31" s="412"/>
-      <c r="G31" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F38" s="421"/>
+      <c r="G38" s="424">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H31" s="413"/>
-      <c r="I31" s="413"/>
-      <c r="J31" s="413"/>
-    </row>
-    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="386">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B32" s="409" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="410"/>
-      <c r="D32" s="411"/>
-      <c r="E32" s="412" t="str">
+      <c r="H38" s="426"/>
+      <c r="I38" s="427"/>
+      <c r="J38" s="428"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="527"/>
+      <c r="B39" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C39" s="418"/>
+      <c r="D39" s="419"/>
+      <c r="E39" s="526"/>
+      <c r="F39" s="423"/>
+      <c r="G39" s="425"/>
+      <c r="H39" s="429"/>
+      <c r="I39" s="430"/>
+      <c r="J39" s="431"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="415">
+        <v>1</v>
+      </c>
+      <c r="B40" s="410" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="411"/>
+      <c r="D40" s="412"/>
+      <c r="E40" s="420" t="str">
         <f>Данные!C23</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F32" s="412"/>
-      <c r="G32" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F40" s="421"/>
+      <c r="G40" s="424">
         <f>Данные!B23</f>
-        <v>20</v>
-      </c>
-      <c r="H32" s="413"/>
-      <c r="I32" s="413"/>
-      <c r="J32" s="413"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="386">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B33" s="409" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="410"/>
-      <c r="D33" s="411"/>
-      <c r="E33" s="412" t="str">
-        <f>Данные!C23</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F33" s="412"/>
-      <c r="G33" s="318">
+        <v>18</v>
+      </c>
+      <c r="H40" s="426"/>
+      <c r="I40" s="427"/>
+      <c r="J40" s="428"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="527"/>
+      <c r="B41" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C41" s="418"/>
+      <c r="D41" s="419"/>
+      <c r="E41" s="526"/>
+      <c r="F41" s="423"/>
+      <c r="G41" s="425"/>
+      <c r="H41" s="429"/>
+      <c r="I41" s="430"/>
+      <c r="J41" s="431"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="415">
+        <v>1</v>
+      </c>
+      <c r="B42" s="410" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="411"/>
+      <c r="D42" s="412"/>
+      <c r="E42" s="420" t="str">
+        <f>Данные!C26</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F42" s="421"/>
+      <c r="G42" s="424">
         <f>Данные!B26</f>
-        <v>20</v>
-      </c>
-      <c r="H33" s="413"/>
-      <c r="I33" s="413"/>
-      <c r="J33" s="413"/>
-    </row>
-    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="386">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B34" s="409" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="410"/>
-      <c r="D34" s="411"/>
-      <c r="E34" s="412"/>
-      <c r="F34" s="412"/>
-      <c r="G34" s="388">
+        <v>18</v>
+      </c>
+      <c r="H42" s="426"/>
+      <c r="I42" s="427"/>
+      <c r="J42" s="428"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="527"/>
+      <c r="B43" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C43" s="418"/>
+      <c r="D43" s="419"/>
+      <c r="E43" s="526"/>
+      <c r="F43" s="423"/>
+      <c r="G43" s="425"/>
+      <c r="H43" s="429"/>
+      <c r="I43" s="430"/>
+      <c r="J43" s="431"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="415">
+        <v>1</v>
+      </c>
+      <c r="B44" s="410" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="411"/>
+      <c r="D44" s="412"/>
+      <c r="E44" s="420">
+        <f>Данные!C27</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="421"/>
+      <c r="G44" s="424">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H34" s="413"/>
-      <c r="I34" s="413"/>
-      <c r="J34" s="413"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="386">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B35" s="409" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="410"/>
-      <c r="D35" s="411"/>
-      <c r="E35" s="412" t="str">
+      <c r="H44" s="426"/>
+      <c r="I44" s="427"/>
+      <c r="J44" s="428"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="527"/>
+      <c r="B45" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C45" s="418"/>
+      <c r="D45" s="419"/>
+      <c r="E45" s="526"/>
+      <c r="F45" s="423"/>
+      <c r="G45" s="425"/>
+      <c r="H45" s="429"/>
+      <c r="I45" s="430"/>
+      <c r="J45" s="431"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="415">
+        <v>1</v>
+      </c>
+      <c r="B46" s="410" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="411"/>
+      <c r="D46" s="412"/>
+      <c r="E46" s="420" t="str">
         <f>Данные!C24</f>
-        <v>ХХI-В-28-1-200-5</v>
-      </c>
-      <c r="F35" s="412"/>
-      <c r="G35" s="318">
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="F46" s="421"/>
+      <c r="G46" s="424">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H35" s="413"/>
-      <c r="I35" s="413"/>
-      <c r="J35" s="413"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="313"/>
-      <c r="B36" s="313"/>
-      <c r="C36" s="313"/>
-      <c r="D36" s="313"/>
-      <c r="E36" s="313"/>
-      <c r="F36" s="313"/>
-      <c r="G36" s="313"/>
-      <c r="H36" s="313"/>
-      <c r="I36" s="313"/>
-      <c r="J36" s="314"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="313" t="s">
+      <c r="H46" s="426"/>
+      <c r="I46" s="427"/>
+      <c r="J46" s="428"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="527"/>
+      <c r="B47" s="417" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C47" s="418"/>
+      <c r="D47" s="419"/>
+      <c r="E47" s="526"/>
+      <c r="F47" s="423"/>
+      <c r="G47" s="425"/>
+      <c r="H47" s="429"/>
+      <c r="I47" s="430"/>
+      <c r="J47" s="431"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="311"/>
+      <c r="B48" s="311"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="311"/>
+      <c r="E48" s="311"/>
+      <c r="F48" s="311"/>
+      <c r="G48" s="311"/>
+      <c r="H48" s="311"/>
+      <c r="I48" s="311"/>
+      <c r="J48" s="312"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="311" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="311"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="311"/>
+      <c r="E49" s="311"/>
+      <c r="F49" s="311"/>
+      <c r="G49" s="311"/>
+      <c r="H49" s="311"/>
+      <c r="I49" s="311"/>
+      <c r="J49" s="312"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="311"/>
+      <c r="B50" s="311"/>
+      <c r="C50" s="311"/>
+      <c r="D50" s="318"/>
+      <c r="E50" s="318"/>
+      <c r="F50" s="318"/>
+      <c r="G50" s="318"/>
+      <c r="H50" s="318"/>
+      <c r="I50" s="311"/>
+      <c r="J50" s="312"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="311"/>
+      <c r="B51" s="314" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="313"/>
-      <c r="C37" s="313"/>
-      <c r="D37" s="313"/>
-      <c r="E37" s="313"/>
-      <c r="F37" s="313"/>
-      <c r="G37" s="313"/>
-      <c r="H37" s="313"/>
-      <c r="I37" s="313"/>
-      <c r="J37" s="314"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="313"/>
-      <c r="B38" s="313"/>
-      <c r="C38" s="313"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="313"/>
-      <c r="J38" s="314"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="313"/>
-      <c r="B39" s="316" t="s">
+      <c r="C51" s="311" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="313" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="313"/>
-      <c r="E39" s="313"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="313"/>
-      <c r="I39" s="313"/>
-      <c r="J39" s="314"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="313"/>
-      <c r="B40" s="313"/>
-      <c r="C40" s="313"/>
-      <c r="D40" s="313"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="313"/>
-      <c r="I40" s="313"/>
-      <c r="J40" s="314"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="313"/>
-      <c r="B41" s="313"/>
-      <c r="C41" s="313"/>
-      <c r="D41" s="313"/>
-      <c r="E41" s="313"/>
-      <c r="G41" s="317"/>
-      <c r="H41" s="317"/>
-      <c r="I41" s="313" t="str">
+      <c r="D51" s="311"/>
+      <c r="E51" s="311"/>
+      <c r="F51" s="311"/>
+      <c r="G51" s="311"/>
+      <c r="H51" s="311"/>
+      <c r="I51" s="311"/>
+      <c r="J51" s="312"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="311"/>
+      <c r="B52" s="311"/>
+      <c r="C52" s="311"/>
+      <c r="D52" s="311"/>
+      <c r="E52" s="311"/>
+      <c r="F52" s="311"/>
+      <c r="G52" s="311"/>
+      <c r="H52" s="311"/>
+      <c r="I52" s="311"/>
+      <c r="J52" s="312"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="311"/>
+      <c r="B53" s="311"/>
+      <c r="C53" s="311"/>
+      <c r="D53" s="311"/>
+      <c r="E53" s="311"/>
+      <c r="G53" s="315"/>
+      <c r="H53" s="315"/>
+      <c r="I53" s="311" t="str">
         <f>I17</f>
         <v>Я.В. Карчмит</v>
       </c>
-      <c r="J41" s="313"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="313"/>
-      <c r="B42" s="313"/>
-      <c r="C42" s="313"/>
-      <c r="D42" s="313"/>
-      <c r="E42" s="313"/>
-      <c r="G42" s="313"/>
-      <c r="H42" s="313"/>
-      <c r="I42" s="313"/>
-      <c r="J42" s="313"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="313"/>
-      <c r="B43" s="313"/>
-      <c r="C43" s="313"/>
-      <c r="D43" s="313"/>
-      <c r="E43" s="313"/>
-      <c r="G43" s="311"/>
-      <c r="H43" s="311"/>
-      <c r="I43" s="313" t="str">
+      <c r="J53" s="311"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="311"/>
+      <c r="B54" s="311"/>
+      <c r="C54" s="311"/>
+      <c r="D54" s="311"/>
+      <c r="E54" s="311"/>
+      <c r="G54" s="311"/>
+      <c r="H54" s="311"/>
+      <c r="I54" s="311"/>
+      <c r="J54" s="311"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="311"/>
+      <c r="B55" s="311"/>
+      <c r="C55" s="311"/>
+      <c r="D55" s="311"/>
+      <c r="E55" s="311"/>
+      <c r="G55" s="309"/>
+      <c r="H55" s="309"/>
+      <c r="I55" s="311" t="str">
         <f>I18</f>
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="310"/>
-      <c r="B44" s="310"/>
-      <c r="C44" s="310"/>
-      <c r="D44" s="310"/>
-      <c r="E44" s="310"/>
-    </row>
-    <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="310"/>
-      <c r="B45" s="310"/>
-      <c r="C45" s="310"/>
-      <c r="D45" s="310"/>
-      <c r="E45" s="310"/>
-      <c r="G45" s="317"/>
-      <c r="H45" s="317"/>
-      <c r="I45" s="313" t="str">
+    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="308"/>
+      <c r="B56" s="308"/>
+      <c r="C56" s="308"/>
+      <c r="D56" s="308"/>
+      <c r="E56" s="308"/>
+    </row>
+    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="308"/>
+      <c r="B57" s="308"/>
+      <c r="C57" s="308"/>
+      <c r="D57" s="308"/>
+      <c r="E57" s="308"/>
+      <c r="G57" s="315"/>
+      <c r="H57" s="315"/>
+      <c r="I57" s="311" t="str">
         <f>I19</f>
         <v>А.Д. Гавриленко</v>
       </c>
-      <c r="J45" s="313"/>
+      <c r="J57" s="311"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:J24"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8405,7 +8694,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8444,47 +8733,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="438"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="446" t="s">
+      <c r="B2" s="450"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="459" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="447"/>
-      <c r="G2" s="447"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="453" t="s">
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="461"/>
+      <c r="I2" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="457">
+      <c r="J2" s="467"/>
+      <c r="K2" s="470">
         <f>Данные!B14</f>
-        <v>24</v>
-      </c>
-      <c r="L2" s="458"/>
+        <v>22</v>
+      </c>
+      <c r="L2" s="471"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="449"/>
-      <c r="Q2" s="449"/>
+      <c r="P2" s="462"/>
+      <c r="Q2" s="462"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="440"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="460"/>
+      <c r="B3" s="453"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="455"/>
+      <c r="E3" s="463" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="464"/>
+      <c r="G3" s="464"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="469"/>
+      <c r="K3" s="472"/>
+      <c r="L3" s="473"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8495,9 +8784,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="445"/>
+      <c r="B4" s="456"/>
+      <c r="C4" s="457"/>
+      <c r="D4" s="458"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8516,22 +8805,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="423"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="436"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="424"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="400"/>
+      <c r="L5" s="401"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8542,22 +8831,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="426"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="439"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="424"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="402"/>
-      <c r="L6" s="403"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="437"/>
+      <c r="J6" s="438"/>
+      <c r="K6" s="400"/>
+      <c r="L6" s="401"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8568,27 +8857,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="430"/>
-      <c r="D7" s="404">
+      <c r="C7" s="443"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="429" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="442" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="433"/>
-      <c r="K7" s="392">
+      <c r="J7" s="446"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="391"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -8638,18 +8927,18 @@
       <c r="G9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="327"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="328"/>
-      <c r="S9" s="199"/>
+      <c r="L9" s="324"/>
+      <c r="M9" s="324"/>
+      <c r="N9" s="324"/>
+      <c r="O9" s="324"/>
+      <c r="P9" s="324"/>
+      <c r="Q9" s="324"/>
+      <c r="R9" s="325"/>
+      <c r="S9" s="197"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
@@ -8657,7 +8946,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="93">
-        <v>199.3</v>
+        <v>293.7</v>
       </c>
       <c r="D10" s="93">
         <v>0.08</v>
@@ -8675,13 +8964,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="330"/>
+      <c r="L10" s="326"/>
+      <c r="M10" s="326"/>
+      <c r="N10" s="326"/>
+      <c r="O10" s="326"/>
+      <c r="P10" s="326"/>
+      <c r="Q10" s="326"/>
+      <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8689,8 +8978,8 @@
       <c r="B11" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="325">
-        <v>136.19999999999999</v>
+      <c r="C11" s="322">
+        <v>152.4</v>
       </c>
       <c r="D11" s="98">
         <v>0.1</v>
@@ -8708,13 +8997,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="331"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
-      <c r="P11" s="331"/>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="332"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="328"/>
+      <c r="P11" s="328"/>
+      <c r="Q11" s="328"/>
+      <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8723,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="98">
-        <v>22.85</v>
+        <v>42.8</v>
       </c>
       <c r="D12" s="98">
         <v>0.05</v>
@@ -8741,13 +9030,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="331"/>
-      <c r="M12" s="331"/>
-      <c r="N12" s="331"/>
-      <c r="O12" s="331"/>
-      <c r="P12" s="331"/>
-      <c r="Q12" s="331"/>
-      <c r="R12" s="332"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
+      <c r="P12" s="328"/>
+      <c r="Q12" s="328"/>
+      <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8755,7 +9044,7 @@
       <c r="B13" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="325">
+      <c r="C13" s="322">
         <v>5</v>
       </c>
       <c r="D13" s="98">
@@ -8764,7 +9053,7 @@
       <c r="E13" s="98">
         <v>0</v>
       </c>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="55" t="s">
@@ -8774,13 +9063,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="331"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="331"/>
-      <c r="O13" s="331"/>
-      <c r="P13" s="331"/>
-      <c r="Q13" s="331"/>
-      <c r="R13" s="332"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="328"/>
+      <c r="P13" s="328"/>
+      <c r="Q13" s="328"/>
+      <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8788,7 +9077,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="325">
+      <c r="C14" s="322">
         <v>10</v>
       </c>
       <c r="D14" s="98">
@@ -8797,7 +9086,7 @@
       <c r="E14" s="98">
         <v>0</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="55" t="s">
@@ -8807,13 +9096,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="331"/>
-      <c r="M14" s="331"/>
-      <c r="N14" s="331"/>
-      <c r="O14" s="331"/>
-      <c r="P14" s="331"/>
-      <c r="Q14" s="331"/>
-      <c r="R14" s="332"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="328"/>
+      <c r="P14" s="328"/>
+      <c r="Q14" s="328"/>
+      <c r="R14" s="329"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8821,8 +9110,8 @@
       <c r="B15" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="325">
-        <v>114.2</v>
+      <c r="C15" s="386">
+        <v>245.9</v>
       </c>
       <c r="D15" s="98">
         <v>0.1</v>
@@ -8840,13 +9129,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="331"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="331"/>
-      <c r="O15" s="331"/>
-      <c r="P15" s="331"/>
-      <c r="Q15" s="331"/>
-      <c r="R15" s="332"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="328"/>
+      <c r="P15" s="328"/>
+      <c r="Q15" s="328"/>
+      <c r="R15" s="329"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8855,7 +9144,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="98">
-        <v>173.9</v>
+        <v>263.2</v>
       </c>
       <c r="D16" s="98">
         <v>0.05</v>
@@ -8873,13 +9162,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="331"/>
-      <c r="M16" s="331"/>
-      <c r="N16" s="331"/>
-      <c r="O16" s="331"/>
-      <c r="P16" s="331"/>
-      <c r="Q16" s="331"/>
-      <c r="R16" s="332"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="328"/>
+      <c r="N16" s="328"/>
+      <c r="O16" s="328"/>
+      <c r="P16" s="328"/>
+      <c r="Q16" s="328"/>
+      <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8887,8 +9176,8 @@
       <c r="B17" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="325">
-        <v>136.19999999999999</v>
+      <c r="C17" s="322">
+        <v>138</v>
       </c>
       <c r="D17" s="98">
         <v>0.05</v>
@@ -8899,64 +9188,64 @@
       <c r="F17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="56" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="99"/>
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="331"/>
-      <c r="M17" s="331"/>
-      <c r="N17" s="331"/>
-      <c r="O17" s="331"/>
-      <c r="P17" s="331"/>
-      <c r="Q17" s="331"/>
-      <c r="R17" s="332"/>
+      <c r="L17" s="328"/>
+      <c r="M17" s="328"/>
+      <c r="N17" s="328"/>
+      <c r="O17" s="328"/>
+      <c r="P17" s="328"/>
+      <c r="Q17" s="328"/>
+      <c r="R17" s="329"/>
       <c r="S17" s="86"/>
     </row>
     <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="106">
-        <v>49.4</v>
-      </c>
-      <c r="D18" s="106">
+      <c r="C18" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="105">
         <v>0.05</v>
       </c>
       <c r="E18" s="98">
         <v>0</v>
       </c>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="333"/>
-      <c r="M18" s="333"/>
-      <c r="N18" s="333"/>
-      <c r="O18" s="333"/>
-      <c r="P18" s="333"/>
-      <c r="Q18" s="333"/>
-      <c r="R18" s="334"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="330"/>
+      <c r="N18" s="330"/>
+      <c r="O18" s="330"/>
+      <c r="P18" s="330"/>
+      <c r="Q18" s="330"/>
+      <c r="R18" s="331"/>
       <c r="S18" s="86"/>
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="106">
-        <v>25.2</v>
-      </c>
-      <c r="D19" s="106">
+      <c r="C19" s="105">
+        <v>26.2</v>
+      </c>
+      <c r="D19" s="105">
         <v>0.02</v>
       </c>
       <c r="E19" s="98">
@@ -8968,28 +9257,28 @@
       <c r="G19" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="333"/>
-      <c r="O19" s="333"/>
-      <c r="P19" s="333"/>
-      <c r="Q19" s="333"/>
-      <c r="R19" s="334"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="330"/>
+      <c r="N19" s="330"/>
+      <c r="O19" s="330"/>
+      <c r="P19" s="330"/>
+      <c r="Q19" s="330"/>
+      <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="106">
+      <c r="C20" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="105">
         <v>0.05</v>
       </c>
       <c r="E20" s="98">
@@ -9001,28 +9290,28 @@
       <c r="G20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="333"/>
-      <c r="M20" s="333"/>
-      <c r="N20" s="333"/>
-      <c r="O20" s="333"/>
-      <c r="P20" s="333"/>
-      <c r="Q20" s="333"/>
-      <c r="R20" s="334"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="330"/>
+      <c r="M20" s="330"/>
+      <c r="N20" s="330"/>
+      <c r="O20" s="330"/>
+      <c r="P20" s="330"/>
+      <c r="Q20" s="330"/>
+      <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="326">
+      <c r="B21" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="323">
         <v>0.2</v>
       </c>
-      <c r="D21" s="106">
+      <c r="D21" s="105">
         <v>0.02</v>
       </c>
       <c r="E21" s="98">
@@ -9031,31 +9320,31 @@
       <c r="F21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="250" t="s">
+      <c r="G21" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="333"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="333"/>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
-      <c r="Q21" s="333"/>
-      <c r="R21" s="334"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="330"/>
+      <c r="M21" s="330"/>
+      <c r="N21" s="330"/>
+      <c r="O21" s="330"/>
+      <c r="P21" s="330"/>
+      <c r="Q21" s="330"/>
+      <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
-      <c r="B22" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="326">
+      <c r="B22" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="323">
         <v>0.2</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D22" s="105">
         <v>0.02</v>
       </c>
       <c r="E22" s="98">
@@ -9064,96 +9353,96 @@
       <c r="F22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="250" t="s">
+      <c r="G22" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="333"/>
-      <c r="M22" s="333"/>
-      <c r="N22" s="333"/>
-      <c r="O22" s="333"/>
-      <c r="P22" s="333"/>
-      <c r="Q22" s="333"/>
-      <c r="R22" s="334"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="330"/>
+      <c r="M22" s="330"/>
+      <c r="N22" s="330"/>
+      <c r="O22" s="330"/>
+      <c r="P22" s="330"/>
+      <c r="Q22" s="330"/>
+      <c r="R22" s="331"/>
       <c r="S22" s="86"/>
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="434" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="435"/>
-      <c r="D23" s="435"/>
-      <c r="E23" s="436"/>
-      <c r="F23" s="118" t="s">
+      <c r="B23" s="447" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="448"/>
+      <c r="D23" s="448"/>
+      <c r="E23" s="449"/>
+      <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="308" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="107"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="333"/>
-      <c r="M23" s="333"/>
-      <c r="N23" s="333"/>
-      <c r="O23" s="333"/>
-      <c r="P23" s="333"/>
-      <c r="Q23" s="333"/>
-      <c r="R23" s="334"/>
+      <c r="G23" s="306" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="106"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="330"/>
+      <c r="M23" s="330"/>
+      <c r="N23" s="330"/>
+      <c r="O23" s="330"/>
+      <c r="P23" s="330"/>
+      <c r="Q23" s="330"/>
+      <c r="R23" s="331"/>
       <c r="S23" s="86"/>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="419" t="s">
+      <c r="B24" s="432" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="433"/>
+      <c r="D24" s="433"/>
+      <c r="E24" s="434"/>
+      <c r="F24" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="420"/>
-      <c r="D24" s="420"/>
-      <c r="E24" s="421"/>
-      <c r="F24" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="335"/>
-      <c r="M24" s="335"/>
-      <c r="N24" s="335"/>
-      <c r="O24" s="335"/>
-      <c r="P24" s="335"/>
-      <c r="Q24" s="335"/>
-      <c r="R24" s="336"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="332"/>
+      <c r="M24" s="332"/>
+      <c r="N24" s="332"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="332"/>
+      <c r="R24" s="333"/>
       <c r="S24" s="86"/>
     </row>
     <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="116"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="114"/>
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -9200,11 +9489,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9243,50 +9532,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="468">
+      <c r="B2" s="481">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="C2" s="482"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="490" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="492"/>
+      <c r="I2" s="496" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="497"/>
+      <c r="K2" s="500">
         <f>Данные!B15</f>
-        <v>24</v>
-      </c>
-      <c r="L2" s="488"/>
+        <v>22</v>
+      </c>
+      <c r="L2" s="501"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="449"/>
-      <c r="Q2" s="449"/>
+      <c r="P2" s="462"/>
+      <c r="Q2" s="462"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="493" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="499"/>
+      <c r="K3" s="502"/>
+      <c r="L3" s="503"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9297,17 +9586,17 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
       <c r="M4" s="72"/>
       <c r="N4" s="71"/>
       <c r="O4" s="71"/>
@@ -9318,22 +9607,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="474"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="477"/>
+      <c r="L5" s="401"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9344,22 +9633,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="474"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="476"/>
+      <c r="K6" s="477"/>
+      <c r="L6" s="401"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9370,27 +9659,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="478"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="478"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="391"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9444,13 +9733,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="327"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="328"/>
+      <c r="L9" s="324"/>
+      <c r="M9" s="324"/>
+      <c r="N9" s="324"/>
+      <c r="O9" s="324"/>
+      <c r="P9" s="324"/>
+      <c r="Q9" s="324"/>
+      <c r="R9" s="325"/>
       <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -9458,8 +9747,8 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93">
-        <v>49.3</v>
+      <c r="C10" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -9467,7 +9756,7 @@
       <c r="E10" s="93">
         <v>0</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="59" t="s">
@@ -9477,13 +9766,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="330"/>
+      <c r="L10" s="326"/>
+      <c r="M10" s="326"/>
+      <c r="N10" s="326"/>
+      <c r="O10" s="326"/>
+      <c r="P10" s="326"/>
+      <c r="Q10" s="326"/>
+      <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9491,7 +9780,7 @@
       <c r="B11" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="325">
+      <c r="C11" s="322">
         <v>25.5</v>
       </c>
       <c r="D11" s="98">
@@ -9510,13 +9799,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="331"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
-      <c r="P11" s="331"/>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="332"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="328"/>
+      <c r="P11" s="328"/>
+      <c r="Q11" s="328"/>
+      <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9524,7 +9813,7 @@
       <c r="B12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="322">
         <v>20</v>
       </c>
       <c r="D12" s="98">
@@ -9543,13 +9832,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="331"/>
-      <c r="M12" s="331"/>
-      <c r="N12" s="331"/>
-      <c r="O12" s="331"/>
-      <c r="P12" s="331"/>
-      <c r="Q12" s="331"/>
-      <c r="R12" s="332"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
+      <c r="P12" s="328"/>
+      <c r="Q12" s="328"/>
+      <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9557,8 +9846,8 @@
       <c r="B13" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="325">
-        <v>45.4</v>
+      <c r="C13" s="386">
+        <v>50.5</v>
       </c>
       <c r="D13" s="98">
         <v>0.1</v>
@@ -9576,94 +9865,94 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="331"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="331"/>
-      <c r="O13" s="331"/>
-      <c r="P13" s="331"/>
-      <c r="Q13" s="331"/>
-      <c r="R13" s="332"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="328"/>
+      <c r="P13" s="328"/>
+      <c r="Q13" s="328"/>
+      <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="434" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="435"/>
-      <c r="D14" s="435"/>
-      <c r="E14" s="435"/>
-      <c r="F14" s="467"/>
+      <c r="B14" s="447" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="448"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="448"/>
+      <c r="F14" s="480"/>
       <c r="G14" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="333"/>
-      <c r="M14" s="333"/>
-      <c r="N14" s="333"/>
-      <c r="O14" s="333"/>
-      <c r="P14" s="333"/>
-      <c r="Q14" s="333"/>
-      <c r="R14" s="334"/>
+        <v>77</v>
+      </c>
+      <c r="H14" s="106"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="330"/>
+      <c r="M14" s="330"/>
+      <c r="N14" s="330"/>
+      <c r="O14" s="330"/>
+      <c r="P14" s="330"/>
+      <c r="Q14" s="330"/>
+      <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="419" t="s">
+      <c r="B15" s="432" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="433"/>
+      <c r="D15" s="433"/>
+      <c r="E15" s="434"/>
+      <c r="F15" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="420"/>
-      <c r="D15" s="420"/>
-      <c r="E15" s="421"/>
-      <c r="F15" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="335"/>
-      <c r="M15" s="335"/>
-      <c r="N15" s="335"/>
-      <c r="O15" s="335"/>
-      <c r="P15" s="335"/>
-      <c r="Q15" s="335"/>
-      <c r="R15" s="336"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="332"/>
+      <c r="M15" s="332"/>
+      <c r="N15" s="332"/>
+      <c r="O15" s="332"/>
+      <c r="P15" s="332"/>
+      <c r="Q15" s="332"/>
+      <c r="R15" s="333"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="112"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="116"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="114"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="125"/>
-      <c r="P17" s="126"/>
+      <c r="B17" s="123"/>
+      <c r="P17" s="124"/>
     </row>
     <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125"/>
+      <c r="B18" s="123"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
@@ -9719,10 +10008,10 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9761,47 +10050,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="438"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="446" t="s">
+      <c r="B2" s="450"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="459" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="447"/>
-      <c r="G2" s="447"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="453" t="s">
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="461"/>
+      <c r="I2" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="457">
+      <c r="J2" s="467"/>
+      <c r="K2" s="470">
         <f>Данные!B16</f>
-        <v>32</v>
-      </c>
-      <c r="L2" s="458"/>
+        <v>26</v>
+      </c>
+      <c r="L2" s="471"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="449"/>
-      <c r="Q2" s="449"/>
+      <c r="P2" s="462"/>
+      <c r="Q2" s="462"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="440"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="450" t="s">
+      <c r="B3" s="453"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="455"/>
+      <c r="E3" s="463" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="460"/>
+      <c r="F3" s="464"/>
+      <c r="G3" s="464"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="469"/>
+      <c r="K3" s="472"/>
+      <c r="L3" s="473"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9812,9 +10101,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="445"/>
+      <c r="B4" s="456"/>
+      <c r="C4" s="457"/>
+      <c r="D4" s="458"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9833,22 +10122,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="423"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="436"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="424"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="400"/>
+      <c r="L5" s="401"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9859,22 +10148,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="426"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="439"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="424"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="402"/>
-      <c r="L6" s="403"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="437"/>
+      <c r="J6" s="438"/>
+      <c r="K6" s="400"/>
+      <c r="L6" s="401"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9885,27 +10174,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="430"/>
-      <c r="D7" s="404">
+      <c r="C7" s="443"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="429" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="442" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="433"/>
-      <c r="K7" s="392">
+      <c r="J7" s="446"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="391"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9959,13 +10248,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="327"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="328"/>
+      <c r="L9" s="324"/>
+      <c r="M9" s="324"/>
+      <c r="N9" s="324"/>
+      <c r="O9" s="324"/>
+      <c r="P9" s="324"/>
+      <c r="Q9" s="324"/>
+      <c r="R9" s="325"/>
       <c r="S9" s="90"/>
       <c r="V9" s="91"/>
       <c r="W9" s="91"/>
@@ -9977,7 +10266,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="93">
-        <v>190.15</v>
+        <v>272.95</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -9995,13 +10284,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="330"/>
+      <c r="L10" s="326"/>
+      <c r="M10" s="326"/>
+      <c r="N10" s="326"/>
+      <c r="O10" s="326"/>
+      <c r="P10" s="326"/>
+      <c r="Q10" s="326"/>
+      <c r="R10" s="327"/>
       <c r="S10" s="86"/>
       <c r="V10" s="91"/>
       <c r="W10" s="91"/>
@@ -10012,7 +10301,7 @@
       <c r="B11" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="325">
+      <c r="C11" s="322">
         <v>5</v>
       </c>
       <c r="D11" s="98">
@@ -10021,7 +10310,7 @@
       <c r="E11" s="98">
         <v>0</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="119" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="55" t="s">
@@ -10031,13 +10320,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="331"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
-      <c r="P11" s="331"/>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="332"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="328"/>
+      <c r="P11" s="328"/>
+      <c r="Q11" s="328"/>
+      <c r="R11" s="329"/>
       <c r="S11" s="86"/>
       <c r="V11" s="91"/>
       <c r="W11" s="101"/>
@@ -10048,7 +10337,7 @@
       <c r="B12" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="322">
         <v>10</v>
       </c>
       <c r="D12" s="98">
@@ -10057,7 +10346,7 @@
       <c r="E12" s="98">
         <v>0</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="118" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="55" t="s">
@@ -10067,13 +10356,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="331"/>
-      <c r="M12" s="331"/>
-      <c r="N12" s="331"/>
-      <c r="O12" s="331"/>
-      <c r="P12" s="331"/>
-      <c r="Q12" s="331"/>
-      <c r="R12" s="332"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
+      <c r="P12" s="328"/>
+      <c r="Q12" s="328"/>
+      <c r="R12" s="329"/>
       <c r="S12" s="86"/>
       <c r="V12" s="91"/>
       <c r="W12" s="102"/>
@@ -10084,8 +10373,8 @@
       <c r="B13" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="325">
-        <v>109.1</v>
+      <c r="C13" s="386">
+        <v>157</v>
       </c>
       <c r="D13" s="98">
         <v>0.1</v>
@@ -10093,7 +10382,7 @@
       <c r="E13" s="98">
         <v>-0.1</v>
       </c>
-      <c r="F13" s="119" t="s">
+      <c r="F13" s="117" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="55" t="s">
@@ -10103,13 +10392,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="331"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="331"/>
-      <c r="O13" s="331"/>
-      <c r="P13" s="331"/>
-      <c r="Q13" s="331"/>
-      <c r="R13" s="332"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="328"/>
+      <c r="P13" s="328"/>
+      <c r="Q13" s="328"/>
+      <c r="R13" s="329"/>
       <c r="S13" s="86"/>
       <c r="V13" s="91"/>
       <c r="W13" s="102"/>
@@ -10121,7 +10410,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="98">
-        <v>163.5</v>
+        <v>246</v>
       </c>
       <c r="D14" s="98">
         <v>0.05</v>
@@ -10139,13 +10428,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="331"/>
-      <c r="M14" s="331"/>
-      <c r="N14" s="331"/>
-      <c r="O14" s="331"/>
-      <c r="P14" s="331"/>
-      <c r="Q14" s="331"/>
-      <c r="R14" s="332"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="328"/>
+      <c r="P14" s="328"/>
+      <c r="Q14" s="328"/>
+      <c r="R14" s="329"/>
       <c r="S14" s="86"/>
       <c r="V14" s="91"/>
       <c r="W14" s="102"/>
@@ -10156,7 +10445,7 @@
       <c r="B15" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="325">
+      <c r="C15" s="322">
         <v>136.19999999999999</v>
       </c>
       <c r="D15" s="98">
@@ -10175,13 +10464,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="331"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="331"/>
-      <c r="O15" s="331"/>
-      <c r="P15" s="331"/>
-      <c r="Q15" s="331"/>
-      <c r="R15" s="332"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="328"/>
+      <c r="P15" s="328"/>
+      <c r="Q15" s="328"/>
+      <c r="R15" s="329"/>
       <c r="S15" s="86"/>
       <c r="V15" s="91"/>
       <c r="W15" s="101"/>
@@ -10192,7 +10481,7 @@
       <c r="B16" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="325">
+      <c r="C16" s="322">
         <v>75.400000000000006</v>
       </c>
       <c r="D16" s="98">
@@ -10201,7 +10490,7 @@
       <c r="E16" s="98">
         <v>0</v>
       </c>
-      <c r="F16" s="118" t="s">
+      <c r="F16" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="55" t="s">
@@ -10211,13 +10500,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="331"/>
-      <c r="M16" s="331"/>
-      <c r="N16" s="331"/>
-      <c r="O16" s="331"/>
-      <c r="P16" s="331"/>
-      <c r="Q16" s="331"/>
-      <c r="R16" s="332"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="328"/>
+      <c r="N16" s="328"/>
+      <c r="O16" s="328"/>
+      <c r="P16" s="328"/>
+      <c r="Q16" s="328"/>
+      <c r="R16" s="329"/>
       <c r="S16" s="86"/>
       <c r="V16" s="91"/>
       <c r="W16" s="102"/>
@@ -10225,19 +10514,19 @@
     </row>
     <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="106">
-        <v>24.7</v>
-      </c>
-      <c r="D17" s="106">
+      <c r="C17" s="105">
+        <v>25.7</v>
+      </c>
+      <c r="D17" s="105">
         <v>0.05</v>
       </c>
       <c r="E17" s="98">
         <v>0</v>
       </c>
-      <c r="F17" s="117" t="s">
+      <c r="F17" s="115" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="55" t="s">
@@ -10247,13 +10536,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="331"/>
-      <c r="M17" s="331"/>
-      <c r="N17" s="331"/>
-      <c r="O17" s="331"/>
-      <c r="P17" s="331"/>
-      <c r="Q17" s="331"/>
-      <c r="R17" s="332"/>
+      <c r="L17" s="328"/>
+      <c r="M17" s="328"/>
+      <c r="N17" s="328"/>
+      <c r="O17" s="328"/>
+      <c r="P17" s="328"/>
+      <c r="Q17" s="328"/>
+      <c r="R17" s="329"/>
       <c r="S17" s="86"/>
       <c r="V17" s="91"/>
       <c r="W17" s="101"/>
@@ -10261,13 +10550,13 @@
     </row>
     <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="106">
-        <v>33.5</v>
-      </c>
-      <c r="D18" s="106">
+      <c r="C18" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="105">
         <v>0.05</v>
       </c>
       <c r="E18" s="98">
@@ -10283,13 +10572,13 @@
       <c r="I18" s="98"/>
       <c r="J18" s="98"/>
       <c r="K18" s="98"/>
-      <c r="L18" s="331"/>
-      <c r="M18" s="331"/>
-      <c r="N18" s="331"/>
-      <c r="O18" s="331"/>
-      <c r="P18" s="331"/>
-      <c r="Q18" s="331"/>
-      <c r="R18" s="332"/>
+      <c r="L18" s="328"/>
+      <c r="M18" s="328"/>
+      <c r="N18" s="328"/>
+      <c r="O18" s="328"/>
+      <c r="P18" s="328"/>
+      <c r="Q18" s="328"/>
+      <c r="R18" s="329"/>
       <c r="S18" s="86"/>
       <c r="V18" s="91"/>
       <c r="W18" s="101"/>
@@ -10297,35 +10586,35 @@
     </row>
     <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="364">
-        <v>65.2</v>
-      </c>
-      <c r="D19" s="106">
+      <c r="C19" s="361">
+        <v>77.8</v>
+      </c>
+      <c r="D19" s="105">
         <v>0.02</v>
       </c>
       <c r="E19" s="98">
         <v>-0.02</v>
       </c>
-      <c r="F19" s="118" t="s">
+      <c r="F19" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="333"/>
-      <c r="O19" s="333"/>
-      <c r="P19" s="333"/>
-      <c r="Q19" s="333"/>
-      <c r="R19" s="334"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="330"/>
+      <c r="N19" s="330"/>
+      <c r="O19" s="330"/>
+      <c r="P19" s="330"/>
+      <c r="Q19" s="330"/>
+      <c r="R19" s="331"/>
       <c r="S19" s="86"/>
       <c r="V19" s="91"/>
       <c r="W19" s="101"/>
@@ -10333,13 +10622,13 @@
     </row>
     <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="326">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="106">
+      <c r="C20" s="323">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="105">
         <v>0.02</v>
       </c>
       <c r="E20" s="98">
@@ -10348,49 +10637,46 @@
       <c r="F20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="122" t="s">
+      <c r="G20" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="109"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="335"/>
-      <c r="M20" s="335"/>
-      <c r="N20" s="335"/>
-      <c r="O20" s="335"/>
-      <c r="P20" s="335"/>
-      <c r="Q20" s="335"/>
-      <c r="R20" s="336"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="332"/>
+      <c r="M20" s="332"/>
+      <c r="N20" s="332"/>
+      <c r="O20" s="332"/>
+      <c r="P20" s="332"/>
+      <c r="Q20" s="332"/>
+      <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="112"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="116"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="114"/>
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -10406,6 +10692,9 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10473,47 +10762,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="438"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="446" t="s">
+      <c r="B2" s="450"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="459" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="447"/>
-      <c r="G2" s="447"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="453" t="s">
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="461"/>
+      <c r="I2" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="457">
+      <c r="J2" s="467"/>
+      <c r="K2" s="470">
         <f>Данные!B17</f>
-        <v>32</v>
-      </c>
-      <c r="L2" s="458"/>
+        <v>26</v>
+      </c>
+      <c r="L2" s="471"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="491"/>
-      <c r="Q2" s="491"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="440"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="450" t="s">
+      <c r="B3" s="453"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="455"/>
+      <c r="E3" s="463" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="460"/>
+      <c r="F3" s="464"/>
+      <c r="G3" s="464"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="469"/>
+      <c r="K3" s="472"/>
+      <c r="L3" s="473"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10524,9 +10813,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="445"/>
+      <c r="B4" s="456"/>
+      <c r="C4" s="457"/>
+      <c r="D4" s="458"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10545,22 +10834,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="423"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="436"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="424"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="400"/>
+      <c r="L5" s="401"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10571,22 +10860,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="426"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="439"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="424"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="402"/>
-      <c r="L6" s="403"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="437"/>
+      <c r="J6" s="438"/>
+      <c r="K6" s="400"/>
+      <c r="L6" s="401"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10597,27 +10886,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="430"/>
-      <c r="D7" s="404">
+      <c r="C7" s="443"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="429" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="442" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="433"/>
-      <c r="K7" s="392">
+      <c r="J7" s="446"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="391"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10671,13 +10960,13 @@
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="337"/>
-      <c r="M9" s="337"/>
-      <c r="N9" s="337"/>
-      <c r="O9" s="337"/>
-      <c r="P9" s="337"/>
-      <c r="Q9" s="337"/>
-      <c r="R9" s="338"/>
+      <c r="L9" s="334"/>
+      <c r="M9" s="334"/>
+      <c r="N9" s="334"/>
+      <c r="O9" s="334"/>
+      <c r="P9" s="334"/>
+      <c r="Q9" s="334"/>
+      <c r="R9" s="335"/>
       <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -10685,8 +10974,8 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="44">
-        <v>33.4</v>
+      <c r="C10" s="387" t="s">
+        <v>114</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -10704,13 +10993,13 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="339"/>
-      <c r="M10" s="339"/>
-      <c r="N10" s="339"/>
-      <c r="O10" s="339"/>
-      <c r="P10" s="339"/>
-      <c r="Q10" s="339"/>
-      <c r="R10" s="340"/>
+      <c r="L10" s="336"/>
+      <c r="M10" s="336"/>
+      <c r="N10" s="336"/>
+      <c r="O10" s="336"/>
+      <c r="P10" s="336"/>
+      <c r="Q10" s="336"/>
+      <c r="R10" s="337"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10719,7 +11008,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="44">
         <v>0.05</v>
@@ -10737,13 +11026,13 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="339"/>
-      <c r="N11" s="339"/>
-      <c r="O11" s="339"/>
-      <c r="P11" s="339"/>
-      <c r="Q11" s="339"/>
-      <c r="R11" s="340"/>
+      <c r="L11" s="336"/>
+      <c r="M11" s="336"/>
+      <c r="N11" s="336"/>
+      <c r="O11" s="336"/>
+      <c r="P11" s="336"/>
+      <c r="Q11" s="336"/>
+      <c r="R11" s="337"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10751,7 +11040,7 @@
       <c r="B12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="343">
+      <c r="C12" s="340">
         <v>57</v>
       </c>
       <c r="D12" s="44">
@@ -10770,13 +11059,13 @@
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
-      <c r="L12" s="339"/>
-      <c r="M12" s="339"/>
-      <c r="N12" s="339"/>
-      <c r="O12" s="339"/>
-      <c r="P12" s="339"/>
-      <c r="Q12" s="339"/>
-      <c r="R12" s="340"/>
+      <c r="L12" s="336"/>
+      <c r="M12" s="336"/>
+      <c r="N12" s="336"/>
+      <c r="O12" s="336"/>
+      <c r="P12" s="336"/>
+      <c r="Q12" s="336"/>
+      <c r="R12" s="337"/>
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10784,7 +11073,7 @@
       <c r="B13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="343">
+      <c r="C13" s="340">
         <v>50</v>
       </c>
       <c r="D13" s="44">
@@ -10803,13 +11092,13 @@
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="339"/>
-      <c r="M13" s="339"/>
-      <c r="N13" s="339"/>
-      <c r="O13" s="339"/>
-      <c r="P13" s="339"/>
-      <c r="Q13" s="339"/>
-      <c r="R13" s="340"/>
+      <c r="L13" s="336"/>
+      <c r="M13" s="336"/>
+      <c r="N13" s="336"/>
+      <c r="O13" s="336"/>
+      <c r="P13" s="336"/>
+      <c r="Q13" s="336"/>
+      <c r="R13" s="337"/>
       <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10817,7 +11106,7 @@
       <c r="B14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="343">
+      <c r="C14" s="340">
         <v>62</v>
       </c>
       <c r="D14" s="44">
@@ -10836,13 +11125,13 @@
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
-      <c r="L14" s="339"/>
-      <c r="M14" s="339"/>
-      <c r="N14" s="339"/>
-      <c r="O14" s="339"/>
-      <c r="P14" s="339"/>
-      <c r="Q14" s="339"/>
-      <c r="R14" s="340"/>
+      <c r="L14" s="336"/>
+      <c r="M14" s="336"/>
+      <c r="N14" s="336"/>
+      <c r="O14" s="336"/>
+      <c r="P14" s="336"/>
+      <c r="Q14" s="336"/>
+      <c r="R14" s="337"/>
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10850,7 +11139,7 @@
       <c r="B15" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="344">
+      <c r="C15" s="341">
         <v>12.7</v>
       </c>
       <c r="D15" s="49">
@@ -10869,13 +11158,13 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
-      <c r="L15" s="341"/>
-      <c r="M15" s="341"/>
-      <c r="N15" s="341"/>
-      <c r="O15" s="341"/>
-      <c r="P15" s="341"/>
-      <c r="Q15" s="341"/>
-      <c r="R15" s="342"/>
+      <c r="L15" s="338"/>
+      <c r="M15" s="338"/>
+      <c r="N15" s="338"/>
+      <c r="O15" s="338"/>
+      <c r="P15" s="338"/>
+      <c r="Q15" s="338"/>
+      <c r="R15" s="339"/>
       <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10946,13 +11235,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10991,157 +11280,157 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="B2" s="481"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="490" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="492"/>
+      <c r="I2" s="496" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="497"/>
+      <c r="K2" s="500">
         <f>Данные!B18</f>
-        <v>60</v>
-      </c>
-      <c r="L2" s="488"/>
-      <c r="M2" s="492"/>
-      <c r="N2" s="493"/>
-      <c r="O2" s="493"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
+        <v>50</v>
+      </c>
+      <c r="L2" s="501"/>
+      <c r="M2" s="505"/>
+      <c r="N2" s="506"/>
+      <c r="O2" s="506"/>
+      <c r="P2" s="506"/>
+      <c r="Q2" s="506"/>
+      <c r="R2" s="507"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
-      <c r="M3" s="495"/>
-      <c r="N3" s="496"/>
-      <c r="O3" s="496"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="493" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="499"/>
+      <c r="K3" s="502"/>
+      <c r="L3" s="503"/>
+      <c r="M3" s="508"/>
+      <c r="N3" s="509"/>
+      <c r="O3" s="509"/>
+      <c r="P3" s="509"/>
+      <c r="Q3" s="509"/>
+      <c r="R3" s="510"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="495"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="496"/>
-      <c r="R4" s="497"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="508"/>
+      <c r="N4" s="509"/>
+      <c r="O4" s="509"/>
+      <c r="P4" s="509"/>
+      <c r="Q4" s="509"/>
+      <c r="R4" s="510"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="474"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="495"/>
-      <c r="N5" s="496"/>
-      <c r="O5" s="496"/>
-      <c r="P5" s="496"/>
-      <c r="Q5" s="496"/>
-      <c r="R5" s="497"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="477"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="508"/>
+      <c r="N5" s="509"/>
+      <c r="O5" s="509"/>
+      <c r="P5" s="509"/>
+      <c r="Q5" s="509"/>
+      <c r="R5" s="510"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="474"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
-      <c r="M6" s="495"/>
-      <c r="N6" s="496"/>
-      <c r="O6" s="496"/>
-      <c r="P6" s="496"/>
-      <c r="Q6" s="496"/>
-      <c r="R6" s="497"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="476"/>
+      <c r="K6" s="477"/>
+      <c r="L6" s="401"/>
+      <c r="M6" s="508"/>
+      <c r="N6" s="509"/>
+      <c r="O6" s="509"/>
+      <c r="P6" s="509"/>
+      <c r="Q6" s="509"/>
+      <c r="R6" s="510"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="478"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="478"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
-      <c r="M7" s="495"/>
-      <c r="N7" s="496"/>
-      <c r="O7" s="496"/>
-      <c r="P7" s="496"/>
-      <c r="Q7" s="496"/>
-      <c r="R7" s="497"/>
+      <c r="L7" s="391"/>
+      <c r="M7" s="508"/>
+      <c r="N7" s="509"/>
+      <c r="O7" s="509"/>
+      <c r="P7" s="509"/>
+      <c r="Q7" s="509"/>
+      <c r="R7" s="510"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11167,29 +11456,29 @@
     </row>
     <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
-      <c r="B9" s="256" t="s">
+      <c r="B9" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="258" t="s">
+      <c r="E9" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="259" t="s">
+      <c r="F9" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="260" t="s">
+      <c r="G9" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
       <c r="M9" s="88"/>
       <c r="N9" s="88"/>
       <c r="O9" s="88"/>
@@ -11203,7 +11492,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="345">
+      <c r="C10" s="342">
         <v>75.400000000000006</v>
       </c>
       <c r="D10" s="93">
@@ -11212,7 +11501,7 @@
       <c r="E10" s="93">
         <v>-0.01</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="55" t="s">
@@ -11233,16 +11522,16 @@
     </row>
     <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
-      <c r="B11" s="202" t="s">
+      <c r="B11" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="133">
-        <v>25</v>
-      </c>
-      <c r="D11" s="133">
+      <c r="C11" s="131">
+        <v>26</v>
+      </c>
+      <c r="D11" s="131">
         <v>0.05</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="131">
         <v>0</v>
       </c>
       <c r="F11" s="51" t="s">
@@ -11266,16 +11555,16 @@
     </row>
     <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
-      <c r="B12" s="202" t="s">
+      <c r="B12" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="133">
-        <v>24.9</v>
-      </c>
-      <c r="D12" s="133">
+      <c r="C12" s="131">
+        <v>26.3</v>
+      </c>
+      <c r="D12" s="131">
         <v>0.05</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="131">
         <v>0</v>
       </c>
       <c r="F12" s="51" t="s">
@@ -11299,19 +11588,19 @@
     </row>
     <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="346">
+      <c r="C13" s="343">
         <v>38.1</v>
       </c>
-      <c r="D13" s="133">
+      <c r="D13" s="131">
         <v>0.03</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="131">
         <v>0</v>
       </c>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="55" t="s">
@@ -11335,7 +11624,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="325">
+      <c r="C14" s="322">
         <v>45.3</v>
       </c>
       <c r="D14" s="98">
@@ -11344,7 +11633,7 @@
       <c r="E14" s="98">
         <v>0</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="55" t="s">
@@ -11369,7 +11658,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="98">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="D15" s="98">
         <v>0.04</v>
@@ -11402,7 +11691,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="98">
-        <v>48</v>
+        <v>57.8</v>
       </c>
       <c r="D16" s="98">
         <v>0.1</v>
@@ -11435,7 +11724,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="98">
-        <v>16.45</v>
+        <v>28</v>
       </c>
       <c r="D17" s="98">
         <v>0.05</v>
@@ -11467,7 +11756,7 @@
       <c r="B18" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="325">
+      <c r="C18" s="322">
         <v>9.52</v>
       </c>
       <c r="D18" s="98">
@@ -11476,7 +11765,7 @@
       <c r="E18" s="98">
         <v>0</v>
       </c>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="55" t="s">
@@ -11501,7 +11790,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="98">
-        <v>27.2</v>
+        <v>28.4</v>
       </c>
       <c r="D19" s="98">
         <v>0.05</v>
@@ -11528,89 +11817,56 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="98">
-        <v>14.45</v>
-      </c>
-      <c r="D20" s="104">
-        <v>0.05</v>
-      </c>
-      <c r="E20" s="104">
-        <v>-0.05</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>22</v>
+      <c r="B20" s="432" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="433"/>
+      <c r="D20" s="433"/>
+      <c r="E20" s="434"/>
+      <c r="F20" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>24</v>
       </c>
       <c r="H20" s="107"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="109"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="419" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="420"/>
-      <c r="D21" s="420"/>
-      <c r="E21" s="421"/>
-      <c r="F21" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="86"/>
-    </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="116"/>
-    </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="125"/>
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="114"/>
+    </row>
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -11626,7 +11882,7 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -11634,7 +11890,7 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:R21">
+  <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -11659,7 +11915,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11697,47 +11953,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="B2" s="481"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="490" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="492"/>
+      <c r="I2" s="496" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="497"/>
+      <c r="K2" s="500">
         <f>Данные!B19</f>
-        <v>60</v>
-      </c>
-      <c r="L2" s="488"/>
+        <v>50</v>
+      </c>
+      <c r="L2" s="501"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="498"/>
-      <c r="Q2" s="498"/>
+      <c r="P2" s="511"/>
+      <c r="Q2" s="511"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="493" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="499"/>
+      <c r="K3" s="502"/>
+      <c r="L3" s="503"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11748,17 +12004,17 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
       <c r="M4" s="72"/>
       <c r="N4" s="71"/>
       <c r="O4" s="71"/>
@@ -11769,22 +12025,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="474"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="477"/>
+      <c r="L5" s="401"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11795,22 +12051,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="474"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="476"/>
+      <c r="K6" s="477"/>
+      <c r="L6" s="401"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11821,27 +12077,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="478"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="478"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="391"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11873,25 +12129,25 @@
     </row>
     <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
-      <c r="B9" s="256" t="s">
+      <c r="B9" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="258" t="s">
+      <c r="E9" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="259" t="s">
+      <c r="F9" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="260" t="s">
+      <c r="G9" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
@@ -11906,11 +12162,11 @@
     </row>
     <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="129" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="98">
-        <v>24.7</v>
+        <v>26.25</v>
       </c>
       <c r="D10" s="98">
         <v>0.05</v>
@@ -11918,11 +12174,11 @@
       <c r="E10" s="98">
         <v>0</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="98"/>
@@ -11939,11 +12195,11 @@
     </row>
     <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="129" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="98">
-        <v>19</v>
+        <v>21.55</v>
       </c>
       <c r="D11" s="98">
         <v>0.02</v>
@@ -11972,10 +12228,10 @@
     </row>
     <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="322">
         <v>28.6</v>
       </c>
       <c r="D12" s="98">
@@ -11984,13 +12240,13 @@
       <c r="E12" s="98">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="132"/>
+      <c r="H12" s="130"/>
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
@@ -12005,10 +12261,10 @@
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="325">
+      <c r="C13" s="322">
         <v>62</v>
       </c>
       <c r="D13" s="98">
@@ -12038,11 +12294,11 @@
     </row>
     <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="98">
-        <v>17.239999999999998</v>
+        <v>15.5</v>
       </c>
       <c r="D14" s="98">
         <v>0</v>
@@ -12071,10 +12327,10 @@
     </row>
     <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="325">
+      <c r="C15" s="322">
         <v>9.5</v>
       </c>
       <c r="D15" s="98">
@@ -12104,54 +12360,54 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="419" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="420"/>
-      <c r="D16" s="420"/>
-      <c r="E16" s="421"/>
-      <c r="F16" s="261" t="s">
+      <c r="B16" s="432" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="433"/>
+      <c r="D16" s="433"/>
+      <c r="E16" s="434"/>
+      <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="200" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124"/>
+      <c r="G16" s="198" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="107"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="122"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="116"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="114"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125"/>
+      <c r="B18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -12202,264 +12458,264 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
-    <col min="8" max="18" width="9" style="171" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="171"/>
+    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
+    <col min="8" max="18" width="9" style="169" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="169"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="170"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="168"/>
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="172"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="490" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="492"/>
+      <c r="I2" s="496" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="497"/>
+      <c r="K2" s="500">
         <f>Данные!B20</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="488"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="499"/>
-      <c r="Q2" s="499"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="177"/>
+        <v>40</v>
+      </c>
+      <c r="L2" s="501"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="512"/>
+      <c r="Q2" s="512"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="177"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="493" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="499"/>
+      <c r="K3" s="502"/>
+      <c r="L3" s="503"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="175"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="172"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="177"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="175"/>
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="172"/>
-      <c r="B5" s="422" t="s">
+      <c r="A5" s="170"/>
+      <c r="B5" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="474"/>
+      <c r="D5" s="399" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="177"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="477"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="175"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172"/>
-      <c r="B6" s="422" t="s">
+      <c r="A6" s="170"/>
+      <c r="B6" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="474"/>
+      <c r="D6" s="393" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="177"/>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="476"/>
+      <c r="K6" s="477"/>
+      <c r="L6" s="401"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="175"/>
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
-      <c r="B7" s="429" t="s">
+      <c r="A7" s="170"/>
+      <c r="B7" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="478"/>
+      <c r="D7" s="402">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="445"/>
+      <c r="I7" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="478"/>
+      <c r="K7" s="390">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="177"/>
+      <c r="L7" s="391"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="175"/>
     </row>
     <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="187"/>
-      <c r="S8" s="188"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="186"/>
     </row>
     <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="256" t="s">
+      <c r="A9" s="187"/>
+      <c r="B9" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="258" t="s">
+      <c r="E9" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="259" t="s">
+      <c r="F9" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="260" t="s">
+      <c r="G9" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="347"/>
-      <c r="P9" s="348"/>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="349"/>
-      <c r="S9" s="204"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="345"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="346"/>
+      <c r="S9" s="202"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="182"/>
-      <c r="B10" s="191" t="s">
+      <c r="A10" s="180"/>
+      <c r="B10" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="192">
-        <v>70.72</v>
-      </c>
-      <c r="D10" s="192">
+      <c r="C10" s="190">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D10" s="190">
         <v>0.05</v>
       </c>
-      <c r="E10" s="192">
+      <c r="E10" s="190">
         <v>-0.05</v>
       </c>
       <c r="F10" s="51" t="s">
@@ -12468,33 +12724,33 @@
       <c r="G10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="350" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="350"/>
-      <c r="P10" s="350"/>
-      <c r="Q10" s="350"/>
-      <c r="R10" s="351"/>
-      <c r="S10" s="188"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="347" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="347"/>
+      <c r="P10" s="347"/>
+      <c r="Q10" s="347"/>
+      <c r="R10" s="348"/>
+      <c r="S10" s="186"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="182"/>
-      <c r="B11" s="193" t="s">
+      <c r="A11" s="180"/>
+      <c r="B11" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="194">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D11" s="194">
+      <c r="C11" s="192">
+        <v>21.5</v>
+      </c>
+      <c r="D11" s="192">
         <v>0.02</v>
       </c>
-      <c r="E11" s="194">
+      <c r="E11" s="192">
         <v>0</v>
       </c>
       <c r="F11" s="51" t="s">
@@ -12503,31 +12759,31 @@
       <c r="G11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="352"/>
-      <c r="O11" s="352"/>
-      <c r="P11" s="352"/>
-      <c r="Q11" s="352"/>
-      <c r="R11" s="353"/>
-      <c r="S11" s="188"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="349"/>
+      <c r="O11" s="349"/>
+      <c r="P11" s="349"/>
+      <c r="Q11" s="349"/>
+      <c r="R11" s="350"/>
+      <c r="S11" s="186"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182"/>
-      <c r="B12" s="193" t="s">
+      <c r="A12" s="180"/>
+      <c r="B12" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="362">
+      <c r="C12" s="359">
         <v>45.2</v>
       </c>
-      <c r="D12" s="194">
+      <c r="D12" s="192">
         <v>0</v>
       </c>
-      <c r="E12" s="205">
+      <c r="E12" s="203">
         <v>-0.1</v>
       </c>
       <c r="F12" s="51" t="s">
@@ -12536,31 +12792,31 @@
       <c r="G12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="352"/>
-      <c r="O12" s="352"/>
-      <c r="P12" s="352"/>
-      <c r="Q12" s="352"/>
-      <c r="R12" s="353"/>
-      <c r="S12" s="188"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="192"/>
+      <c r="N12" s="349"/>
+      <c r="O12" s="349"/>
+      <c r="P12" s="349"/>
+      <c r="Q12" s="349"/>
+      <c r="R12" s="350"/>
+      <c r="S12" s="186"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
-      <c r="B13" s="193" t="s">
+      <c r="A13" s="180"/>
+      <c r="B13" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="362">
+      <c r="C13" s="359">
         <v>37</v>
       </c>
-      <c r="D13" s="194">
+      <c r="D13" s="192">
         <v>0</v>
       </c>
-      <c r="E13" s="194">
+      <c r="E13" s="192">
         <v>-0.1</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -12569,31 +12825,31 @@
       <c r="G13" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="352"/>
-      <c r="O13" s="352"/>
-      <c r="P13" s="352"/>
-      <c r="Q13" s="352"/>
-      <c r="R13" s="353"/>
-      <c r="S13" s="188"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="349"/>
+      <c r="O13" s="349"/>
+      <c r="P13" s="349"/>
+      <c r="Q13" s="349"/>
+      <c r="R13" s="350"/>
+      <c r="S13" s="186"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
-      <c r="B14" s="193" t="s">
+      <c r="A14" s="180"/>
+      <c r="B14" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="362">
+      <c r="C14" s="359">
         <v>28.5</v>
       </c>
-      <c r="D14" s="194">
+      <c r="D14" s="192">
         <v>0</v>
       </c>
-      <c r="E14" s="194">
+      <c r="E14" s="192">
         <v>-0.1</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -12602,31 +12858,31 @@
       <c r="G14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="352"/>
-      <c r="O14" s="352"/>
-      <c r="P14" s="352"/>
-      <c r="Q14" s="352"/>
-      <c r="R14" s="353"/>
-      <c r="S14" s="188"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="349"/>
+      <c r="O14" s="349"/>
+      <c r="P14" s="349"/>
+      <c r="Q14" s="349"/>
+      <c r="R14" s="350"/>
+      <c r="S14" s="186"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
-      <c r="B15" s="193" t="s">
+      <c r="A15" s="180"/>
+      <c r="B15" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="362">
+      <c r="C15" s="359">
         <v>9.5</v>
       </c>
-      <c r="D15" s="194">
+      <c r="D15" s="192">
         <v>0.02</v>
       </c>
-      <c r="E15" s="194">
+      <c r="E15" s="192">
         <v>-0.05</v>
       </c>
       <c r="F15" s="51" t="s">
@@ -12635,31 +12891,31 @@
       <c r="G15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="352"/>
-      <c r="P15" s="352"/>
-      <c r="Q15" s="352"/>
-      <c r="R15" s="353"/>
-      <c r="S15" s="188"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="349"/>
+      <c r="O15" s="349"/>
+      <c r="P15" s="349"/>
+      <c r="Q15" s="349"/>
+      <c r="R15" s="350"/>
+      <c r="S15" s="186"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="193" t="s">
+      <c r="A16" s="180"/>
+      <c r="B16" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="362">
+      <c r="C16" s="359">
         <v>23.8</v>
       </c>
-      <c r="D16" s="194">
+      <c r="D16" s="192">
         <v>0</v>
       </c>
-      <c r="E16" s="194">
+      <c r="E16" s="192">
         <v>-0.05</v>
       </c>
       <c r="F16" s="51" t="s">
@@ -12668,64 +12924,64 @@
       <c r="G16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="352"/>
-      <c r="O16" s="352"/>
-      <c r="P16" s="352"/>
-      <c r="Q16" s="352"/>
-      <c r="R16" s="353"/>
-      <c r="S16" s="188"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="349"/>
+      <c r="O16" s="349"/>
+      <c r="P16" s="349"/>
+      <c r="Q16" s="349"/>
+      <c r="R16" s="350"/>
+      <c r="S16" s="186"/>
     </row>
     <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
-      <c r="B17" s="193" t="s">
+      <c r="A17" s="180"/>
+      <c r="B17" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="194">
-        <v>34.92</v>
-      </c>
-      <c r="D17" s="194">
+      <c r="C17" s="192">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D17" s="192">
         <v>0.05</v>
       </c>
-      <c r="E17" s="194">
+      <c r="E17" s="192">
         <v>0</v>
       </c>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="116" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="352"/>
-      <c r="O17" s="352"/>
-      <c r="P17" s="352"/>
-      <c r="Q17" s="352"/>
-      <c r="R17" s="353"/>
-      <c r="S17" s="188"/>
+        <v>52</v>
+      </c>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="349"/>
+      <c r="O17" s="349"/>
+      <c r="P17" s="349"/>
+      <c r="Q17" s="349"/>
+      <c r="R17" s="350"/>
+      <c r="S17" s="186"/>
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
-      <c r="B18" s="193" t="s">
+      <c r="A18" s="180"/>
+      <c r="B18" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="362">
+      <c r="C18" s="359">
         <v>28.5</v>
       </c>
-      <c r="D18" s="194">
+      <c r="D18" s="192">
         <v>0</v>
       </c>
-      <c r="E18" s="194">
+      <c r="E18" s="192">
         <v>-0.03</v>
       </c>
       <c r="F18" s="51" t="s">
@@ -12734,39 +12990,39 @@
       <c r="G18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="352"/>
-      <c r="O18" s="352"/>
-      <c r="P18" s="352"/>
-      <c r="Q18" s="352"/>
-      <c r="R18" s="353"/>
-      <c r="S18" s="188"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="349"/>
+      <c r="O18" s="349"/>
+      <c r="P18" s="349"/>
+      <c r="Q18" s="349"/>
+      <c r="R18" s="350"/>
+      <c r="S18" s="186"/>
     </row>
     <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
-      <c r="S19" s="198"/>
+      <c r="A19" s="193"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="196"/>
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="119">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -362,12 +362,6 @@
     <t>Трубка дутьевой головки</t>
   </si>
   <si>
-    <t>ХXI-В-30-4А-500 (Байрон 0.5 л.)</t>
-  </si>
-  <si>
-    <t>В-30-4А-500</t>
-  </si>
-  <si>
     <t>Принадлежность деталей формокомплекта</t>
   </si>
   <si>
@@ -396,6 +390,12 @@
   </si>
   <si>
     <t>Пресс головка</t>
+  </si>
+  <si>
+    <t>BADEN 700</t>
+  </si>
+  <si>
+    <t>ХI-28MCA-700 (Баден 0.7 л.)</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1868,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="524">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -2995,9 +2995,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3010,13 +3007,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3086,6 +3079,72 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3095,62 +3154,8 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3420,21 +3425,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5694,7 +5684,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5706,25 +5696,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="389" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="393" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="395"/>
+      <c r="A2" s="390" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="391"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="392"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -5735,47 +5725,47 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="397" t="s">
+      <c r="A4" s="394" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
+      <c r="B4" s="395"/>
+      <c r="C4" s="395"/>
+      <c r="D4" s="395"/>
+      <c r="E4" s="395"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="399" t="s">
+      <c r="A5" s="396" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="400"/>
-      <c r="C5" s="400"/>
-      <c r="D5" s="400"/>
-      <c r="E5" s="401"/>
+      <c r="B5" s="397"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="397"/>
+      <c r="E5" s="398"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="392" t="s">
+      <c r="A7" s="389" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="396"/>
-      <c r="D7" s="396"/>
-      <c r="E7" s="396"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="393"/>
+      <c r="D7" s="393"/>
+      <c r="E7" s="393"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="402"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
-      <c r="D8" s="403"/>
-      <c r="E8" s="404"/>
+      <c r="A8" s="399"/>
+      <c r="B8" s="400"/>
+      <c r="C8" s="400"/>
+      <c r="D8" s="400"/>
+      <c r="E8" s="401"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="392" t="s">
+      <c r="A10" s="389" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="392"/>
+      <c r="B10" s="389"/>
       <c r="C10" s="372"/>
-      <c r="D10" s="380" t="s">
+      <c r="D10" s="379" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="372"/>
@@ -5784,33 +5774,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="390"/>
-      <c r="B11" s="391"/>
-      <c r="D11" s="379">
-        <v>43753</v>
-      </c>
-      <c r="F11" s="405" t="s">
+      <c r="A11" s="387"/>
+      <c r="B11" s="388"/>
+      <c r="D11" s="378">
+        <v>43763</v>
+      </c>
+      <c r="F11" s="402" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="405"/>
-      <c r="H11" s="405"/>
-      <c r="I11" s="405"/>
-      <c r="J11" s="406" t="s">
+      <c r="G11" s="402"/>
+      <c r="H11" s="402"/>
+      <c r="I11" s="402"/>
+      <c r="J11" s="403" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="406"/>
+      <c r="K11" s="403"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="405" t="s">
+      <c r="F12" s="402" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
-      <c r="I12" s="405"/>
-      <c r="J12" s="406" t="s">
+      <c r="G12" s="402"/>
+      <c r="H12" s="402"/>
+      <c r="I12" s="402"/>
+      <c r="J12" s="403" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="406"/>
+      <c r="K12" s="403"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -5819,29 +5809,29 @@
       <c r="B13" s="374" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="384" t="s">
+      <c r="C13" s="382" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="405" t="s">
+      <c r="F13" s="402" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="405"/>
-      <c r="H13" s="405"/>
-      <c r="I13" s="405"/>
-      <c r="J13" s="406" t="s">
+      <c r="G13" s="402"/>
+      <c r="H13" s="402"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="403" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="406"/>
+      <c r="K13" s="403"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="376">
-        <v>22</v>
-      </c>
-      <c r="C14" s="382" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5849,10 +5839,10 @@
         <v>44</v>
       </c>
       <c r="B15" s="376">
-        <v>22</v>
-      </c>
-      <c r="C15" s="382" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5860,10 +5850,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="376">
-        <v>26</v>
-      </c>
-      <c r="C16" s="382" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5871,129 +5861,135 @@
         <v>23</v>
       </c>
       <c r="B17" s="376">
-        <v>26</v>
-      </c>
-      <c r="C17" s="382" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="375" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="376">
-        <v>50</v>
-      </c>
-      <c r="C18" s="382" t="s">
-        <v>108</v>
+      <c r="B18" s="381" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="376">
-        <v>50</v>
-      </c>
-      <c r="C19" s="382" t="s">
-        <v>108</v>
+      <c r="B19" s="381" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="375" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="376">
-        <v>40</v>
-      </c>
-      <c r="C20" s="382" t="s">
-        <v>108</v>
+      <c r="B20" s="381" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="375" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="376">
-        <v>20</v>
-      </c>
-      <c r="C21" s="382" t="s">
-        <v>108</v>
+      <c r="B21" s="381" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="375" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="382" t="s">
+      <c r="B22" s="381" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="382"/>
+      <c r="C22" s="381" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="375" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="376">
-        <v>18</v>
-      </c>
-      <c r="C23" s="382" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="C23" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="375" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="376">
-        <v>8</v>
-      </c>
-      <c r="C24" s="382" t="s">
-        <v>108</v>
+      <c r="B24" s="381" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="375" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="382" t="s">
+      <c r="B25" s="381" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="382"/>
+      <c r="C25" s="381" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="378">
-        <v>18</v>
-      </c>
-      <c r="C26" s="382" t="s">
-        <v>108</v>
+      <c r="B26" s="381" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="381" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="377" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="383">
-        <v>18</v>
-      </c>
-      <c r="C27" s="385"/>
+      <c r="B27" s="381" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="381" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="381"/>
+      <c r="A28" s="380"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="389" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="389"/>
-      <c r="C29" s="389"/>
+      <c r="A29" s="386" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="386"/>
+      <c r="C29" s="386"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6066,47 +6062,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="490" t="s">
+      <c r="B2" s="482"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="491" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="496" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="497"/>
-      <c r="K2" s="500">
+      <c r="J2" s="498"/>
+      <c r="K2" s="501" t="str">
         <f>Данные!B21</f>
-        <v>20</v>
-      </c>
-      <c r="L2" s="501"/>
+        <v>нет</v>
+      </c>
+      <c r="L2" s="502"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="516"/>
-      <c r="Q2" s="516"/>
+      <c r="P2" s="517"/>
+      <c r="Q2" s="517"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="493" t="s">
+      <c r="B3" s="485"/>
+      <c r="C3" s="486"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="494" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="502"/>
-      <c r="L3" s="503"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="500"/>
+      <c r="K3" s="503"/>
+      <c r="L3" s="504"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -6117,9 +6113,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="489"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="490"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6138,22 +6134,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="475"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="477"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="477"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -6164,22 +6160,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="474"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="475"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="477"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="477"/>
+      <c r="K6" s="478"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -6190,27 +6186,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="478"/>
-      <c r="D7" s="402">
+      <c r="C7" s="479"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="478"/>
-      <c r="K7" s="390">
+      <c r="J7" s="479"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -6539,12 +6535,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="513" t="s">
+      <c r="B18" s="514" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="514"/>
-      <c r="D18" s="514"/>
-      <c r="E18" s="515"/>
+      <c r="C18" s="515"/>
+      <c r="D18" s="515"/>
+      <c r="E18" s="516"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -6692,47 +6688,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="490" t="s">
+      <c r="B2" s="482"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="491" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="496" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="497"/>
-      <c r="K2" s="500">
+      <c r="J2" s="498"/>
+      <c r="K2" s="501" t="str">
         <f>Данные!B26</f>
-        <v>18</v>
-      </c>
-      <c r="L2" s="501"/>
+        <v>нет</v>
+      </c>
+      <c r="L2" s="502"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="517"/>
-      <c r="Q2" s="517"/>
+      <c r="P2" s="518"/>
+      <c r="Q2" s="518"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="493" t="s">
+      <c r="B3" s="485"/>
+      <c r="C3" s="486"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="494" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="502"/>
-      <c r="L3" s="503"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="500"/>
+      <c r="K3" s="503"/>
+      <c r="L3" s="504"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -6743,9 +6739,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="489"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="490"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6764,22 +6760,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="475"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="477"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="477"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -6790,22 +6786,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="474"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="475"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="477"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="477"/>
+      <c r="K6" s="478"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -6816,27 +6812,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="478"/>
-      <c r="D7" s="402">
+      <c r="C7" s="479"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="478"/>
-      <c r="K7" s="390">
+      <c r="J7" s="479"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -7300,47 +7296,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="490" t="s">
+      <c r="B2" s="482"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="491" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="496" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="497"/>
-      <c r="K2" s="519">
+      <c r="J2" s="498"/>
+      <c r="K2" s="520">
         <f>Данные!B23</f>
-        <v>18</v>
-      </c>
-      <c r="L2" s="520"/>
+        <v>8</v>
+      </c>
+      <c r="L2" s="521"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="518"/>
-      <c r="Q2" s="518"/>
+      <c r="P2" s="519"/>
+      <c r="Q2" s="519"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="493" t="s">
+      <c r="B3" s="485"/>
+      <c r="C3" s="486"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="494" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="521"/>
-      <c r="L3" s="522"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="500"/>
+      <c r="K3" s="522"/>
+      <c r="L3" s="523"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -7351,9 +7347,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="489"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="490"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7372,22 +7368,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="475"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="477"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="477"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -7398,22 +7394,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="474"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="475"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="477"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="477"/>
+      <c r="K6" s="478"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -7424,27 +7420,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="478"/>
-      <c r="D7" s="402">
+      <c r="C7" s="479"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="478"/>
-      <c r="K7" s="390">
+      <c r="J7" s="479"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -7512,8 +7508,8 @@
       <c r="B10" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="388" t="s">
-        <v>115</v>
+      <c r="C10" s="385" t="s">
+        <v>113</v>
       </c>
       <c r="D10" s="287">
         <v>0.1</v>
@@ -7717,6 +7713,10 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -7731,10 +7731,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7763,8 +7759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7830,47 +7826,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="408" t="s">
+      <c r="A11" s="405" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="408"/>
-      <c r="C11" s="408"/>
-      <c r="D11" s="408"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="408"/>
-      <c r="G11" s="408"/>
-      <c r="H11" s="408"/>
-      <c r="I11" s="408"/>
-      <c r="J11" s="408"/>
+      <c r="B11" s="405"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="405"/>
+      <c r="E11" s="405"/>
+      <c r="F11" s="405"/>
+      <c r="G11" s="405"/>
+      <c r="H11" s="405"/>
+      <c r="I11" s="405"/>
+      <c r="J11" s="405"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="407" t="s">
+      <c r="A12" s="404" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="407"/>
-      <c r="C12" s="407"/>
-      <c r="D12" s="407"/>
-      <c r="E12" s="407"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="407"/>
-      <c r="H12" s="407"/>
-      <c r="I12" s="407"/>
-      <c r="J12" s="407"/>
+      <c r="B12" s="404"/>
+      <c r="C12" s="404"/>
+      <c r="D12" s="404"/>
+      <c r="E12" s="404"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="404"/>
+      <c r="H12" s="404"/>
+      <c r="I12" s="404"/>
+      <c r="J12" s="404"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="409" t="str">
+      <c r="A13" s="406" t="str">
         <f>Данные!A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="B13" s="408"/>
-      <c r="C13" s="408"/>
-      <c r="D13" s="408"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="408"/>
-      <c r="G13" s="408"/>
-      <c r="H13" s="408"/>
-      <c r="I13" s="408"/>
-      <c r="J13" s="408"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="B13" s="405"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="405"/>
+      <c r="E13" s="405"/>
+      <c r="F13" s="405"/>
+      <c r="G13" s="405"/>
+      <c r="H13" s="405"/>
+      <c r="I13" s="405"/>
+      <c r="J13" s="405"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -7884,7 +7880,7 @@
       <c r="G15" s="312"/>
       <c r="H15" s="313">
         <f>Данные!D11</f>
-        <v>43753</v>
+        <v>43763</v>
       </c>
       <c r="I15" s="311"/>
       <c r="J15" s="312"/>
@@ -7976,7 +7972,7 @@
       <c r="H20" s="311"/>
       <c r="I20" s="313">
         <f>H15</f>
-        <v>43753</v>
+        <v>43763</v>
       </c>
       <c r="J20" s="312"/>
     </row>
@@ -7995,482 +7991,493 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="410" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="413" t="s">
+      <c r="B22" s="410" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="413"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="413" t="s">
+      <c r="C22" s="410"/>
+      <c r="D22" s="410"/>
+      <c r="E22" s="410" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="413"/>
-      <c r="G22" s="414" t="s">
+      <c r="F22" s="410"/>
+      <c r="G22" s="428" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="413" t="s">
+      <c r="H22" s="410" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="413"/>
-      <c r="J22" s="413"/>
+      <c r="I22" s="410"/>
+      <c r="J22" s="410"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="413"/>
-      <c r="B23" s="413"/>
-      <c r="C23" s="413"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="413"/>
-      <c r="F23" s="413"/>
-      <c r="G23" s="414"/>
-      <c r="H23" s="413"/>
-      <c r="I23" s="413"/>
-      <c r="J23" s="413"/>
+      <c r="A23" s="410"/>
+      <c r="B23" s="410"/>
+      <c r="C23" s="410"/>
+      <c r="D23" s="410"/>
+      <c r="E23" s="410"/>
+      <c r="F23" s="410"/>
+      <c r="G23" s="428"/>
+      <c r="H23" s="410"/>
+      <c r="I23" s="410"/>
+      <c r="J23" s="410"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="415">
+      <c r="A24" s="411">
         <v>1</v>
       </c>
-      <c r="B24" s="523" t="s">
+      <c r="B24" s="425" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="524"/>
-      <c r="D24" s="525"/>
-      <c r="E24" s="420" t="str">
+      <c r="C24" s="426"/>
+      <c r="D24" s="427"/>
+      <c r="E24" s="413" t="str">
         <f>Данные!C14</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F24" s="421"/>
-      <c r="G24" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F24" s="414"/>
+      <c r="G24" s="417">
         <f>Данные!B14</f>
-        <v>22</v>
-      </c>
-      <c r="H24" s="426"/>
-      <c r="I24" s="427"/>
-      <c r="J24" s="428"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="419"/>
+      <c r="I24" s="420"/>
+      <c r="J24" s="421"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="416"/>
-      <c r="B25" s="417" t="str">
+      <c r="A25" s="412"/>
+      <c r="B25" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C25" s="418"/>
-      <c r="D25" s="419"/>
-      <c r="E25" s="422"/>
-      <c r="F25" s="423"/>
-      <c r="G25" s="425"/>
-      <c r="H25" s="429"/>
-      <c r="I25" s="430"/>
-      <c r="J25" s="431"/>
+      <c r="C25" s="408"/>
+      <c r="D25" s="409"/>
+      <c r="E25" s="415"/>
+      <c r="F25" s="416"/>
+      <c r="G25" s="418"/>
+      <c r="H25" s="422"/>
+      <c r="I25" s="423"/>
+      <c r="J25" s="424"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="415">
-        <v>1</v>
-      </c>
-      <c r="B26" s="410" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="411"/>
-      <c r="D26" s="412"/>
-      <c r="E26" s="420" t="str">
+      <c r="A26" s="411">
+        <f>A24+1</f>
+        <v>2</v>
+      </c>
+      <c r="B26" s="429" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="430"/>
+      <c r="D26" s="431"/>
+      <c r="E26" s="413" t="str">
         <f>Данные!C15</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F26" s="421"/>
-      <c r="G26" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F26" s="414"/>
+      <c r="G26" s="417">
         <f>Данные!B15</f>
-        <v>22</v>
-      </c>
-      <c r="H26" s="426"/>
-      <c r="I26" s="427"/>
-      <c r="J26" s="428"/>
+        <v>6</v>
+      </c>
+      <c r="H26" s="419"/>
+      <c r="I26" s="420"/>
+      <c r="J26" s="421"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="416"/>
-      <c r="B27" s="417" t="str">
+      <c r="A27" s="412"/>
+      <c r="B27" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C27" s="418"/>
-      <c r="D27" s="419"/>
-      <c r="E27" s="422"/>
-      <c r="F27" s="423"/>
-      <c r="G27" s="425"/>
-      <c r="H27" s="429"/>
-      <c r="I27" s="430"/>
-      <c r="J27" s="431"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="415">
-        <v>1</v>
-      </c>
-      <c r="B28" s="410" t="s">
+      <c r="C27" s="408"/>
+      <c r="D27" s="409"/>
+      <c r="E27" s="415"/>
+      <c r="F27" s="416"/>
+      <c r="G27" s="418"/>
+      <c r="H27" s="422"/>
+      <c r="I27" s="423"/>
+      <c r="J27" s="424"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="411">
+        <f t="shared" ref="A28" si="0">A26+1</f>
+        <v>3</v>
+      </c>
+      <c r="B28" s="429" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="411"/>
-      <c r="D28" s="412"/>
-      <c r="E28" s="420" t="str">
+      <c r="C28" s="430"/>
+      <c r="D28" s="431"/>
+      <c r="E28" s="413" t="str">
         <f>Данные!C16</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F28" s="421"/>
-      <c r="G28" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F28" s="414"/>
+      <c r="G28" s="417">
         <f>Данные!B16</f>
-        <v>26</v>
-      </c>
-      <c r="H28" s="426"/>
-      <c r="I28" s="427"/>
-      <c r="J28" s="428"/>
+        <v>8</v>
+      </c>
+      <c r="H28" s="419"/>
+      <c r="I28" s="420"/>
+      <c r="J28" s="421"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="416"/>
-      <c r="B29" s="417" t="str">
+      <c r="A29" s="412"/>
+      <c r="B29" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C29" s="418"/>
-      <c r="D29" s="419"/>
-      <c r="E29" s="422"/>
-      <c r="F29" s="423"/>
-      <c r="G29" s="425"/>
-      <c r="H29" s="429"/>
-      <c r="I29" s="430"/>
-      <c r="J29" s="431"/>
+      <c r="C29" s="408"/>
+      <c r="D29" s="409"/>
+      <c r="E29" s="415"/>
+      <c r="F29" s="416"/>
+      <c r="G29" s="418"/>
+      <c r="H29" s="422"/>
+      <c r="I29" s="423"/>
+      <c r="J29" s="424"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="415">
-        <v>1</v>
-      </c>
-      <c r="B30" s="410" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="411"/>
-      <c r="D30" s="412"/>
-      <c r="E30" s="420" t="str">
+      <c r="A30" s="411">
+        <f t="shared" ref="A30" si="1">A28+1</f>
+        <v>4</v>
+      </c>
+      <c r="B30" s="429" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="430"/>
+      <c r="D30" s="431"/>
+      <c r="E30" s="413" t="str">
         <f>Данные!C17</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F30" s="421"/>
-      <c r="G30" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F30" s="414"/>
+      <c r="G30" s="417">
         <f>Данные!B17</f>
-        <v>26</v>
-      </c>
-      <c r="H30" s="426"/>
-      <c r="I30" s="427"/>
-      <c r="J30" s="428"/>
+        <v>8</v>
+      </c>
+      <c r="H30" s="419"/>
+      <c r="I30" s="420"/>
+      <c r="J30" s="421"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="527"/>
-      <c r="B31" s="417" t="str">
+      <c r="A31" s="412"/>
+      <c r="B31" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C31" s="418"/>
-      <c r="D31" s="419"/>
-      <c r="E31" s="526"/>
-      <c r="F31" s="423"/>
-      <c r="G31" s="425"/>
-      <c r="H31" s="429"/>
-      <c r="I31" s="430"/>
-      <c r="J31" s="431"/>
+      <c r="C31" s="408"/>
+      <c r="D31" s="409"/>
+      <c r="E31" s="432"/>
+      <c r="F31" s="416"/>
+      <c r="G31" s="418"/>
+      <c r="H31" s="422"/>
+      <c r="I31" s="423"/>
+      <c r="J31" s="424"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="415">
-        <v>1</v>
-      </c>
-      <c r="B32" s="410" t="s">
+      <c r="A32" s="411">
+        <f t="shared" ref="A32" si="2">A30+1</f>
+        <v>5</v>
+      </c>
+      <c r="B32" s="429" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="411"/>
-      <c r="D32" s="412"/>
-      <c r="E32" s="420" t="str">
+      <c r="C32" s="430"/>
+      <c r="D32" s="431"/>
+      <c r="E32" s="413" t="str">
         <f>Данные!C18</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F32" s="421"/>
-      <c r="G32" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F32" s="414"/>
+      <c r="G32" s="417" t="str">
         <f>Данные!B18</f>
-        <v>50</v>
-      </c>
-      <c r="H32" s="426"/>
-      <c r="I32" s="427"/>
-      <c r="J32" s="428"/>
+        <v>нет</v>
+      </c>
+      <c r="H32" s="419"/>
+      <c r="I32" s="420"/>
+      <c r="J32" s="421"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="527"/>
-      <c r="B33" s="417" t="str">
+      <c r="A33" s="412"/>
+      <c r="B33" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C33" s="418"/>
-      <c r="D33" s="419"/>
-      <c r="E33" s="526"/>
-      <c r="F33" s="423"/>
-      <c r="G33" s="425"/>
-      <c r="H33" s="429"/>
-      <c r="I33" s="430"/>
-      <c r="J33" s="431"/>
+      <c r="C33" s="408"/>
+      <c r="D33" s="409"/>
+      <c r="E33" s="432"/>
+      <c r="F33" s="416"/>
+      <c r="G33" s="418"/>
+      <c r="H33" s="422"/>
+      <c r="I33" s="423"/>
+      <c r="J33" s="424"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="415">
-        <v>1</v>
-      </c>
-      <c r="B34" s="410" t="s">
+      <c r="A34" s="411">
+        <f t="shared" ref="A34" si="3">A32+1</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="429" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="411"/>
-      <c r="D34" s="412"/>
-      <c r="E34" s="420" t="str">
+      <c r="C34" s="430"/>
+      <c r="D34" s="431"/>
+      <c r="E34" s="413" t="str">
         <f>Данные!C19</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F34" s="421"/>
-      <c r="G34" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F34" s="414"/>
+      <c r="G34" s="417" t="str">
         <f>Данные!B19</f>
-        <v>50</v>
-      </c>
-      <c r="H34" s="426"/>
-      <c r="I34" s="427"/>
-      <c r="J34" s="428"/>
+        <v>нет</v>
+      </c>
+      <c r="H34" s="419"/>
+      <c r="I34" s="420"/>
+      <c r="J34" s="421"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="527"/>
-      <c r="B35" s="417" t="str">
+      <c r="A35" s="412"/>
+      <c r="B35" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C35" s="418"/>
-      <c r="D35" s="419"/>
-      <c r="E35" s="526"/>
-      <c r="F35" s="423"/>
-      <c r="G35" s="425"/>
-      <c r="H35" s="429"/>
-      <c r="I35" s="430"/>
-      <c r="J35" s="431"/>
+      <c r="C35" s="408"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="432"/>
+      <c r="F35" s="416"/>
+      <c r="G35" s="418"/>
+      <c r="H35" s="422"/>
+      <c r="I35" s="423"/>
+      <c r="J35" s="424"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="415">
-        <v>1</v>
-      </c>
-      <c r="B36" s="410" t="s">
+      <c r="A36" s="411">
+        <f t="shared" ref="A36" si="4">A34+1</f>
+        <v>7</v>
+      </c>
+      <c r="B36" s="429" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="411"/>
-      <c r="D36" s="412"/>
-      <c r="E36" s="420" t="str">
+      <c r="C36" s="430"/>
+      <c r="D36" s="431"/>
+      <c r="E36" s="413" t="str">
         <f>Данные!C20</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F36" s="421"/>
-      <c r="G36" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F36" s="414"/>
+      <c r="G36" s="417" t="str">
         <f>Данные!B20</f>
-        <v>40</v>
-      </c>
-      <c r="H36" s="426"/>
-      <c r="I36" s="427"/>
-      <c r="J36" s="428"/>
+        <v>нет</v>
+      </c>
+      <c r="H36" s="419"/>
+      <c r="I36" s="420"/>
+      <c r="J36" s="421"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="527"/>
-      <c r="B37" s="417" t="str">
+      <c r="A37" s="412"/>
+      <c r="B37" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C37" s="418"/>
-      <c r="D37" s="419"/>
-      <c r="E37" s="526"/>
-      <c r="F37" s="423"/>
-      <c r="G37" s="425"/>
-      <c r="H37" s="429"/>
-      <c r="I37" s="430"/>
-      <c r="J37" s="431"/>
+      <c r="C37" s="408"/>
+      <c r="D37" s="409"/>
+      <c r="E37" s="432"/>
+      <c r="F37" s="416"/>
+      <c r="G37" s="418"/>
+      <c r="H37" s="422"/>
+      <c r="I37" s="423"/>
+      <c r="J37" s="424"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="415">
-        <v>1</v>
-      </c>
-      <c r="B38" s="410" t="s">
+      <c r="A38" s="411">
+        <f t="shared" ref="A38" si="5">A36+1</f>
+        <v>8</v>
+      </c>
+      <c r="B38" s="429" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="411"/>
-      <c r="D38" s="412"/>
-      <c r="E38" s="420" t="str">
+      <c r="C38" s="430"/>
+      <c r="D38" s="431"/>
+      <c r="E38" s="413" t="str">
         <f>Данные!C21</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F38" s="421"/>
-      <c r="G38" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F38" s="414"/>
+      <c r="G38" s="417" t="str">
         <f>Данные!B21</f>
-        <v>20</v>
-      </c>
-      <c r="H38" s="426"/>
-      <c r="I38" s="427"/>
-      <c r="J38" s="428"/>
+        <v>нет</v>
+      </c>
+      <c r="H38" s="419"/>
+      <c r="I38" s="420"/>
+      <c r="J38" s="421"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="527"/>
-      <c r="B39" s="417" t="str">
+      <c r="A39" s="412"/>
+      <c r="B39" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C39" s="418"/>
-      <c r="D39" s="419"/>
-      <c r="E39" s="526"/>
-      <c r="F39" s="423"/>
-      <c r="G39" s="425"/>
-      <c r="H39" s="429"/>
-      <c r="I39" s="430"/>
-      <c r="J39" s="431"/>
+      <c r="C39" s="408"/>
+      <c r="D39" s="409"/>
+      <c r="E39" s="432"/>
+      <c r="F39" s="416"/>
+      <c r="G39" s="418"/>
+      <c r="H39" s="422"/>
+      <c r="I39" s="423"/>
+      <c r="J39" s="424"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="415">
-        <v>1</v>
-      </c>
-      <c r="B40" s="410" t="s">
+      <c r="A40" s="411">
+        <f t="shared" ref="A40" si="6">A38+1</f>
+        <v>9</v>
+      </c>
+      <c r="B40" s="429" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="411"/>
-      <c r="D40" s="412"/>
-      <c r="E40" s="420" t="str">
+      <c r="C40" s="430"/>
+      <c r="D40" s="431"/>
+      <c r="E40" s="413" t="str">
         <f>Данные!C23</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F40" s="421"/>
-      <c r="G40" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F40" s="414"/>
+      <c r="G40" s="417">
         <f>Данные!B23</f>
-        <v>18</v>
-      </c>
-      <c r="H40" s="426"/>
-      <c r="I40" s="427"/>
-      <c r="J40" s="428"/>
+        <v>8</v>
+      </c>
+      <c r="H40" s="419"/>
+      <c r="I40" s="420"/>
+      <c r="J40" s="421"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="527"/>
-      <c r="B41" s="417" t="str">
+      <c r="A41" s="412"/>
+      <c r="B41" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C41" s="418"/>
-      <c r="D41" s="419"/>
-      <c r="E41" s="526"/>
-      <c r="F41" s="423"/>
-      <c r="G41" s="425"/>
-      <c r="H41" s="429"/>
-      <c r="I41" s="430"/>
-      <c r="J41" s="431"/>
+      <c r="C41" s="408"/>
+      <c r="D41" s="409"/>
+      <c r="E41" s="432"/>
+      <c r="F41" s="416"/>
+      <c r="G41" s="418"/>
+      <c r="H41" s="422"/>
+      <c r="I41" s="423"/>
+      <c r="J41" s="424"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="415">
-        <v>1</v>
-      </c>
-      <c r="B42" s="410" t="s">
+      <c r="A42" s="411">
+        <f t="shared" ref="A42" si="7">A40+1</f>
+        <v>10</v>
+      </c>
+      <c r="B42" s="429" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="411"/>
-      <c r="D42" s="412"/>
-      <c r="E42" s="420" t="str">
+      <c r="C42" s="430"/>
+      <c r="D42" s="431"/>
+      <c r="E42" s="413" t="str">
         <f>Данные!C26</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F42" s="421"/>
-      <c r="G42" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F42" s="414"/>
+      <c r="G42" s="417" t="str">
         <f>Данные!B26</f>
-        <v>18</v>
-      </c>
-      <c r="H42" s="426"/>
-      <c r="I42" s="427"/>
-      <c r="J42" s="428"/>
+        <v>нет</v>
+      </c>
+      <c r="H42" s="419"/>
+      <c r="I42" s="420"/>
+      <c r="J42" s="421"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="527"/>
-      <c r="B43" s="417" t="str">
+      <c r="A43" s="412"/>
+      <c r="B43" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C43" s="418"/>
-      <c r="D43" s="419"/>
-      <c r="E43" s="526"/>
-      <c r="F43" s="423"/>
-      <c r="G43" s="425"/>
-      <c r="H43" s="429"/>
-      <c r="I43" s="430"/>
-      <c r="J43" s="431"/>
+      <c r="C43" s="408"/>
+      <c r="D43" s="409"/>
+      <c r="E43" s="432"/>
+      <c r="F43" s="416"/>
+      <c r="G43" s="418"/>
+      <c r="H43" s="422"/>
+      <c r="I43" s="423"/>
+      <c r="J43" s="424"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="415">
-        <v>1</v>
-      </c>
-      <c r="B44" s="410" t="s">
+      <c r="A44" s="411">
+        <f t="shared" ref="A44" si="8">A42+1</f>
+        <v>11</v>
+      </c>
+      <c r="B44" s="429" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="411"/>
-      <c r="D44" s="412"/>
-      <c r="E44" s="420">
+      <c r="C44" s="430"/>
+      <c r="D44" s="431"/>
+      <c r="E44" s="413" t="str">
         <f>Данные!C27</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="421"/>
-      <c r="G44" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F44" s="414"/>
+      <c r="G44" s="417" t="str">
         <f>Данные!B27</f>
-        <v>18</v>
-      </c>
-      <c r="H44" s="426"/>
-      <c r="I44" s="427"/>
-      <c r="J44" s="428"/>
+        <v>нет</v>
+      </c>
+      <c r="H44" s="419"/>
+      <c r="I44" s="420"/>
+      <c r="J44" s="421"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="527"/>
-      <c r="B45" s="417" t="str">
+      <c r="A45" s="412"/>
+      <c r="B45" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C45" s="418"/>
-      <c r="D45" s="419"/>
-      <c r="E45" s="526"/>
-      <c r="F45" s="423"/>
-      <c r="G45" s="425"/>
-      <c r="H45" s="429"/>
-      <c r="I45" s="430"/>
-      <c r="J45" s="431"/>
+      <c r="C45" s="408"/>
+      <c r="D45" s="409"/>
+      <c r="E45" s="432"/>
+      <c r="F45" s="416"/>
+      <c r="G45" s="418"/>
+      <c r="H45" s="422"/>
+      <c r="I45" s="423"/>
+      <c r="J45" s="424"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="415">
-        <v>1</v>
-      </c>
-      <c r="B46" s="410" t="s">
+      <c r="A46" s="411">
+        <f t="shared" ref="A46" si="9">A44+1</f>
+        <v>12</v>
+      </c>
+      <c r="B46" s="429" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="411"/>
-      <c r="D46" s="412"/>
-      <c r="E46" s="420" t="str">
+      <c r="C46" s="430"/>
+      <c r="D46" s="431"/>
+      <c r="E46" s="413" t="str">
         <f>Данные!C24</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="F46" s="421"/>
-      <c r="G46" s="424">
+        <v>BADEN 700</v>
+      </c>
+      <c r="F46" s="414"/>
+      <c r="G46" s="417" t="str">
         <f>Данные!B24</f>
-        <v>8</v>
-      </c>
-      <c r="H46" s="426"/>
-      <c r="I46" s="427"/>
-      <c r="J46" s="428"/>
+        <v>нет</v>
+      </c>
+      <c r="H46" s="419"/>
+      <c r="I46" s="420"/>
+      <c r="J46" s="421"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="527"/>
-      <c r="B47" s="417" t="str">
+      <c r="A47" s="412"/>
+      <c r="B47" s="407" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C47" s="418"/>
-      <c r="D47" s="419"/>
-      <c r="E47" s="526"/>
-      <c r="F47" s="423"/>
-      <c r="G47" s="425"/>
-      <c r="H47" s="429"/>
-      <c r="I47" s="430"/>
-      <c r="J47" s="431"/>
+      <c r="C47" s="408"/>
+      <c r="D47" s="409"/>
+      <c r="E47" s="432"/>
+      <c r="F47" s="416"/>
+      <c r="G47" s="418"/>
+      <c r="H47" s="422"/>
+      <c r="I47" s="423"/>
+      <c r="J47" s="424"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -8604,11 +8611,13 @@
     <mergeCell ref="E46:F47"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="E44:F45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="E42:F43"/>
@@ -8639,21 +8648,36 @@
     <mergeCell ref="E32:F33"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="H32:J33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:F31"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="E26:F27"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="H22:J23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B25:D25"/>
@@ -8662,23 +8686,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8733,47 +8740,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="450"/>
-      <c r="C2" s="451"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="459" t="s">
+      <c r="B2" s="451"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="460" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="460"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="461"/>
-      <c r="I2" s="466" t="s">
+      <c r="F2" s="461"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="467" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="467"/>
-      <c r="K2" s="470">
+      <c r="J2" s="468"/>
+      <c r="K2" s="471">
         <f>Данные!B14</f>
-        <v>22</v>
-      </c>
-      <c r="L2" s="471"/>
+        <v>6</v>
+      </c>
+      <c r="L2" s="472"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="462"/>
-      <c r="Q2" s="462"/>
+      <c r="P2" s="463"/>
+      <c r="Q2" s="463"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="453"/>
-      <c r="C3" s="454"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="463" t="s">
+      <c r="B3" s="454"/>
+      <c r="C3" s="455"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="464" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="464"/>
-      <c r="G3" s="464"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="468"/>
-      <c r="J3" s="469"/>
-      <c r="K3" s="472"/>
-      <c r="L3" s="473"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="466"/>
+      <c r="I3" s="469"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="473"/>
+      <c r="L3" s="474"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8784,9 +8791,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="456"/>
-      <c r="C4" s="457"/>
-      <c r="D4" s="458"/>
+      <c r="B4" s="457"/>
+      <c r="C4" s="458"/>
+      <c r="D4" s="459"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8805,22 +8812,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="436"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="437"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="437"/>
-      <c r="J5" s="438"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="438"/>
+      <c r="J5" s="439"/>
+      <c r="K5" s="397"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8831,22 +8838,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="439"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="440"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="437"/>
-      <c r="J6" s="438"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="438"/>
+      <c r="J6" s="439"/>
+      <c r="K6" s="397"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8857,27 +8864,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="443"/>
-      <c r="D7" s="402">
+      <c r="C7" s="444"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="442" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="443" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="446"/>
-      <c r="K7" s="390">
+      <c r="J7" s="447"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9110,7 +9117,7 @@
       <c r="B15" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="386">
+      <c r="C15" s="383">
         <v>245.9</v>
       </c>
       <c r="D15" s="98">
@@ -9210,7 +9217,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="105">
         <v>0.05</v>
@@ -9276,7 +9283,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="105">
         <v>0.05</v>
@@ -9371,12 +9378,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="447" t="s">
+      <c r="B23" s="448" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="448"/>
-      <c r="D23" s="448"/>
-      <c r="E23" s="449"/>
+      <c r="C23" s="449"/>
+      <c r="D23" s="449"/>
+      <c r="E23" s="450"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -9398,12 +9405,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="432" t="s">
+      <c r="B24" s="433" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="433"/>
-      <c r="D24" s="433"/>
-      <c r="E24" s="434"/>
+      <c r="C24" s="434"/>
+      <c r="D24" s="434"/>
+      <c r="E24" s="435"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -9532,50 +9539,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="481">
+      <c r="B2" s="482">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="490" t="s">
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="491" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="496" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="497"/>
-      <c r="K2" s="500">
+      <c r="J2" s="498"/>
+      <c r="K2" s="501">
         <f>Данные!B15</f>
-        <v>22</v>
-      </c>
-      <c r="L2" s="501"/>
+        <v>6</v>
+      </c>
+      <c r="L2" s="502"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="462"/>
-      <c r="Q2" s="462"/>
+      <c r="P2" s="463"/>
+      <c r="Q2" s="463"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="493" t="s">
+      <c r="B3" s="485"/>
+      <c r="C3" s="486"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="494" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="502"/>
-      <c r="L3" s="503"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="500"/>
+      <c r="K3" s="503"/>
+      <c r="L3" s="504"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9586,9 +9593,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="489"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="490"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -9607,22 +9614,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="475"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="477"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="477"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9633,22 +9640,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="474"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="475"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="477"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="477"/>
+      <c r="K6" s="478"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9659,27 +9666,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="478"/>
-      <c r="D7" s="402">
+      <c r="C7" s="479"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="478"/>
-      <c r="K7" s="390">
+      <c r="J7" s="479"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9748,7 +9755,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -9846,7 +9853,7 @@
       <c r="B13" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="386">
+      <c r="C13" s="383">
         <v>50.5</v>
       </c>
       <c r="D13" s="98">
@@ -9876,13 +9883,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="447" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="448"/>
-      <c r="D14" s="448"/>
-      <c r="E14" s="448"/>
-      <c r="F14" s="480"/>
+      <c r="B14" s="448" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="449"/>
+      <c r="D14" s="449"/>
+      <c r="E14" s="449"/>
+      <c r="F14" s="481"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -9901,12 +9908,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="432" t="s">
+      <c r="B15" s="433" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="433"/>
-      <c r="D15" s="433"/>
-      <c r="E15" s="434"/>
+      <c r="C15" s="434"/>
+      <c r="D15" s="434"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -10050,47 +10057,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="450"/>
-      <c r="C2" s="451"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="459" t="s">
+      <c r="B2" s="451"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="460" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="460"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="461"/>
-      <c r="I2" s="466" t="s">
+      <c r="F2" s="461"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="467" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="467"/>
-      <c r="K2" s="470">
+      <c r="J2" s="468"/>
+      <c r="K2" s="471">
         <f>Данные!B16</f>
-        <v>26</v>
-      </c>
-      <c r="L2" s="471"/>
+        <v>8</v>
+      </c>
+      <c r="L2" s="472"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="462"/>
-      <c r="Q2" s="462"/>
+      <c r="P2" s="463"/>
+      <c r="Q2" s="463"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="453"/>
-      <c r="C3" s="454"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="463" t="s">
+      <c r="B3" s="454"/>
+      <c r="C3" s="455"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="464" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="464"/>
-      <c r="G3" s="464"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="468"/>
-      <c r="J3" s="469"/>
-      <c r="K3" s="472"/>
-      <c r="L3" s="473"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="466"/>
+      <c r="I3" s="469"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="473"/>
+      <c r="L3" s="474"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10101,9 +10108,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="456"/>
-      <c r="C4" s="457"/>
-      <c r="D4" s="458"/>
+      <c r="B4" s="457"/>
+      <c r="C4" s="458"/>
+      <c r="D4" s="459"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10122,22 +10129,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="436"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="437"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="437"/>
-      <c r="J5" s="438"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="438"/>
+      <c r="J5" s="439"/>
+      <c r="K5" s="397"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10148,22 +10155,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="439"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="440"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="437"/>
-      <c r="J6" s="438"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="438"/>
+      <c r="J6" s="439"/>
+      <c r="K6" s="397"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10174,27 +10181,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="443"/>
-      <c r="D7" s="402">
+      <c r="C7" s="444"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="442" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="443" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="446"/>
-      <c r="K7" s="390">
+      <c r="J7" s="447"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10373,7 +10380,7 @@
       <c r="B13" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="386">
+      <c r="C13" s="383">
         <v>157</v>
       </c>
       <c r="D13" s="98">
@@ -10554,7 +10561,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" s="105">
         <v>0.05</v>
@@ -10677,6 +10684,10 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -10691,10 +10702,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10762,47 +10769,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="450"/>
-      <c r="C2" s="451"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="459" t="s">
+      <c r="B2" s="451"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="460" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="460"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="461"/>
-      <c r="I2" s="466" t="s">
+      <c r="F2" s="461"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="467" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="467"/>
-      <c r="K2" s="470">
+      <c r="J2" s="468"/>
+      <c r="K2" s="471">
         <f>Данные!B17</f>
-        <v>26</v>
-      </c>
-      <c r="L2" s="471"/>
+        <v>8</v>
+      </c>
+      <c r="L2" s="472"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
+      <c r="P2" s="505"/>
+      <c r="Q2" s="505"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="453"/>
-      <c r="C3" s="454"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="463" t="s">
+      <c r="B3" s="454"/>
+      <c r="C3" s="455"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="464" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="464"/>
-      <c r="G3" s="464"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="468"/>
-      <c r="J3" s="469"/>
-      <c r="K3" s="472"/>
-      <c r="L3" s="473"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="466"/>
+      <c r="I3" s="469"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="473"/>
+      <c r="L3" s="474"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10813,9 +10820,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="456"/>
-      <c r="C4" s="457"/>
-      <c r="D4" s="458"/>
+      <c r="B4" s="457"/>
+      <c r="C4" s="458"/>
+      <c r="D4" s="459"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10834,22 +10841,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="436"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="437"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="437"/>
-      <c r="J5" s="438"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="438"/>
+      <c r="J5" s="439"/>
+      <c r="K5" s="397"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10860,22 +10867,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="439"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="440"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="437"/>
-      <c r="J6" s="438"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="438"/>
+      <c r="J6" s="439"/>
+      <c r="K6" s="397"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10886,27 +10893,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="443"/>
-      <c r="D7" s="402">
+      <c r="C7" s="444"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="442" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="443" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="446"/>
-      <c r="K7" s="390">
+      <c r="J7" s="447"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10974,8 +10981,8 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="387" t="s">
-        <v>114</v>
+      <c r="C10" s="384" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -11237,8 +11244,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
@@ -11280,60 +11287,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="490" t="s">
+      <c r="B2" s="482"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="491" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="496" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="497"/>
-      <c r="K2" s="500">
+      <c r="J2" s="498"/>
+      <c r="K2" s="501" t="str">
         <f>Данные!B18</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="501"/>
-      <c r="M2" s="505"/>
-      <c r="N2" s="506"/>
-      <c r="O2" s="506"/>
-      <c r="P2" s="506"/>
-      <c r="Q2" s="506"/>
-      <c r="R2" s="507"/>
+        <v>нет</v>
+      </c>
+      <c r="L2" s="502"/>
+      <c r="M2" s="506"/>
+      <c r="N2" s="507"/>
+      <c r="O2" s="507"/>
+      <c r="P2" s="507"/>
+      <c r="Q2" s="507"/>
+      <c r="R2" s="508"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="493" t="s">
+      <c r="B3" s="485"/>
+      <c r="C3" s="486"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="494" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="502"/>
-      <c r="L3" s="503"/>
-      <c r="M3" s="508"/>
-      <c r="N3" s="509"/>
-      <c r="O3" s="509"/>
-      <c r="P3" s="509"/>
-      <c r="Q3" s="509"/>
-      <c r="R3" s="510"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="500"/>
+      <c r="K3" s="503"/>
+      <c r="L3" s="504"/>
+      <c r="M3" s="509"/>
+      <c r="N3" s="510"/>
+      <c r="O3" s="510"/>
+      <c r="P3" s="510"/>
+      <c r="Q3" s="510"/>
+      <c r="R3" s="511"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="489"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="490"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11342,95 +11349,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="508"/>
-      <c r="N4" s="509"/>
-      <c r="O4" s="509"/>
-      <c r="P4" s="509"/>
-      <c r="Q4" s="509"/>
-      <c r="R4" s="510"/>
+      <c r="M4" s="509"/>
+      <c r="N4" s="510"/>
+      <c r="O4" s="510"/>
+      <c r="P4" s="510"/>
+      <c r="Q4" s="510"/>
+      <c r="R4" s="511"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="475"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="477"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="508"/>
-      <c r="N5" s="509"/>
-      <c r="O5" s="509"/>
-      <c r="P5" s="509"/>
-      <c r="Q5" s="509"/>
-      <c r="R5" s="510"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="477"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="398"/>
+      <c r="M5" s="509"/>
+      <c r="N5" s="510"/>
+      <c r="O5" s="510"/>
+      <c r="P5" s="510"/>
+      <c r="Q5" s="510"/>
+      <c r="R5" s="511"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="474"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="475"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="477"/>
-      <c r="L6" s="401"/>
-      <c r="M6" s="508"/>
-      <c r="N6" s="509"/>
-      <c r="O6" s="509"/>
-      <c r="P6" s="509"/>
-      <c r="Q6" s="509"/>
-      <c r="R6" s="510"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="477"/>
+      <c r="K6" s="478"/>
+      <c r="L6" s="398"/>
+      <c r="M6" s="509"/>
+      <c r="N6" s="510"/>
+      <c r="O6" s="510"/>
+      <c r="P6" s="510"/>
+      <c r="Q6" s="510"/>
+      <c r="R6" s="511"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="478"/>
-      <c r="D7" s="402">
+      <c r="C7" s="479"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="478"/>
-      <c r="K7" s="390">
+      <c r="J7" s="479"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
-      <c r="M7" s="508"/>
-      <c r="N7" s="509"/>
-      <c r="O7" s="509"/>
-      <c r="P7" s="509"/>
-      <c r="Q7" s="509"/>
-      <c r="R7" s="510"/>
+      <c r="L7" s="388"/>
+      <c r="M7" s="509"/>
+      <c r="N7" s="510"/>
+      <c r="O7" s="510"/>
+      <c r="P7" s="510"/>
+      <c r="Q7" s="510"/>
+      <c r="R7" s="511"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11819,12 +11826,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="432" t="s">
+      <c r="B20" s="433" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="433"/>
-      <c r="D20" s="433"/>
-      <c r="E20" s="434"/>
+      <c r="C20" s="434"/>
+      <c r="D20" s="434"/>
+      <c r="E20" s="435"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -11953,47 +11960,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="490" t="s">
+      <c r="B2" s="482"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="491" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="496" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="497"/>
-      <c r="K2" s="500">
+      <c r="J2" s="498"/>
+      <c r="K2" s="501" t="str">
         <f>Данные!B19</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="501"/>
+        <v>нет</v>
+      </c>
+      <c r="L2" s="502"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="511"/>
-      <c r="Q2" s="511"/>
+      <c r="P2" s="512"/>
+      <c r="Q2" s="512"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="493" t="s">
+      <c r="B3" s="485"/>
+      <c r="C3" s="486"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="494" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="502"/>
-      <c r="L3" s="503"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="500"/>
+      <c r="K3" s="503"/>
+      <c r="L3" s="504"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12004,9 +12011,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="489"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="490"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -12025,22 +12032,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="475"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="477"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="477"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12051,22 +12058,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="474"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="475"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="477"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="477"/>
+      <c r="K6" s="478"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12077,27 +12084,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="478"/>
-      <c r="D7" s="402">
+      <c r="C7" s="479"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="478"/>
-      <c r="K7" s="390">
+      <c r="J7" s="479"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12360,12 +12367,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="432" t="s">
+      <c r="B16" s="433" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="433"/>
-      <c r="D16" s="433"/>
-      <c r="E16" s="434"/>
+      <c r="C16" s="434"/>
+      <c r="D16" s="434"/>
+      <c r="E16" s="435"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -12497,47 +12504,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="490" t="s">
+      <c r="B2" s="482"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="491" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="496" t="s">
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="497"/>
-      <c r="K2" s="500">
+      <c r="J2" s="498"/>
+      <c r="K2" s="501" t="str">
         <f>Данные!B20</f>
-        <v>40</v>
-      </c>
-      <c r="L2" s="501"/>
+        <v>нет</v>
+      </c>
+      <c r="L2" s="502"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="512"/>
-      <c r="Q2" s="512"/>
+      <c r="P2" s="513"/>
+      <c r="Q2" s="513"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="493" t="s">
+      <c r="B3" s="485"/>
+      <c r="C3" s="486"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="494" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="502"/>
-      <c r="L3" s="503"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="500"/>
+      <c r="K3" s="503"/>
+      <c r="L3" s="504"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -12548,9 +12555,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="489"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="490"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -12569,22 +12576,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="435" t="s">
+      <c r="B5" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="475"/>
+      <c r="D5" s="396" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="477"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="477"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="398"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -12595,22 +12602,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="474"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="475"/>
+      <c r="D6" s="390" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="477"/>
-      <c r="L6" s="401"/>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="477"/>
+      <c r="K6" s="478"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -12621,27 +12628,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="442" t="s">
+      <c r="B7" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="478"/>
-      <c r="D7" s="402">
+      <c r="C7" s="479"/>
+      <c r="D7" s="399">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="445"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="478"/>
-      <c r="K7" s="390">
+      <c r="J7" s="479"/>
+      <c r="K7" s="387">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="388"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Втулка!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$19</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="150">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Охладитель плунжера</t>
   </si>
   <si>
-    <t>нет</t>
-  </si>
-  <si>
     <t>Дата приемки</t>
   </si>
   <si>
@@ -377,25 +374,7 @@
     <t>Пресс головка</t>
   </si>
   <si>
-    <t>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</t>
-  </si>
-  <si>
-    <t>ХXI-КПМ-30-1-500-7</t>
-  </si>
-  <si>
-    <t>Полная высота 55,4 мм</t>
-  </si>
-  <si>
-    <t>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</t>
-  </si>
-  <si>
     <t>Формокомплект бутылки</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (владелец ООО "Ведатранзит" дог. №3 от 23.01.2019)</t>
-  </si>
-  <si>
-    <t>Дата поставки  03.10.2019 (c остаточным ресурсом 100 %)</t>
   </si>
   <si>
     <t>№ п/п</t>
@@ -492,6 +471,51 @@
   </si>
   <si>
     <t>ФИО</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</t>
+  </si>
+  <si>
+    <t>ExtraNew 0.5L</t>
+  </si>
+  <si>
+    <t>(к серийному формокомплекту ExtraNew 0.5L)</t>
+  </si>
+  <si>
+    <t>PSI/4689</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (владелец ООО "Завод Бульбаш" дог. безвозм. польз. №0910 от 09.10.2019)</t>
+  </si>
+  <si>
+    <t>Дата поставки  21.01.2020 (c остаточным ресурсом 100 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полная высота </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вес, гр. (ном. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> гр.)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2183,7 +2207,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="647">
+  <cellXfs count="654">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3899,93 +3923,93 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4045,6 +4069,21 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6463,7 +6502,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6488,7 +6527,7 @@
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="496" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B2" s="497"/>
       <c r="C2" s="497"/>
@@ -6545,27 +6584,27 @@
       <c r="B10" s="495"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="364"/>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="493"/>
       <c r="B11" s="494"/>
       <c r="D11" s="369">
-        <v>43761</v>
+        <v>43853</v>
       </c>
       <c r="F11" s="508" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="508"/>
       <c r="H11" s="508"/>
       <c r="I11" s="508"/>
       <c r="J11" s="509" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="509"/>
     </row>
@@ -6577,7 +6616,7 @@
       <c r="H12" s="508"/>
       <c r="I12" s="508"/>
       <c r="J12" s="509" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" s="509"/>
     </row>
@@ -6589,22 +6628,22 @@
         <v>89</v>
       </c>
       <c r="C13" s="374" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="374" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E13" s="474" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F13" s="508" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="508"/>
       <c r="H13" s="508"/>
       <c r="I13" s="508"/>
       <c r="J13" s="509" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="509"/>
     </row>
@@ -6613,17 +6652,17 @@
         <v>43</v>
       </c>
       <c r="B14" s="366">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D14" s="366">
         <v>32.5</v>
       </c>
       <c r="E14" s="366">
         <f>B14*D14</f>
-        <v>845</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6631,17 +6670,17 @@
         <v>44</v>
       </c>
       <c r="B15" s="366">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D15" s="366">
         <v>3</v>
       </c>
       <c r="E15" s="366">
         <f t="shared" ref="E15:E26" si="0">B15*D15</f>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6649,17 +6688,17 @@
         <v>38</v>
       </c>
       <c r="B16" s="366">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D16" s="366">
         <v>34.200000000000003</v>
       </c>
       <c r="E16" s="366">
         <f t="shared" si="0"/>
-        <v>1162.8000000000002</v>
+        <v>1094.4000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6667,17 +6706,17 @@
         <v>23</v>
       </c>
       <c r="B17" s="366">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D17" s="366">
         <v>1.3</v>
       </c>
       <c r="E17" s="366">
         <f t="shared" si="0"/>
-        <v>44.2</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6685,17 +6724,17 @@
         <v>47</v>
       </c>
       <c r="B18" s="366">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C18" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D18" s="366">
         <v>1.29</v>
       </c>
       <c r="E18" s="366">
         <f t="shared" si="0"/>
-        <v>103.2</v>
+        <v>167.70000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6703,17 +6742,17 @@
         <v>90</v>
       </c>
       <c r="B19" s="366">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C19" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D19" s="366">
         <v>0.3</v>
       </c>
       <c r="E19" s="366">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6721,17 +6760,17 @@
         <v>51</v>
       </c>
       <c r="B20" s="366">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C20" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D20" s="366">
         <v>0.5</v>
       </c>
       <c r="E20" s="366">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6739,25 +6778,29 @@
         <v>53</v>
       </c>
       <c r="B21" s="366">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D21" s="366">
         <v>0.4</v>
       </c>
       <c r="E21" s="366">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="365" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="372"/>
-      <c r="C22" s="372"/>
+      <c r="B22" s="372">
+        <v>24</v>
+      </c>
+      <c r="C22" s="372" t="s">
+        <v>145</v>
+      </c>
       <c r="D22" s="366"/>
       <c r="E22" s="366">
         <f t="shared" si="0"/>
@@ -6769,17 +6812,17 @@
         <v>56</v>
       </c>
       <c r="B23" s="366">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D23" s="366">
         <v>1.7</v>
       </c>
       <c r="E23" s="366">
         <f t="shared" si="0"/>
-        <v>40.799999999999997</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6787,17 +6830,17 @@
         <v>70</v>
       </c>
       <c r="B24" s="366">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D24" s="366">
         <v>3</v>
       </c>
       <c r="E24" s="366">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6820,7 +6863,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="372" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D26" s="366">
         <v>1.5</v>
@@ -6832,10 +6875,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="367" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="373">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C27" s="375"/>
       <c r="D27" s="366"/>
@@ -6846,26 +6889,26 @@
       <c r="D28" s="370"/>
       <c r="E28" s="370">
         <f>SUM(E14:E27)</f>
-        <v>2400</v>
+        <v>2316.8999999999996</v>
       </c>
       <c r="F28">
         <v>2400</v>
       </c>
       <c r="G28">
         <f>F28-E28</f>
-        <v>0</v>
+        <v>83.100000000000364</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="492" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="492"/>
       <c r="C29" s="492"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>113</v>
+      <c r="A30" s="363" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6896,7 +6939,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
@@ -6938,24 +6981,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="163"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B20</f>
-        <v>80</v>
-      </c>
-      <c r="L2" s="623"/>
+        <v>60</v>
+      </c>
+      <c r="L2" s="618"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -6966,19 +7009,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -6989,9 +7032,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="163"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7013,7 +7056,7 @@
       <c r="B5" s="590" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
+      <c r="C5" s="621"/>
       <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7022,9 +7065,9 @@
       <c r="F5" s="503"/>
       <c r="G5" s="503"/>
       <c r="H5" s="504"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="602"/>
+      <c r="I5" s="622"/>
+      <c r="J5" s="623"/>
+      <c r="K5" s="624"/>
       <c r="L5" s="504"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
@@ -7039,18 +7082,18 @@
       <c r="B6" s="590" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
+      <c r="C6" s="621"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
       <c r="G6" s="593"/>
       <c r="H6" s="594"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="602"/>
+      <c r="I6" s="622"/>
+      <c r="J6" s="623"/>
+      <c r="K6" s="624"/>
       <c r="L6" s="504"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
@@ -7065,7 +7108,7 @@
       <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
+      <c r="C7" s="625"/>
       <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
@@ -7074,10 +7117,10 @@
       <c r="F7" s="556"/>
       <c r="G7" s="556"/>
       <c r="H7" s="557"/>
-      <c r="I7" s="601" t="s">
+      <c r="I7" s="626" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
+      <c r="J7" s="625"/>
       <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -7462,7 +7505,7 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L21" s="627" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M21" s="627"/>
       <c r="N21" s="627"/>
@@ -7473,11 +7516,11 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O22" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P22" s="559"/>
       <c r="Q22" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R22" s="561"/>
     </row>
@@ -7527,7 +7570,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
@@ -7569,24 +7612,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="202"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B21</f>
-        <v>20</v>
-      </c>
-      <c r="L2" s="623"/>
+        <v>18</v>
+      </c>
+      <c r="L2" s="618"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
@@ -7597,19 +7640,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="202"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7620,9 +7663,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="202"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7644,7 +7687,7 @@
       <c r="B5" s="590" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
+      <c r="C5" s="621"/>
       <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7653,9 +7696,9 @@
       <c r="F5" s="503"/>
       <c r="G5" s="503"/>
       <c r="H5" s="504"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="602"/>
+      <c r="I5" s="622"/>
+      <c r="J5" s="623"/>
+      <c r="K5" s="624"/>
       <c r="L5" s="504"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
@@ -7670,18 +7713,18 @@
       <c r="B6" s="590" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
+      <c r="C6" s="621"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
       <c r="G6" s="593"/>
       <c r="H6" s="594"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="602"/>
+      <c r="I6" s="622"/>
+      <c r="J6" s="623"/>
+      <c r="K6" s="624"/>
       <c r="L6" s="504"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
@@ -7696,7 +7739,7 @@
       <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
+      <c r="C7" s="625"/>
       <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
@@ -7705,10 +7748,10 @@
       <c r="F7" s="556"/>
       <c r="G7" s="556"/>
       <c r="H7" s="557"/>
-      <c r="I7" s="601" t="s">
+      <c r="I7" s="626" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
+      <c r="J7" s="625"/>
       <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8091,7 +8134,7 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L21" s="627" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M21" s="627"/>
       <c r="N21" s="627"/>
@@ -8102,11 +8145,11 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O22" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P22" s="559"/>
       <c r="Q22" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R22" s="561"/>
     </row>
@@ -8208,24 +8251,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="130"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -8236,19 +8279,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="130"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8259,9 +8302,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8283,7 +8326,7 @@
       <c r="B5" s="590" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
+      <c r="C5" s="621"/>
       <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -8292,9 +8335,9 @@
       <c r="F5" s="503"/>
       <c r="G5" s="503"/>
       <c r="H5" s="504"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="602"/>
+      <c r="I5" s="622"/>
+      <c r="J5" s="623"/>
+      <c r="K5" s="624"/>
       <c r="L5" s="504"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
@@ -8309,18 +8352,18 @@
       <c r="B6" s="590" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
+      <c r="C6" s="621"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
       <c r="G6" s="593"/>
       <c r="H6" s="594"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="602"/>
+      <c r="I6" s="622"/>
+      <c r="J6" s="623"/>
+      <c r="K6" s="624"/>
       <c r="L6" s="504"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
@@ -8335,7 +8378,7 @@
       <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
+      <c r="C7" s="625"/>
       <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
@@ -8344,10 +8387,10 @@
       <c r="F7" s="556"/>
       <c r="G7" s="556"/>
       <c r="H7" s="557"/>
-      <c r="I7" s="601" t="s">
+      <c r="I7" s="626" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
+      <c r="J7" s="625"/>
       <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8664,7 +8707,7 @@
     <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L19" s="627" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M19" s="627"/>
       <c r="N19" s="627"/>
@@ -8675,11 +8718,11 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O20" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P20" s="559"/>
       <c r="Q20" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R20" s="561"/>
     </row>
@@ -8723,7 +8766,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18:R19"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8762,22 +8805,22 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="259"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
+      <c r="J2" s="614"/>
       <c r="K2" s="642">
         <f>Данные!B23</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L2" s="643"/>
       <c r="M2" s="260"/>
@@ -8790,17 +8833,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="259"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
       <c r="K3" s="644"/>
       <c r="L3" s="645"/>
       <c r="M3" s="265"/>
@@ -8813,9 +8856,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="259"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8837,7 +8880,7 @@
       <c r="B5" s="590" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
+      <c r="C5" s="621"/>
       <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -8846,9 +8889,9 @@
       <c r="F5" s="503"/>
       <c r="G5" s="503"/>
       <c r="H5" s="504"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="602"/>
+      <c r="I5" s="622"/>
+      <c r="J5" s="623"/>
+      <c r="K5" s="624"/>
       <c r="L5" s="504"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
@@ -8863,18 +8906,18 @@
       <c r="B6" s="590" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
+      <c r="C6" s="621"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
       <c r="G6" s="593"/>
       <c r="H6" s="594"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="602"/>
+      <c r="I6" s="622"/>
+      <c r="J6" s="623"/>
+      <c r="K6" s="624"/>
       <c r="L6" s="504"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
@@ -8889,7 +8932,7 @@
       <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
+      <c r="C7" s="625"/>
       <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
@@ -8898,10 +8941,10 @@
       <c r="F7" s="556"/>
       <c r="G7" s="556"/>
       <c r="H7" s="557"/>
-      <c r="I7" s="601" t="s">
+      <c r="I7" s="626" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
+      <c r="J7" s="625"/>
       <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -9036,9 +9079,7 @@
       <c r="B12" s="283" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="352">
-        <v>89</v>
-      </c>
+      <c r="C12" s="352"/>
       <c r="D12" s="284">
         <v>0.1</v>
       </c>
@@ -9173,7 +9214,7 @@
     <row r="17" spans="12:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L18" s="627" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M18" s="627"/>
       <c r="N18" s="627"/>
@@ -9184,11 +9225,11 @@
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
       <c r="O19" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P19" s="559"/>
       <c r="Q19" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R19" s="561"/>
     </row>
@@ -9243,8 +9284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9266,12 +9307,12 @@
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="380"/>
       <c r="B1" s="473" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C1" s="380"/>
       <c r="D1" s="472" t="str">
         <f>Данные!A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E1" s="380"/>
       <c r="F1" s="380"/>
@@ -9285,7 +9326,7 @@
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
@@ -9300,7 +9341,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="512" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B3" s="512"/>
       <c r="C3" s="512"/>
@@ -9328,28 +9369,28 @@
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="387" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B5" s="388" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C5" s="388" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="389" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E5" s="388" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F5" s="388" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G5" s="388" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H5" s="390" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I5" s="391"/>
       <c r="J5" s="391"/>
@@ -9366,19 +9407,19 @@
       </c>
       <c r="C6" s="372" t="str">
         <f>Данные!C14</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D6" s="394">
         <f>Данные!$B14</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="394">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="395"/>
       <c r="G6" s="394">
         <f>E6-F6</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="396"/>
       <c r="I6" s="397"/>
@@ -9397,19 +9438,19 @@
       </c>
       <c r="C7" s="372" t="str">
         <f>Данные!C15</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D7" s="400">
         <f>Данные!$B15</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="400">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="379"/>
       <c r="G7" s="400">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="401"/>
       <c r="I7" s="397"/>
@@ -9428,19 +9469,19 @@
       </c>
       <c r="C8" s="372" t="str">
         <f>Данные!C16</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D8" s="400">
         <f>Данные!$B16</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="400">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="379"/>
       <c r="G8" s="400">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="402"/>
       <c r="I8" s="397"/>
@@ -9459,19 +9500,19 @@
       </c>
       <c r="C9" s="372" t="str">
         <f>Данные!C17</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D9" s="400">
         <f>Данные!$B17</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="400">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="379"/>
       <c r="G9" s="400">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="402"/>
       <c r="I9" s="397"/>
@@ -9490,19 +9531,19 @@
       </c>
       <c r="C10" s="372" t="str">
         <f>Данные!C18</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D10" s="400">
         <f>Данные!$B18</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E10" s="400">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F10" s="379"/>
       <c r="G10" s="400">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H10" s="402"/>
       <c r="I10" s="403"/>
@@ -9521,19 +9562,19 @@
       </c>
       <c r="C11" s="372" t="str">
         <f>Данные!C19</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D11" s="400">
         <f>Данные!$B19</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E11" s="400">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F11" s="379"/>
       <c r="G11" s="400">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H11" s="402"/>
       <c r="I11" s="397"/>
@@ -9552,19 +9593,19 @@
       </c>
       <c r="C12" s="372" t="str">
         <f>Данные!C20</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D12" s="400">
         <f>Данные!$B20</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E12" s="400">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F12" s="404"/>
       <c r="G12" s="400">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H12" s="402"/>
       <c r="I12" s="403"/>
@@ -9584,19 +9625,19 @@
       </c>
       <c r="C13" s="372" t="str">
         <f>Данные!C21</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D13" s="400">
         <f>Данные!$B21</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="400">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F13" s="406"/>
       <c r="G13" s="400">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H13" s="402"/>
       <c r="I13" s="403"/>
@@ -9614,21 +9655,21 @@
         <f>Данные!A22</f>
         <v>Хватки</v>
       </c>
-      <c r="C14" s="372">
+      <c r="C14" s="372" t="str">
         <f>Данные!C22</f>
-        <v>0</v>
+        <v>PSI/4689</v>
       </c>
       <c r="D14" s="400">
         <f>Данные!$B22</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="471" t="s">
-        <v>93</v>
+        <v>24</v>
+      </c>
+      <c r="E14" s="471">
+        <v>24</v>
       </c>
       <c r="F14" s="379"/>
-      <c r="G14" s="400" t="e">
+      <c r="G14" s="400">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>24</v>
       </c>
       <c r="H14" s="402" t="s">
         <v>42</v>
@@ -9649,19 +9690,19 @@
       </c>
       <c r="C15" s="372" t="str">
         <f>Данные!C23</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D15" s="400">
         <f>Данные!$B23</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" s="400">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F15" s="404"/>
       <c r="G15" s="400">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H15" s="402"/>
       <c r="I15" s="403"/>
@@ -9680,19 +9721,19 @@
       </c>
       <c r="C16" s="372" t="str">
         <f>Данные!C24</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D16" s="400">
         <f>Данные!$B24</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="400">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="379"/>
       <c r="G16" s="400">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="402"/>
       <c r="I16" s="403"/>
@@ -9711,19 +9752,19 @@
       </c>
       <c r="C17" s="409" t="str">
         <f>Данные!C26</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="D17" s="410">
         <f>Данные!$B26</f>
         <v>18</v>
       </c>
       <c r="E17" s="410">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F17" s="411"/>
       <c r="G17" s="410">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H17" s="412"/>
       <c r="I17" s="403"/>
@@ -9746,7 +9787,7 @@
     <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="383"/>
       <c r="B19" s="417" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C19" s="364"/>
       <c r="D19" s="364"/>
@@ -9761,40 +9802,42 @@
     </row>
     <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="387" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="388" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="388" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="388" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="388" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="388" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="419" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="420" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="388" t="s">
+      <c r="I20" s="421" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="388" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="388" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="388" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="388" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="419" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="420" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="421" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="391"/>
+      <c r="J20" s="421" t="s">
+        <v>149</v>
+      </c>
       <c r="K20" s="391"/>
       <c r="L20" s="391"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="422">
         <f>D6*700000</f>
-        <v>18200000</v>
+        <v>16800000</v>
       </c>
       <c r="B21" s="423">
         <v>43759</v>
@@ -9813,17 +9856,17 @@
       </c>
       <c r="G21" s="426">
         <f>F21/A$21</f>
-        <v>5.6698626373626375E-2</v>
+        <v>6.1423511904761904E-2</v>
       </c>
       <c r="H21" s="427">
         <f>A21-F21</f>
-        <v>17168085</v>
+        <v>15768085</v>
       </c>
       <c r="I21" s="428">
         <f>1-G21</f>
-        <v>0.94330137362637367</v>
-      </c>
-      <c r="J21" s="429"/>
+        <v>0.93857648809523808</v>
+      </c>
+      <c r="J21" s="647"/>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
@@ -9840,13 +9883,13 @@
       </c>
       <c r="H22" s="433">
         <f>H21-F22</f>
-        <v>17168085</v>
+        <v>15768085</v>
       </c>
       <c r="I22" s="434">
         <f>I21-G22</f>
-        <v>0.94330137362637367</v>
-      </c>
-      <c r="J22" s="383"/>
+        <v>0.93857648809523808</v>
+      </c>
+      <c r="J22" s="648"/>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
@@ -9860,7 +9903,7 @@
       <c r="G23" s="438"/>
       <c r="H23" s="439"/>
       <c r="I23" s="440"/>
-      <c r="J23" s="429"/>
+      <c r="J23" s="649"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
@@ -9874,7 +9917,7 @@
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
       <c r="I24" s="441"/>
-      <c r="J24" s="429"/>
+      <c r="J24" s="650"/>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
@@ -9888,7 +9931,7 @@
       <c r="G25" s="442"/>
       <c r="H25" s="439"/>
       <c r="I25" s="440"/>
-      <c r="J25" s="429"/>
+      <c r="J25" s="649"/>
       <c r="K25" s="443"/>
       <c r="L25" s="383"/>
     </row>
@@ -9902,7 +9945,7 @@
       <c r="G26" s="442"/>
       <c r="H26" s="439"/>
       <c r="I26" s="440"/>
-      <c r="J26" s="429"/>
+      <c r="J26" s="649"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
@@ -9916,7 +9959,7 @@
       <c r="G27" s="442"/>
       <c r="H27" s="439"/>
       <c r="I27" s="440"/>
-      <c r="J27" s="429"/>
+      <c r="J27" s="649"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
@@ -9930,7 +9973,7 @@
       <c r="G28" s="442"/>
       <c r="H28" s="439"/>
       <c r="I28" s="440"/>
-      <c r="J28" s="429"/>
+      <c r="J28" s="649"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
@@ -9944,7 +9987,7 @@
       <c r="G29" s="444"/>
       <c r="H29" s="439"/>
       <c r="I29" s="445"/>
-      <c r="J29" s="429"/>
+      <c r="J29" s="651"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
@@ -9958,7 +10001,7 @@
       <c r="G30" s="442"/>
       <c r="H30" s="439"/>
       <c r="I30" s="445"/>
-      <c r="J30" s="429"/>
+      <c r="J30" s="651"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
@@ -9972,13 +10015,13 @@
       <c r="G31" s="450"/>
       <c r="H31" s="451"/>
       <c r="I31" s="452"/>
-      <c r="J31" s="383"/>
+      <c r="J31" s="652"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="453" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B32" s="454"/>
       <c r="C32" s="454"/>
@@ -9993,17 +10036,17 @@
       </c>
       <c r="G32" s="458">
         <f>SUM(G21:G31)</f>
-        <v>5.6698626373626375E-2</v>
+        <v>6.1423511904761904E-2</v>
       </c>
       <c r="H32" s="459">
         <f>A21-F32</f>
-        <v>17168085</v>
+        <v>15768085</v>
       </c>
       <c r="I32" s="460">
         <f>1-G32</f>
-        <v>0.94330137362637367</v>
-      </c>
-      <c r="J32" s="461"/>
+        <v>0.93857648809523808</v>
+      </c>
+      <c r="J32" s="653"/>
       <c r="K32" s="461"/>
       <c r="L32" s="461"/>
     </row>
@@ -10021,7 +10064,7 @@
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="513" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B36" s="513"/>
       <c r="C36" s="513"/>
@@ -10035,14 +10078,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="514" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B37" s="514"/>
       <c r="C37" s="462" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D37" s="462" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E37" s="383"/>
       <c r="F37" s="383"/>
@@ -10054,19 +10097,19 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="515">
         <f>A21-F32</f>
-        <v>17168085</v>
+        <v>15768085</v>
       </c>
       <c r="B38" s="516"/>
       <c r="C38" s="463">
         <f>1-G32</f>
-        <v>0.94330137362637367</v>
+        <v>0.93857648809523808</v>
       </c>
       <c r="D38" s="464">
         <f>(C38/0.8)*100</f>
-        <v>117.91267170329671</v>
+        <v>117.32206101190474</v>
       </c>
       <c r="E38" s="465" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F38" s="465"/>
       <c r="G38" s="465"/>
@@ -10304,7 +10347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
@@ -10331,7 +10374,7 @@
     </row>
     <row r="3" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G3" s="309" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="310"/>
       <c r="I3" s="310"/>
@@ -10340,7 +10383,7 @@
     </row>
     <row r="4" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G4" s="309" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="310"/>
       <c r="I4" s="310"/>
@@ -10351,7 +10394,7 @@
     <row r="6" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
@@ -10402,7 +10445,7 @@
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="522" t="str">
         <f>Данные!A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="B13" s="521"/>
       <c r="C13" s="521"/>
@@ -10426,14 +10469,14 @@
       <c r="G15" s="305"/>
       <c r="H15" s="306">
         <f>Данные!D11</f>
-        <v>43761</v>
+        <v>43853</v>
       </c>
       <c r="I15" s="304"/>
       <c r="J15" s="305"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="304" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="304"/>
       <c r="C16" s="304"/>
@@ -10518,7 +10561,7 @@
       <c r="H20" s="304"/>
       <c r="I20" s="306">
         <f>H15</f>
-        <v>43761</v>
+        <v>43853</v>
       </c>
       <c r="J20" s="305"/>
     </row>
@@ -10581,12 +10624,12 @@
       <c r="D24" s="543"/>
       <c r="E24" s="529" t="str">
         <f>Данные!C14</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F24" s="530"/>
       <c r="G24" s="533">
         <f>Данные!B14</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H24" s="535"/>
       <c r="I24" s="536"/>
@@ -10596,7 +10639,7 @@
       <c r="A25" s="528"/>
       <c r="B25" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C25" s="524"/>
       <c r="D25" s="525"/>
@@ -10613,18 +10656,18 @@
         <v>2</v>
       </c>
       <c r="B26" s="545" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="546"/>
       <c r="D26" s="547"/>
       <c r="E26" s="529" t="str">
         <f>Данные!C15</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F26" s="530"/>
       <c r="G26" s="533">
         <f>Данные!B15</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H26" s="535"/>
       <c r="I26" s="536"/>
@@ -10634,7 +10677,7 @@
       <c r="A27" s="528"/>
       <c r="B27" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C27" s="524"/>
       <c r="D27" s="525"/>
@@ -10657,12 +10700,12 @@
       <c r="D28" s="547"/>
       <c r="E28" s="529" t="str">
         <f>Данные!C16</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F28" s="530"/>
       <c r="G28" s="533">
         <f>Данные!B16</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H28" s="535"/>
       <c r="I28" s="536"/>
@@ -10672,7 +10715,7 @@
       <c r="A29" s="528"/>
       <c r="B29" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C29" s="524"/>
       <c r="D29" s="525"/>
@@ -10689,18 +10732,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="545" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="546"/>
       <c r="D30" s="547"/>
       <c r="E30" s="529" t="str">
         <f>Данные!C17</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F30" s="530"/>
       <c r="G30" s="533">
         <f>Данные!B17</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30" s="535"/>
       <c r="I30" s="536"/>
@@ -10710,7 +10753,7 @@
       <c r="A31" s="528"/>
       <c r="B31" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C31" s="524"/>
       <c r="D31" s="525"/>
@@ -10733,12 +10776,12 @@
       <c r="D32" s="547"/>
       <c r="E32" s="529" t="str">
         <f>Данные!C18</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F32" s="530"/>
       <c r="G32" s="533">
         <f>Данные!B18</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="H32" s="535"/>
       <c r="I32" s="536"/>
@@ -10748,7 +10791,7 @@
       <c r="A33" s="528"/>
       <c r="B33" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C33" s="524"/>
       <c r="D33" s="525"/>
@@ -10771,12 +10814,12 @@
       <c r="D34" s="547"/>
       <c r="E34" s="529" t="str">
         <f>Данные!C19</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F34" s="530"/>
       <c r="G34" s="533">
         <f>Данные!B19</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="H34" s="535"/>
       <c r="I34" s="536"/>
@@ -10786,7 +10829,7 @@
       <c r="A35" s="528"/>
       <c r="B35" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C35" s="524"/>
       <c r="D35" s="525"/>
@@ -10809,12 +10852,12 @@
       <c r="D36" s="547"/>
       <c r="E36" s="529" t="str">
         <f>Данные!C20</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F36" s="530"/>
       <c r="G36" s="533">
         <f>Данные!B20</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H36" s="535"/>
       <c r="I36" s="536"/>
@@ -10824,7 +10867,7 @@
       <c r="A37" s="528"/>
       <c r="B37" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C37" s="524"/>
       <c r="D37" s="525"/>
@@ -10847,12 +10890,12 @@
       <c r="D38" s="547"/>
       <c r="E38" s="529" t="str">
         <f>Данные!C21</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F38" s="530"/>
       <c r="G38" s="533">
         <f>Данные!B21</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H38" s="535"/>
       <c r="I38" s="536"/>
@@ -10862,7 +10905,7 @@
       <c r="A39" s="528"/>
       <c r="B39" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C39" s="524"/>
       <c r="D39" s="525"/>
@@ -10885,12 +10928,12 @@
       <c r="D40" s="547"/>
       <c r="E40" s="529" t="str">
         <f>Данные!C23</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F40" s="530"/>
       <c r="G40" s="533">
         <f>Данные!B23</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H40" s="535"/>
       <c r="I40" s="536"/>
@@ -10900,7 +10943,7 @@
       <c r="A41" s="528"/>
       <c r="B41" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C41" s="524"/>
       <c r="D41" s="525"/>
@@ -10923,7 +10966,7 @@
       <c r="D42" s="547"/>
       <c r="E42" s="529" t="str">
         <f>Данные!C26</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F42" s="530"/>
       <c r="G42" s="533">
@@ -10938,7 +10981,7 @@
       <c r="A43" s="528"/>
       <c r="B43" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C43" s="524"/>
       <c r="D43" s="525"/>
@@ -10955,7 +10998,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="545" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="546"/>
       <c r="D44" s="547"/>
@@ -10966,7 +11009,7 @@
       <c r="F44" s="530"/>
       <c r="G44" s="533">
         <f>Данные!B27</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H44" s="535"/>
       <c r="I44" s="536"/>
@@ -10976,7 +11019,7 @@
       <c r="A45" s="528"/>
       <c r="B45" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C45" s="524"/>
       <c r="D45" s="525"/>
@@ -10999,12 +11042,12 @@
       <c r="D46" s="547"/>
       <c r="E46" s="529" t="str">
         <f>Данные!C24</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>ExtraNew 0.5L</v>
       </c>
       <c r="F46" s="530"/>
       <c r="G46" s="533">
         <f>Данные!B24</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" s="535"/>
       <c r="I46" s="536"/>
@@ -11014,7 +11057,7 @@
       <c r="A47" s="528"/>
       <c r="B47" s="523" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
+        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
       </c>
       <c r="C47" s="524"/>
       <c r="D47" s="525"/>
@@ -11244,7 +11287,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="N27" sqref="N27:Q28"/>
@@ -11301,7 +11344,7 @@
       <c r="J2" s="580"/>
       <c r="K2" s="583">
         <f>Данные!B14</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" s="584"/>
       <c r="M2" s="66"/>
@@ -11390,7 +11433,7 @@
       <c r="C6" s="592"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
@@ -11978,7 +12021,7 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K27" s="562" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L27" s="562"/>
       <c r="M27" s="562"/>
@@ -11989,11 +12032,11 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N28" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O28" s="559"/>
       <c r="P28" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="561"/>
     </row>
@@ -12048,7 +12091,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12087,27 +12130,27 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="603">
+      <c r="B2" s="598">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B15</f>
-        <v>26</v>
-      </c>
-      <c r="L2" s="623"/>
+        <v>24</v>
+      </c>
+      <c r="L2" s="618"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -12118,19 +12161,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12141,9 +12184,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12165,7 +12208,7 @@
       <c r="B5" s="590" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
+      <c r="C5" s="621"/>
       <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -12174,9 +12217,9 @@
       <c r="F5" s="503"/>
       <c r="G5" s="503"/>
       <c r="H5" s="504"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="602"/>
+      <c r="I5" s="622"/>
+      <c r="J5" s="623"/>
+      <c r="K5" s="624"/>
       <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -12191,18 +12234,18 @@
       <c r="B6" s="590" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
+      <c r="C6" s="621"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
       <c r="G6" s="593"/>
       <c r="H6" s="594"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="602"/>
+      <c r="I6" s="622"/>
+      <c r="J6" s="623"/>
+      <c r="K6" s="624"/>
       <c r="L6" s="504"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -12217,7 +12260,7 @@
       <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
+      <c r="C7" s="625"/>
       <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
@@ -12226,10 +12269,10 @@
       <c r="F7" s="556"/>
       <c r="G7" s="556"/>
       <c r="H7" s="557"/>
-      <c r="I7" s="601" t="s">
+      <c r="I7" s="626" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
+      <c r="J7" s="625"/>
       <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -12426,7 +12469,7 @@
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="596" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C14" s="597"/>
       <c r="D14" s="597"/>
@@ -12453,7 +12496,7 @@
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="549" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C15" s="550"/>
       <c r="D15" s="550"/>
@@ -12530,7 +12573,7 @@
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
       <c r="L19" s="562" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M19" s="562"/>
       <c r="N19" s="562"/>
@@ -12541,11 +12584,11 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O20" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P20" s="559"/>
       <c r="Q20" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R20" s="561"/>
     </row>
@@ -12558,23 +12601,23 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12606,10 +12649,10 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23:R24"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12663,7 +12706,7 @@
       <c r="J2" s="580"/>
       <c r="K2" s="583">
         <f>Данные!B16</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L2" s="584"/>
       <c r="M2" s="66"/>
@@ -12752,7 +12795,7 @@
       <c r="C6" s="592"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
@@ -12863,9 +12906,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93">
-        <v>265.95</v>
-      </c>
+      <c r="C10" s="93"/>
       <c r="D10" s="93">
         <v>0.05</v>
       </c>
@@ -12971,9 +13012,7 @@
       <c r="B13" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="376">
-        <v>157</v>
-      </c>
+      <c r="C13" s="376"/>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -13007,9 +13046,7 @@
       <c r="B14" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="97">
-        <v>239</v>
-      </c>
+      <c r="C14" s="97"/>
       <c r="D14" s="97">
         <v>0.05</v>
       </c>
@@ -13115,9 +13152,7 @@
       <c r="B17" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="104">
-        <v>25.3</v>
-      </c>
+      <c r="C17" s="104"/>
       <c r="D17" s="104">
         <v>0.05</v>
       </c>
@@ -13151,9 +13186,7 @@
       <c r="B18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="104">
-        <v>47</v>
-      </c>
+      <c r="C18" s="104"/>
       <c r="D18" s="104">
         <v>0.05</v>
       </c>
@@ -13187,9 +13220,7 @@
       <c r="B19" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="353">
-        <v>77.88</v>
-      </c>
+      <c r="C19" s="353"/>
       <c r="D19" s="104">
         <v>0.02</v>
       </c>
@@ -13275,7 +13306,7 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L23" s="627" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M23" s="627"/>
       <c r="N23" s="627"/>
@@ -13286,11 +13317,11 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O24" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P24" s="559"/>
       <c r="Q24" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R24" s="561"/>
     </row>
@@ -13399,7 +13430,7 @@
       <c r="J2" s="580"/>
       <c r="K2" s="583">
         <f>Данные!B17</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L2" s="584"/>
       <c r="M2" s="7"/>
@@ -13488,7 +13519,7 @@
       <c r="C6" s="592"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
@@ -13809,7 +13840,7 @@
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L18" s="627" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M18" s="627"/>
       <c r="N18" s="627"/>
@@ -13820,11 +13851,11 @@
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
       <c r="O19" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P19" s="559"/>
       <c r="Q19" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R19" s="561"/>
     </row>
@@ -13835,12 +13866,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
@@ -13851,6 +13876,12 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13922,24 +13953,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B18</f>
-        <v>80</v>
-      </c>
-      <c r="L2" s="623"/>
+        <v>130</v>
+      </c>
+      <c r="L2" s="618"/>
       <c r="M2" s="629"/>
       <c r="N2" s="630"/>
       <c r="O2" s="630"/>
@@ -13950,19 +13981,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="632"/>
       <c r="N3" s="633"/>
       <c r="O3" s="633"/>
@@ -13973,9 +14004,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -13997,7 +14028,7 @@
       <c r="B5" s="590" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
+      <c r="C5" s="621"/>
       <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -14006,9 +14037,9 @@
       <c r="F5" s="503"/>
       <c r="G5" s="503"/>
       <c r="H5" s="504"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="602"/>
+      <c r="I5" s="622"/>
+      <c r="J5" s="623"/>
+      <c r="K5" s="624"/>
       <c r="L5" s="504"/>
       <c r="M5" s="632"/>
       <c r="N5" s="633"/>
@@ -14023,18 +14054,18 @@
       <c r="B6" s="590" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
+      <c r="C6" s="621"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
       <c r="G6" s="593"/>
       <c r="H6" s="594"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="602"/>
+      <c r="I6" s="622"/>
+      <c r="J6" s="623"/>
+      <c r="K6" s="624"/>
       <c r="L6" s="504"/>
       <c r="M6" s="632"/>
       <c r="N6" s="633"/>
@@ -14049,7 +14080,7 @@
       <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
+      <c r="C7" s="625"/>
       <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
@@ -14058,10 +14089,10 @@
       <c r="F7" s="556"/>
       <c r="G7" s="556"/>
       <c r="H7" s="557"/>
-      <c r="I7" s="601" t="s">
+      <c r="I7" s="626" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
+      <c r="J7" s="625"/>
       <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -14242,7 +14273,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H13" s="481"/>
       <c r="I13" s="482"/>
@@ -14275,7 +14306,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="296" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="97"/>
@@ -14401,7 +14432,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="296" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
@@ -14500,7 +14531,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L23" s="627" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M23" s="627"/>
       <c r="N23" s="627"/>
@@ -14511,11 +14542,11 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O24" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P24" s="559"/>
       <c r="Q24" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R24" s="561"/>
     </row>
@@ -14607,24 +14638,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B19</f>
-        <v>80</v>
-      </c>
-      <c r="L2" s="623"/>
+        <v>130</v>
+      </c>
+      <c r="L2" s="618"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14635,19 +14666,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14658,9 +14689,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14682,7 +14713,7 @@
       <c r="B5" s="590" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
+      <c r="C5" s="621"/>
       <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -14691,9 +14722,9 @@
       <c r="F5" s="503"/>
       <c r="G5" s="503"/>
       <c r="H5" s="504"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="602"/>
+      <c r="I5" s="622"/>
+      <c r="J5" s="623"/>
+      <c r="K5" s="624"/>
       <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -14708,18 +14739,18 @@
       <c r="B6" s="590" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
+      <c r="C6" s="621"/>
       <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
       </c>
       <c r="E6" s="593"/>
       <c r="F6" s="593"/>
       <c r="G6" s="593"/>
       <c r="H6" s="594"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="602"/>
+      <c r="I6" s="622"/>
+      <c r="J6" s="623"/>
+      <c r="K6" s="624"/>
       <c r="L6" s="504"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -14734,7 +14765,7 @@
       <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
+      <c r="C7" s="625"/>
       <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
@@ -14743,10 +14774,10 @@
       <c r="F7" s="556"/>
       <c r="G7" s="556"/>
       <c r="H7" s="557"/>
-      <c r="I7" s="601" t="s">
+      <c r="I7" s="626" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
+      <c r="J7" s="625"/>
       <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -14894,7 +14925,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H12" s="489"/>
       <c r="I12" s="482"/>
@@ -15059,7 +15090,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L19" s="627" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M19" s="627"/>
       <c r="N19" s="627"/>
@@ -15070,11 +15101,11 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O20" s="559" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P20" s="559"/>
       <c r="Q20" s="560" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R20" s="561"/>
     </row>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="-15" windowWidth="14445" windowHeight="12435" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">Воронка!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Втулка!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="155">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -471,24 +471,6 @@
   </si>
   <si>
     <t>ФИО</t>
-  </si>
-  <si>
-    <t>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</t>
-  </si>
-  <si>
-    <t>ExtraNew 0.5L</t>
-  </si>
-  <si>
-    <t>(к серийному формокомплекту ExtraNew 0.5L)</t>
-  </si>
-  <si>
-    <t>PSI/4689</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (владелец ООО "Завод Бульбаш" дог. безвозм. польз. №0910 от 09.10.2019)</t>
-  </si>
-  <si>
-    <t>Дата поставки  21.01.2020 (c остаточным ресурсом 100 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Полная высота </t>
@@ -517,6 +499,39 @@
       <t xml:space="preserve"> гр.)</t>
     </r>
   </si>
+  <si>
+    <t>XXI-В-28-2-200-3 (Фляга 0,2 л.)</t>
+  </si>
+  <si>
+    <t>200CC OVAL FLASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
+  </si>
+  <si>
+    <t>Дата поставки  10.04.2020 (c остаточным ресурсом 100 %)</t>
+  </si>
+  <si>
+    <t>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</t>
+  </si>
+  <si>
+    <t>По накладным 32 шт., по факту 30 шт.</t>
+  </si>
+  <si>
+    <t>49 / 23</t>
+  </si>
+  <si>
+    <t>48,9 / 22,9</t>
+  </si>
+  <si>
+    <t>76 / 36</t>
+  </si>
+  <si>
+    <t>0,2 / 0,15</t>
+  </si>
+  <si>
+    <t>47 / 22</t>
+  </si>
 </sst>
 </file>
 
@@ -529,7 +544,7 @@
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3621,455 +3636,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4084,6 +3650,455 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5263,16 +5278,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>23283</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>243416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>968375</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5290,8 +5305,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6314016" y="260350"/>
-          <a:ext cx="3589867" cy="2062692"/>
+          <a:off x="10310283" y="2825749"/>
+          <a:ext cx="3505201" cy="2079625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5361,7 +5376,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>330200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5405,7 +5420,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>575734</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>364067</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5441,16 +5456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>581119</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>559952</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1138609</xdr:rowOff>
+      <xdr:rowOff>948109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5467,8 +5482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10227733" y="406400"/>
-          <a:ext cx="3535986" cy="2086876"/>
+          <a:off x="6189133" y="222250"/>
+          <a:ext cx="3472486" cy="2101692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5538,8 +5553,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>208433</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5809,8 +5824,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>701041</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>206693</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6502,86 +6517,86 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="495" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A1" s="502" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="496" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="497"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="497"/>
-      <c r="E2" s="498"/>
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A2" s="503" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="505"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1">
       <c r="G3" s="362" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="500" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A4" s="507" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="502" t="s">
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="509" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="503"/>
-      <c r="C5" s="503"/>
-      <c r="D5" s="503"/>
-      <c r="E5" s="504"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="495" t="s">
+      <c r="B5" s="510"/>
+      <c r="C5" s="510"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="511"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A7" s="502" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="499"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="505"/>
-      <c r="B8" s="506"/>
-      <c r="C8" s="506"/>
-      <c r="D8" s="506"/>
-      <c r="E8" s="507"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="495" t="s">
+      <c r="B7" s="506"/>
+      <c r="C7" s="506"/>
+      <c r="D7" s="506"/>
+      <c r="E7" s="506"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A8" s="512"/>
+      <c r="B8" s="513"/>
+      <c r="C8" s="513"/>
+      <c r="D8" s="513"/>
+      <c r="E8" s="514"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A10" s="502" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="495"/>
+      <c r="B10" s="502"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6591,36 +6606,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="493"/>
-      <c r="B11" s="494"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A11" s="500"/>
+      <c r="B11" s="501"/>
       <c r="D11" s="369">
-        <v>43853</v>
-      </c>
-      <c r="F11" s="508" t="s">
+        <v>43931</v>
+      </c>
+      <c r="F11" s="515" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="508"/>
-      <c r="H11" s="508"/>
-      <c r="I11" s="508"/>
-      <c r="J11" s="509" t="s">
+      <c r="G11" s="515"/>
+      <c r="H11" s="515"/>
+      <c r="I11" s="515"/>
+      <c r="J11" s="516" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="509"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="508" t="s">
+      <c r="K11" s="516"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="F12" s="515" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="508"/>
-      <c r="H12" s="508"/>
-      <c r="I12" s="508"/>
-      <c r="J12" s="509" t="s">
+      <c r="G12" s="515"/>
+      <c r="H12" s="515"/>
+      <c r="I12" s="515"/>
+      <c r="J12" s="516" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="509"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K12" s="516"/>
+    </row>
+    <row r="13" spans="1:11" ht="38.25">
       <c r="A13" s="374" t="s">
         <v>88</v>
       </c>
@@ -6636,18 +6651,18 @@
       <c r="E13" s="474" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="508" t="s">
+      <c r="F13" s="515" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="508"/>
-      <c r="H13" s="508"/>
-      <c r="I13" s="508"/>
-      <c r="J13" s="509" t="s">
+      <c r="G13" s="515"/>
+      <c r="H13" s="515"/>
+      <c r="I13" s="515"/>
+      <c r="J13" s="516" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="509"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="516"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="365" t="s">
         <v>43</v>
       </c>
@@ -6655,7 +6670,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D14" s="366">
         <v>32.5</v>
@@ -6665,7 +6680,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="365" t="s">
         <v>44</v>
       </c>
@@ -6673,7 +6688,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D15" s="366">
         <v>3</v>
@@ -6683,25 +6698,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="365" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="366">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D16" s="366">
         <v>34.200000000000003</v>
       </c>
       <c r="E16" s="366">
         <f t="shared" si="0"/>
-        <v>1094.4000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="365" t="s">
         <v>23</v>
       </c>
@@ -6709,7 +6724,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D17" s="366">
         <v>1.3</v>
@@ -6719,95 +6734,91 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="365" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="366">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C18" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D18" s="366">
         <v>1.29</v>
       </c>
       <c r="E18" s="366">
         <f t="shared" si="0"/>
-        <v>167.70000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="365" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="366">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C19" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D19" s="366">
         <v>0.3</v>
       </c>
       <c r="E19" s="366">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="365" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="366">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C20" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D20" s="366">
         <v>0.5</v>
       </c>
       <c r="E20" s="366">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="365" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="366">
-        <v>18</v>
-      </c>
-      <c r="C21" s="372" t="s">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C21" s="372"/>
       <c r="D21" s="366">
         <v>0.4</v>
       </c>
       <c r="E21" s="366">
         <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="365" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="372">
-        <v>24</v>
-      </c>
-      <c r="C22" s="372" t="s">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C22" s="372"/>
       <c r="D22" s="366"/>
       <c r="E22" s="366">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="365" t="s">
         <v>56</v>
       </c>
@@ -6815,7 +6826,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D23" s="366">
         <v>1.7</v>
@@ -6825,7 +6836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="365" t="s">
         <v>70</v>
       </c>
@@ -6833,7 +6844,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="372" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D24" s="366">
         <v>3</v>
@@ -6843,7 +6854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="365" t="s">
         <v>92</v>
       </c>
@@ -6855,60 +6866,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="367" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="368">
-        <v>18</v>
-      </c>
-      <c r="C26" s="372" t="s">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C26" s="372"/>
       <c r="D26" s="366">
         <v>1.5</v>
       </c>
       <c r="E26" s="366">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="367" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="373">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C27" s="375"/>
       <c r="D27" s="366"/>
       <c r="E27" s="366"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="371"/>
       <c r="D28" s="370"/>
       <c r="E28" s="370">
         <f>SUM(E14:E27)</f>
-        <v>2316.8999999999996</v>
+        <v>2130.8000000000002</v>
       </c>
       <c r="F28">
         <v>2400</v>
       </c>
       <c r="G28">
         <f>F28-E28</f>
-        <v>83.100000000000364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="492" t="s">
+        <v>269.19999999999982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="499" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="492"/>
-      <c r="C29" s="492"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="499"/>
+      <c r="C29" s="499"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="363" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6938,27 +6947,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="162" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="162" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="162" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="162" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="162" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="162" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="162" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="162" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="162" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="162" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="162" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="162" customWidth="1"/>
     <col min="8" max="18" width="9" style="162" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="162" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="162"/>
+    <col min="19" max="19" width="1.42578125" style="162" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="162"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="158"/>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -6979,49 +6988,49 @@
       <c r="R1" s="160"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25">
       <c r="A2" s="163"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B20</f>
-        <v>60</v>
-      </c>
-      <c r="L2" s="618"/>
+        <v>40</v>
+      </c>
+      <c r="L2" s="625"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="163"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7030,11 +7039,11 @@
       <c r="R3" s="171"/>
       <c r="S3" s="168"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="163"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7051,24 +7060,24 @@
       <c r="R4" s="171"/>
       <c r="S4" s="168"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
       <c r="A5" s="163"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="628"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="629"/>
+      <c r="J5" s="630"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7077,24 +7086,24 @@
       <c r="R5" s="171"/>
       <c r="S5" s="168"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="163"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="628"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="631"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7103,29 +7112,29 @@
       <c r="R6" s="171"/>
       <c r="S6" s="168"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="163"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="632"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="633" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="632"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7134,7 +7143,7 @@
       <c r="R7" s="171"/>
       <c r="S7" s="168"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
       <c r="A8" s="173"/>
       <c r="B8" s="174"/>
       <c r="C8" s="175"/>
@@ -7155,7 +7164,7 @@
       <c r="R8" s="178"/>
       <c r="S8" s="179"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="180"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7188,12 +7197,14 @@
       <c r="R9" s="338"/>
       <c r="S9" s="195"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1">
       <c r="A10" s="173"/>
       <c r="B10" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="183">
+        <v>68.23</v>
+      </c>
       <c r="D10" s="183">
         <v>0.05</v>
       </c>
@@ -7221,12 +7232,14 @@
       <c r="R10" s="340"/>
       <c r="S10" s="179"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1">
       <c r="A11" s="173"/>
       <c r="B11" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="185"/>
+      <c r="C11" s="185">
+        <v>19.850000000000001</v>
+      </c>
       <c r="D11" s="185">
         <v>0.02</v>
       </c>
@@ -7252,7 +7265,7 @@
       <c r="R11" s="342"/>
       <c r="S11" s="179"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="173"/>
       <c r="B12" s="184" t="s">
         <v>2</v>
@@ -7285,7 +7298,7 @@
       <c r="R12" s="342"/>
       <c r="S12" s="179"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="173"/>
       <c r="B13" s="184" t="s">
         <v>3</v>
@@ -7318,7 +7331,7 @@
       <c r="R13" s="342"/>
       <c r="S13" s="179"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="173"/>
       <c r="B14" s="184" t="s">
         <v>27</v>
@@ -7351,7 +7364,7 @@
       <c r="R14" s="342"/>
       <c r="S14" s="179"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1">
       <c r="A15" s="173"/>
       <c r="B15" s="184" t="s">
         <v>28</v>
@@ -7384,7 +7397,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="179"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1">
       <c r="A16" s="173"/>
       <c r="B16" s="184" t="s">
         <v>4</v>
@@ -7417,12 +7430,14 @@
       <c r="R16" s="342"/>
       <c r="S16" s="179"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75">
       <c r="A17" s="173"/>
       <c r="B17" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="185"/>
+      <c r="C17" s="185">
+        <v>30.93</v>
+      </c>
       <c r="D17" s="185">
         <v>0.05</v>
       </c>
@@ -7448,7 +7463,7 @@
       <c r="R17" s="342"/>
       <c r="S17" s="179"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="173"/>
       <c r="B18" s="184" t="s">
         <v>5</v>
@@ -7481,7 +7496,7 @@
       <c r="R18" s="342"/>
       <c r="S18" s="179"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A19" s="186"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
@@ -7502,27 +7517,27 @@
       <c r="R19" s="187"/>
       <c r="S19" s="189"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="627" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1"/>
+    <row r="21" spans="1:19">
+      <c r="L21" s="634" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
+      <c r="M21" s="634"/>
+      <c r="N21" s="634"/>
       <c r="O21" s="475"/>
       <c r="P21" s="475"/>
       <c r="Q21" s="491"/>
       <c r="R21" s="491"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="559" t="s">
+    <row r="22" spans="1:19">
+      <c r="O22" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="559"/>
-      <c r="Q22" s="560" t="s">
+      <c r="P22" s="566"/>
+      <c r="Q22" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="561"/>
+      <c r="R22" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7576,20 +7591,20 @@
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="201" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="201" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="201" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="201" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="201" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="201" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="201" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="201" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="201" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="201" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="201" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="201" customWidth="1"/>
     <col min="8" max="18" width="9" style="201" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="201" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="201"/>
+    <col min="19" max="19" width="1.42578125" style="201" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="197"/>
       <c r="B1" s="198"/>
       <c r="C1" s="199"/>
@@ -7610,49 +7625,49 @@
       <c r="R1" s="199"/>
       <c r="S1" s="200"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25">
       <c r="A2" s="202"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B21</f>
-        <v>18</v>
-      </c>
-      <c r="L2" s="618"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="625"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="202"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7661,11 +7676,11 @@
       <c r="R3" s="210"/>
       <c r="S3" s="207"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="202"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7682,24 +7697,24 @@
       <c r="R4" s="210"/>
       <c r="S4" s="207"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
       <c r="A5" s="202"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="628"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="629"/>
+      <c r="J5" s="630"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7708,24 +7723,24 @@
       <c r="R5" s="210"/>
       <c r="S5" s="207"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="202"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="628"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="631"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7734,29 +7749,29 @@
       <c r="R6" s="210"/>
       <c r="S6" s="207"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="202"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="632"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="633" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="632"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -7765,7 +7780,7 @@
       <c r="R7" s="210"/>
       <c r="S7" s="207"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
       <c r="A8" s="212"/>
       <c r="B8" s="213"/>
       <c r="C8" s="214"/>
@@ -7786,7 +7801,7 @@
       <c r="R8" s="217"/>
       <c r="S8" s="218"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="219"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7819,7 +7834,7 @@
       <c r="R9" s="221"/>
       <c r="S9" s="222"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1">
       <c r="A10" s="212"/>
       <c r="B10" s="223" t="s">
         <v>25</v>
@@ -7852,7 +7867,7 @@
       <c r="R10" s="227"/>
       <c r="S10" s="218"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1">
       <c r="A11" s="212"/>
       <c r="B11" s="228" t="s">
         <v>26</v>
@@ -7885,7 +7900,7 @@
       <c r="R11" s="232"/>
       <c r="S11" s="218"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="212"/>
       <c r="B12" s="228" t="s">
         <v>2</v>
@@ -7918,7 +7933,7 @@
       <c r="R12" s="232"/>
       <c r="S12" s="218"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="212"/>
       <c r="B13" s="228" t="s">
         <v>3</v>
@@ -7951,7 +7966,7 @@
       <c r="R13" s="232"/>
       <c r="S13" s="218"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="212"/>
       <c r="B14" s="228" t="s">
         <v>27</v>
@@ -7984,7 +7999,7 @@
       <c r="R14" s="232"/>
       <c r="S14" s="218"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1">
       <c r="A15" s="212"/>
       <c r="B15" s="228" t="s">
         <v>28</v>
@@ -8017,7 +8032,7 @@
       <c r="R15" s="232"/>
       <c r="S15" s="218"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1">
       <c r="A16" s="212"/>
       <c r="B16" s="228" t="s">
         <v>9</v>
@@ -8050,7 +8065,7 @@
       <c r="R16" s="232"/>
       <c r="S16" s="218"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1">
       <c r="A17" s="212"/>
       <c r="B17" s="228" t="s">
         <v>5</v>
@@ -8083,14 +8098,14 @@
       <c r="R17" s="232"/>
       <c r="S17" s="218"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="212"/>
-      <c r="B18" s="637" t="s">
+      <c r="B18" s="644" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="638"/>
-      <c r="D18" s="638"/>
-      <c r="E18" s="639"/>
+      <c r="C18" s="645"/>
+      <c r="D18" s="645"/>
+      <c r="E18" s="646"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8110,7 +8125,7 @@
       <c r="R18" s="236"/>
       <c r="S18" s="218"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A19" s="237"/>
       <c r="B19" s="238"/>
       <c r="C19" s="238"/>
@@ -8131,27 +8146,27 @@
       <c r="R19" s="238"/>
       <c r="S19" s="240"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="627" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1"/>
+    <row r="21" spans="1:19">
+      <c r="L21" s="634" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
+      <c r="M21" s="634"/>
+      <c r="N21" s="634"/>
       <c r="O21" s="475"/>
       <c r="P21" s="475"/>
       <c r="Q21" s="491"/>
       <c r="R21" s="491"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="559" t="s">
+    <row r="22" spans="1:19">
+      <c r="O22" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="559"/>
-      <c r="Q22" s="560" t="s">
+      <c r="P22" s="566"/>
+      <c r="Q22" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="561"/>
+      <c r="R22" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8215,20 +8230,20 @@
       <selection pane="bottomRight" activeCell="O19" sqref="O19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8249,49 +8264,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25">
       <c r="A2" s="130"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B26</f>
-        <v>18</v>
-      </c>
-      <c r="L2" s="618"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="625"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="648"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="130"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8300,11 +8315,11 @@
       <c r="R3" s="138"/>
       <c r="S3" s="135"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="130"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8321,24 +8336,24 @@
       <c r="R4" s="138"/>
       <c r="S4" s="135"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
       <c r="A5" s="130"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="628"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="629"/>
+      <c r="J5" s="630"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8347,24 +8362,24 @@
       <c r="R5" s="138"/>
       <c r="S5" s="135"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="130"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="628"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="631"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8373,29 +8388,29 @@
       <c r="R6" s="138"/>
       <c r="S6" s="135"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="130"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="632"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="633" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="632"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8404,7 +8419,7 @@
       <c r="R7" s="138"/>
       <c r="S7" s="135"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="140"/>
       <c r="C8" s="141"/>
@@ -8425,7 +8440,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="145"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8458,7 +8473,7 @@
       <c r="R9" s="148"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1">
       <c r="A10" s="150"/>
       <c r="B10" s="151" t="s">
         <v>25</v>
@@ -8489,7 +8504,7 @@
       <c r="R10" s="153"/>
       <c r="S10" s="154"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1">
       <c r="A11" s="150"/>
       <c r="B11" s="151" t="s">
         <v>26</v>
@@ -8520,7 +8535,7 @@
       <c r="R11" s="153"/>
       <c r="S11" s="154"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="150"/>
       <c r="B12" s="151" t="s">
         <v>2</v>
@@ -8553,7 +8568,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="154"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="150"/>
       <c r="B13" s="151" t="s">
         <v>3</v>
@@ -8584,7 +8599,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="154"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="150"/>
       <c r="B14" s="151" t="s">
         <v>27</v>
@@ -8617,7 +8632,7 @@
       <c r="R14" s="153"/>
       <c r="S14" s="154"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1">
       <c r="A15" s="150"/>
       <c r="B15" s="151" t="s">
         <v>28</v>
@@ -8650,7 +8665,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A16" s="150"/>
       <c r="B16" s="151" t="s">
         <v>4</v>
@@ -8683,7 +8698,7 @@
       <c r="R16" s="153"/>
       <c r="S16" s="154"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -8704,27 +8719,27 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="627" t="s">
+    <row r="18" spans="1:19" ht="13.5" thickTop="1"/>
+    <row r="19" spans="1:19">
+      <c r="L19" s="634" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="627"/>
-      <c r="N19" s="627"/>
+      <c r="M19" s="634"/>
+      <c r="N19" s="634"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="559" t="s">
+    <row r="20" spans="1:19">
+      <c r="O20" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
+      <c r="P20" s="566"/>
+      <c r="Q20" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="561"/>
+      <c r="R20" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8762,27 +8777,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="258" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="258" customWidth="1"/>
     <col min="2" max="2" width="5" style="258" customWidth="1"/>
     <col min="3" max="3" width="11" style="258" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="258" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="258" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="258" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="258" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="258" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="258" customWidth="1"/>
     <col min="8" max="18" width="9" style="258" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="258" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="258"/>
+    <col min="19" max="19" width="1.42578125" style="258" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="254"/>
       <c r="B1" s="255"/>
       <c r="C1" s="256"/>
@@ -8803,49 +8818,49 @@
       <c r="R1" s="256"/>
       <c r="S1" s="257"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25">
       <c r="A2" s="259"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="642">
+      <c r="J2" s="621"/>
+      <c r="K2" s="649">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="643"/>
+      <c r="L2" s="650"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="653"/>
+      <c r="Q2" s="653"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="259"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="644"/>
-      <c r="L3" s="645"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="651"/>
+      <c r="L3" s="652"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8854,11 +8869,11 @@
       <c r="R3" s="267"/>
       <c r="S3" s="264"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="259"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8875,24 +8890,24 @@
       <c r="R4" s="267"/>
       <c r="S4" s="264"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
       <c r="A5" s="259"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="628"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="629"/>
+      <c r="J5" s="630"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8901,24 +8916,24 @@
       <c r="R5" s="267"/>
       <c r="S5" s="264"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="259"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="628"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="631"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8927,29 +8942,29 @@
       <c r="R6" s="267"/>
       <c r="S6" s="264"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="259"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="632"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="633" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="632"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -8958,7 +8973,7 @@
       <c r="R7" s="267"/>
       <c r="S7" s="264"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="269"/>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
@@ -8979,7 +8994,7 @@
       <c r="R8" s="274"/>
       <c r="S8" s="275"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="276"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -9012,12 +9027,14 @@
       <c r="R9" s="344"/>
       <c r="S9" s="278"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1">
       <c r="A10" s="269"/>
       <c r="B10" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="378"/>
+      <c r="C10" s="378" t="s">
+        <v>154</v>
+      </c>
       <c r="D10" s="280">
         <v>0.1</v>
       </c>
@@ -9043,7 +9060,7 @@
       <c r="R10" s="346"/>
       <c r="S10" s="275"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75">
       <c r="A11" s="269"/>
       <c r="B11" s="283" t="s">
         <v>26</v>
@@ -9074,12 +9091,14 @@
       <c r="R11" s="347"/>
       <c r="S11" s="275"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="269"/>
       <c r="B12" s="283" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="352"/>
+      <c r="C12" s="352">
+        <v>89</v>
+      </c>
       <c r="D12" s="284">
         <v>0.1</v>
       </c>
@@ -9105,7 +9124,7 @@
       <c r="R12" s="349"/>
       <c r="S12" s="275"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="269"/>
       <c r="B13" s="283" t="s">
         <v>28</v>
@@ -9138,12 +9157,14 @@
       <c r="R13" s="349"/>
       <c r="S13" s="275"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="269"/>
       <c r="B14" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="358"/>
+      <c r="C14" s="358">
+        <v>52</v>
+      </c>
       <c r="D14" s="284">
         <v>0.1</v>
       </c>
@@ -9169,7 +9190,7 @@
       <c r="R14" s="349"/>
       <c r="S14" s="275"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="269"/>
       <c r="B15" s="289"/>
       <c r="C15" s="290"/>
@@ -9190,7 +9211,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="275"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A16" s="292"/>
       <c r="B16" s="293"/>
       <c r="C16" s="293"/>
@@ -9211,27 +9232,27 @@
       <c r="R16" s="293"/>
       <c r="S16" s="295"/>
     </row>
-    <row r="17" spans="12:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="627" t="s">
+    <row r="17" spans="12:18" ht="13.5" thickTop="1"/>
+    <row r="18" spans="12:18">
+      <c r="L18" s="634" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="627"/>
-      <c r="N18" s="627"/>
+      <c r="M18" s="634"/>
+      <c r="N18" s="634"/>
       <c r="O18" s="475"/>
       <c r="P18" s="475"/>
       <c r="Q18" s="491"/>
       <c r="R18" s="491"/>
     </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="559" t="s">
+    <row r="19" spans="12:18">
+      <c r="O19" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="559"/>
-      <c r="Q19" s="560" t="s">
+      <c r="P19" s="566"/>
+      <c r="Q19" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="561"/>
+      <c r="R19" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9284,27 +9305,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="380"/>
       <c r="B1" s="473" t="s">
         <v>109</v>
@@ -9312,7 +9333,7 @@
       <c r="C1" s="380"/>
       <c r="D1" s="472" t="str">
         <f>Данные!A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
       <c r="E1" s="380"/>
       <c r="F1" s="380"/>
@@ -9323,7 +9344,7 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
         <v>146</v>
@@ -9339,23 +9360,23 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="512" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="519" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="512"/>
-      <c r="C3" s="512"/>
-      <c r="D3" s="512"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="512"/>
-      <c r="G3" s="512"/>
-      <c r="H3" s="512"/>
-      <c r="I3" s="512"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="519"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1">
       <c r="A4" s="383"/>
       <c r="B4" s="384"/>
       <c r="C4" s="384"/>
@@ -9367,7 +9388,7 @@
       <c r="K4" s="382"/>
       <c r="M4" s="364"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1">
       <c r="A5" s="387" t="s">
         <v>110</v>
       </c>
@@ -9397,7 +9418,7 @@
       <c r="K5" s="391"/>
       <c r="L5" s="391"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="392">
         <v>1</v>
       </c>
@@ -9407,7 +9428,7 @@
       </c>
       <c r="C6" s="372" t="str">
         <f>Данные!C14</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D6" s="394">
         <f>Данные!$B14</f>
@@ -9427,7 +9448,7 @@
       <c r="K6" s="383"/>
       <c r="L6" s="397"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="398">
         <f>A6+1</f>
         <v>2</v>
@@ -9438,7 +9459,7 @@
       </c>
       <c r="C7" s="372" t="str">
         <f>Данные!C15</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D7" s="400">
         <f>Данные!$B15</f>
@@ -9458,7 +9479,7 @@
       <c r="K7" s="383"/>
       <c r="L7" s="397"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="398">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9469,11 +9490,11 @@
       </c>
       <c r="C8" s="372" t="str">
         <f>Данные!C16</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D8" s="400">
         <f>Данные!$B16</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="400">
         <v>32</v>
@@ -9489,7 +9510,7 @@
       <c r="K8" s="383"/>
       <c r="L8" s="397"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="398">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9500,7 +9521,7 @@
       </c>
       <c r="C9" s="372" t="str">
         <f>Данные!C17</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D9" s="400">
         <f>Данные!$B17</f>
@@ -9520,7 +9541,7 @@
       <c r="K9" s="383"/>
       <c r="L9" s="397"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="398">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9531,11 +9552,11 @@
       </c>
       <c r="C10" s="372" t="str">
         <f>Данные!C18</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D10" s="400">
         <f>Данные!$B18</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E10" s="400">
         <v>130</v>
@@ -9551,7 +9572,7 @@
       <c r="K10" s="403"/>
       <c r="L10" s="397"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="398">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9562,11 +9583,11 @@
       </c>
       <c r="C11" s="372" t="str">
         <f>Данные!C19</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D11" s="400">
         <f>Данные!$B19</f>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E11" s="400">
         <v>130</v>
@@ -9582,7 +9603,7 @@
       <c r="K11" s="383"/>
       <c r="L11" s="397"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="398">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9593,11 +9614,11 @@
       </c>
       <c r="C12" s="372" t="str">
         <f>Данные!C20</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D12" s="400">
         <f>Данные!$B20</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E12" s="400">
         <v>60</v>
@@ -9614,7 +9635,7 @@
       <c r="L12" s="397"/>
       <c r="M12" s="405"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="398">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9623,13 +9644,13 @@
         <f>Данные!A21</f>
         <v>Втулка плунжера</v>
       </c>
-      <c r="C13" s="372" t="str">
+      <c r="C13" s="372">
         <f>Данные!C21</f>
-        <v>ExtraNew 0.5L</v>
+        <v>0</v>
       </c>
       <c r="D13" s="400">
         <f>Данные!$B21</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E13" s="400">
         <v>18</v>
@@ -9646,7 +9667,7 @@
       <c r="L13" s="397"/>
       <c r="M13" s="405"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="398">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9655,13 +9676,13 @@
         <f>Данные!A22</f>
         <v>Хватки</v>
       </c>
-      <c r="C14" s="372" t="str">
+      <c r="C14" s="372">
         <f>Данные!C22</f>
-        <v>PSI/4689</v>
+        <v>0</v>
       </c>
       <c r="D14" s="400">
         <f>Данные!$B22</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E14" s="471">
         <v>24</v>
@@ -9679,7 +9700,7 @@
       <c r="K14" s="403"/>
       <c r="L14" s="397"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="398">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9690,7 +9711,7 @@
       </c>
       <c r="C15" s="372" t="str">
         <f>Данные!C23</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D15" s="400">
         <f>Данные!$B23</f>
@@ -9710,7 +9731,7 @@
       <c r="K15" s="403"/>
       <c r="L15" s="397"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="398">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9721,7 +9742,7 @@
       </c>
       <c r="C16" s="372" t="str">
         <f>Данные!C24</f>
-        <v>ExtraNew 0.5L</v>
+        <v>200CC OVAL FLASK</v>
       </c>
       <c r="D16" s="400">
         <f>Данные!$B24</f>
@@ -9741,7 +9762,7 @@
       <c r="K16" s="403"/>
       <c r="L16" s="397"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="407">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9750,13 +9771,13 @@
         <f>Данные!A25</f>
         <v>Охладитель плунжера</v>
       </c>
-      <c r="C17" s="409" t="str">
+      <c r="C17" s="409">
         <f>Данные!C26</f>
-        <v>ExtraNew 0.5L</v>
+        <v>0</v>
       </c>
       <c r="D17" s="410">
         <f>Данные!$B26</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E17" s="410">
         <v>18</v>
@@ -9772,7 +9793,7 @@
       <c r="K17" s="403"/>
       <c r="L17" s="397"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="414"/>
       <c r="B18" s="415"/>
       <c r="C18" s="383"/>
@@ -9784,7 +9805,7 @@
       <c r="I18" s="383"/>
       <c r="J18" s="383"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" s="383"/>
       <c r="B19" s="417" t="s">
         <v>117</v>
@@ -9800,7 +9821,7 @@
       <c r="K19" s="418"/>
       <c r="L19" s="418"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1">
       <c r="A20" s="387" t="s">
         <v>118</v>
       </c>
@@ -9829,12 +9850,12 @@
         <v>126</v>
       </c>
       <c r="J20" s="421" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K20" s="391"/>
       <c r="L20" s="391"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="422">
         <f>D6*700000</f>
         <v>16800000</v>
@@ -9866,11 +9887,11 @@
         <f>1-G21</f>
         <v>0.93857648809523808</v>
       </c>
-      <c r="J21" s="647"/>
+      <c r="J21" s="492"/>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="430"/>
       <c r="B22" s="431"/>
       <c r="C22" s="431"/>
@@ -9889,11 +9910,11 @@
         <f>I21-G22</f>
         <v>0.93857648809523808</v>
       </c>
-      <c r="J22" s="648"/>
+      <c r="J22" s="493"/>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1">
       <c r="A23" s="435"/>
       <c r="B23" s="436"/>
       <c r="C23" s="436"/>
@@ -9903,11 +9924,11 @@
       <c r="G23" s="438"/>
       <c r="H23" s="439"/>
       <c r="I23" s="440"/>
-      <c r="J23" s="649"/>
+      <c r="J23" s="494"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="435"/>
       <c r="B24" s="375"/>
       <c r="C24" s="375"/>
@@ -9917,11 +9938,11 @@
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
       <c r="I24" s="441"/>
-      <c r="J24" s="650"/>
+      <c r="J24" s="495"/>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="435"/>
       <c r="B25" s="436"/>
       <c r="C25" s="436"/>
@@ -9931,11 +9952,11 @@
       <c r="G25" s="442"/>
       <c r="H25" s="439"/>
       <c r="I25" s="440"/>
-      <c r="J25" s="649"/>
+      <c r="J25" s="494"/>
       <c r="K25" s="443"/>
       <c r="L25" s="383"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="435"/>
       <c r="B26" s="436"/>
       <c r="C26" s="436"/>
@@ -9945,11 +9966,11 @@
       <c r="G26" s="442"/>
       <c r="H26" s="439"/>
       <c r="I26" s="440"/>
-      <c r="J26" s="649"/>
+      <c r="J26" s="494"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="435"/>
       <c r="B27" s="436"/>
       <c r="C27" s="436"/>
@@ -9959,11 +9980,11 @@
       <c r="G27" s="442"/>
       <c r="H27" s="439"/>
       <c r="I27" s="440"/>
-      <c r="J27" s="649"/>
+      <c r="J27" s="494"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="435"/>
       <c r="B28" s="436"/>
       <c r="C28" s="436"/>
@@ -9973,11 +9994,11 @@
       <c r="G28" s="442"/>
       <c r="H28" s="439"/>
       <c r="I28" s="440"/>
-      <c r="J28" s="649"/>
+      <c r="J28" s="494"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="435"/>
       <c r="B29" s="436"/>
       <c r="C29" s="436"/>
@@ -9987,11 +10008,11 @@
       <c r="G29" s="444"/>
       <c r="H29" s="439"/>
       <c r="I29" s="445"/>
-      <c r="J29" s="651"/>
+      <c r="J29" s="496"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="435"/>
       <c r="B30" s="436"/>
       <c r="C30" s="436"/>
@@ -10001,11 +10022,11 @@
       <c r="G30" s="442"/>
       <c r="H30" s="439"/>
       <c r="I30" s="445"/>
-      <c r="J30" s="651"/>
+      <c r="J30" s="496"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1">
       <c r="A31" s="446"/>
       <c r="B31" s="447"/>
       <c r="C31" s="447"/>
@@ -10015,11 +10036,11 @@
       <c r="G31" s="450"/>
       <c r="H31" s="451"/>
       <c r="I31" s="452"/>
-      <c r="J31" s="652"/>
+      <c r="J31" s="497"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1">
       <c r="A32" s="453" t="s">
         <v>127</v>
       </c>
@@ -10046,11 +10067,11 @@
         <f>1-G32</f>
         <v>0.93857648809523808</v>
       </c>
-      <c r="J32" s="653"/>
+      <c r="J32" s="498"/>
       <c r="K32" s="461"/>
       <c r="L32" s="461"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="383"/>
       <c r="B35" s="383"/>
       <c r="C35" s="383"/>
@@ -10062,13 +10083,13 @@
       <c r="I35" s="383"/>
       <c r="J35" s="383"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="513" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A36" s="520" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="513"/>
-      <c r="C36" s="513"/>
-      <c r="D36" s="513"/>
+      <c r="B36" s="520"/>
+      <c r="C36" s="520"/>
+      <c r="D36" s="520"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10076,11 +10097,11 @@
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="514" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="521" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="514"/>
+      <c r="B37" s="521"/>
       <c r="C37" s="462" t="s">
         <v>130</v>
       </c>
@@ -10094,12 +10115,12 @@
       <c r="I37" s="383"/>
       <c r="J37" s="383"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="515">
+    <row r="38" spans="1:11">
+      <c r="A38" s="522">
         <f>A21-F32</f>
         <v>15768085</v>
       </c>
-      <c r="B38" s="516"/>
+      <c r="B38" s="523"/>
       <c r="C38" s="463">
         <f>1-G32</f>
         <v>0.93857648809523808</v>
@@ -10117,7 +10138,7 @@
       <c r="I38" s="465"/>
       <c r="J38" s="465"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="383"/>
       <c r="B39" s="383"/>
       <c r="C39" s="383"/>
@@ -10125,7 +10146,7 @@
       <c r="E39" s="383"/>
       <c r="F39" s="383"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="383"/>
       <c r="B40" s="383"/>
       <c r="C40" s="383"/>
@@ -10140,7 +10161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="383"/>
       <c r="B41" s="466"/>
       <c r="C41" s="466"/>
@@ -10152,7 +10173,7 @@
       <c r="I41" s="383"/>
       <c r="J41" s="383"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="467"/>
       <c r="B42" s="467"/>
       <c r="C42" s="467"/>
@@ -10161,10 +10182,10 @@
       <c r="F42" s="467"/>
       <c r="G42" s="467"/>
       <c r="H42" s="467"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="524"/>
+      <c r="J42" s="525"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="468"/>
       <c r="B43" s="469"/>
       <c r="C43" s="469"/>
@@ -10174,7 +10195,7 @@
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="468"/>
       <c r="B44" s="469"/>
       <c r="C44" s="469"/>
@@ -10184,7 +10205,7 @@
       <c r="G44" s="413"/>
       <c r="H44" s="469"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="468"/>
       <c r="B45" s="469"/>
       <c r="C45" s="469"/>
@@ -10194,7 +10215,7 @@
       <c r="G45" s="413"/>
       <c r="H45" s="469"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="468"/>
       <c r="B46" s="469"/>
       <c r="C46" s="469"/>
@@ -10204,7 +10225,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="469"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="468"/>
       <c r="B47" s="469"/>
       <c r="C47" s="469"/>
@@ -10214,7 +10235,7 @@
       <c r="G47" s="413"/>
       <c r="H47" s="469"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="468"/>
       <c r="B48" s="469"/>
       <c r="C48" s="403"/>
@@ -10224,7 +10245,7 @@
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="468"/>
       <c r="B49" s="469"/>
       <c r="C49" s="469"/>
@@ -10234,7 +10255,7 @@
       <c r="G49" s="413"/>
       <c r="H49" s="469"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="468"/>
       <c r="B50" s="469"/>
       <c r="C50" s="469"/>
@@ -10244,7 +10265,7 @@
       <c r="G50" s="413"/>
       <c r="H50" s="469"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="468"/>
       <c r="B51" s="469"/>
       <c r="C51" s="469"/>
@@ -10254,11 +10275,11 @@
       <c r="G51" s="413"/>
       <c r="H51" s="469"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="383"/>
-      <c r="B52" s="510"/>
-      <c r="C52" s="510"/>
-      <c r="D52" s="511"/>
+      <c r="B52" s="517"/>
+      <c r="C52" s="517"/>
+      <c r="D52" s="518"/>
       <c r="E52" s="465"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10266,7 +10287,7 @@
       <c r="I52" s="383"/>
       <c r="J52" s="383"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="467"/>
       <c r="B53" s="467"/>
       <c r="C53" s="467"/>
@@ -10275,10 +10296,10 @@
       <c r="F53" s="467"/>
       <c r="G53" s="467"/>
       <c r="H53" s="467"/>
-      <c r="I53" s="517"/>
-      <c r="J53" s="518"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="524"/>
+      <c r="J53" s="525"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="468"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
@@ -10287,10 +10308,10 @@
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
       <c r="H54" s="469"/>
-      <c r="I54" s="519"/>
-      <c r="J54" s="519"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="526"/>
+      <c r="J54" s="526"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="468"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
@@ -10299,10 +10320,10 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="519"/>
-      <c r="J55" s="519"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="526"/>
+      <c r="J55" s="526"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="383"/>
       <c r="B56" s="383"/>
       <c r="C56" s="383"/>
@@ -10312,13 +10333,13 @@
       <c r="G56" s="383"/>
       <c r="H56" s="383"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="517"/>
-      <c r="C61" s="518"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="517"/>
-      <c r="C68" s="518"/>
+    <row r="61" spans="1:10">
+      <c r="B61" s="524"/>
+      <c r="C61" s="525"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="524"/>
+      <c r="C68" s="525"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10347,23 +10368,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A47"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="300"/>
+    <col min="1" max="3" width="9.140625" style="300"/>
     <col min="4" max="4" width="8" style="300" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="300"/>
-    <col min="6" max="6" width="10.33203125" style="300" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="300" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="300" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="300" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="300"/>
+    <col min="5" max="5" width="9.140625" style="300"/>
+    <col min="6" max="6" width="11.7109375" style="300" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="300" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="300" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="300" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="300"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.25">
       <c r="G2" s="309" t="s">
         <v>58</v>
       </c>
@@ -10372,7 +10393,7 @@
       <c r="J2" s="310"/>
       <c r="K2" s="310"/>
     </row>
-    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25">
       <c r="G3" s="309" t="s">
         <v>101</v>
       </c>
@@ -10381,7 +10402,7 @@
       <c r="J3" s="310"/>
       <c r="K3" s="310"/>
     </row>
-    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25">
       <c r="G4" s="309" t="s">
         <v>104</v>
       </c>
@@ -10390,8 +10411,8 @@
       <c r="J4" s="310"/>
       <c r="K4" s="310"/>
     </row>
-    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="359" customFormat="1"/>
+    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
         <v>102</v>
@@ -10399,12 +10420,12 @@
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
     </row>
-    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.25">
       <c r="H7" s="310"/>
       <c r="I7" s="310"/>
       <c r="J7" s="310"/>
     </row>
-    <row r="8" spans="1:11" s="359" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="359" customFormat="1" ht="18.75">
       <c r="G8" s="303" t="s">
         <v>59</v>
       </c>
@@ -10414,50 +10435,50 @@
       </c>
       <c r="J8" s="310"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="521" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="528" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="521"/>
-      <c r="C11" s="521"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="521"/>
-      <c r="F11" s="521"/>
-      <c r="G11" s="521"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="521"/>
-      <c r="J11" s="521"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="520" t="s">
+      <c r="B11" s="528"/>
+      <c r="C11" s="528"/>
+      <c r="D11" s="528"/>
+      <c r="E11" s="528"/>
+      <c r="F11" s="528"/>
+      <c r="G11" s="528"/>
+      <c r="H11" s="528"/>
+      <c r="I11" s="528"/>
+      <c r="J11" s="528"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="527" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="520"/>
-      <c r="C12" s="520"/>
-      <c r="D12" s="520"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="520"/>
-      <c r="G12" s="520"/>
-      <c r="H12" s="520"/>
-      <c r="I12" s="520"/>
-      <c r="J12" s="520"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="522" t="str">
+      <c r="B12" s="527"/>
+      <c r="C12" s="527"/>
+      <c r="D12" s="527"/>
+      <c r="E12" s="527"/>
+      <c r="F12" s="527"/>
+      <c r="G12" s="527"/>
+      <c r="H12" s="527"/>
+      <c r="I12" s="527"/>
+      <c r="J12" s="527"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1">
+      <c r="A13" s="529" t="str">
         <f>Данные!A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="B13" s="521"/>
-      <c r="C13" s="521"/>
-      <c r="D13" s="521"/>
-      <c r="E13" s="521"/>
-      <c r="F13" s="521"/>
-      <c r="G13" s="521"/>
-      <c r="H13" s="521"/>
-      <c r="I13" s="521"/>
-      <c r="J13" s="521"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="B13" s="528"/>
+      <c r="C13" s="528"/>
+      <c r="D13" s="528"/>
+      <c r="E13" s="528"/>
+      <c r="F13" s="528"/>
+      <c r="G13" s="528"/>
+      <c r="H13" s="528"/>
+      <c r="I13" s="528"/>
+      <c r="J13" s="528"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="304" t="s">
         <v>60</v>
       </c>
@@ -10469,12 +10490,12 @@
       <c r="G15" s="305"/>
       <c r="H15" s="306">
         <f>Данные!D11</f>
-        <v>43853</v>
+        <v>43931</v>
       </c>
       <c r="I15" s="304"/>
       <c r="J15" s="305"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="304" t="s">
         <v>95</v>
       </c>
@@ -10488,7 +10509,7 @@
       <c r="I16" s="304"/>
       <c r="J16" s="305"/>
     </row>
-    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.75">
       <c r="A17" s="312" t="s">
         <v>61</v>
       </c>
@@ -10509,7 +10530,7 @@
       </c>
       <c r="J17" s="305"/>
     </row>
-    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.75">
       <c r="A18" s="312" t="s">
         <v>61</v>
       </c>
@@ -10530,7 +10551,7 @@
       </c>
       <c r="J18" s="305"/>
     </row>
-    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.75">
       <c r="A19" s="313"/>
       <c r="B19" s="313"/>
       <c r="C19" s="313"/>
@@ -10548,7 +10569,7 @@
       </c>
       <c r="J19" s="305"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="304" t="s">
         <v>75</v>
       </c>
@@ -10561,11 +10582,11 @@
       <c r="H20" s="304"/>
       <c r="I20" s="306">
         <f>H15</f>
-        <v>43853</v>
+        <v>43931</v>
       </c>
       <c r="J20" s="305"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="304" t="s">
         <v>76</v>
       </c>
@@ -10579,496 +10600,498 @@
       <c r="I21" s="304"/>
       <c r="J21" s="305"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="526" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="533" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="533" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="526"/>
-      <c r="D22" s="526"/>
-      <c r="E22" s="526" t="s">
+      <c r="C22" s="533"/>
+      <c r="D22" s="533"/>
+      <c r="E22" s="533" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="526"/>
-      <c r="G22" s="544" t="s">
+      <c r="F22" s="533"/>
+      <c r="G22" s="551" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="526" t="s">
+      <c r="H22" s="533" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="526"/>
-      <c r="J22" s="526"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="526"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="526"/>
-      <c r="D23" s="526"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="526"/>
-      <c r="G23" s="544"/>
-      <c r="H23" s="526"/>
-      <c r="I23" s="526"/>
-      <c r="J23" s="526"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="527">
+      <c r="I22" s="533"/>
+      <c r="J22" s="533"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="533"/>
+      <c r="B23" s="533"/>
+      <c r="C23" s="533"/>
+      <c r="D23" s="533"/>
+      <c r="E23" s="533"/>
+      <c r="F23" s="533"/>
+      <c r="G23" s="551"/>
+      <c r="H23" s="533"/>
+      <c r="I23" s="533"/>
+      <c r="J23" s="533"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="534">
         <v>1</v>
       </c>
-      <c r="B24" s="541" t="s">
+      <c r="B24" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="542"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="529" t="str">
+      <c r="C24" s="549"/>
+      <c r="D24" s="550"/>
+      <c r="E24" s="536" t="str">
         <f>Данные!C14</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F24" s="530"/>
-      <c r="G24" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F24" s="537"/>
+      <c r="G24" s="540">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="535"/>
-      <c r="I24" s="536"/>
-      <c r="J24" s="537"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="528"/>
-      <c r="B25" s="523" t="str">
+      <c r="H24" s="542"/>
+      <c r="I24" s="543"/>
+      <c r="J24" s="544"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A25" s="535"/>
+      <c r="B25" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C25" s="524"/>
-      <c r="D25" s="525"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="538"/>
-      <c r="I25" s="539"/>
-      <c r="J25" s="540"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C25" s="531"/>
+      <c r="D25" s="532"/>
+      <c r="E25" s="538"/>
+      <c r="F25" s="539"/>
+      <c r="G25" s="541"/>
+      <c r="H25" s="545"/>
+      <c r="I25" s="546"/>
+      <c r="J25" s="547"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="534">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="545" t="s">
+      <c r="B26" s="552" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="546"/>
-      <c r="D26" s="547"/>
-      <c r="E26" s="529" t="str">
+      <c r="C26" s="553"/>
+      <c r="D26" s="554"/>
+      <c r="E26" s="536" t="str">
         <f>Данные!C15</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F26" s="530"/>
-      <c r="G26" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F26" s="537"/>
+      <c r="G26" s="540">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="535"/>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="528"/>
-      <c r="B27" s="523" t="str">
+      <c r="H26" s="542"/>
+      <c r="I26" s="543"/>
+      <c r="J26" s="544"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A27" s="535"/>
+      <c r="B27" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C27" s="524"/>
-      <c r="D27" s="525"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="538"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C27" s="531"/>
+      <c r="D27" s="532"/>
+      <c r="E27" s="538"/>
+      <c r="F27" s="539"/>
+      <c r="G27" s="541"/>
+      <c r="H27" s="545"/>
+      <c r="I27" s="546"/>
+      <c r="J27" s="547"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A28" s="534">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="545" t="s">
+      <c r="B28" s="552" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="546"/>
-      <c r="D28" s="547"/>
-      <c r="E28" s="529" t="str">
+      <c r="C28" s="553"/>
+      <c r="D28" s="554"/>
+      <c r="E28" s="536" t="str">
         <f>Данные!C16</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F28" s="530"/>
-      <c r="G28" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F28" s="537"/>
+      <c r="G28" s="540">
         <f>Данные!B16</f>
-        <v>32</v>
-      </c>
-      <c r="H28" s="535"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="528"/>
-      <c r="B29" s="523" t="str">
+        <v>30</v>
+      </c>
+      <c r="H28" s="542" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" s="543"/>
+      <c r="J28" s="544"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A29" s="535"/>
+      <c r="B29" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C29" s="524"/>
-      <c r="D29" s="525"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="538"/>
-      <c r="I29" s="539"/>
-      <c r="J29" s="540"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C29" s="531"/>
+      <c r="D29" s="532"/>
+      <c r="E29" s="538"/>
+      <c r="F29" s="539"/>
+      <c r="G29" s="541"/>
+      <c r="H29" s="545"/>
+      <c r="I29" s="546"/>
+      <c r="J29" s="547"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A30" s="534">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="545" t="s">
+      <c r="B30" s="552" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="546"/>
-      <c r="D30" s="547"/>
-      <c r="E30" s="529" t="str">
+      <c r="C30" s="553"/>
+      <c r="D30" s="554"/>
+      <c r="E30" s="536" t="str">
         <f>Данные!C17</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F30" s="530"/>
-      <c r="G30" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F30" s="537"/>
+      <c r="G30" s="540">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="535"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="528"/>
-      <c r="B31" s="523" t="str">
+      <c r="H30" s="542"/>
+      <c r="I30" s="543"/>
+      <c r="J30" s="544"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A31" s="535"/>
+      <c r="B31" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C31" s="524"/>
-      <c r="D31" s="525"/>
-      <c r="E31" s="548"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="538"/>
-      <c r="I31" s="539"/>
-      <c r="J31" s="540"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C31" s="531"/>
+      <c r="D31" s="532"/>
+      <c r="E31" s="555"/>
+      <c r="F31" s="539"/>
+      <c r="G31" s="541"/>
+      <c r="H31" s="545"/>
+      <c r="I31" s="546"/>
+      <c r="J31" s="547"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A32" s="534">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="545" t="s">
+      <c r="B32" s="552" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="546"/>
-      <c r="D32" s="547"/>
-      <c r="E32" s="529" t="str">
+      <c r="C32" s="553"/>
+      <c r="D32" s="554"/>
+      <c r="E32" s="536" t="str">
         <f>Данные!C18</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F32" s="530"/>
-      <c r="G32" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F32" s="537"/>
+      <c r="G32" s="540">
         <f>Данные!B18</f>
-        <v>130</v>
-      </c>
-      <c r="H32" s="535"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="528"/>
-      <c r="B33" s="523" t="str">
+        <v>80</v>
+      </c>
+      <c r="H32" s="542"/>
+      <c r="I32" s="543"/>
+      <c r="J32" s="544"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A33" s="535"/>
+      <c r="B33" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C33" s="524"/>
-      <c r="D33" s="525"/>
-      <c r="E33" s="548"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="538"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C33" s="531"/>
+      <c r="D33" s="532"/>
+      <c r="E33" s="555"/>
+      <c r="F33" s="539"/>
+      <c r="G33" s="541"/>
+      <c r="H33" s="545"/>
+      <c r="I33" s="546"/>
+      <c r="J33" s="547"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A34" s="534">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="545" t="s">
+      <c r="B34" s="552" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="546"/>
-      <c r="D34" s="547"/>
-      <c r="E34" s="529" t="str">
+      <c r="C34" s="553"/>
+      <c r="D34" s="554"/>
+      <c r="E34" s="536" t="str">
         <f>Данные!C19</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F34" s="530"/>
-      <c r="G34" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F34" s="537"/>
+      <c r="G34" s="540">
         <f>Данные!B19</f>
-        <v>130</v>
-      </c>
-      <c r="H34" s="535"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="528"/>
-      <c r="B35" s="523" t="str">
+        <v>100</v>
+      </c>
+      <c r="H34" s="542"/>
+      <c r="I34" s="543"/>
+      <c r="J34" s="544"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A35" s="535"/>
+      <c r="B35" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C35" s="524"/>
-      <c r="D35" s="525"/>
-      <c r="E35" s="548"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C35" s="531"/>
+      <c r="D35" s="532"/>
+      <c r="E35" s="555"/>
+      <c r="F35" s="539"/>
+      <c r="G35" s="541"/>
+      <c r="H35" s="545"/>
+      <c r="I35" s="546"/>
+      <c r="J35" s="547"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A36" s="534">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="545" t="s">
+      <c r="B36" s="552" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="546"/>
-      <c r="D36" s="547"/>
-      <c r="E36" s="529" t="str">
+      <c r="C36" s="553"/>
+      <c r="D36" s="554"/>
+      <c r="E36" s="536" t="str">
         <f>Данные!C20</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F36" s="530"/>
-      <c r="G36" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F36" s="537"/>
+      <c r="G36" s="540">
         <f>Данные!B20</f>
-        <v>60</v>
-      </c>
-      <c r="H36" s="535"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="528"/>
-      <c r="B37" s="523" t="str">
+        <v>40</v>
+      </c>
+      <c r="H36" s="542"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="544"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A37" s="535"/>
+      <c r="B37" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C37" s="524"/>
-      <c r="D37" s="525"/>
-      <c r="E37" s="548"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C37" s="531"/>
+      <c r="D37" s="532"/>
+      <c r="E37" s="555"/>
+      <c r="F37" s="539"/>
+      <c r="G37" s="541"/>
+      <c r="H37" s="545"/>
+      <c r="I37" s="546"/>
+      <c r="J37" s="547"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A38" s="534">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="545" t="s">
+      <c r="B38" s="552" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="546"/>
-      <c r="D38" s="547"/>
-      <c r="E38" s="529" t="str">
+      <c r="C38" s="553"/>
+      <c r="D38" s="554"/>
+      <c r="E38" s="536">
         <f>Данные!C21</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F38" s="530"/>
-      <c r="G38" s="533">
+        <v>0</v>
+      </c>
+      <c r="F38" s="537"/>
+      <c r="G38" s="540">
         <f>Данные!B21</f>
-        <v>18</v>
-      </c>
-      <c r="H38" s="535"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="537"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="528"/>
-      <c r="B39" s="523" t="str">
+        <v>0</v>
+      </c>
+      <c r="H38" s="542"/>
+      <c r="I38" s="543"/>
+      <c r="J38" s="544"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A39" s="535"/>
+      <c r="B39" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C39" s="524"/>
-      <c r="D39" s="525"/>
-      <c r="E39" s="548"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="540"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C39" s="531"/>
+      <c r="D39" s="532"/>
+      <c r="E39" s="555"/>
+      <c r="F39" s="539"/>
+      <c r="G39" s="541"/>
+      <c r="H39" s="545"/>
+      <c r="I39" s="546"/>
+      <c r="J39" s="547"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A40" s="534">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="545" t="s">
+      <c r="B40" s="552" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="546"/>
-      <c r="D40" s="547"/>
-      <c r="E40" s="529" t="str">
+      <c r="C40" s="553"/>
+      <c r="D40" s="554"/>
+      <c r="E40" s="536" t="str">
         <f>Данные!C23</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F40" s="530"/>
-      <c r="G40" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F40" s="537"/>
+      <c r="G40" s="540">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="535"/>
-      <c r="I40" s="536"/>
-      <c r="J40" s="537"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="528"/>
-      <c r="B41" s="523" t="str">
+      <c r="H40" s="542"/>
+      <c r="I40" s="543"/>
+      <c r="J40" s="544"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A41" s="535"/>
+      <c r="B41" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C41" s="524"/>
-      <c r="D41" s="525"/>
-      <c r="E41" s="548"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="539"/>
-      <c r="J41" s="540"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C41" s="531"/>
+      <c r="D41" s="532"/>
+      <c r="E41" s="555"/>
+      <c r="F41" s="539"/>
+      <c r="G41" s="541"/>
+      <c r="H41" s="545"/>
+      <c r="I41" s="546"/>
+      <c r="J41" s="547"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A42" s="534">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="545" t="s">
+      <c r="B42" s="552" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="546"/>
-      <c r="D42" s="547"/>
-      <c r="E42" s="529" t="str">
+      <c r="C42" s="553"/>
+      <c r="D42" s="554"/>
+      <c r="E42" s="536">
         <f>Данные!C26</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F42" s="530"/>
-      <c r="G42" s="533">
+        <v>0</v>
+      </c>
+      <c r="F42" s="537"/>
+      <c r="G42" s="540">
         <f>Данные!B26</f>
-        <v>18</v>
-      </c>
-      <c r="H42" s="535"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="537"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="528"/>
-      <c r="B43" s="523" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="542"/>
+      <c r="I42" s="543"/>
+      <c r="J42" s="544"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A43" s="535"/>
+      <c r="B43" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C43" s="524"/>
-      <c r="D43" s="525"/>
-      <c r="E43" s="548"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="539"/>
-      <c r="J43" s="540"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C43" s="531"/>
+      <c r="D43" s="532"/>
+      <c r="E43" s="555"/>
+      <c r="F43" s="539"/>
+      <c r="G43" s="541"/>
+      <c r="H43" s="545"/>
+      <c r="I43" s="546"/>
+      <c r="J43" s="547"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A44" s="534">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="545" t="s">
+      <c r="B44" s="552" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="546"/>
-      <c r="D44" s="547"/>
-      <c r="E44" s="529">
+      <c r="C44" s="553"/>
+      <c r="D44" s="554"/>
+      <c r="E44" s="536">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="530"/>
-      <c r="G44" s="533">
+      <c r="F44" s="537"/>
+      <c r="G44" s="540">
         <f>Данные!B27</f>
-        <v>18</v>
-      </c>
-      <c r="H44" s="535"/>
-      <c r="I44" s="536"/>
-      <c r="J44" s="537"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="528"/>
-      <c r="B45" s="523" t="str">
+        <v>0</v>
+      </c>
+      <c r="H44" s="542"/>
+      <c r="I44" s="543"/>
+      <c r="J44" s="544"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A45" s="535"/>
+      <c r="B45" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C45" s="524"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="548"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="540"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="527">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C45" s="531"/>
+      <c r="D45" s="532"/>
+      <c r="E45" s="555"/>
+      <c r="F45" s="539"/>
+      <c r="G45" s="541"/>
+      <c r="H45" s="545"/>
+      <c r="I45" s="546"/>
+      <c r="J45" s="547"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A46" s="534">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="545" t="s">
+      <c r="B46" s="552" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="546"/>
-      <c r="D46" s="547"/>
-      <c r="E46" s="529" t="str">
+      <c r="C46" s="553"/>
+      <c r="D46" s="554"/>
+      <c r="E46" s="536" t="str">
         <f>Данные!C24</f>
-        <v>ExtraNew 0.5L</v>
-      </c>
-      <c r="F46" s="530"/>
-      <c r="G46" s="533">
+        <v>200CC OVAL FLASK</v>
+      </c>
+      <c r="F46" s="537"/>
+      <c r="G46" s="540">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="535"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="537"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="528"/>
-      <c r="B47" s="523" t="str">
+      <c r="H46" s="542"/>
+      <c r="I46" s="543"/>
+      <c r="J46" s="544"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A47" s="535"/>
+      <c r="B47" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ExtraNew 0.5L)</v>
-      </c>
-      <c r="C47" s="524"/>
-      <c r="D47" s="525"/>
-      <c r="E47" s="548"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="538"/>
-      <c r="I47" s="539"/>
-      <c r="J47" s="540"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+      </c>
+      <c r="C47" s="531"/>
+      <c r="D47" s="532"/>
+      <c r="E47" s="555"/>
+      <c r="F47" s="539"/>
+      <c r="G47" s="541"/>
+      <c r="H47" s="545"/>
+      <c r="I47" s="546"/>
+      <c r="J47" s="547"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="304"/>
       <c r="B48" s="304"/>
       <c r="C48" s="304"/>
@@ -11080,7 +11103,7 @@
       <c r="I48" s="304"/>
       <c r="J48" s="305"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="304" t="s">
         <v>71</v>
       </c>
@@ -11094,7 +11117,7 @@
       <c r="I49" s="304"/>
       <c r="J49" s="305"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="304"/>
       <c r="B50" s="304"/>
       <c r="C50" s="304"/>
@@ -11106,7 +11129,7 @@
       <c r="I50" s="304"/>
       <c r="J50" s="305"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="304"/>
       <c r="B51" s="307" t="s">
         <v>72</v>
@@ -11122,7 +11145,7 @@
       <c r="I51" s="304"/>
       <c r="J51" s="305"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="304"/>
       <c r="B52" s="304"/>
       <c r="C52" s="304"/>
@@ -11134,7 +11157,7 @@
       <c r="I52" s="304"/>
       <c r="J52" s="305"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="304"/>
       <c r="B53" s="304"/>
       <c r="C53" s="304"/>
@@ -11148,7 +11171,7 @@
       </c>
       <c r="J53" s="304"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="304"/>
       <c r="B54" s="304"/>
       <c r="C54" s="304"/>
@@ -11159,7 +11182,7 @@
       <c r="I54" s="304"/>
       <c r="J54" s="304"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="304"/>
       <c r="B55" s="304"/>
       <c r="C55" s="304"/>
@@ -11172,14 +11195,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18">
       <c r="A56" s="301"/>
       <c r="B56" s="301"/>
       <c r="C56" s="301"/>
       <c r="D56" s="301"/>
       <c r="E56" s="301"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18">
       <c r="A57" s="301"/>
       <c r="B57" s="301"/>
       <c r="C57" s="301"/>
@@ -11278,7 +11301,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11290,23 +11313,23 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27:Q28"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11327,49 +11350,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="570"/>
+      <c r="C2" s="571"/>
+      <c r="D2" s="572"/>
+      <c r="E2" s="579" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="580"/>
+      <c r="G2" s="580"/>
+      <c r="H2" s="581"/>
+      <c r="I2" s="586" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="587"/>
+      <c r="K2" s="590">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="591"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="582"/>
+      <c r="Q2" s="582"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="573"/>
+      <c r="C3" s="574"/>
+      <c r="D3" s="575"/>
+      <c r="E3" s="583" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="584"/>
+      <c r="G3" s="584"/>
+      <c r="H3" s="585"/>
+      <c r="I3" s="588"/>
+      <c r="J3" s="589"/>
+      <c r="K3" s="592"/>
+      <c r="L3" s="593"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11378,11 +11401,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="577"/>
+      <c r="D4" s="578"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11399,24 +11422,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="598"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="559"/>
+      <c r="J5" s="560"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11425,24 +11448,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="559"/>
+      <c r="J6" s="560"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11451,29 +11474,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="562"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="561" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="565"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11482,7 +11505,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11503,7 +11526,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11536,12 +11559,14 @@
       <c r="R9" s="318"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="93">
+        <v>158.44999999999999</v>
+      </c>
       <c r="D10" s="93">
         <v>0.08</v>
       </c>
@@ -11567,12 +11592,14 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="315"/>
+      <c r="C11" s="315">
+        <v>152.1</v>
+      </c>
       <c r="D11" s="97">
         <v>0.1</v>
       </c>
@@ -11598,12 +11625,14 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="97">
+        <v>30.47</v>
+      </c>
       <c r="D12" s="97">
         <v>0.05</v>
       </c>
@@ -11629,7 +11658,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -11662,7 +11691,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11695,12 +11724,14 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="376"/>
+      <c r="C15" s="376">
+        <v>66.5</v>
+      </c>
       <c r="D15" s="97">
         <v>0.1</v>
       </c>
@@ -11726,12 +11757,14 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="97">
+        <v>133</v>
+      </c>
       <c r="D16" s="97">
         <v>0.05</v>
       </c>
@@ -11757,7 +11790,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -11788,7 +11821,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -11819,12 +11852,14 @@
       <c r="R18" s="324"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="104">
+        <v>25.2</v>
+      </c>
       <c r="D19" s="104">
         <v>0.02</v>
       </c>
@@ -11850,12 +11885,14 @@
       <c r="R19" s="324"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="104"/>
+      <c r="C20" s="104" t="s">
+        <v>152</v>
+      </c>
       <c r="D20" s="104">
         <v>0.05</v>
       </c>
@@ -11881,12 +11918,14 @@
       <c r="R20" s="324"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="353"/>
+      <c r="C21" s="353">
+        <v>0.13</v>
+      </c>
       <c r="D21" s="104">
         <v>0.02</v>
       </c>
@@ -11912,12 +11951,14 @@
       <c r="R21" s="324"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="353"/>
+      <c r="C22" s="353" t="s">
+        <v>153</v>
+      </c>
       <c r="D22" s="104">
         <v>0.02</v>
       </c>
@@ -11943,14 +11984,14 @@
       <c r="R22" s="324"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15">
       <c r="A23" s="78"/>
-      <c r="B23" s="549" t="s">
+      <c r="B23" s="556" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="550"/>
-      <c r="D23" s="550"/>
-      <c r="E23" s="551"/>
+      <c r="C23" s="557"/>
+      <c r="D23" s="557"/>
+      <c r="E23" s="558"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -11970,14 +12011,14 @@
       <c r="R23" s="324"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1">
       <c r="A24" s="78"/>
-      <c r="B24" s="587" t="s">
+      <c r="B24" s="594" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="588"/>
-      <c r="D24" s="588"/>
-      <c r="E24" s="589"/>
+      <c r="C24" s="595"/>
+      <c r="D24" s="595"/>
+      <c r="E24" s="596"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -11997,7 +12038,7 @@
       <c r="R24" s="326"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -12018,27 +12059,27 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="562" t="s">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="27" spans="1:19">
+      <c r="K27" s="569" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="562"/>
-      <c r="M27" s="562"/>
+      <c r="L27" s="569"/>
+      <c r="M27" s="569"/>
       <c r="N27" s="475"/>
       <c r="O27" s="475"/>
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="559" t="s">
+    <row r="28" spans="1:19">
+      <c r="N28" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="559"/>
-      <c r="P28" s="560" t="s">
+      <c r="O28" s="566"/>
+      <c r="P28" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="561"/>
+      <c r="Q28" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12077,7 +12118,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12094,20 +12135,20 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12128,52 +12169,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="598">
+      <c r="B2" s="605">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="625"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="582"/>
+      <c r="Q2" s="582"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12182,11 +12223,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12203,24 +12244,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="628"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="629"/>
+      <c r="J5" s="630"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12229,24 +12270,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="628"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="631"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12255,29 +12296,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="632"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="633" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="632"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12286,7 +12327,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12307,7 +12348,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12340,7 +12381,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12371,7 +12412,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -12404,7 +12445,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -12435,7 +12476,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -12466,14 +12507,14 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="596" t="s">
+      <c r="B14" s="603" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="597"/>
-      <c r="D14" s="597"/>
-      <c r="E14" s="597"/>
+      <c r="C14" s="604"/>
+      <c r="D14" s="604"/>
+      <c r="E14" s="604"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12493,15 +12534,15 @@
       <c r="R14" s="324"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="549" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="550"/>
-      <c r="D15" s="550"/>
-      <c r="E15" s="550"/>
-      <c r="F15" s="595"/>
+      <c r="B15" s="556" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="557"/>
+      <c r="D15" s="557"/>
+      <c r="E15" s="557"/>
+      <c r="F15" s="602"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12518,14 +12559,14 @@
       <c r="R15" s="324"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="594" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="588"/>
-      <c r="D16" s="588"/>
-      <c r="E16" s="589"/>
+      <c r="C16" s="595"/>
+      <c r="D16" s="595"/>
+      <c r="E16" s="596"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12545,7 +12586,7 @@
       <c r="R16" s="326"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -12566,31 +12607,31 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="B19" s="121"/>
-      <c r="L19" s="562" t="s">
+      <c r="L19" s="569" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="562"/>
-      <c r="N19" s="562"/>
+      <c r="M19" s="569"/>
+      <c r="N19" s="569"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="559" t="s">
+    <row r="20" spans="1:19">
+      <c r="O20" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
+      <c r="P20" s="566"/>
+      <c r="Q20" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="561"/>
+      <c r="R20" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12649,26 +12690,26 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17:C19"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12689,49 +12730,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="570"/>
+      <c r="C2" s="571"/>
+      <c r="D2" s="572"/>
+      <c r="E2" s="579" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="580"/>
+      <c r="G2" s="580"/>
+      <c r="H2" s="581"/>
+      <c r="I2" s="586" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="587"/>
+      <c r="K2" s="590">
         <f>Данные!B16</f>
-        <v>32</v>
-      </c>
-      <c r="L2" s="584"/>
+        <v>30</v>
+      </c>
+      <c r="L2" s="591"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="582"/>
+      <c r="Q2" s="582"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="573"/>
+      <c r="C3" s="574"/>
+      <c r="D3" s="575"/>
+      <c r="E3" s="583" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="584"/>
+      <c r="G3" s="584"/>
+      <c r="H3" s="585"/>
+      <c r="I3" s="588"/>
+      <c r="J3" s="589"/>
+      <c r="K3" s="592"/>
+      <c r="L3" s="593"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12740,11 +12781,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="577"/>
+      <c r="D4" s="578"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12761,24 +12802,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="598"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="559"/>
+      <c r="J5" s="560"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12787,24 +12828,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="559"/>
+      <c r="J6" s="560"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12813,29 +12854,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="562"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="561" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="565"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12844,7 +12885,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12865,7 +12906,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12901,12 +12942,14 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="93">
+        <v>151</v>
+      </c>
       <c r="D10" s="93">
         <v>0.05</v>
       </c>
@@ -12935,7 +12978,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -12971,7 +13014,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -13007,12 +13050,14 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="376"/>
+      <c r="C13" s="376">
+        <v>66.5</v>
+      </c>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -13041,12 +13086,14 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="97"/>
+      <c r="C14" s="97">
+        <v>116</v>
+      </c>
       <c r="D14" s="97">
         <v>0.05</v>
       </c>
@@ -13075,7 +13122,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -13111,7 +13158,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -13147,12 +13194,14 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="104"/>
+      <c r="C17" s="104">
+        <v>24.9</v>
+      </c>
       <c r="D17" s="104">
         <v>0.05</v>
       </c>
@@ -13181,12 +13230,14 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="104" t="s">
+        <v>150</v>
+      </c>
       <c r="D18" s="104">
         <v>0.05</v>
       </c>
@@ -13215,7 +13266,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13249,7 +13300,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -13282,7 +13333,7 @@
       <c r="R20" s="326"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -13303,27 +13354,27 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="627" t="s">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="23" spans="1:24">
+      <c r="L23" s="634" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="627"/>
-      <c r="N23" s="627"/>
+      <c r="M23" s="634"/>
+      <c r="N23" s="634"/>
       <c r="O23" s="475"/>
       <c r="P23" s="475"/>
       <c r="Q23" s="491"/>
       <c r="R23" s="491"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="559" t="s">
+    <row r="24" spans="1:24">
+      <c r="O24" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="559"/>
-      <c r="Q24" s="560" t="s">
+      <c r="P24" s="566"/>
+      <c r="Q24" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="561"/>
+      <c r="R24" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13360,7 +13411,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.2" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;C&amp;R&amp;7ID 410/2004-02-27</oddFooter>
   </headerFooter>
@@ -13376,23 +13427,23 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18:R19"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13413,49 +13464,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="570"/>
+      <c r="C2" s="571"/>
+      <c r="D2" s="572"/>
+      <c r="E2" s="579" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="580"/>
+      <c r="G2" s="580"/>
+      <c r="H2" s="581"/>
+      <c r="I2" s="586" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="587"/>
+      <c r="K2" s="590">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="591"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="573"/>
+      <c r="C3" s="574"/>
+      <c r="D3" s="575"/>
+      <c r="E3" s="583" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="584"/>
+      <c r="G3" s="584"/>
+      <c r="H3" s="585"/>
+      <c r="I3" s="588"/>
+      <c r="J3" s="589"/>
+      <c r="K3" s="592"/>
+      <c r="L3" s="593"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13464,11 +13515,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="577"/>
+      <c r="D4" s="578"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13485,24 +13536,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="598"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="559"/>
+      <c r="J5" s="560"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13511,24 +13562,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="599"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="559"/>
+      <c r="J6" s="560"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13537,29 +13588,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="562"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="561" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="565"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13568,7 +13619,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13589,7 +13640,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13622,12 +13673,14 @@
       <c r="R9" s="328"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="377"/>
+      <c r="C10" s="377" t="s">
+        <v>151</v>
+      </c>
       <c r="D10" s="44">
         <v>0.05</v>
       </c>
@@ -13653,12 +13706,14 @@
       <c r="R10" s="330"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="44">
+        <v>3</v>
+      </c>
       <c r="D11" s="44">
         <v>0.05</v>
       </c>
@@ -13684,7 +13739,7 @@
       <c r="R11" s="330"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13717,7 +13772,7 @@
       <c r="R12" s="330"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13750,7 +13805,7 @@
       <c r="R13" s="330"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13783,7 +13838,7 @@
       <c r="R14" s="330"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13816,7 +13871,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13837,27 +13892,27 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="627" t="s">
+    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="18" spans="12:18">
+      <c r="L18" s="634" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="627"/>
-      <c r="N18" s="627"/>
+      <c r="M18" s="634"/>
+      <c r="N18" s="634"/>
       <c r="O18" s="475"/>
       <c r="P18" s="475"/>
       <c r="Q18" s="491"/>
       <c r="R18" s="491"/>
     </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="559" t="s">
+    <row r="19" spans="12:18">
+      <c r="O19" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="559"/>
-      <c r="Q19" s="560" t="s">
+      <c r="P19" s="566"/>
+      <c r="Q19" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="561"/>
+      <c r="R19" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13908,29 +13963,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23:R24"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13951,62 +14006,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B18</f>
-        <v>130</v>
-      </c>
-      <c r="L2" s="618"/>
-      <c r="M2" s="629"/>
-      <c r="N2" s="630"/>
-      <c r="O2" s="630"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
-      <c r="R2" s="631"/>
+        <v>80</v>
+      </c>
+      <c r="L2" s="625"/>
+      <c r="M2" s="636"/>
+      <c r="N2" s="637"/>
+      <c r="O2" s="637"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
+      <c r="R2" s="638"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
-      <c r="M3" s="632"/>
-      <c r="N3" s="633"/>
-      <c r="O3" s="633"/>
-      <c r="P3" s="633"/>
-      <c r="Q3" s="633"/>
-      <c r="R3" s="634"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
+      <c r="M3" s="639"/>
+      <c r="N3" s="640"/>
+      <c r="O3" s="640"/>
+      <c r="P3" s="640"/>
+      <c r="Q3" s="640"/>
+      <c r="R3" s="641"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14015,98 +14070,98 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="632"/>
-      <c r="N4" s="633"/>
-      <c r="O4" s="633"/>
-      <c r="P4" s="633"/>
-      <c r="Q4" s="633"/>
-      <c r="R4" s="634"/>
+      <c r="M4" s="639"/>
+      <c r="N4" s="640"/>
+      <c r="O4" s="640"/>
+      <c r="P4" s="640"/>
+      <c r="Q4" s="640"/>
+      <c r="R4" s="641"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="628"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
-      <c r="M5" s="632"/>
-      <c r="N5" s="633"/>
-      <c r="O5" s="633"/>
-      <c r="P5" s="633"/>
-      <c r="Q5" s="633"/>
-      <c r="R5" s="634"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="629"/>
+      <c r="J5" s="630"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="511"/>
+      <c r="M5" s="639"/>
+      <c r="N5" s="640"/>
+      <c r="O5" s="640"/>
+      <c r="P5" s="640"/>
+      <c r="Q5" s="640"/>
+      <c r="R5" s="641"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="628"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
-      <c r="M6" s="632"/>
-      <c r="N6" s="633"/>
-      <c r="O6" s="633"/>
-      <c r="P6" s="633"/>
-      <c r="Q6" s="633"/>
-      <c r="R6" s="634"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="631"/>
+      <c r="L6" s="511"/>
+      <c r="M6" s="639"/>
+      <c r="N6" s="640"/>
+      <c r="O6" s="640"/>
+      <c r="P6" s="640"/>
+      <c r="Q6" s="640"/>
+      <c r="R6" s="641"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="632"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="633" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="632"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
-      <c r="M7" s="632"/>
-      <c r="N7" s="633"/>
-      <c r="O7" s="633"/>
-      <c r="P7" s="633"/>
-      <c r="Q7" s="633"/>
-      <c r="R7" s="634"/>
+      <c r="L7" s="501"/>
+      <c r="M7" s="639"/>
+      <c r="N7" s="640"/>
+      <c r="O7" s="640"/>
+      <c r="P7" s="640"/>
+      <c r="Q7" s="640"/>
+      <c r="R7" s="641"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14127,7 +14182,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14160,7 +14215,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -14193,12 +14248,14 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="128">
+        <v>25</v>
+      </c>
       <c r="D11" s="128">
         <v>0.05</v>
       </c>
@@ -14224,12 +14281,14 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="128"/>
+      <c r="C12" s="128">
+        <v>24.9</v>
+      </c>
       <c r="D12" s="128">
         <v>0.05</v>
       </c>
@@ -14255,7 +14314,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="486" customFormat="1" ht="33.75">
       <c r="A13" s="476"/>
       <c r="B13" s="477" t="s">
         <v>3</v>
@@ -14288,7 +14347,7 @@
       <c r="R13" s="484"/>
       <c r="S13" s="485"/>
     </row>
-    <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="33.75">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -14321,12 +14380,14 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="97"/>
+      <c r="C15" s="97">
+        <v>3.1</v>
+      </c>
       <c r="D15" s="97">
         <v>0.04</v>
       </c>
@@ -14352,12 +14413,14 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="97">
+        <v>50.8</v>
+      </c>
       <c r="D16" s="97">
         <v>0.1</v>
       </c>
@@ -14383,12 +14446,14 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="97">
+        <v>23.6</v>
+      </c>
       <c r="D17" s="97">
         <v>0.05</v>
       </c>
@@ -14414,7 +14479,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
@@ -14447,24 +14512,18 @@
       <c r="R18" s="322"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="30.6" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97">
-        <v>0.05</v>
-      </c>
-      <c r="E19" s="102">
-        <v>-0.05</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C19" s="376">
+        <v>27.85</v>
+      </c>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="296"/>
       <c r="H19" s="98"/>
       <c r="I19" s="97"/>
       <c r="J19" s="97"/>
@@ -14478,82 +14537,115 @@
       <c r="R19" s="322"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1">
       <c r="A20" s="78"/>
-      <c r="B20" s="587" t="s">
+      <c r="B20" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="97">
+        <v>27.1</v>
+      </c>
+      <c r="D20" s="97">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="102">
+        <v>-0.05</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="321"/>
+      <c r="N20" s="321"/>
+      <c r="O20" s="321"/>
+      <c r="P20" s="321"/>
+      <c r="Q20" s="321"/>
+      <c r="R20" s="322"/>
+      <c r="S20" s="86"/>
+    </row>
+    <row r="21" spans="1:19" ht="34.5" thickBot="1">
+      <c r="A21" s="78"/>
+      <c r="B21" s="594" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="588"/>
-      <c r="D20" s="588"/>
-      <c r="E20" s="589"/>
-      <c r="F20" s="114" t="s">
+      <c r="C21" s="595"/>
+      <c r="D21" s="595"/>
+      <c r="E21" s="596"/>
+      <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="325"/>
-      <c r="N20" s="325"/>
-      <c r="O20" s="325"/>
-      <c r="P20" s="325"/>
-      <c r="Q20" s="325"/>
-      <c r="R20" s="326"/>
-      <c r="S20" s="86"/>
-    </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="112"/>
-    </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="121"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L23" s="627" t="s">
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="325"/>
+      <c r="N21" s="325"/>
+      <c r="O21" s="325"/>
+      <c r="P21" s="325"/>
+      <c r="Q21" s="325"/>
+      <c r="R21" s="326"/>
+      <c r="S21" s="86"/>
+    </row>
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1">
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="112"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+      <c r="B23" s="121"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="L24" s="634" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="627"/>
-      <c r="N23" s="627"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="559" t="s">
+      <c r="M24" s="634"/>
+      <c r="N24" s="634"/>
+      <c r="O24" s="475"/>
+      <c r="P24" s="475"/>
+      <c r="Q24" s="491"/>
+      <c r="R24" s="491"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="O25" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="559"/>
-      <c r="Q24" s="560" t="s">
+      <c r="P25" s="566"/>
+      <c r="Q25" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="561"/>
+      <c r="R25" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14572,10 +14664,10 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:R20">
+  <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -14586,7 +14678,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14596,26 +14688,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14636,49 +14728,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="605"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="607"/>
+      <c r="E2" s="614" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="615"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="616"/>
+      <c r="I2" s="620" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="621"/>
+      <c r="K2" s="624">
         <f>Данные!B19</f>
-        <v>130</v>
-      </c>
-      <c r="L2" s="618"/>
+        <v>100</v>
+      </c>
+      <c r="L2" s="625"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="608"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="610"/>
+      <c r="E3" s="617" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="618"/>
+      <c r="G3" s="618"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="623"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14687,11 +14779,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="611"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="613"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14708,24 +14800,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="628"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="629"/>
+      <c r="J5" s="630"/>
+      <c r="K5" s="631"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14734,24 +14826,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="628"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-24-1-500-16 (Бульбаш Экстра Нью)</v>
-      </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+      </c>
+      <c r="E6" s="600"/>
+      <c r="F6" s="600"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="601"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="631"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14760,29 +14852,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="632"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="563"/>
+      <c r="F7" s="563"/>
+      <c r="G7" s="563"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="633" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="632"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14791,7 +14883,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14812,7 +14904,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14845,12 +14937,14 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45">
       <c r="A10" s="78"/>
       <c r="B10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="97">
+        <v>24.7</v>
+      </c>
       <c r="D10" s="97">
         <v>0.05</v>
       </c>
@@ -14876,12 +14970,14 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="97">
+        <v>19.95</v>
+      </c>
       <c r="D11" s="97">
         <v>0.02</v>
       </c>
@@ -14907,7 +15003,7 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.15" customHeight="1">
       <c r="A12" s="476"/>
       <c r="B12" s="487" t="s">
         <v>3</v>
@@ -14940,7 +15036,7 @@
       <c r="R12" s="490"/>
       <c r="S12" s="485"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
@@ -14973,12 +15069,14 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1">
       <c r="A14" s="78"/>
       <c r="B14" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97"/>
+      <c r="C14" s="97">
+        <v>12.9</v>
+      </c>
       <c r="D14" s="97">
         <v>0</v>
       </c>
@@ -15004,7 +15102,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="127" t="s">
         <v>5</v>
@@ -15037,14 +15135,14 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="594" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="588"/>
-      <c r="D16" s="588"/>
-      <c r="E16" s="589"/>
+      <c r="C16" s="595"/>
+      <c r="D16" s="595"/>
+      <c r="E16" s="596"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15064,7 +15162,7 @@
       <c r="R16" s="120"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
       <c r="A17" s="108"/>
       <c r="B17" s="126"/>
       <c r="C17" s="125"/>
@@ -15085,29 +15183,29 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
       <c r="B18" s="121"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="627" t="s">
+    <row r="19" spans="1:19">
+      <c r="L19" s="634" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="627"/>
-      <c r="N19" s="627"/>
+      <c r="M19" s="634"/>
+      <c r="N19" s="634"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="559" t="s">
+    <row r="20" spans="1:19">
+      <c r="O20" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
+      <c r="P20" s="566"/>
+      <c r="Q20" s="567" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="561"/>
+      <c r="R20" s="568"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03847AA5-8DC8-4D8B-931D-CDD40FEA579F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-15" windowWidth="14445" windowHeight="12435" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -40,12 +41,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="156">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -500,21 +508,6 @@
     </r>
   </si>
   <si>
-    <t>XXI-В-28-2-200-3 (Фляга 0,2 л.)</t>
-  </si>
-  <si>
-    <t>200CC OVAL FLASK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
-  </si>
-  <si>
-    <t>Дата поставки  10.04.2020 (c остаточным ресурсом 100 %)</t>
-  </si>
-  <si>
-    <t>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</t>
-  </si>
-  <si>
     <t>По накладным 32 шт., по факту 30 шт.</t>
   </si>
   <si>
@@ -532,19 +525,37 @@
   <si>
     <t>47 / 22</t>
   </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</t>
+  </si>
+  <si>
+    <t>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</t>
+  </si>
+  <si>
+    <t>Mytaya 0,5 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (владелец "Аквадив" Дог. безв. польз №36 от 27.05.2020 г.)</t>
+  </si>
+  <si>
+    <t>Дата поставки:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c остаточным ресурсом 100 %)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2219,10 +2230,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="654">
+  <cellXfs count="656">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3366,7 +3377,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3396,7 +3406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3411,7 +3421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3473,25 +3483,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3503,11 +3513,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3517,7 +3527,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3531,29 +3541,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3651,6 +3659,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3703,19 +3721,16 @@
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4100,11 +4115,17 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4375,7 +4396,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4421,7 +4448,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4466,7 +4499,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4510,7 +4549,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4559,7 +4604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4605,7 +4656,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4649,7 +4706,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4693,7 +4756,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4742,7 +4811,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4788,7 +4863,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4832,7 +4913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4876,7 +4963,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4925,7 +5018,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4971,7 +5070,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5015,7 +5120,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5059,7 +5170,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5108,7 +5225,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5154,7 +5277,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5198,7 +5327,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5242,7 +5377,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5291,7 +5432,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5305,8 +5452,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10310283" y="2825749"/>
-          <a:ext cx="3505201" cy="2079625"/>
+          <a:off x="10244859" y="2797848"/>
+          <a:ext cx="3459019" cy="2073852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5337,7 +5484,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5381,7 +5534,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5425,7 +5584,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5469,7 +5634,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5512,7 +5683,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5558,7 +5735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5602,7 +5785,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5646,7 +5835,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5695,7 +5890,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5741,7 +5942,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5785,7 +5992,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5829,7 +6042,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5878,7 +6097,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5924,7 +6149,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5968,7 +6199,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6012,7 +6249,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6061,7 +6304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6107,7 +6356,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6151,7 +6406,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6195,7 +6456,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6303,6 +6570,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6338,6 +6622,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6513,14 +6814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -6528,75 +6829,75 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A1" s="502" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="503" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
+      <c r="B1" s="507"/>
+      <c r="C1" s="507"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A2" s="503" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="505"/>
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="504" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="505"/>
+      <c r="C2" s="505"/>
+      <c r="D2" s="505"/>
+      <c r="E2" s="506"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="362" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A4" s="507" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="508" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="508"/>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="509" t="s">
+      <c r="B4" s="509"/>
+      <c r="C4" s="509"/>
+      <c r="D4" s="509"/>
+      <c r="E4" s="509"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="510"/>
-      <c r="C5" s="510"/>
-      <c r="D5" s="510"/>
-      <c r="E5" s="511"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.5" thickTop="1"/>
-    <row r="7" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A7" s="502" t="s">
+      <c r="B5" s="511"/>
+      <c r="C5" s="511"/>
+      <c r="D5" s="511"/>
+      <c r="E5" s="512"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="503" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="506"/>
-      <c r="C7" s="506"/>
-      <c r="D7" s="506"/>
-      <c r="E7" s="506"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A8" s="512"/>
-      <c r="B8" s="513"/>
-      <c r="C8" s="513"/>
-      <c r="D8" s="513"/>
-      <c r="E8" s="514"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A10" s="502" t="s">
+      <c r="B7" s="507"/>
+      <c r="C7" s="507"/>
+      <c r="D7" s="507"/>
+      <c r="E7" s="507"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="513"/>
+      <c r="B8" s="514"/>
+      <c r="C8" s="514"/>
+      <c r="D8" s="514"/>
+      <c r="E8" s="515"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="503" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="502"/>
+      <c r="B10" s="503"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6606,36 +6907,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A11" s="500"/>
-      <c r="B11" s="501"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="501"/>
+      <c r="B11" s="502"/>
       <c r="D11" s="369">
-        <v>43931</v>
-      </c>
-      <c r="F11" s="515" t="s">
+        <v>43979</v>
+      </c>
+      <c r="F11" s="516" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="515"/>
-      <c r="H11" s="515"/>
-      <c r="I11" s="515"/>
-      <c r="J11" s="516" t="s">
+      <c r="G11" s="516"/>
+      <c r="H11" s="516"/>
+      <c r="I11" s="516"/>
+      <c r="J11" s="517" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="516"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="F12" s="515" t="s">
+      <c r="K11" s="517"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="516" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="515"/>
-      <c r="H12" s="515"/>
-      <c r="I12" s="515"/>
-      <c r="J12" s="516" t="s">
+      <c r="G12" s="516"/>
+      <c r="H12" s="516"/>
+      <c r="I12" s="516"/>
+      <c r="J12" s="517" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="516"/>
-    </row>
-    <row r="13" spans="1:11" ht="38.25">
+      <c r="K12" s="517"/>
+    </row>
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
         <v>88</v>
       </c>
@@ -6648,21 +6949,21 @@
       <c r="D13" s="374" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="474" t="s">
+      <c r="E13" s="471" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="515" t="s">
+      <c r="F13" s="516" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="515"/>
-      <c r="H13" s="515"/>
-      <c r="I13" s="515"/>
-      <c r="J13" s="516" t="s">
+      <c r="G13" s="516"/>
+      <c r="H13" s="516"/>
+      <c r="I13" s="516"/>
+      <c r="J13" s="517" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="516"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="517"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
         <v>43</v>
       </c>
@@ -6670,7 +6971,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D14" s="366">
         <v>32.5</v>
@@ -6680,7 +6981,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="365" t="s">
         <v>44</v>
       </c>
@@ -6688,7 +6989,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D15" s="366">
         <v>3</v>
@@ -6698,25 +6999,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="365" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="366">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D16" s="366">
         <v>34.200000000000003</v>
       </c>
       <c r="E16" s="366">
         <f t="shared" si="0"/>
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1094.4000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="365" t="s">
         <v>23</v>
       </c>
@@ -6724,7 +7025,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D17" s="366">
         <v>1.3</v>
@@ -6734,43 +7035,43 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="365" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="366">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C18" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D18" s="366">
         <v>1.29</v>
       </c>
       <c r="E18" s="366">
         <f t="shared" si="0"/>
-        <v>103.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="365" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="366">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C19" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D19" s="366">
         <v>0.3</v>
       </c>
       <c r="E19" s="366">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="365" t="s">
         <v>51</v>
       </c>
@@ -6778,7 +7079,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D20" s="366">
         <v>0.5</v>
@@ -6788,23 +7089,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="365" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="366">
-        <v>0</v>
-      </c>
-      <c r="C21" s="372"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="372" t="s">
+        <v>152</v>
+      </c>
       <c r="D21" s="366">
         <v>0.4</v>
       </c>
       <c r="E21" s="366">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="365" t="s">
         <v>91</v>
       </c>
@@ -6818,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="365" t="s">
         <v>56</v>
       </c>
@@ -6826,7 +7129,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D23" s="366">
         <v>1.7</v>
@@ -6836,7 +7139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="365" t="s">
         <v>70</v>
       </c>
@@ -6844,7 +7147,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="372" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D24" s="366">
         <v>3</v>
@@ -6854,7 +7157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="365" t="s">
         <v>92</v>
       </c>
@@ -6866,58 +7169,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="367" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="368">
-        <v>0</v>
-      </c>
-      <c r="C26" s="372"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="372" t="s">
+        <v>152</v>
+      </c>
       <c r="D26" s="366">
         <v>1.5</v>
       </c>
       <c r="E26" s="366">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="367" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="373">
-        <v>0</v>
-      </c>
-      <c r="C27" s="375"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="372" t="s">
+        <v>152</v>
+      </c>
       <c r="D27" s="366"/>
       <c r="E27" s="366"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="371"/>
       <c r="D28" s="370"/>
       <c r="E28" s="370">
         <f>SUM(E14:E27)</f>
-        <v>2130.8000000000002</v>
+        <v>2202.4</v>
       </c>
       <c r="F28">
         <v>2400</v>
       </c>
       <c r="G28">
         <f>F28-E28</f>
-        <v>269.19999999999982</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="499" t="s">
+        <v>197.59999999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="500" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="499"/>
-      <c r="C29" s="499"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="B29" s="500"/>
+      <c r="C29" s="500"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6944,7 +7251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
@@ -6954,7 +7261,7 @@
       <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="162" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="162" customWidth="1"/>
@@ -6967,7 +7274,7 @@
     <col min="20" max="16384" width="9.140625" style="162"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158"/>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -6988,7 +7295,7 @@
       <c r="R1" s="160"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
       <c r="B2" s="605"/>
       <c r="C2" s="606"/>
@@ -7016,7 +7323,7 @@
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
       <c r="B3" s="608"/>
       <c r="C3" s="609"/>
@@ -7039,7 +7346,7 @@
       <c r="R3" s="171"/>
       <c r="S3" s="168"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
       <c r="B4" s="611"/>
       <c r="C4" s="612"/>
@@ -7060,24 +7367,24 @@
       <c r="R4" s="171"/>
       <c r="S4" s="168"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="628"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="629"/>
       <c r="J5" s="630"/>
       <c r="K5" s="631"/>
-      <c r="L5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7086,15 +7393,15 @@
       <c r="R5" s="171"/>
       <c r="S5" s="168"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="628"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -7103,7 +7410,7 @@
       <c r="I6" s="629"/>
       <c r="J6" s="630"/>
       <c r="K6" s="631"/>
-      <c r="L6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7112,13 +7419,13 @@
       <c r="R6" s="171"/>
       <c r="S6" s="168"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="632"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -7130,11 +7437,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="632"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7143,7 +7450,7 @@
       <c r="R7" s="171"/>
       <c r="S7" s="168"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="173"/>
       <c r="B8" s="174"/>
       <c r="C8" s="175"/>
@@ -7164,7 +7471,7 @@
       <c r="R8" s="178"/>
       <c r="S8" s="179"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="180"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7197,7 +7504,7 @@
       <c r="R9" s="338"/>
       <c r="S9" s="195"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="173"/>
       <c r="B10" s="182" t="s">
         <v>25</v>
@@ -7232,7 +7539,7 @@
       <c r="R10" s="340"/>
       <c r="S10" s="179"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="173"/>
       <c r="B11" s="184" t="s">
         <v>26</v>
@@ -7265,7 +7572,7 @@
       <c r="R11" s="342"/>
       <c r="S11" s="179"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="173"/>
       <c r="B12" s="184" t="s">
         <v>2</v>
@@ -7298,7 +7605,7 @@
       <c r="R12" s="342"/>
       <c r="S12" s="179"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="173"/>
       <c r="B13" s="184" t="s">
         <v>3</v>
@@ -7331,7 +7638,7 @@
       <c r="R13" s="342"/>
       <c r="S13" s="179"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="173"/>
       <c r="B14" s="184" t="s">
         <v>27</v>
@@ -7364,7 +7671,7 @@
       <c r="R14" s="342"/>
       <c r="S14" s="179"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="173"/>
       <c r="B15" s="184" t="s">
         <v>28</v>
@@ -7397,7 +7704,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="179"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="173"/>
       <c r="B16" s="184" t="s">
         <v>4</v>
@@ -7430,7 +7737,7 @@
       <c r="R16" s="342"/>
       <c r="S16" s="179"/>
     </row>
-    <row r="17" spans="1:19" ht="33.75">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="173"/>
       <c r="B17" s="184" t="s">
         <v>9</v>
@@ -7463,7 +7770,7 @@
       <c r="R17" s="342"/>
       <c r="S17" s="179"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="173"/>
       <c r="B18" s="184" t="s">
         <v>5</v>
@@ -7496,7 +7803,7 @@
       <c r="R18" s="342"/>
       <c r="S18" s="179"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="186"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
@@ -7517,19 +7824,19 @@
       <c r="R19" s="187"/>
       <c r="S19" s="189"/>
     </row>
-    <row r="20" spans="1:19" ht="13.5" thickTop="1"/>
-    <row r="21" spans="1:19">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L21" s="634" t="s">
         <v>136</v>
       </c>
       <c r="M21" s="634"/>
       <c r="N21" s="634"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="O21" s="472"/>
+      <c r="P21" s="472"/>
+      <c r="Q21" s="488"/>
+      <c r="R21" s="488"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O22" s="566" t="s">
         <v>140</v>
       </c>
@@ -7581,17 +7888,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="201" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="201" customWidth="1"/>
@@ -7604,7 +7911,7 @@
     <col min="20" max="16384" width="9.140625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="197"/>
       <c r="B1" s="198"/>
       <c r="C1" s="199"/>
@@ -7625,7 +7932,7 @@
       <c r="R1" s="199"/>
       <c r="S1" s="200"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
       <c r="B2" s="605"/>
       <c r="C2" s="606"/>
@@ -7642,7 +7949,7 @@
       <c r="J2" s="621"/>
       <c r="K2" s="624">
         <f>Данные!B21</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L2" s="625"/>
       <c r="M2" s="203"/>
@@ -7653,7 +7960,7 @@
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
       <c r="B3" s="608"/>
       <c r="C3" s="609"/>
@@ -7676,7 +7983,7 @@
       <c r="R3" s="210"/>
       <c r="S3" s="207"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
       <c r="B4" s="611"/>
       <c r="C4" s="612"/>
@@ -7697,24 +8004,24 @@
       <c r="R4" s="210"/>
       <c r="S4" s="207"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="628"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="629"/>
       <c r="J5" s="630"/>
       <c r="K5" s="631"/>
-      <c r="L5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7723,15 +8030,15 @@
       <c r="R5" s="210"/>
       <c r="S5" s="207"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="628"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -7740,7 +8047,7 @@
       <c r="I6" s="629"/>
       <c r="J6" s="630"/>
       <c r="K6" s="631"/>
-      <c r="L6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7749,13 +8056,13 @@
       <c r="R6" s="210"/>
       <c r="S6" s="207"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="632"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -7767,11 +8074,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="632"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -7780,7 +8087,7 @@
       <c r="R7" s="210"/>
       <c r="S7" s="207"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="212"/>
       <c r="B8" s="213"/>
       <c r="C8" s="214"/>
@@ -7801,7 +8108,7 @@
       <c r="R8" s="217"/>
       <c r="S8" s="218"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="219"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7834,7 +8141,7 @@
       <c r="R9" s="221"/>
       <c r="S9" s="222"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="212"/>
       <c r="B10" s="223" t="s">
         <v>25</v>
@@ -7867,7 +8174,7 @@
       <c r="R10" s="227"/>
       <c r="S10" s="218"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="212"/>
       <c r="B11" s="228" t="s">
         <v>26</v>
@@ -7900,7 +8207,7 @@
       <c r="R11" s="232"/>
       <c r="S11" s="218"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="212"/>
       <c r="B12" s="228" t="s">
         <v>2</v>
@@ -7933,7 +8240,7 @@
       <c r="R12" s="232"/>
       <c r="S12" s="218"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="212"/>
       <c r="B13" s="228" t="s">
         <v>3</v>
@@ -7966,7 +8273,7 @@
       <c r="R13" s="232"/>
       <c r="S13" s="218"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="212"/>
       <c r="B14" s="228" t="s">
         <v>27</v>
@@ -7999,7 +8306,7 @@
       <c r="R14" s="232"/>
       <c r="S14" s="218"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="212"/>
       <c r="B15" s="228" t="s">
         <v>28</v>
@@ -8032,7 +8339,7 @@
       <c r="R15" s="232"/>
       <c r="S15" s="218"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="212"/>
       <c r="B16" s="228" t="s">
         <v>9</v>
@@ -8065,7 +8372,7 @@
       <c r="R16" s="232"/>
       <c r="S16" s="218"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="212"/>
       <c r="B17" s="228" t="s">
         <v>5</v>
@@ -8098,7 +8405,7 @@
       <c r="R17" s="232"/>
       <c r="S17" s="218"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
       <c r="B18" s="644" t="s">
         <v>54</v>
@@ -8125,7 +8432,7 @@
       <c r="R18" s="236"/>
       <c r="S18" s="218"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="237"/>
       <c r="B19" s="238"/>
       <c r="C19" s="238"/>
@@ -8146,19 +8453,19 @@
       <c r="R19" s="238"/>
       <c r="S19" s="240"/>
     </row>
-    <row r="20" spans="1:19" ht="13.5" thickTop="1"/>
-    <row r="21" spans="1:19">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L21" s="634" t="s">
         <v>136</v>
       </c>
       <c r="M21" s="634"/>
       <c r="N21" s="634"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="O21" s="472"/>
+      <c r="P21" s="472"/>
+      <c r="Q21" s="488"/>
+      <c r="R21" s="488"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O22" s="566" t="s">
         <v>140</v>
       </c>
@@ -8220,17 +8527,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="O19" sqref="O19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
@@ -8243,7 +8550,7 @@
     <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8264,7 +8571,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
       <c r="B2" s="605"/>
       <c r="C2" s="606"/>
@@ -8281,7 +8588,7 @@
       <c r="J2" s="621"/>
       <c r="K2" s="624">
         <f>Данные!B26</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L2" s="625"/>
       <c r="M2" s="131"/>
@@ -8292,7 +8599,7 @@
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
       <c r="B3" s="608"/>
       <c r="C3" s="609"/>
@@ -8315,7 +8622,7 @@
       <c r="R3" s="138"/>
       <c r="S3" s="135"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
       <c r="B4" s="611"/>
       <c r="C4" s="612"/>
@@ -8336,24 +8643,24 @@
       <c r="R4" s="138"/>
       <c r="S4" s="135"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="628"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="629"/>
       <c r="J5" s="630"/>
       <c r="K5" s="631"/>
-      <c r="L5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8362,15 +8669,15 @@
       <c r="R5" s="138"/>
       <c r="S5" s="135"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="628"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -8379,7 +8686,7 @@
       <c r="I6" s="629"/>
       <c r="J6" s="630"/>
       <c r="K6" s="631"/>
-      <c r="L6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8388,13 +8695,13 @@
       <c r="R6" s="138"/>
       <c r="S6" s="135"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="632"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -8406,11 +8713,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="632"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8419,7 +8726,7 @@
       <c r="R7" s="138"/>
       <c r="S7" s="135"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="140"/>
       <c r="C8" s="141"/>
@@ -8440,7 +8747,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="145"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8473,7 +8780,7 @@
       <c r="R9" s="148"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="150"/>
       <c r="B10" s="151" t="s">
         <v>25</v>
@@ -8504,7 +8811,7 @@
       <c r="R10" s="153"/>
       <c r="S10" s="154"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="150"/>
       <c r="B11" s="151" t="s">
         <v>26</v>
@@ -8535,7 +8842,7 @@
       <c r="R11" s="153"/>
       <c r="S11" s="154"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="150"/>
       <c r="B12" s="151" t="s">
         <v>2</v>
@@ -8568,7 +8875,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="154"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="150"/>
       <c r="B13" s="151" t="s">
         <v>3</v>
@@ -8599,7 +8906,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="154"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="150"/>
       <c r="B14" s="151" t="s">
         <v>27</v>
@@ -8632,7 +8939,7 @@
       <c r="R14" s="153"/>
       <c r="S14" s="154"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="150"/>
       <c r="B15" s="151" t="s">
         <v>28</v>
@@ -8665,7 +8972,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="150"/>
       <c r="B16" s="151" t="s">
         <v>4</v>
@@ -8698,7 +9005,7 @@
       <c r="R16" s="153"/>
       <c r="S16" s="154"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -8719,19 +9026,19 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" thickTop="1"/>
-    <row r="19" spans="1:19">
+    <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L19" s="634" t="s">
         <v>136</v>
       </c>
       <c r="M19" s="634"/>
       <c r="N19" s="634"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O20" s="566" t="s">
         <v>140</v>
       </c>
@@ -8774,7 +9081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
@@ -8784,7 +9091,7 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="258" customWidth="1"/>
     <col min="2" max="2" width="5" style="258" customWidth="1"/>
@@ -8797,7 +9104,7 @@
     <col min="20" max="16384" width="9.140625" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="254"/>
       <c r="B1" s="255"/>
       <c r="C1" s="256"/>
@@ -8818,7 +9125,7 @@
       <c r="R1" s="256"/>
       <c r="S1" s="257"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
       <c r="B2" s="605"/>
       <c r="C2" s="606"/>
@@ -8846,7 +9153,7 @@
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
       <c r="B3" s="608"/>
       <c r="C3" s="609"/>
@@ -8869,7 +9176,7 @@
       <c r="R3" s="267"/>
       <c r="S3" s="264"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
       <c r="B4" s="611"/>
       <c r="C4" s="612"/>
@@ -8890,24 +9197,24 @@
       <c r="R4" s="267"/>
       <c r="S4" s="264"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="628"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="629"/>
       <c r="J5" s="630"/>
       <c r="K5" s="631"/>
-      <c r="L5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8916,15 +9223,15 @@
       <c r="R5" s="267"/>
       <c r="S5" s="264"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="628"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -8933,7 +9240,7 @@
       <c r="I6" s="629"/>
       <c r="J6" s="630"/>
       <c r="K6" s="631"/>
-      <c r="L6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8942,13 +9249,13 @@
       <c r="R6" s="267"/>
       <c r="S6" s="264"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="632"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -8960,11 +9267,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="632"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -8973,7 +9280,7 @@
       <c r="R7" s="267"/>
       <c r="S7" s="264"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="269"/>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
@@ -8994,7 +9301,7 @@
       <c r="R8" s="274"/>
       <c r="S8" s="275"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="276"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -9027,13 +9334,13 @@
       <c r="R9" s="344"/>
       <c r="S9" s="278"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="269"/>
       <c r="B10" s="279" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="378" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D10" s="280">
         <v>0.1</v>
@@ -9060,7 +9367,7 @@
       <c r="R10" s="346"/>
       <c r="S10" s="275"/>
     </row>
-    <row r="11" spans="1:19" ht="33.75">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="269"/>
       <c r="B11" s="283" t="s">
         <v>26</v>
@@ -9091,7 +9398,7 @@
       <c r="R11" s="347"/>
       <c r="S11" s="275"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="269"/>
       <c r="B12" s="283" t="s">
         <v>2</v>
@@ -9124,7 +9431,7 @@
       <c r="R12" s="349"/>
       <c r="S12" s="275"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="269"/>
       <c r="B13" s="283" t="s">
         <v>28</v>
@@ -9157,7 +9464,7 @@
       <c r="R13" s="349"/>
       <c r="S13" s="275"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="269"/>
       <c r="B14" s="283" t="s">
         <v>4</v>
@@ -9190,7 +9497,7 @@
       <c r="R14" s="349"/>
       <c r="S14" s="275"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="269"/>
       <c r="B15" s="289"/>
       <c r="C15" s="290"/>
@@ -9211,7 +9518,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="275"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="292"/>
       <c r="B16" s="293"/>
       <c r="C16" s="293"/>
@@ -9232,19 +9539,19 @@
       <c r="R16" s="293"/>
       <c r="S16" s="295"/>
     </row>
-    <row r="17" spans="12:18" ht="13.5" thickTop="1"/>
-    <row r="18" spans="12:18">
+    <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L18" s="634" t="s">
         <v>136</v>
       </c>
       <c r="M18" s="634"/>
       <c r="N18" s="634"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
-    </row>
-    <row r="19" spans="12:18">
+      <c r="O18" s="472"/>
+      <c r="P18" s="472"/>
+      <c r="Q18" s="488"/>
+      <c r="R18" s="488"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
       <c r="O19" s="566" t="s">
         <v>140</v>
       </c>
@@ -9302,14 +9609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -9325,15 +9632,15 @@
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="473" t="s">
+      <c r="B1" s="470" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="472" t="str">
+      <c r="D1" s="469" t="str">
         <f>Данные!A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E1" s="380"/>
       <c r="F1" s="380"/>
@@ -9344,10 +9651,10 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
@@ -9360,319 +9667,321 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="519" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="519"/>
-      <c r="C3" s="519"/>
-      <c r="D3" s="519"/>
-      <c r="E3" s="519"/>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519"/>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="496"/>
+      <c r="B3" s="497" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="498">
+        <f>Данные!D11</f>
+        <v>43979</v>
+      </c>
+      <c r="D3" s="499" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="496"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="383"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="F4" s="385"/>
-      <c r="G4" s="386"/>
-      <c r="H4" s="385"/>
-      <c r="I4" s="385"/>
+      <c r="F4" s="384"/>
+      <c r="G4" s="385"/>
+      <c r="H4" s="384"/>
+      <c r="I4" s="384"/>
       <c r="J4" s="382"/>
       <c r="K4" s="382"/>
       <c r="M4" s="364"/>
     </row>
-    <row r="5" spans="1:13" ht="64.5" thickBot="1">
-      <c r="A5" s="387" t="s">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="386" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="387" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="388" t="s">
+      <c r="C5" s="387" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="389" t="s">
+      <c r="D5" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="388" t="s">
+      <c r="E5" s="387" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="388" t="s">
+      <c r="F5" s="387" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="388" t="s">
+      <c r="G5" s="387" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="390" t="s">
+      <c r="H5" s="389" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="391"/>
-      <c r="J5" s="391"/>
-      <c r="K5" s="391"/>
-      <c r="L5" s="391"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="392">
+      <c r="I5" s="390"/>
+      <c r="J5" s="390"/>
+      <c r="K5" s="390"/>
+      <c r="L5" s="390"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="391">
         <v>1</v>
       </c>
-      <c r="B6" s="393" t="str">
+      <c r="B6" s="392" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
       <c r="C6" s="372" t="str">
         <f>Данные!C14</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D6" s="394">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D6" s="393">
         <f>Данные!$B14</f>
         <v>24</v>
       </c>
-      <c r="E6" s="394">
+      <c r="E6" s="393">
         <v>24</v>
       </c>
-      <c r="F6" s="395"/>
-      <c r="G6" s="394">
+      <c r="F6" s="394"/>
+      <c r="G6" s="393">
         <f>E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="396"/>
-      <c r="I6" s="397"/>
+      <c r="H6" s="395"/>
+      <c r="I6" s="396"/>
       <c r="J6" s="383"/>
       <c r="K6" s="383"/>
-      <c r="L6" s="397"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="398">
+      <c r="L6" s="396"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="397">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="399" t="str">
+      <c r="B7" s="398" t="str">
         <f>Данные!A15</f>
         <v>Чистовой поддон</v>
       </c>
       <c r="C7" s="372" t="str">
         <f>Данные!C15</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D7" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D7" s="399">
         <f>Данные!$B15</f>
         <v>24</v>
       </c>
-      <c r="E7" s="400">
+      <c r="E7" s="399">
         <v>24</v>
       </c>
       <c r="F7" s="379"/>
-      <c r="G7" s="400">
+      <c r="G7" s="399">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
         <v>24</v>
       </c>
-      <c r="H7" s="401"/>
-      <c r="I7" s="397"/>
+      <c r="H7" s="400"/>
+      <c r="I7" s="396"/>
       <c r="J7" s="383"/>
       <c r="K7" s="383"/>
-      <c r="L7" s="397"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="398">
+      <c r="L7" s="396"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="397">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="399" t="str">
+      <c r="B8" s="398" t="str">
         <f>Данные!A16</f>
         <v>Черновая форма</v>
       </c>
       <c r="C8" s="372" t="str">
         <f>Данные!C16</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D8" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D8" s="399">
         <f>Данные!$B16</f>
-        <v>30</v>
-      </c>
-      <c r="E8" s="400">
         <v>32</v>
       </c>
+      <c r="E8" s="399">
+        <v>32</v>
+      </c>
       <c r="F8" s="379"/>
-      <c r="G8" s="400">
+      <c r="G8" s="399">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="402"/>
-      <c r="I8" s="397"/>
+      <c r="H8" s="401"/>
+      <c r="I8" s="396"/>
       <c r="J8" s="383"/>
       <c r="K8" s="383"/>
-      <c r="L8" s="397"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="398">
+      <c r="L8" s="396"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="397">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="399" t="str">
+      <c r="B9" s="398" t="str">
         <f>Данные!A17</f>
         <v>Черновой поддон</v>
       </c>
       <c r="C9" s="372" t="str">
         <f>Данные!C17</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D9" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D9" s="399">
         <f>Данные!$B17</f>
         <v>32</v>
       </c>
-      <c r="E9" s="400">
+      <c r="E9" s="399">
         <v>32</v>
       </c>
       <c r="F9" s="379"/>
-      <c r="G9" s="400">
+      <c r="G9" s="399">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="402"/>
-      <c r="I9" s="397"/>
-      <c r="J9" s="403"/>
+      <c r="H9" s="401"/>
+      <c r="I9" s="396"/>
+      <c r="J9" s="402"/>
       <c r="K9" s="383"/>
-      <c r="L9" s="397"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="398">
+      <c r="L9" s="396"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="397">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="399" t="str">
+      <c r="B10" s="398" t="str">
         <f>Данные!A18</f>
         <v>Горловое кольцо</v>
       </c>
       <c r="C10" s="372" t="str">
         <f>Данные!C18</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D10" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D10" s="399">
         <f>Данные!$B18</f>
-        <v>80</v>
-      </c>
-      <c r="E10" s="400">
+        <v>60</v>
+      </c>
+      <c r="E10" s="399">
         <v>130</v>
       </c>
       <c r="F10" s="379"/>
-      <c r="G10" s="400">
+      <c r="G10" s="399">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H10" s="402"/>
-      <c r="I10" s="403"/>
-      <c r="J10" s="403"/>
-      <c r="K10" s="403"/>
-      <c r="L10" s="397"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="398">
+      <c r="H10" s="401"/>
+      <c r="I10" s="402"/>
+      <c r="J10" s="402"/>
+      <c r="K10" s="402"/>
+      <c r="L10" s="396"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="397">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="399" t="str">
+      <c r="B11" s="398" t="str">
         <f>Данные!A19</f>
         <v>Направляющее кольцо</v>
       </c>
       <c r="C11" s="372" t="str">
         <f>Данные!C19</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D11" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D11" s="399">
         <f>Данные!$B19</f>
-        <v>100</v>
-      </c>
-      <c r="E11" s="400">
+        <v>70</v>
+      </c>
+      <c r="E11" s="399">
         <v>130</v>
       </c>
       <c r="F11" s="379"/>
-      <c r="G11" s="400">
+      <c r="G11" s="399">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H11" s="402"/>
-      <c r="I11" s="397"/>
-      <c r="J11" s="403"/>
+      <c r="H11" s="401"/>
+      <c r="I11" s="396"/>
+      <c r="J11" s="402"/>
       <c r="K11" s="383"/>
-      <c r="L11" s="397"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="398">
+      <c r="L11" s="396"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="397">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="399" t="str">
+      <c r="B12" s="398" t="str">
         <f>Данные!A20</f>
         <v>Плунжер</v>
       </c>
       <c r="C12" s="372" t="str">
         <f>Данные!C20</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D12" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D12" s="399">
         <f>Данные!$B20</f>
         <v>40</v>
       </c>
-      <c r="E12" s="400">
+      <c r="E12" s="399">
         <v>60</v>
       </c>
-      <c r="F12" s="404"/>
-      <c r="G12" s="400">
+      <c r="F12" s="403"/>
+      <c r="G12" s="399">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H12" s="402"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="403"/>
-      <c r="K12" s="403"/>
-      <c r="L12" s="397"/>
-      <c r="M12" s="405"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="398">
+      <c r="H12" s="401"/>
+      <c r="I12" s="402"/>
+      <c r="J12" s="402"/>
+      <c r="K12" s="402"/>
+      <c r="L12" s="396"/>
+      <c r="M12" s="404"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="397">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="399" t="str">
+      <c r="B13" s="398" t="str">
         <f>Данные!A21</f>
         <v>Втулка плунжера</v>
       </c>
-      <c r="C13" s="372">
+      <c r="C13" s="372" t="str">
         <f>Данные!C21</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D13" s="399">
         <f>Данные!$B21</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="400">
+        <v>20</v>
+      </c>
+      <c r="E13" s="399">
         <v>18</v>
       </c>
-      <c r="F13" s="406"/>
-      <c r="G13" s="400">
+      <c r="F13" s="405"/>
+      <c r="G13" s="399">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H13" s="402"/>
-      <c r="I13" s="403"/>
-      <c r="J13" s="403"/>
-      <c r="K13" s="403"/>
-      <c r="L13" s="397"/>
-      <c r="M13" s="405"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="398">
+      <c r="H13" s="401"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="402"/>
+      <c r="K13" s="402"/>
+      <c r="L13" s="396"/>
+      <c r="M13" s="404"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="397">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="399" t="str">
+      <c r="B14" s="398" t="str">
         <f>Данные!A22</f>
         <v>Хватки</v>
       </c>
@@ -9680,124 +9989,124 @@
         <f>Данные!C22</f>
         <v>0</v>
       </c>
-      <c r="D14" s="400">
+      <c r="D14" s="399">
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="471">
+      <c r="E14" s="468">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
-      <c r="G14" s="400">
+      <c r="G14" s="399">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H14" s="402" t="s">
+      <c r="H14" s="401" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="403"/>
-      <c r="J14" s="403"/>
-      <c r="K14" s="403"/>
-      <c r="L14" s="397"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="398">
+      <c r="I14" s="402"/>
+      <c r="J14" s="402"/>
+      <c r="K14" s="402"/>
+      <c r="L14" s="396"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="397">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="399" t="str">
+      <c r="B15" s="398" t="str">
         <f>Данные!A23</f>
         <v>Воронка</v>
       </c>
       <c r="C15" s="372" t="str">
         <f>Данные!C23</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D15" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D15" s="399">
         <f>Данные!$B23</f>
         <v>20</v>
       </c>
-      <c r="E15" s="400">
+      <c r="E15" s="399">
         <v>20</v>
       </c>
-      <c r="F15" s="404"/>
-      <c r="G15" s="400">
+      <c r="F15" s="403"/>
+      <c r="G15" s="399">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H15" s="402"/>
-      <c r="I15" s="403"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="403"/>
-      <c r="L15" s="397"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="398">
+      <c r="H15" s="401"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="402"/>
+      <c r="K15" s="402"/>
+      <c r="L15" s="396"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="397">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="399" t="str">
+      <c r="B16" s="398" t="str">
         <f>Данные!A24</f>
         <v>Плита охлаждения</v>
       </c>
       <c r="C16" s="372" t="str">
         <f>Данные!C24</f>
-        <v>200CC OVAL FLASK</v>
-      </c>
-      <c r="D16" s="400">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D16" s="399">
         <f>Данные!$B24</f>
         <v>8</v>
       </c>
-      <c r="E16" s="400">
+      <c r="E16" s="399">
         <v>8</v>
       </c>
       <c r="F16" s="379"/>
-      <c r="G16" s="400">
+      <c r="G16" s="399">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H16" s="402"/>
-      <c r="I16" s="403"/>
-      <c r="J16" s="403"/>
-      <c r="K16" s="403"/>
-      <c r="L16" s="397"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="407">
+      <c r="H16" s="401"/>
+      <c r="I16" s="402"/>
+      <c r="J16" s="402"/>
+      <c r="K16" s="402"/>
+      <c r="L16" s="396"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="406">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="408" t="str">
+      <c r="B17" s="407" t="str">
         <f>Данные!A25</f>
         <v>Охладитель плунжера</v>
       </c>
-      <c r="C17" s="409">
+      <c r="C17" s="408" t="str">
         <f>Данные!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="410">
+        <v>Mytaya 0,5 L</v>
+      </c>
+      <c r="D17" s="409">
         <f>Данные!$B26</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="410">
+        <v>20</v>
+      </c>
+      <c r="E17" s="409">
         <v>18</v>
       </c>
-      <c r="F17" s="411"/>
-      <c r="G17" s="410">
+      <c r="F17" s="410"/>
+      <c r="G17" s="409">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H17" s="412"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="413"/>
-      <c r="K17" s="403"/>
-      <c r="L17" s="397"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="414"/>
-      <c r="B18" s="415"/>
+      <c r="H17" s="411"/>
+      <c r="I17" s="402"/>
+      <c r="J17" s="412"/>
+      <c r="K17" s="402"/>
+      <c r="L17" s="396"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="413"/>
+      <c r="B18" s="414"/>
       <c r="C18" s="383"/>
-      <c r="D18" s="416"/>
+      <c r="D18" s="415"/>
       <c r="E18" s="383"/>
       <c r="F18" s="383"/>
       <c r="G18" s="383"/>
@@ -9805,9 +10114,9 @@
       <c r="I18" s="383"/>
       <c r="J18" s="383"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="383"/>
-      <c r="B19" s="417" t="s">
+      <c r="B19" s="416" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="364"/>
@@ -9817,119 +10126,119 @@
       <c r="G19" s="383"/>
       <c r="H19" s="383"/>
       <c r="I19" s="383"/>
-      <c r="J19" s="418"/>
-      <c r="K19" s="418"/>
-      <c r="L19" s="418"/>
-    </row>
-    <row r="20" spans="1:12" ht="64.5" thickBot="1">
-      <c r="A20" s="387" t="s">
+      <c r="J19" s="417"/>
+      <c r="K19" s="417"/>
+      <c r="L19" s="417"/>
+    </row>
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="386" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="388" t="s">
+      <c r="B20" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="388" t="s">
+      <c r="C20" s="387" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="388" t="s">
+      <c r="D20" s="387" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="388" t="s">
+      <c r="E20" s="387" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="388" t="s">
+      <c r="F20" s="387" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="419" t="s">
+      <c r="G20" s="418" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="420" t="s">
+      <c r="H20" s="419" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="421" t="s">
+      <c r="I20" s="420" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="421" t="s">
+      <c r="J20" s="420" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="391"/>
-      <c r="L20" s="391"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="422">
+      <c r="K20" s="390"/>
+      <c r="L20" s="390"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="421">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="423">
+      <c r="B21" s="422">
         <v>43759</v>
       </c>
-      <c r="C21" s="424">
+      <c r="C21" s="423">
         <v>43765</v>
       </c>
-      <c r="D21" s="423">
+      <c r="D21" s="422">
         <v>43769</v>
       </c>
-      <c r="E21" s="425">
+      <c r="E21" s="424">
         <v>948096</v>
       </c>
-      <c r="F21" s="425">
+      <c r="F21" s="424">
         <v>1031915</v>
       </c>
-      <c r="G21" s="426">
+      <c r="G21" s="425">
         <f>F21/A$21</f>
         <v>6.1423511904761904E-2</v>
       </c>
-      <c r="H21" s="427">
+      <c r="H21" s="426">
         <f>A21-F21</f>
         <v>15768085</v>
       </c>
-      <c r="I21" s="428">
+      <c r="I21" s="427">
         <f>1-G21</f>
         <v>0.93857648809523808</v>
       </c>
-      <c r="J21" s="492"/>
-      <c r="K21" s="403"/>
-      <c r="L21" s="403"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="430"/>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="432"/>
-      <c r="G22" s="426">
+      <c r="J21" s="489"/>
+      <c r="K21" s="402"/>
+      <c r="L21" s="402"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="429"/>
+      <c r="B22" s="430"/>
+      <c r="C22" s="430"/>
+      <c r="D22" s="430"/>
+      <c r="E22" s="431"/>
+      <c r="F22" s="431"/>
+      <c r="G22" s="425">
         <f>F22/A$21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="433">
+      <c r="H22" s="432">
         <f>H21-F22</f>
         <v>15768085</v>
       </c>
-      <c r="I22" s="434">
+      <c r="I22" s="433">
         <f>I21-G22</f>
         <v>0.93857648809523808</v>
       </c>
-      <c r="J22" s="493"/>
+      <c r="J22" s="490"/>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="435"/>
-      <c r="B23" s="436"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="437"/>
-      <c r="F23" s="437"/>
-      <c r="G23" s="438"/>
-      <c r="H23" s="439"/>
-      <c r="I23" s="440"/>
-      <c r="J23" s="494"/>
-      <c r="K23" s="403"/>
-      <c r="L23" s="403"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="435"/>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="434"/>
+      <c r="B23" s="435"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="435"/>
+      <c r="E23" s="436"/>
+      <c r="F23" s="436"/>
+      <c r="G23" s="437"/>
+      <c r="H23" s="438"/>
+      <c r="I23" s="439"/>
+      <c r="J23" s="491"/>
+      <c r="K23" s="402"/>
+      <c r="L23" s="402"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="434"/>
       <c r="B24" s="375"/>
       <c r="C24" s="375"/>
       <c r="D24" s="375"/>
@@ -9937,141 +10246,141 @@
       <c r="F24" s="375"/>
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
-      <c r="I24" s="441"/>
-      <c r="J24" s="495"/>
-      <c r="K24" s="429"/>
+      <c r="I24" s="440"/>
+      <c r="J24" s="492"/>
+      <c r="K24" s="428"/>
       <c r="L24" s="383"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="435"/>
-      <c r="B25" s="436"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="436"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="439"/>
-      <c r="I25" s="440"/>
-      <c r="J25" s="494"/>
-      <c r="K25" s="443"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="434"/>
+      <c r="B25" s="435"/>
+      <c r="C25" s="435"/>
+      <c r="D25" s="435"/>
+      <c r="E25" s="436"/>
+      <c r="F25" s="436"/>
+      <c r="G25" s="441"/>
+      <c r="H25" s="438"/>
+      <c r="I25" s="439"/>
+      <c r="J25" s="491"/>
+      <c r="K25" s="442"/>
       <c r="L25" s="383"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="435"/>
-      <c r="B26" s="436"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="437"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="442"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="440"/>
-      <c r="J26" s="494"/>
-      <c r="K26" s="429"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="434"/>
+      <c r="B26" s="435"/>
+      <c r="C26" s="435"/>
+      <c r="D26" s="435"/>
+      <c r="E26" s="436"/>
+      <c r="F26" s="436"/>
+      <c r="G26" s="441"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="439"/>
+      <c r="J26" s="491"/>
+      <c r="K26" s="428"/>
       <c r="L26" s="383"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="435"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="436"/>
-      <c r="D27" s="436"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="437"/>
-      <c r="G27" s="442"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="440"/>
-      <c r="J27" s="494"/>
-      <c r="K27" s="429"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="434"/>
+      <c r="B27" s="435"/>
+      <c r="C27" s="435"/>
+      <c r="D27" s="435"/>
+      <c r="E27" s="438"/>
+      <c r="F27" s="436"/>
+      <c r="G27" s="441"/>
+      <c r="H27" s="438"/>
+      <c r="I27" s="439"/>
+      <c r="J27" s="491"/>
+      <c r="K27" s="428"/>
       <c r="L27" s="383"/>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="435"/>
-      <c r="B28" s="436"/>
-      <c r="C28" s="436"/>
-      <c r="D28" s="436"/>
-      <c r="E28" s="439"/>
-      <c r="F28" s="437"/>
-      <c r="G28" s="442"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="440"/>
-      <c r="J28" s="494"/>
-      <c r="K28" s="429"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="434"/>
+      <c r="B28" s="435"/>
+      <c r="C28" s="435"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="438"/>
+      <c r="F28" s="436"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="438"/>
+      <c r="I28" s="439"/>
+      <c r="J28" s="491"/>
+      <c r="K28" s="428"/>
       <c r="L28" s="383"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="435"/>
-      <c r="B29" s="436"/>
-      <c r="C29" s="436"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="434"/>
+      <c r="B29" s="435"/>
+      <c r="C29" s="435"/>
       <c r="D29" s="375"/>
       <c r="E29" s="375"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="444"/>
-      <c r="H29" s="439"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="496"/>
-      <c r="K29" s="429"/>
+      <c r="F29" s="436"/>
+      <c r="G29" s="443"/>
+      <c r="H29" s="438"/>
+      <c r="I29" s="444"/>
+      <c r="J29" s="493"/>
+      <c r="K29" s="428"/>
       <c r="L29" s="383"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="435"/>
-      <c r="B30" s="436"/>
-      <c r="C30" s="436"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="434"/>
+      <c r="B30" s="435"/>
+      <c r="C30" s="435"/>
       <c r="D30" s="375"/>
       <c r="E30" s="375"/>
-      <c r="F30" s="437"/>
-      <c r="G30" s="442"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="496"/>
-      <c r="K30" s="429"/>
+      <c r="F30" s="436"/>
+      <c r="G30" s="441"/>
+      <c r="H30" s="438"/>
+      <c r="I30" s="444"/>
+      <c r="J30" s="493"/>
+      <c r="K30" s="428"/>
       <c r="L30" s="383"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A31" s="446"/>
-      <c r="B31" s="447"/>
-      <c r="C31" s="447"/>
-      <c r="D31" s="448"/>
-      <c r="E31" s="448"/>
-      <c r="F31" s="449"/>
-      <c r="G31" s="450"/>
-      <c r="H31" s="451"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="497"/>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="445"/>
+      <c r="B31" s="446"/>
+      <c r="C31" s="446"/>
+      <c r="D31" s="447"/>
+      <c r="E31" s="447"/>
+      <c r="F31" s="448"/>
+      <c r="G31" s="449"/>
+      <c r="H31" s="450"/>
+      <c r="I31" s="451"/>
+      <c r="J31" s="494"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A32" s="453" t="s">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="452" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="454"/>
-      <c r="C32" s="454"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="456">
+      <c r="B32" s="453"/>
+      <c r="C32" s="453"/>
+      <c r="D32" s="454"/>
+      <c r="E32" s="654">
         <f>SUM(E21:E31)</f>
         <v>948096</v>
       </c>
-      <c r="F32" s="457">
+      <c r="F32" s="655">
         <f>SUM(F21:F31)</f>
         <v>1031915</v>
       </c>
-      <c r="G32" s="458">
+      <c r="G32" s="455">
         <f>SUM(G21:G31)</f>
         <v>6.1423511904761904E-2</v>
       </c>
-      <c r="H32" s="459">
+      <c r="H32" s="456">
         <f>A21-F32</f>
         <v>15768085</v>
       </c>
-      <c r="I32" s="460">
+      <c r="I32" s="457">
         <f>1-G32</f>
         <v>0.93857648809523808</v>
       </c>
-      <c r="J32" s="498"/>
-      <c r="K32" s="461"/>
-      <c r="L32" s="461"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="J32" s="495"/>
+      <c r="K32" s="458"/>
+      <c r="L32" s="458"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
       <c r="B35" s="383"/>
       <c r="C35" s="383"/>
@@ -10083,7 +10392,7 @@
       <c r="I35" s="383"/>
       <c r="J35" s="383"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="520" t="s">
         <v>128</v>
       </c>
@@ -10097,15 +10406,15 @@
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="521" t="s">
         <v>129</v>
       </c>
       <c r="B37" s="521"/>
-      <c r="C37" s="462" t="s">
+      <c r="C37" s="459" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="462" t="s">
+      <c r="D37" s="459" t="s">
         <v>131</v>
       </c>
       <c r="E37" s="383"/>
@@ -10115,30 +10424,30 @@
       <c r="I37" s="383"/>
       <c r="J37" s="383"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="522">
         <f>A21-F32</f>
         <v>15768085</v>
       </c>
       <c r="B38" s="523"/>
-      <c r="C38" s="463">
+      <c r="C38" s="460">
         <f>1-G32</f>
         <v>0.93857648809523808</v>
       </c>
-      <c r="D38" s="464">
+      <c r="D38" s="461">
         <f>(C38/0.8)*100</f>
         <v>117.32206101190474</v>
       </c>
-      <c r="E38" s="465" t="s">
+      <c r="E38" s="462" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="465"/>
-      <c r="G38" s="465"/>
-      <c r="H38" s="465"/>
-      <c r="I38" s="465"/>
-      <c r="J38" s="465"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="F38" s="462"/>
+      <c r="G38" s="462"/>
+      <c r="H38" s="462"/>
+      <c r="I38" s="462"/>
+      <c r="J38" s="462"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
       <c r="B39" s="383"/>
       <c r="C39" s="383"/>
@@ -10146,7 +10455,7 @@
       <c r="E39" s="383"/>
       <c r="F39" s="383"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="383"/>
       <c r="B40" s="383"/>
       <c r="C40" s="383"/>
@@ -10161,10 +10470,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="466"/>
-      <c r="C41" s="466"/>
+      <c r="B41" s="463"/>
+      <c r="C41" s="463"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10173,157 +10482,157 @@
       <c r="I41" s="383"/>
       <c r="J41" s="383"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="467"/>
-      <c r="B42" s="467"/>
-      <c r="C42" s="467"/>
-      <c r="D42" s="467"/>
-      <c r="E42" s="467"/>
-      <c r="F42" s="467"/>
-      <c r="G42" s="467"/>
-      <c r="H42" s="467"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="464"/>
+      <c r="B42" s="464"/>
+      <c r="C42" s="464"/>
+      <c r="D42" s="464"/>
+      <c r="E42" s="464"/>
+      <c r="F42" s="464"/>
+      <c r="G42" s="464"/>
+      <c r="H42" s="464"/>
       <c r="I42" s="524"/>
       <c r="J42" s="525"/>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="468"/>
-      <c r="B43" s="469"/>
-      <c r="C43" s="469"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="465"/>
+      <c r="B43" s="466"/>
+      <c r="C43" s="466"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="469"/>
-      <c r="G43" s="413"/>
-      <c r="H43" s="469"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="468"/>
-      <c r="B44" s="469"/>
-      <c r="C44" s="469"/>
-      <c r="D44" s="469"/>
-      <c r="E44" s="469"/>
-      <c r="F44" s="469"/>
-      <c r="G44" s="413"/>
-      <c r="H44" s="469"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="468"/>
-      <c r="B45" s="469"/>
-      <c r="C45" s="469"/>
+      <c r="F43" s="466"/>
+      <c r="G43" s="412"/>
+      <c r="H43" s="466"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="465"/>
+      <c r="B44" s="466"/>
+      <c r="C44" s="466"/>
+      <c r="D44" s="466"/>
+      <c r="E44" s="466"/>
+      <c r="F44" s="466"/>
+      <c r="G44" s="412"/>
+      <c r="H44" s="466"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="465"/>
+      <c r="B45" s="466"/>
+      <c r="C45" s="466"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="469"/>
-      <c r="G45" s="413"/>
-      <c r="H45" s="469"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="468"/>
-      <c r="B46" s="469"/>
-      <c r="C46" s="469"/>
-      <c r="D46" s="469"/>
-      <c r="E46" s="469"/>
-      <c r="F46" s="469"/>
-      <c r="G46" s="413"/>
-      <c r="H46" s="469"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="468"/>
-      <c r="B47" s="469"/>
-      <c r="C47" s="469"/>
+      <c r="F45" s="466"/>
+      <c r="G45" s="412"/>
+      <c r="H45" s="466"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="465"/>
+      <c r="B46" s="466"/>
+      <c r="C46" s="466"/>
+      <c r="D46" s="466"/>
+      <c r="E46" s="466"/>
+      <c r="F46" s="466"/>
+      <c r="G46" s="412"/>
+      <c r="H46" s="466"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="465"/>
+      <c r="B47" s="466"/>
+      <c r="C47" s="466"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="469"/>
-      <c r="G47" s="413"/>
-      <c r="H47" s="469"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="468"/>
-      <c r="B48" s="469"/>
-      <c r="C48" s="403"/>
-      <c r="D48" s="470"/>
-      <c r="E48" s="470"/>
-      <c r="F48" s="403"/>
-      <c r="G48" s="403"/>
-      <c r="H48" s="403"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="468"/>
-      <c r="B49" s="469"/>
-      <c r="C49" s="469"/>
-      <c r="D49" s="469"/>
-      <c r="E49" s="469"/>
-      <c r="F49" s="469"/>
-      <c r="G49" s="413"/>
-      <c r="H49" s="469"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="468"/>
-      <c r="B50" s="469"/>
-      <c r="C50" s="469"/>
-      <c r="D50" s="469"/>
-      <c r="E50" s="469"/>
-      <c r="F50" s="469"/>
-      <c r="G50" s="413"/>
-      <c r="H50" s="469"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="468"/>
-      <c r="B51" s="469"/>
-      <c r="C51" s="469"/>
+      <c r="F47" s="466"/>
+      <c r="G47" s="412"/>
+      <c r="H47" s="466"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="465"/>
+      <c r="B48" s="466"/>
+      <c r="C48" s="402"/>
+      <c r="D48" s="467"/>
+      <c r="E48" s="467"/>
+      <c r="F48" s="402"/>
+      <c r="G48" s="402"/>
+      <c r="H48" s="402"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="465"/>
+      <c r="B49" s="466"/>
+      <c r="C49" s="466"/>
+      <c r="D49" s="466"/>
+      <c r="E49" s="466"/>
+      <c r="F49" s="466"/>
+      <c r="G49" s="412"/>
+      <c r="H49" s="466"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="465"/>
+      <c r="B50" s="466"/>
+      <c r="C50" s="466"/>
+      <c r="D50" s="466"/>
+      <c r="E50" s="466"/>
+      <c r="F50" s="466"/>
+      <c r="G50" s="412"/>
+      <c r="H50" s="466"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="465"/>
+      <c r="B51" s="466"/>
+      <c r="C51" s="466"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="469"/>
-      <c r="G51" s="413"/>
-      <c r="H51" s="469"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75">
+      <c r="F51" s="466"/>
+      <c r="G51" s="412"/>
+      <c r="H51" s="466"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="517"/>
-      <c r="C52" s="517"/>
-      <c r="D52" s="518"/>
-      <c r="E52" s="465"/>
+      <c r="B52" s="518"/>
+      <c r="C52" s="518"/>
+      <c r="D52" s="519"/>
+      <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
       <c r="I52" s="383"/>
       <c r="J52" s="383"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="467"/>
-      <c r="B53" s="467"/>
-      <c r="C53" s="467"/>
-      <c r="D53" s="467"/>
-      <c r="E53" s="467"/>
-      <c r="F53" s="467"/>
-      <c r="G53" s="467"/>
-      <c r="H53" s="467"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="464"/>
+      <c r="B53" s="464"/>
+      <c r="C53" s="464"/>
+      <c r="D53" s="464"/>
+      <c r="E53" s="464"/>
+      <c r="F53" s="464"/>
+      <c r="G53" s="464"/>
+      <c r="H53" s="464"/>
       <c r="I53" s="524"/>
       <c r="J53" s="525"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="468"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="465"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
-      <c r="F54" s="413"/>
-      <c r="G54" s="413"/>
-      <c r="H54" s="469"/>
+      <c r="F54" s="412"/>
+      <c r="G54" s="412"/>
+      <c r="H54" s="466"/>
       <c r="I54" s="526"/>
       <c r="J54" s="526"/>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="468"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="465"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
-      <c r="D55" s="403"/>
-      <c r="E55" s="403"/>
-      <c r="F55" s="403"/>
-      <c r="G55" s="403"/>
-      <c r="H55" s="403"/>
+      <c r="D55" s="402"/>
+      <c r="E55" s="402"/>
+      <c r="F55" s="402"/>
+      <c r="G55" s="402"/>
+      <c r="H55" s="402"/>
       <c r="I55" s="526"/>
       <c r="J55" s="526"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
       <c r="B56" s="383"/>
       <c r="C56" s="383"/>
@@ -10333,23 +10642,22 @@
       <c r="G56" s="383"/>
       <c r="H56" s="383"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61" s="524"/>
       <c r="C61" s="525"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="524"/>
       <c r="C68" s="525"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -10357,7 +10665,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10365,14 +10673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:J35"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="300"/>
     <col min="4" max="4" width="8" style="300" customWidth="1"/>
@@ -10384,7 +10692,7 @@
     <col min="10" max="16384" width="9.140625" style="300"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.25">
+    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="309" t="s">
         <v>58</v>
       </c>
@@ -10393,7 +10701,7 @@
       <c r="J2" s="310"/>
       <c r="K2" s="310"/>
     </row>
-    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25">
+    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
         <v>101</v>
       </c>
@@ -10402,7 +10710,7 @@
       <c r="J3" s="310"/>
       <c r="K3" s="310"/>
     </row>
-    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25">
+    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="309" t="s">
         <v>104</v>
       </c>
@@ -10411,8 +10719,8 @@
       <c r="J4" s="310"/>
       <c r="K4" s="310"/>
     </row>
-    <row r="5" spans="1:11" s="359" customFormat="1"/>
-    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25">
+    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
         <v>102</v>
@@ -10420,12 +10728,12 @@
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
     </row>
-    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.25">
+    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="310"/>
       <c r="I7" s="310"/>
       <c r="J7" s="310"/>
     </row>
-    <row r="8" spans="1:11" s="359" customFormat="1" ht="18.75">
+    <row r="8" spans="1:11" s="359" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="303" t="s">
         <v>59</v>
       </c>
@@ -10435,7 +10743,7 @@
       </c>
       <c r="J8" s="310"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="528" t="s">
         <v>64</v>
       </c>
@@ -10449,7 +10757,7 @@
       <c r="I11" s="528"/>
       <c r="J11" s="528"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="527" t="s">
         <v>74</v>
       </c>
@@ -10463,10 +10771,10 @@
       <c r="I12" s="527"/>
       <c r="J12" s="527"/>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="529" t="str">
         <f>Данные!A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="B13" s="528"/>
       <c r="C13" s="528"/>
@@ -10478,7 +10786,7 @@
       <c r="I13" s="528"/>
       <c r="J13" s="528"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
         <v>60</v>
       </c>
@@ -10490,12 +10798,12 @@
       <c r="G15" s="305"/>
       <c r="H15" s="306">
         <f>Данные!D11</f>
-        <v>43931</v>
+        <v>43979</v>
       </c>
       <c r="I15" s="304"/>
       <c r="J15" s="305"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="304" t="s">
         <v>95</v>
       </c>
@@ -10509,7 +10817,7 @@
       <c r="I16" s="304"/>
       <c r="J16" s="305"/>
     </row>
-    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.75">
+    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="312" t="s">
         <v>61</v>
       </c>
@@ -10530,7 +10838,7 @@
       </c>
       <c r="J17" s="305"/>
     </row>
-    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.75">
+    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="312" t="s">
         <v>61</v>
       </c>
@@ -10551,7 +10859,7 @@
       </c>
       <c r="J18" s="305"/>
     </row>
-    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.75">
+    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="313"/>
       <c r="B19" s="313"/>
       <c r="C19" s="313"/>
@@ -10569,7 +10877,7 @@
       </c>
       <c r="J19" s="305"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="304" t="s">
         <v>75</v>
       </c>
@@ -10582,11 +10890,11 @@
       <c r="H20" s="304"/>
       <c r="I20" s="306">
         <f>H15</f>
-        <v>43931</v>
+        <v>43979</v>
       </c>
       <c r="J20" s="305"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="304" t="s">
         <v>76</v>
       </c>
@@ -10600,7 +10908,7 @@
       <c r="I21" s="304"/>
       <c r="J21" s="305"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="533" t="s">
         <v>65</v>
       </c>
@@ -10622,7 +10930,7 @@
       <c r="I22" s="533"/>
       <c r="J22" s="533"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="533"/>
       <c r="B23" s="533"/>
       <c r="C23" s="533"/>
@@ -10634,7 +10942,7 @@
       <c r="I23" s="533"/>
       <c r="J23" s="533"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="534">
         <v>1</v>
       </c>
@@ -10645,7 +10953,7 @@
       <c r="D24" s="550"/>
       <c r="E24" s="536" t="str">
         <f>Данные!C14</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F24" s="537"/>
       <c r="G24" s="540">
@@ -10656,11 +10964,11 @@
       <c r="I24" s="543"/>
       <c r="J24" s="544"/>
     </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1">
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="535"/>
       <c r="B25" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C25" s="531"/>
       <c r="D25" s="532"/>
@@ -10671,7 +10979,7 @@
       <c r="I25" s="546"/>
       <c r="J25" s="547"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="534">
         <f>A24+1</f>
         <v>2</v>
@@ -10683,7 +10991,7 @@
       <c r="D26" s="554"/>
       <c r="E26" s="536" t="str">
         <f>Данные!C15</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F26" s="537"/>
       <c r="G26" s="540">
@@ -10694,11 +11002,11 @@
       <c r="I26" s="543"/>
       <c r="J26" s="544"/>
     </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1">
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="535"/>
       <c r="B27" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C27" s="531"/>
       <c r="D27" s="532"/>
@@ -10709,7 +11017,7 @@
       <c r="I27" s="546"/>
       <c r="J27" s="547"/>
     </row>
-    <row r="28" spans="1:10" ht="14.45" customHeight="1">
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="534">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
@@ -10721,24 +11029,24 @@
       <c r="D28" s="554"/>
       <c r="E28" s="536" t="str">
         <f>Данные!C16</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F28" s="537"/>
       <c r="G28" s="540">
         <f>Данные!B16</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H28" s="542" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I28" s="543"/>
       <c r="J28" s="544"/>
     </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1">
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="535"/>
       <c r="B29" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C29" s="531"/>
       <c r="D29" s="532"/>
@@ -10749,7 +11057,7 @@
       <c r="I29" s="546"/>
       <c r="J29" s="547"/>
     </row>
-    <row r="30" spans="1:10" ht="14.45" customHeight="1">
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="534">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
@@ -10761,7 +11069,7 @@
       <c r="D30" s="554"/>
       <c r="E30" s="536" t="str">
         <f>Данные!C17</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F30" s="537"/>
       <c r="G30" s="540">
@@ -10772,11 +11080,11 @@
       <c r="I30" s="543"/>
       <c r="J30" s="544"/>
     </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1">
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="535"/>
       <c r="B31" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C31" s="531"/>
       <c r="D31" s="532"/>
@@ -10787,7 +11095,7 @@
       <c r="I31" s="546"/>
       <c r="J31" s="547"/>
     </row>
-    <row r="32" spans="1:10" ht="14.45" customHeight="1">
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="534">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
@@ -10799,22 +11107,22 @@
       <c r="D32" s="554"/>
       <c r="E32" s="536" t="str">
         <f>Данные!C18</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F32" s="537"/>
       <c r="G32" s="540">
         <f>Данные!B18</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H32" s="542"/>
       <c r="I32" s="543"/>
       <c r="J32" s="544"/>
     </row>
-    <row r="33" spans="1:10" ht="40.15" customHeight="1">
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="535"/>
       <c r="B33" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C33" s="531"/>
       <c r="D33" s="532"/>
@@ -10825,7 +11133,7 @@
       <c r="I33" s="546"/>
       <c r="J33" s="547"/>
     </row>
-    <row r="34" spans="1:10" ht="14.45" customHeight="1">
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="534">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
@@ -10837,22 +11145,22 @@
       <c r="D34" s="554"/>
       <c r="E34" s="536" t="str">
         <f>Данные!C19</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F34" s="537"/>
       <c r="G34" s="540">
         <f>Данные!B19</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H34" s="542"/>
       <c r="I34" s="543"/>
       <c r="J34" s="544"/>
     </row>
-    <row r="35" spans="1:10" ht="40.15" customHeight="1">
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="535"/>
       <c r="B35" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C35" s="531"/>
       <c r="D35" s="532"/>
@@ -10863,7 +11171,7 @@
       <c r="I35" s="546"/>
       <c r="J35" s="547"/>
     </row>
-    <row r="36" spans="1:10" ht="14.45" customHeight="1">
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="534">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
@@ -10875,7 +11183,7 @@
       <c r="D36" s="554"/>
       <c r="E36" s="536" t="str">
         <f>Данные!C20</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F36" s="537"/>
       <c r="G36" s="540">
@@ -10886,11 +11194,11 @@
       <c r="I36" s="543"/>
       <c r="J36" s="544"/>
     </row>
-    <row r="37" spans="1:10" ht="40.15" customHeight="1">
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="535"/>
       <c r="B37" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C37" s="531"/>
       <c r="D37" s="532"/>
@@ -10901,7 +11209,7 @@
       <c r="I37" s="546"/>
       <c r="J37" s="547"/>
     </row>
-    <row r="38" spans="1:10" ht="14.45" customHeight="1">
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="534">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
@@ -10911,24 +11219,24 @@
       </c>
       <c r="C38" s="553"/>
       <c r="D38" s="554"/>
-      <c r="E38" s="536">
+      <c r="E38" s="536" t="str">
         <f>Данные!C21</f>
-        <v>0</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F38" s="537"/>
       <c r="G38" s="540">
         <f>Данные!B21</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H38" s="542"/>
       <c r="I38" s="543"/>
       <c r="J38" s="544"/>
     </row>
-    <row r="39" spans="1:10" ht="40.15" customHeight="1">
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="535"/>
       <c r="B39" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C39" s="531"/>
       <c r="D39" s="532"/>
@@ -10939,7 +11247,7 @@
       <c r="I39" s="546"/>
       <c r="J39" s="547"/>
     </row>
-    <row r="40" spans="1:10" ht="14.45" customHeight="1">
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="534">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
@@ -10951,7 +11259,7 @@
       <c r="D40" s="554"/>
       <c r="E40" s="536" t="str">
         <f>Данные!C23</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F40" s="537"/>
       <c r="G40" s="540">
@@ -10962,11 +11270,11 @@
       <c r="I40" s="543"/>
       <c r="J40" s="544"/>
     </row>
-    <row r="41" spans="1:10" ht="40.15" customHeight="1">
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="535"/>
       <c r="B41" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C41" s="531"/>
       <c r="D41" s="532"/>
@@ -10977,7 +11285,7 @@
       <c r="I41" s="546"/>
       <c r="J41" s="547"/>
     </row>
-    <row r="42" spans="1:10" ht="14.45" customHeight="1">
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="534">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
@@ -10987,24 +11295,24 @@
       </c>
       <c r="C42" s="553"/>
       <c r="D42" s="554"/>
-      <c r="E42" s="536">
+      <c r="E42" s="536" t="str">
         <f>Данные!C26</f>
-        <v>0</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F42" s="537"/>
       <c r="G42" s="540">
         <f>Данные!B26</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H42" s="542"/>
       <c r="I42" s="543"/>
       <c r="J42" s="544"/>
     </row>
-    <row r="43" spans="1:10" ht="40.15" customHeight="1">
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="535"/>
       <c r="B43" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C43" s="531"/>
       <c r="D43" s="532"/>
@@ -11015,7 +11323,7 @@
       <c r="I43" s="546"/>
       <c r="J43" s="547"/>
     </row>
-    <row r="44" spans="1:10" ht="14.45" customHeight="1">
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="534">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
@@ -11025,24 +11333,24 @@
       </c>
       <c r="C44" s="553"/>
       <c r="D44" s="554"/>
-      <c r="E44" s="536">
+      <c r="E44" s="536" t="str">
         <f>Данные!C27</f>
-        <v>0</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F44" s="537"/>
       <c r="G44" s="540">
         <f>Данные!B27</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H44" s="542"/>
       <c r="I44" s="543"/>
       <c r="J44" s="544"/>
     </row>
-    <row r="45" spans="1:10" ht="40.15" customHeight="1">
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="535"/>
       <c r="B45" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C45" s="531"/>
       <c r="D45" s="532"/>
@@ -11053,7 +11361,7 @@
       <c r="I45" s="546"/>
       <c r="J45" s="547"/>
     </row>
-    <row r="46" spans="1:10" ht="14.45" customHeight="1">
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="534">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
@@ -11065,7 +11373,7 @@
       <c r="D46" s="554"/>
       <c r="E46" s="536" t="str">
         <f>Данные!C24</f>
-        <v>200CC OVAL FLASK</v>
+        <v>Mytaya 0,5 L</v>
       </c>
       <c r="F46" s="537"/>
       <c r="G46" s="540">
@@ -11076,11 +11384,11 @@
       <c r="I46" s="543"/>
       <c r="J46" s="544"/>
     </row>
-    <row r="47" spans="1:10" ht="40.15" customHeight="1">
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="535"/>
       <c r="B47" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
+        <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
       <c r="C47" s="531"/>
       <c r="D47" s="532"/>
@@ -11091,7 +11399,7 @@
       <c r="I47" s="546"/>
       <c r="J47" s="547"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
       <c r="B48" s="304"/>
       <c r="C48" s="304"/>
@@ -11103,7 +11411,7 @@
       <c r="I48" s="304"/>
       <c r="J48" s="305"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="304" t="s">
         <v>71</v>
       </c>
@@ -11117,7 +11425,7 @@
       <c r="I49" s="304"/>
       <c r="J49" s="305"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="304"/>
       <c r="B50" s="304"/>
       <c r="C50" s="304"/>
@@ -11129,7 +11437,7 @@
       <c r="I50" s="304"/>
       <c r="J50" s="305"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="304"/>
       <c r="B51" s="307" t="s">
         <v>72</v>
@@ -11145,7 +11453,7 @@
       <c r="I51" s="304"/>
       <c r="J51" s="305"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="304"/>
       <c r="B52" s="304"/>
       <c r="C52" s="304"/>
@@ -11157,7 +11465,7 @@
       <c r="I52" s="304"/>
       <c r="J52" s="305"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="304"/>
       <c r="B53" s="304"/>
       <c r="C53" s="304"/>
@@ -11171,7 +11479,7 @@
       </c>
       <c r="J53" s="304"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="304"/>
       <c r="B54" s="304"/>
       <c r="C54" s="304"/>
@@ -11182,7 +11490,7 @@
       <c r="I54" s="304"/>
       <c r="J54" s="304"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="304"/>
       <c r="B55" s="304"/>
       <c r="C55" s="304"/>
@@ -11195,14 +11503,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="301"/>
       <c r="B56" s="301"/>
       <c r="C56" s="301"/>
       <c r="D56" s="301"/>
       <c r="E56" s="301"/>
     </row>
-    <row r="57" spans="1:10" ht="18">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="301"/>
       <c r="B57" s="301"/>
       <c r="C57" s="301"/>
@@ -11306,7 +11614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11316,7 +11624,7 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
@@ -11329,7 +11637,7 @@
     <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11350,7 +11658,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="570"/>
       <c r="C2" s="571"/>
@@ -11378,7 +11686,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="24" thickBot="1">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="573"/>
       <c r="C3" s="574"/>
@@ -11401,7 +11709,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="24" thickBot="1">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="576"/>
       <c r="C4" s="577"/>
@@ -11422,24 +11730,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="598"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="559"/>
       <c r="J5" s="560"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="K5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11448,15 +11756,15 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="599"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -11464,8 +11772,8 @@
       <c r="H6" s="601"/>
       <c r="I6" s="559"/>
       <c r="J6" s="560"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="K6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11474,13 +11782,13 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="562"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -11492,11 +11800,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="565"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11505,7 +11813,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11526,7 +11834,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11559,7 +11867,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11592,7 +11900,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -11625,7 +11933,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -11658,7 +11966,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -11691,7 +11999,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11724,7 +12032,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -11757,7 +12065,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -11790,7 +12098,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -11821,7 +12129,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="33.75">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -11852,7 +12160,7 @@
       <c r="R18" s="324"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -11885,13 +12193,13 @@
       <c r="R19" s="324"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D20" s="104">
         <v>0.05</v>
@@ -11918,7 +12226,7 @@
       <c r="R20" s="324"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -11951,13 +12259,13 @@
       <c r="R21" s="324"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.15" customHeight="1">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="353" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D22" s="104">
         <v>0.02</v>
@@ -11984,7 +12292,7 @@
       <c r="R22" s="324"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="15">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="556" t="s">
         <v>57</v>
@@ -12011,7 +12319,7 @@
       <c r="R23" s="324"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="594" t="s">
         <v>45</v>
@@ -12038,7 +12346,7 @@
       <c r="R24" s="326"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -12059,19 +12367,19 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="27" spans="1:19">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K27" s="569" t="s">
         <v>136</v>
       </c>
       <c r="L27" s="569"/>
       <c r="M27" s="569"/>
-      <c r="N27" s="475"/>
-      <c r="O27" s="475"/>
-      <c r="P27" s="491"/>
-      <c r="Q27" s="491"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="N27" s="472"/>
+      <c r="O27" s="472"/>
+      <c r="P27" s="488"/>
+      <c r="Q27" s="488"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N28" s="566" t="s">
         <v>140</v>
       </c>
@@ -12125,17 +12433,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="B15" sqref="B15:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
@@ -12148,7 +12456,7 @@
     <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12169,7 +12477,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="605">
         <f>'Чист. форма'!B2:D4</f>
@@ -12200,7 +12508,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="608"/>
       <c r="C3" s="609"/>
@@ -12223,7 +12531,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="611"/>
       <c r="C4" s="612"/>
@@ -12244,24 +12552,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="628"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="629"/>
       <c r="J5" s="630"/>
       <c r="K5" s="631"/>
-      <c r="L5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12270,15 +12578,15 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="628"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -12287,7 +12595,7 @@
       <c r="I6" s="629"/>
       <c r="J6" s="630"/>
       <c r="K6" s="631"/>
-      <c r="L6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12296,13 +12604,13 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="632"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -12314,11 +12622,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="632"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12327,7 +12635,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12348,7 +12656,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12381,7 +12689,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="33.75">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12412,7 +12720,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -12445,7 +12753,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -12476,7 +12784,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -12507,7 +12815,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="603" t="s">
         <v>135</v>
@@ -12534,7 +12842,7 @@
       <c r="R14" s="324"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="556" t="s">
         <v>142</v>
@@ -12559,7 +12867,7 @@
       <c r="R15" s="324"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="594" t="s">
         <v>45</v>
@@ -12586,7 +12894,7 @@
       <c r="R16" s="326"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -12607,23 +12915,23 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
       <c r="L19" s="569" t="s">
         <v>136</v>
       </c>
       <c r="M19" s="569"/>
       <c r="N19" s="569"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O20" s="566" t="s">
         <v>140</v>
       </c>
@@ -12686,7 +12994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12696,7 +13004,7 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
@@ -12709,7 +13017,7 @@
     <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12730,7 +13038,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="570"/>
       <c r="C2" s="571"/>
@@ -12747,7 +13055,7 @@
       <c r="J2" s="587"/>
       <c r="K2" s="590">
         <f>Данные!B16</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" s="591"/>
       <c r="M2" s="66"/>
@@ -12758,7 +13066,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="573"/>
       <c r="C3" s="574"/>
@@ -12781,7 +13089,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="576"/>
       <c r="C4" s="577"/>
@@ -12802,24 +13110,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="598"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="559"/>
       <c r="J5" s="560"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="K5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12828,15 +13136,15 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="599"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -12844,8 +13152,8 @@
       <c r="H6" s="601"/>
       <c r="I6" s="559"/>
       <c r="J6" s="560"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="K6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12854,13 +13162,13 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="562"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -12872,11 +13180,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="565"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12885,7 +13193,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12906,7 +13214,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="34.5" thickBot="1">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12942,7 +13250,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12978,7 +13286,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -13014,7 +13322,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -13050,7 +13358,7 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
@@ -13086,7 +13394,7 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
@@ -13122,7 +13430,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -13158,7 +13466,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -13194,7 +13502,7 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
@@ -13230,13 +13538,13 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D18" s="104">
         <v>0.05</v>
@@ -13266,7 +13574,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="33.75">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13300,7 +13608,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="34.5" thickBot="1">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -13333,7 +13641,7 @@
       <c r="R20" s="326"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.5" thickBot="1">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -13354,19 +13662,19 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="23" spans="1:24">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L23" s="634" t="s">
         <v>136</v>
       </c>
       <c r="M23" s="634"/>
       <c r="N23" s="634"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="O23" s="472"/>
+      <c r="P23" s="472"/>
+      <c r="Q23" s="488"/>
+      <c r="R23" s="488"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="O24" s="566" t="s">
         <v>140</v>
       </c>
@@ -13420,7 +13728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13430,7 +13738,7 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
@@ -13443,7 +13751,7 @@
     <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13464,7 +13772,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="570"/>
       <c r="C2" s="571"/>
@@ -13492,7 +13800,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="573"/>
       <c r="C3" s="574"/>
@@ -13515,7 +13823,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="576"/>
       <c r="C4" s="577"/>
@@ -13536,24 +13844,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="598"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="559"/>
       <c r="J5" s="560"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="K5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13562,15 +13870,15 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="599"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -13578,8 +13886,8 @@
       <c r="H6" s="601"/>
       <c r="I6" s="559"/>
       <c r="J6" s="560"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="K6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13588,13 +13896,13 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="562"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -13606,11 +13914,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="565"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13619,7 +13927,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13640,7 +13948,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13673,13 +13981,13 @@
       <c r="R9" s="328"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="34.5" thickBot="1">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="377" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -13706,7 +14014,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13739,7 +14047,7 @@
       <c r="R11" s="330"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13772,7 +14080,7 @@
       <c r="R12" s="330"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13805,7 +14113,7 @@
       <c r="R13" s="330"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13838,7 +14146,7 @@
       <c r="R14" s="330"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13871,7 +14179,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13892,19 +14200,19 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="18" spans="12:18">
+    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L18" s="634" t="s">
         <v>136</v>
       </c>
       <c r="M18" s="634"/>
       <c r="N18" s="634"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
-    </row>
-    <row r="19" spans="12:18">
+      <c r="O18" s="472"/>
+      <c r="P18" s="472"/>
+      <c r="Q18" s="488"/>
+      <c r="R18" s="488"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
       <c r="O19" s="566" t="s">
         <v>140</v>
       </c>
@@ -13959,20 +14267,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
@@ -13985,7 +14293,7 @@
     <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14006,7 +14314,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="605"/>
       <c r="C2" s="606"/>
@@ -14023,7 +14331,7 @@
       <c r="J2" s="621"/>
       <c r="K2" s="624">
         <f>Данные!B18</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L2" s="625"/>
       <c r="M2" s="636"/>
@@ -14034,7 +14342,7 @@
       <c r="R2" s="638"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="608"/>
       <c r="C3" s="609"/>
@@ -14057,7 +14365,7 @@
       <c r="R3" s="641"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="611"/>
       <c r="C4" s="612"/>
@@ -14078,24 +14386,24 @@
       <c r="R4" s="641"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="628"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="629"/>
       <c r="J5" s="630"/>
       <c r="K5" s="631"/>
-      <c r="L5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="639"/>
       <c r="N5" s="640"/>
       <c r="O5" s="640"/>
@@ -14104,15 +14412,15 @@
       <c r="R5" s="641"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="628"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -14121,7 +14429,7 @@
       <c r="I6" s="629"/>
       <c r="J6" s="630"/>
       <c r="K6" s="631"/>
-      <c r="L6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="639"/>
       <c r="N6" s="640"/>
       <c r="O6" s="640"/>
@@ -14130,13 +14438,13 @@
       <c r="R6" s="641"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="632"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -14148,11 +14456,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="632"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="639"/>
       <c r="N7" s="640"/>
       <c r="O7" s="640"/>
@@ -14161,7 +14469,7 @@
       <c r="R7" s="641"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14182,7 +14490,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14215,7 +14523,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.2" customHeight="1">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -14248,7 +14556,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.2" customHeight="1">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -14281,7 +14589,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.2" customHeight="1">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -14314,40 +14622,40 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="33.75">
-      <c r="A13" s="476"/>
-      <c r="B13" s="477" t="s">
+    <row r="13" spans="1:19" s="483" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="473"/>
+      <c r="B13" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="478">
+      <c r="C13" s="475">
         <v>38.1</v>
       </c>
-      <c r="D13" s="479">
+      <c r="D13" s="476">
         <v>0.03</v>
       </c>
-      <c r="E13" s="479">
+      <c r="E13" s="476">
         <v>0</v>
       </c>
-      <c r="F13" s="480" t="s">
+      <c r="F13" s="477" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="481"/>
-      <c r="I13" s="482"/>
-      <c r="J13" s="482"/>
-      <c r="K13" s="482"/>
-      <c r="L13" s="482"/>
-      <c r="M13" s="483"/>
-      <c r="N13" s="483"/>
-      <c r="O13" s="483"/>
-      <c r="P13" s="483"/>
-      <c r="Q13" s="483"/>
-      <c r="R13" s="484"/>
-      <c r="S13" s="485"/>
-    </row>
-    <row r="14" spans="1:19" ht="33.75">
+      <c r="H13" s="478"/>
+      <c r="I13" s="479"/>
+      <c r="J13" s="479"/>
+      <c r="K13" s="479"/>
+      <c r="L13" s="479"/>
+      <c r="M13" s="480"/>
+      <c r="N13" s="480"/>
+      <c r="O13" s="480"/>
+      <c r="P13" s="480"/>
+      <c r="Q13" s="480"/>
+      <c r="R13" s="481"/>
+      <c r="S13" s="482"/>
+    </row>
+    <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -14380,7 +14688,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.2" customHeight="1">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
@@ -14413,7 +14721,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.2" customHeight="1">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
@@ -14446,7 +14754,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.2" customHeight="1">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
@@ -14479,7 +14787,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="33.75">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
@@ -14512,7 +14820,7 @@
       <c r="R18" s="322"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="30.6" customHeight="1">
+    <row r="19" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
         <v>41</v>
@@ -14537,7 +14845,7 @@
       <c r="R19" s="322"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.2" customHeight="1">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="96" t="s">
         <v>35</v>
@@ -14570,7 +14878,7 @@
       <c r="R20" s="322"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="34.5" thickBot="1">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="594" t="s">
         <v>48</v>
@@ -14597,7 +14905,7 @@
       <c r="R21" s="326"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="108"/>
       <c r="B22" s="109"/>
       <c r="C22" s="109"/>
@@ -14618,21 +14926,21 @@
       <c r="R22" s="111"/>
       <c r="S22" s="112"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="121"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L24" s="634" t="s">
         <v>136</v>
       </c>
       <c r="M24" s="634"/>
       <c r="N24" s="634"/>
-      <c r="O24" s="475"/>
-      <c r="P24" s="475"/>
-      <c r="Q24" s="491"/>
-      <c r="R24" s="491"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="O24" s="472"/>
+      <c r="P24" s="472"/>
+      <c r="Q24" s="488"/>
+      <c r="R24" s="488"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O25" s="566" t="s">
         <v>140</v>
       </c>
@@ -14685,17 +14993,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
@@ -14707,7 +15015,7 @@
     <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14728,7 +15036,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="605"/>
       <c r="C2" s="606"/>
@@ -14745,7 +15053,7 @@
       <c r="J2" s="621"/>
       <c r="K2" s="624">
         <f>Данные!B19</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L2" s="625"/>
       <c r="M2" s="66"/>
@@ -14756,7 +15064,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="608"/>
       <c r="C3" s="609"/>
@@ -14779,7 +15087,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="611"/>
       <c r="C4" s="612"/>
@@ -14800,24 +15108,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="597" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="628"/>
-      <c r="D5" s="509" t="str">
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
       <c r="I5" s="629"/>
       <c r="J5" s="630"/>
       <c r="K5" s="631"/>
-      <c r="L5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14826,15 +15134,15 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="597" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="628"/>
-      <c r="D6" s="503" t="str">
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
+        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
       <c r="E6" s="600"/>
       <c r="F6" s="600"/>
@@ -14843,7 +15151,7 @@
       <c r="I6" s="629"/>
       <c r="J6" s="630"/>
       <c r="K6" s="631"/>
-      <c r="L6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14852,13 +15160,13 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="561" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="632"/>
-      <c r="D7" s="512">
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -14870,11 +15178,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="632"/>
-      <c r="K7" s="500">
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14883,7 +15191,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14904,7 +15212,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="34.5" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14937,7 +15245,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="45">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="127" t="s">
         <v>26</v>
@@ -14970,7 +15278,7 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="127" t="s">
         <v>2</v>
@@ -15003,40 +15311,40 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A12" s="476"/>
-      <c r="B12" s="487" t="s">
+    <row r="12" spans="1:19" s="483" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="473"/>
+      <c r="B12" s="484" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="488">
+      <c r="C12" s="485">
         <v>28.6</v>
       </c>
-      <c r="D12" s="482">
+      <c r="D12" s="479">
         <v>0</v>
       </c>
-      <c r="E12" s="482">
+      <c r="E12" s="479">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="480" t="s">
+      <c r="F12" s="477" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="489"/>
-      <c r="I12" s="482"/>
-      <c r="J12" s="482"/>
-      <c r="K12" s="482"/>
-      <c r="L12" s="482"/>
-      <c r="M12" s="482"/>
-      <c r="N12" s="482"/>
-      <c r="O12" s="482"/>
-      <c r="P12" s="482"/>
-      <c r="Q12" s="482"/>
-      <c r="R12" s="490"/>
-      <c r="S12" s="485"/>
-    </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+      <c r="H12" s="486"/>
+      <c r="I12" s="479"/>
+      <c r="J12" s="479"/>
+      <c r="K12" s="479"/>
+      <c r="L12" s="479"/>
+      <c r="M12" s="479"/>
+      <c r="N12" s="479"/>
+      <c r="O12" s="479"/>
+      <c r="P12" s="479"/>
+      <c r="Q12" s="479"/>
+      <c r="R12" s="487"/>
+      <c r="S12" s="482"/>
+    </row>
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
@@ -15069,7 +15377,7 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="127" t="s">
         <v>9</v>
@@ -15102,7 +15410,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="127" t="s">
         <v>5</v>
@@ -15135,7 +15443,7 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="594" t="s">
         <v>50</v>
@@ -15162,7 +15470,7 @@
       <c r="R16" s="120"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="126"/>
       <c r="C17" s="125"/>
@@ -15183,21 +15491,21 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L19" s="634" t="s">
         <v>136</v>
       </c>
       <c r="M19" s="634"/>
       <c r="N19" s="634"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O20" s="566" t="s">
         <v>140</v>
       </c>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03847AA5-8DC8-4D8B-931D-CDD40FEA579F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0724B7B-7204-4C95-99FD-0C2D879B908A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="158">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t xml:space="preserve"> (c остаточным ресурсом 100 %)</t>
+  </si>
+  <si>
+    <t>Сопряжение с воронкой</t>
+  </si>
+  <si>
+    <t>Сопряжение с поддоном</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2239,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="656">
+  <cellXfs count="657">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3669,6 +3675,18 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3713,11 +3731,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3733,10 +3750,74 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3747,60 +3828,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3810,29 +3837,104 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3840,6 +3942,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3855,110 +3971,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3968,93 +4067,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4085,6 +4097,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4094,12 +4109,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4112,14 +4127,8 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6817,7 +6826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
@@ -6830,25 +6839,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="503" t="s">
+      <c r="A1" s="507" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
+      <c r="B1" s="511"/>
+      <c r="C1" s="511"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="504" t="s">
+      <c r="A2" s="508" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="505"/>
-      <c r="C2" s="505"/>
-      <c r="D2" s="505"/>
-      <c r="E2" s="506"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="510"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6859,45 +6868,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="508" t="s">
+      <c r="A4" s="512" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="509"/>
-      <c r="C4" s="509"/>
-      <c r="D4" s="509"/>
-      <c r="E4" s="509"/>
+      <c r="B4" s="513"/>
+      <c r="C4" s="513"/>
+      <c r="D4" s="513"/>
+      <c r="E4" s="513"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="510" t="s">
+      <c r="A5" s="514" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="511"/>
-      <c r="C5" s="511"/>
-      <c r="D5" s="511"/>
-      <c r="E5" s="512"/>
+      <c r="B5" s="515"/>
+      <c r="C5" s="515"/>
+      <c r="D5" s="515"/>
+      <c r="E5" s="516"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="503" t="s">
+      <c r="A7" s="507" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="507"/>
-      <c r="C7" s="507"/>
-      <c r="D7" s="507"/>
-      <c r="E7" s="507"/>
+      <c r="B7" s="511"/>
+      <c r="C7" s="511"/>
+      <c r="D7" s="511"/>
+      <c r="E7" s="511"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="513"/>
-      <c r="B8" s="514"/>
-      <c r="C8" s="514"/>
-      <c r="D8" s="514"/>
-      <c r="E8" s="515"/>
+      <c r="A8" s="517"/>
+      <c r="B8" s="518"/>
+      <c r="C8" s="518"/>
+      <c r="D8" s="518"/>
+      <c r="E8" s="519"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="503" t="s">
+      <c r="A10" s="507" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="503"/>
+      <c r="B10" s="507"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6908,33 +6917,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="501"/>
-      <c r="B11" s="502"/>
+      <c r="A11" s="505"/>
+      <c r="B11" s="506"/>
       <c r="D11" s="369">
         <v>43979</v>
       </c>
-      <c r="F11" s="516" t="s">
+      <c r="F11" s="502" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="516"/>
-      <c r="H11" s="516"/>
-      <c r="I11" s="516"/>
-      <c r="J11" s="517" t="s">
+      <c r="G11" s="502"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="502"/>
+      <c r="J11" s="503" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="517"/>
+      <c r="K11" s="503"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="516" t="s">
+      <c r="F12" s="502" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="516"/>
-      <c r="H12" s="516"/>
-      <c r="I12" s="516"/>
-      <c r="J12" s="517" t="s">
+      <c r="G12" s="502"/>
+      <c r="H12" s="502"/>
+      <c r="I12" s="502"/>
+      <c r="J12" s="503" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="517"/>
+      <c r="K12" s="503"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6952,16 +6961,16 @@
       <c r="E13" s="471" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="516" t="s">
+      <c r="F13" s="502" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="516"/>
-      <c r="H13" s="516"/>
-      <c r="I13" s="516"/>
-      <c r="J13" s="517" t="s">
+      <c r="G13" s="502"/>
+      <c r="H13" s="502"/>
+      <c r="I13" s="502"/>
+      <c r="J13" s="503" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="517"/>
+      <c r="K13" s="503"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7216,11 +7225,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="500" t="s">
+      <c r="A29" s="504" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="500"/>
-      <c r="C29" s="500"/>
+      <c r="B29" s="504"/>
+      <c r="C29" s="504"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7229,12 +7238,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7244,6 +7247,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7297,47 +7306,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7348,9 +7357,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7369,22 +7378,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="628"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="629"/>
-      <c r="J5" s="630"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7395,22 +7404,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="630"/>
-      <c r="K6" s="631"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7421,27 +7430,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="632"/>
-      <c r="D7" s="513">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="633" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="632"/>
-      <c r="K7" s="501">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7826,28 +7835,33 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="634" t="s">
+      <c r="L21" s="636" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="634"/>
-      <c r="N21" s="634"/>
+      <c r="M21" s="636"/>
+      <c r="N21" s="636"/>
       <c r="O21" s="472"/>
       <c r="P21" s="472"/>
       <c r="Q21" s="488"/>
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="566" t="s">
+      <c r="O22" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="566"/>
-      <c r="Q22" s="567" t="s">
+      <c r="P22" s="558"/>
+      <c r="Q22" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="568"/>
+      <c r="R22" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7864,11 +7878,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7934,47 +7943,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7985,9 +7994,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8006,22 +8015,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="628"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="629"/>
-      <c r="J5" s="630"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -8032,22 +8041,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="630"/>
-      <c r="K6" s="631"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8058,27 +8067,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="632"/>
-      <c r="D7" s="513">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="633" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="632"/>
-      <c r="K7" s="501">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8407,12 +8416,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="644" t="s">
+      <c r="B18" s="647" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="645"/>
-      <c r="D18" s="645"/>
-      <c r="E18" s="646"/>
+      <c r="C18" s="648"/>
+      <c r="D18" s="648"/>
+      <c r="E18" s="649"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8455,28 +8464,37 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="634" t="s">
+      <c r="L21" s="636" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="634"/>
-      <c r="N21" s="634"/>
+      <c r="M21" s="636"/>
+      <c r="N21" s="636"/>
       <c r="O21" s="472"/>
       <c r="P21" s="472"/>
       <c r="Q21" s="488"/>
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="566" t="s">
+      <c r="O22" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="566"/>
-      <c r="Q22" s="567" t="s">
+      <c r="P22" s="558"/>
+      <c r="Q22" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="568"/>
+      <c r="R22" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8490,15 +8508,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8573,47 +8582,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8624,9 +8633,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8645,22 +8654,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="628"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="629"/>
-      <c r="J5" s="630"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8671,22 +8680,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="630"/>
-      <c r="K6" s="631"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8697,27 +8706,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="632"/>
-      <c r="D7" s="513">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="633" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="632"/>
-      <c r="K7" s="501">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -9028,28 +9037,33 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="634" t="s">
+      <c r="L19" s="636" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="634"/>
-      <c r="N19" s="634"/>
+      <c r="M19" s="636"/>
+      <c r="N19" s="636"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="566" t="s">
+      <c r="O20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="566"/>
-      <c r="Q20" s="567" t="s">
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="568"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9066,11 +9080,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9127,47 +9136,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="649">
+      <c r="J2" s="626"/>
+      <c r="K2" s="652">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="650"/>
+      <c r="L2" s="653"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="653"/>
-      <c r="Q2" s="653"/>
+      <c r="P2" s="651"/>
+      <c r="Q2" s="651"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="651"/>
-      <c r="L3" s="652"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="654"/>
+      <c r="L3" s="655"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9178,9 +9187,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9199,22 +9208,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="628"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="629"/>
-      <c r="J5" s="630"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9225,22 +9234,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="630"/>
-      <c r="K6" s="631"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9251,27 +9260,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="632"/>
-      <c r="D7" s="513">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="633" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="632"/>
-      <c r="K7" s="501">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9541,28 +9550,33 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="634" t="s">
+      <c r="L18" s="636" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="634"/>
-      <c r="N18" s="634"/>
+      <c r="M18" s="636"/>
+      <c r="N18" s="636"/>
       <c r="O18" s="472"/>
       <c r="P18" s="472"/>
       <c r="Q18" s="488"/>
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="566" t="s">
+      <c r="O19" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="566"/>
-      <c r="Q19" s="567" t="s">
+      <c r="P19" s="558"/>
+      <c r="Q19" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="568"/>
+      <c r="R19" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9579,11 +9593,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -10356,11 +10365,11 @@
       <c r="B32" s="453"/>
       <c r="C32" s="453"/>
       <c r="D32" s="454"/>
-      <c r="E32" s="654">
+      <c r="E32" s="500">
         <f>SUM(E21:E31)</f>
         <v>948096</v>
       </c>
-      <c r="F32" s="655">
+      <c r="F32" s="501">
         <f>SUM(F21:F31)</f>
         <v>1031915</v>
       </c>
@@ -10393,12 +10402,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="520" t="s">
+      <c r="A36" s="525" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="520"/>
-      <c r="C36" s="520"/>
-      <c r="D36" s="520"/>
+      <c r="B36" s="525"/>
+      <c r="C36" s="525"/>
+      <c r="D36" s="525"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10407,10 +10416,10 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="521" t="s">
+      <c r="A37" s="526" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="521"/>
+      <c r="B37" s="526"/>
       <c r="C37" s="459" t="s">
         <v>130</v>
       </c>
@@ -10425,11 +10434,11 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="522">
+      <c r="A38" s="527">
         <f>A21-F32</f>
         <v>15768085</v>
       </c>
-      <c r="B38" s="523"/>
+      <c r="B38" s="528"/>
       <c r="C38" s="460">
         <f>1-G32</f>
         <v>0.93857648809523808</v>
@@ -10491,8 +10500,8 @@
       <c r="F42" s="464"/>
       <c r="G42" s="464"/>
       <c r="H42" s="464"/>
-      <c r="I42" s="524"/>
-      <c r="J42" s="525"/>
+      <c r="I42" s="520"/>
+      <c r="J42" s="521"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="465"/>
@@ -10586,9 +10595,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="518"/>
-      <c r="C52" s="518"/>
-      <c r="D52" s="519"/>
+      <c r="B52" s="523"/>
+      <c r="C52" s="523"/>
+      <c r="D52" s="524"/>
       <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10605,8 +10614,8 @@
       <c r="F53" s="464"/>
       <c r="G53" s="464"/>
       <c r="H53" s="464"/>
-      <c r="I53" s="524"/>
-      <c r="J53" s="525"/>
+      <c r="I53" s="520"/>
+      <c r="J53" s="521"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="465"/>
@@ -10617,8 +10626,8 @@
       <c r="F54" s="412"/>
       <c r="G54" s="412"/>
       <c r="H54" s="466"/>
-      <c r="I54" s="526"/>
-      <c r="J54" s="526"/>
+      <c r="I54" s="522"/>
+      <c r="J54" s="522"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="465"/>
@@ -10629,8 +10638,8 @@
       <c r="F55" s="402"/>
       <c r="G55" s="402"/>
       <c r="H55" s="402"/>
-      <c r="I55" s="526"/>
-      <c r="J55" s="526"/>
+      <c r="I55" s="522"/>
+      <c r="J55" s="522"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10643,25 +10652,25 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="524"/>
-      <c r="C61" s="525"/>
+      <c r="B61" s="520"/>
+      <c r="C61" s="521"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="524"/>
-      <c r="C68" s="525"/>
+      <c r="B68" s="520"/>
+      <c r="C68" s="521"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10744,47 +10753,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="528" t="s">
+      <c r="A11" s="553" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="528"/>
-      <c r="C11" s="528"/>
-      <c r="D11" s="528"/>
-      <c r="E11" s="528"/>
-      <c r="F11" s="528"/>
-      <c r="G11" s="528"/>
-      <c r="H11" s="528"/>
-      <c r="I11" s="528"/>
-      <c r="J11" s="528"/>
+      <c r="B11" s="553"/>
+      <c r="C11" s="553"/>
+      <c r="D11" s="553"/>
+      <c r="E11" s="553"/>
+      <c r="F11" s="553"/>
+      <c r="G11" s="553"/>
+      <c r="H11" s="553"/>
+      <c r="I11" s="553"/>
+      <c r="J11" s="553"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="527" t="s">
+      <c r="A12" s="552" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="527"/>
-      <c r="C12" s="527"/>
-      <c r="D12" s="527"/>
-      <c r="E12" s="527"/>
-      <c r="F12" s="527"/>
-      <c r="G12" s="527"/>
-      <c r="H12" s="527"/>
-      <c r="I12" s="527"/>
-      <c r="J12" s="527"/>
+      <c r="B12" s="552"/>
+      <c r="C12" s="552"/>
+      <c r="D12" s="552"/>
+      <c r="E12" s="552"/>
+      <c r="F12" s="552"/>
+      <c r="G12" s="552"/>
+      <c r="H12" s="552"/>
+      <c r="I12" s="552"/>
+      <c r="J12" s="552"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="529" t="str">
+      <c r="A13" s="554" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="B13" s="528"/>
-      <c r="C13" s="528"/>
-      <c r="D13" s="528"/>
-      <c r="E13" s="528"/>
-      <c r="F13" s="528"/>
-      <c r="G13" s="528"/>
-      <c r="H13" s="528"/>
-      <c r="I13" s="528"/>
-      <c r="J13" s="528"/>
+      <c r="B13" s="553"/>
+      <c r="C13" s="553"/>
+      <c r="D13" s="553"/>
+      <c r="E13" s="553"/>
+      <c r="F13" s="553"/>
+      <c r="G13" s="553"/>
+      <c r="H13" s="553"/>
+      <c r="I13" s="553"/>
+      <c r="J13" s="553"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10909,495 +10918,495 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="533" t="s">
+      <c r="A22" s="550" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="533" t="s">
+      <c r="B22" s="550" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="533"/>
-      <c r="D22" s="533"/>
-      <c r="E22" s="533" t="s">
+      <c r="C22" s="550"/>
+      <c r="D22" s="550"/>
+      <c r="E22" s="550" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="533"/>
+      <c r="F22" s="550"/>
       <c r="G22" s="551" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="533" t="s">
+      <c r="H22" s="550" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="533"/>
-      <c r="J22" s="533"/>
+      <c r="I22" s="550"/>
+      <c r="J22" s="550"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="533"/>
-      <c r="B23" s="533"/>
-      <c r="C23" s="533"/>
-      <c r="D23" s="533"/>
-      <c r="E23" s="533"/>
-      <c r="F23" s="533"/>
+      <c r="A23" s="550"/>
+      <c r="B23" s="550"/>
+      <c r="C23" s="550"/>
+      <c r="D23" s="550"/>
+      <c r="E23" s="550"/>
+      <c r="F23" s="550"/>
       <c r="G23" s="551"/>
-      <c r="H23" s="533"/>
-      <c r="I23" s="533"/>
-      <c r="J23" s="533"/>
+      <c r="H23" s="550"/>
+      <c r="I23" s="550"/>
+      <c r="J23" s="550"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="534">
+      <c r="A24" s="529">
         <v>1</v>
       </c>
-      <c r="B24" s="548" t="s">
+      <c r="B24" s="555" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="549"/>
-      <c r="D24" s="550"/>
-      <c r="E24" s="536" t="str">
+      <c r="C24" s="556"/>
+      <c r="D24" s="557"/>
+      <c r="E24" s="534" t="str">
         <f>Данные!C14</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F24" s="537"/>
-      <c r="G24" s="540">
+      <c r="F24" s="535"/>
+      <c r="G24" s="538">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="542"/>
-      <c r="I24" s="543"/>
-      <c r="J24" s="544"/>
+      <c r="H24" s="540"/>
+      <c r="I24" s="541"/>
+      <c r="J24" s="542"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="535"/>
-      <c r="B25" s="530" t="str">
+      <c r="A25" s="530"/>
+      <c r="B25" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C25" s="531"/>
-      <c r="D25" s="532"/>
-      <c r="E25" s="538"/>
-      <c r="F25" s="539"/>
-      <c r="G25" s="541"/>
-      <c r="H25" s="545"/>
-      <c r="I25" s="546"/>
-      <c r="J25" s="547"/>
+      <c r="C25" s="547"/>
+      <c r="D25" s="548"/>
+      <c r="E25" s="549"/>
+      <c r="F25" s="537"/>
+      <c r="G25" s="539"/>
+      <c r="H25" s="543"/>
+      <c r="I25" s="544"/>
+      <c r="J25" s="545"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="534">
+      <c r="A26" s="529">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="552" t="s">
+      <c r="B26" s="531" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="553"/>
-      <c r="D26" s="554"/>
-      <c r="E26" s="536" t="str">
+      <c r="C26" s="532"/>
+      <c r="D26" s="533"/>
+      <c r="E26" s="534" t="str">
         <f>Данные!C15</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F26" s="537"/>
-      <c r="G26" s="540">
+      <c r="F26" s="535"/>
+      <c r="G26" s="538">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="542"/>
-      <c r="I26" s="543"/>
-      <c r="J26" s="544"/>
+      <c r="H26" s="540"/>
+      <c r="I26" s="541"/>
+      <c r="J26" s="542"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="535"/>
-      <c r="B27" s="530" t="str">
+      <c r="A27" s="530"/>
+      <c r="B27" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C27" s="531"/>
-      <c r="D27" s="532"/>
-      <c r="E27" s="538"/>
-      <c r="F27" s="539"/>
-      <c r="G27" s="541"/>
-      <c r="H27" s="545"/>
-      <c r="I27" s="546"/>
-      <c r="J27" s="547"/>
+      <c r="C27" s="547"/>
+      <c r="D27" s="548"/>
+      <c r="E27" s="549"/>
+      <c r="F27" s="537"/>
+      <c r="G27" s="539"/>
+      <c r="H27" s="543"/>
+      <c r="I27" s="544"/>
+      <c r="J27" s="545"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="534">
+      <c r="A28" s="529">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="552" t="s">
+      <c r="B28" s="531" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="553"/>
-      <c r="D28" s="554"/>
-      <c r="E28" s="536" t="str">
+      <c r="C28" s="532"/>
+      <c r="D28" s="533"/>
+      <c r="E28" s="534" t="str">
         <f>Данные!C16</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F28" s="537"/>
-      <c r="G28" s="540">
+      <c r="F28" s="535"/>
+      <c r="G28" s="538">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="542" t="s">
+      <c r="H28" s="540" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="543"/>
-      <c r="J28" s="544"/>
+      <c r="I28" s="541"/>
+      <c r="J28" s="542"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="535"/>
-      <c r="B29" s="530" t="str">
+      <c r="A29" s="530"/>
+      <c r="B29" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C29" s="531"/>
-      <c r="D29" s="532"/>
-      <c r="E29" s="538"/>
-      <c r="F29" s="539"/>
-      <c r="G29" s="541"/>
-      <c r="H29" s="545"/>
-      <c r="I29" s="546"/>
-      <c r="J29" s="547"/>
+      <c r="C29" s="547"/>
+      <c r="D29" s="548"/>
+      <c r="E29" s="549"/>
+      <c r="F29" s="537"/>
+      <c r="G29" s="539"/>
+      <c r="H29" s="543"/>
+      <c r="I29" s="544"/>
+      <c r="J29" s="545"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="534">
+      <c r="A30" s="529">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="552" t="s">
+      <c r="B30" s="531" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="553"/>
-      <c r="D30" s="554"/>
-      <c r="E30" s="536" t="str">
+      <c r="C30" s="532"/>
+      <c r="D30" s="533"/>
+      <c r="E30" s="534" t="str">
         <f>Данные!C17</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F30" s="537"/>
-      <c r="G30" s="540">
+      <c r="F30" s="535"/>
+      <c r="G30" s="538">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="542"/>
-      <c r="I30" s="543"/>
-      <c r="J30" s="544"/>
+      <c r="H30" s="540"/>
+      <c r="I30" s="541"/>
+      <c r="J30" s="542"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="535"/>
-      <c r="B31" s="530" t="str">
+      <c r="A31" s="530"/>
+      <c r="B31" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C31" s="531"/>
-      <c r="D31" s="532"/>
-      <c r="E31" s="555"/>
-      <c r="F31" s="539"/>
-      <c r="G31" s="541"/>
-      <c r="H31" s="545"/>
-      <c r="I31" s="546"/>
-      <c r="J31" s="547"/>
+      <c r="C31" s="547"/>
+      <c r="D31" s="548"/>
+      <c r="E31" s="536"/>
+      <c r="F31" s="537"/>
+      <c r="G31" s="539"/>
+      <c r="H31" s="543"/>
+      <c r="I31" s="544"/>
+      <c r="J31" s="545"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="534">
+      <c r="A32" s="529">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="552" t="s">
+      <c r="B32" s="531" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="553"/>
-      <c r="D32" s="554"/>
-      <c r="E32" s="536" t="str">
+      <c r="C32" s="532"/>
+      <c r="D32" s="533"/>
+      <c r="E32" s="534" t="str">
         <f>Данные!C18</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F32" s="537"/>
-      <c r="G32" s="540">
+      <c r="F32" s="535"/>
+      <c r="G32" s="538">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="542"/>
-      <c r="I32" s="543"/>
-      <c r="J32" s="544"/>
+      <c r="H32" s="540"/>
+      <c r="I32" s="541"/>
+      <c r="J32" s="542"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="535"/>
-      <c r="B33" s="530" t="str">
+      <c r="A33" s="530"/>
+      <c r="B33" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C33" s="531"/>
-      <c r="D33" s="532"/>
-      <c r="E33" s="555"/>
-      <c r="F33" s="539"/>
-      <c r="G33" s="541"/>
-      <c r="H33" s="545"/>
-      <c r="I33" s="546"/>
-      <c r="J33" s="547"/>
+      <c r="C33" s="547"/>
+      <c r="D33" s="548"/>
+      <c r="E33" s="536"/>
+      <c r="F33" s="537"/>
+      <c r="G33" s="539"/>
+      <c r="H33" s="543"/>
+      <c r="I33" s="544"/>
+      <c r="J33" s="545"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="534">
+      <c r="A34" s="529">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="552" t="s">
+      <c r="B34" s="531" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="553"/>
-      <c r="D34" s="554"/>
-      <c r="E34" s="536" t="str">
+      <c r="C34" s="532"/>
+      <c r="D34" s="533"/>
+      <c r="E34" s="534" t="str">
         <f>Данные!C19</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F34" s="537"/>
-      <c r="G34" s="540">
+      <c r="F34" s="535"/>
+      <c r="G34" s="538">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="542"/>
-      <c r="I34" s="543"/>
-      <c r="J34" s="544"/>
+      <c r="H34" s="540"/>
+      <c r="I34" s="541"/>
+      <c r="J34" s="542"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="535"/>
-      <c r="B35" s="530" t="str">
+      <c r="A35" s="530"/>
+      <c r="B35" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C35" s="531"/>
-      <c r="D35" s="532"/>
-      <c r="E35" s="555"/>
-      <c r="F35" s="539"/>
-      <c r="G35" s="541"/>
-      <c r="H35" s="545"/>
-      <c r="I35" s="546"/>
-      <c r="J35" s="547"/>
+      <c r="C35" s="547"/>
+      <c r="D35" s="548"/>
+      <c r="E35" s="536"/>
+      <c r="F35" s="537"/>
+      <c r="G35" s="539"/>
+      <c r="H35" s="543"/>
+      <c r="I35" s="544"/>
+      <c r="J35" s="545"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="534">
+      <c r="A36" s="529">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="552" t="s">
+      <c r="B36" s="531" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="553"/>
-      <c r="D36" s="554"/>
-      <c r="E36" s="536" t="str">
+      <c r="C36" s="532"/>
+      <c r="D36" s="533"/>
+      <c r="E36" s="534" t="str">
         <f>Данные!C20</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F36" s="537"/>
-      <c r="G36" s="540">
+      <c r="F36" s="535"/>
+      <c r="G36" s="538">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="542"/>
-      <c r="I36" s="543"/>
-      <c r="J36" s="544"/>
+      <c r="H36" s="540"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="542"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="535"/>
-      <c r="B37" s="530" t="str">
+      <c r="A37" s="530"/>
+      <c r="B37" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C37" s="531"/>
-      <c r="D37" s="532"/>
-      <c r="E37" s="555"/>
-      <c r="F37" s="539"/>
-      <c r="G37" s="541"/>
-      <c r="H37" s="545"/>
-      <c r="I37" s="546"/>
-      <c r="J37" s="547"/>
+      <c r="C37" s="547"/>
+      <c r="D37" s="548"/>
+      <c r="E37" s="536"/>
+      <c r="F37" s="537"/>
+      <c r="G37" s="539"/>
+      <c r="H37" s="543"/>
+      <c r="I37" s="544"/>
+      <c r="J37" s="545"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="534">
+      <c r="A38" s="529">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="552" t="s">
+      <c r="B38" s="531" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="553"/>
-      <c r="D38" s="554"/>
-      <c r="E38" s="536" t="str">
+      <c r="C38" s="532"/>
+      <c r="D38" s="533"/>
+      <c r="E38" s="534" t="str">
         <f>Данные!C21</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F38" s="537"/>
-      <c r="G38" s="540">
+      <c r="F38" s="535"/>
+      <c r="G38" s="538">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="542"/>
-      <c r="I38" s="543"/>
-      <c r="J38" s="544"/>
+      <c r="H38" s="540"/>
+      <c r="I38" s="541"/>
+      <c r="J38" s="542"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="535"/>
-      <c r="B39" s="530" t="str">
+      <c r="A39" s="530"/>
+      <c r="B39" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C39" s="531"/>
-      <c r="D39" s="532"/>
-      <c r="E39" s="555"/>
-      <c r="F39" s="539"/>
-      <c r="G39" s="541"/>
-      <c r="H39" s="545"/>
-      <c r="I39" s="546"/>
-      <c r="J39" s="547"/>
+      <c r="C39" s="547"/>
+      <c r="D39" s="548"/>
+      <c r="E39" s="536"/>
+      <c r="F39" s="537"/>
+      <c r="G39" s="539"/>
+      <c r="H39" s="543"/>
+      <c r="I39" s="544"/>
+      <c r="J39" s="545"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="534">
+      <c r="A40" s="529">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="552" t="s">
+      <c r="B40" s="531" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="553"/>
-      <c r="D40" s="554"/>
-      <c r="E40" s="536" t="str">
+      <c r="C40" s="532"/>
+      <c r="D40" s="533"/>
+      <c r="E40" s="534" t="str">
         <f>Данные!C23</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F40" s="537"/>
-      <c r="G40" s="540">
+      <c r="F40" s="535"/>
+      <c r="G40" s="538">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="542"/>
-      <c r="I40" s="543"/>
-      <c r="J40" s="544"/>
+      <c r="H40" s="540"/>
+      <c r="I40" s="541"/>
+      <c r="J40" s="542"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="535"/>
-      <c r="B41" s="530" t="str">
+      <c r="A41" s="530"/>
+      <c r="B41" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C41" s="531"/>
-      <c r="D41" s="532"/>
-      <c r="E41" s="555"/>
-      <c r="F41" s="539"/>
-      <c r="G41" s="541"/>
-      <c r="H41" s="545"/>
-      <c r="I41" s="546"/>
-      <c r="J41" s="547"/>
+      <c r="C41" s="547"/>
+      <c r="D41" s="548"/>
+      <c r="E41" s="536"/>
+      <c r="F41" s="537"/>
+      <c r="G41" s="539"/>
+      <c r="H41" s="543"/>
+      <c r="I41" s="544"/>
+      <c r="J41" s="545"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="534">
+      <c r="A42" s="529">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="552" t="s">
+      <c r="B42" s="531" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="553"/>
-      <c r="D42" s="554"/>
-      <c r="E42" s="536" t="str">
+      <c r="C42" s="532"/>
+      <c r="D42" s="533"/>
+      <c r="E42" s="534" t="str">
         <f>Данные!C26</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F42" s="537"/>
-      <c r="G42" s="540">
+      <c r="F42" s="535"/>
+      <c r="G42" s="538">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H42" s="542"/>
-      <c r="I42" s="543"/>
-      <c r="J42" s="544"/>
+      <c r="H42" s="540"/>
+      <c r="I42" s="541"/>
+      <c r="J42" s="542"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="535"/>
-      <c r="B43" s="530" t="str">
+      <c r="A43" s="530"/>
+      <c r="B43" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C43" s="531"/>
-      <c r="D43" s="532"/>
-      <c r="E43" s="555"/>
-      <c r="F43" s="539"/>
-      <c r="G43" s="541"/>
-      <c r="H43" s="545"/>
-      <c r="I43" s="546"/>
-      <c r="J43" s="547"/>
+      <c r="C43" s="547"/>
+      <c r="D43" s="548"/>
+      <c r="E43" s="536"/>
+      <c r="F43" s="537"/>
+      <c r="G43" s="539"/>
+      <c r="H43" s="543"/>
+      <c r="I43" s="544"/>
+      <c r="J43" s="545"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="534">
+      <c r="A44" s="529">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="552" t="s">
+      <c r="B44" s="531" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="553"/>
-      <c r="D44" s="554"/>
-      <c r="E44" s="536" t="str">
+      <c r="C44" s="532"/>
+      <c r="D44" s="533"/>
+      <c r="E44" s="534" t="str">
         <f>Данные!C27</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F44" s="537"/>
-      <c r="G44" s="540">
+      <c r="F44" s="535"/>
+      <c r="G44" s="538">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H44" s="542"/>
-      <c r="I44" s="543"/>
-      <c r="J44" s="544"/>
+      <c r="H44" s="540"/>
+      <c r="I44" s="541"/>
+      <c r="J44" s="542"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="535"/>
-      <c r="B45" s="530" t="str">
+      <c r="A45" s="530"/>
+      <c r="B45" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C45" s="531"/>
-      <c r="D45" s="532"/>
-      <c r="E45" s="555"/>
-      <c r="F45" s="539"/>
-      <c r="G45" s="541"/>
-      <c r="H45" s="545"/>
-      <c r="I45" s="546"/>
-      <c r="J45" s="547"/>
+      <c r="C45" s="547"/>
+      <c r="D45" s="548"/>
+      <c r="E45" s="536"/>
+      <c r="F45" s="537"/>
+      <c r="G45" s="539"/>
+      <c r="H45" s="543"/>
+      <c r="I45" s="544"/>
+      <c r="J45" s="545"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="534">
+      <c r="A46" s="529">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="552" t="s">
+      <c r="B46" s="531" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="553"/>
-      <c r="D46" s="554"/>
-      <c r="E46" s="536" t="str">
+      <c r="C46" s="532"/>
+      <c r="D46" s="533"/>
+      <c r="E46" s="534" t="str">
         <f>Данные!C24</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F46" s="537"/>
-      <c r="G46" s="540">
+      <c r="F46" s="535"/>
+      <c r="G46" s="538">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="542"/>
-      <c r="I46" s="543"/>
-      <c r="J46" s="544"/>
+      <c r="H46" s="540"/>
+      <c r="I46" s="541"/>
+      <c r="J46" s="542"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="535"/>
-      <c r="B47" s="530" t="str">
+      <c r="A47" s="530"/>
+      <c r="B47" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C47" s="531"/>
-      <c r="D47" s="532"/>
-      <c r="E47" s="555"/>
-      <c r="F47" s="539"/>
-      <c r="G47" s="541"/>
-      <c r="H47" s="545"/>
-      <c r="I47" s="546"/>
-      <c r="J47" s="547"/>
+      <c r="C47" s="547"/>
+      <c r="D47" s="548"/>
+      <c r="E47" s="536"/>
+      <c r="F47" s="537"/>
+      <c r="G47" s="539"/>
+      <c r="H47" s="543"/>
+      <c r="I47" s="544"/>
+      <c r="J47" s="545"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11526,70 +11535,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11606,6 +11551,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11660,47 +11669,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="570"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="572"/>
-      <c r="E2" s="579" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="580"/>
-      <c r="G2" s="580"/>
-      <c r="H2" s="581"/>
-      <c r="I2" s="586" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="587"/>
-      <c r="K2" s="590">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="591"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="582"/>
-      <c r="Q2" s="582"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="573"/>
-      <c r="C3" s="574"/>
-      <c r="D3" s="575"/>
-      <c r="E3" s="583" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="584"/>
-      <c r="G3" s="584"/>
-      <c r="H3" s="585"/>
-      <c r="I3" s="588"/>
-      <c r="J3" s="589"/>
-      <c r="K3" s="592"/>
-      <c r="L3" s="593"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11711,9 +11720,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="576"/>
-      <c r="C4" s="577"/>
-      <c r="D4" s="578"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11732,22 +11741,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="559"/>
-      <c r="J5" s="560"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11758,22 +11767,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="559"/>
-      <c r="J6" s="560"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11784,27 +11793,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="562"/>
-      <c r="D7" s="513">
+      <c r="C7" s="600"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="561" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="565"/>
-      <c r="K7" s="501">
+      <c r="J7" s="603"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12294,12 +12303,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="556" t="s">
+      <c r="B23" s="596" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="557"/>
-      <c r="D23" s="557"/>
-      <c r="E23" s="558"/>
+      <c r="C23" s="597"/>
+      <c r="D23" s="597"/>
+      <c r="E23" s="598"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12321,12 +12330,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="594" t="s">
+      <c r="B24" s="586" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="595"/>
-      <c r="D24" s="595"/>
-      <c r="E24" s="596"/>
+      <c r="C24" s="587"/>
+      <c r="D24" s="587"/>
+      <c r="E24" s="588"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12369,28 +12378,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="569" t="s">
+      <c r="K27" s="561" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="569"/>
-      <c r="M27" s="569"/>
+      <c r="L27" s="561"/>
+      <c r="M27" s="561"/>
       <c r="N27" s="472"/>
       <c r="O27" s="472"/>
       <c r="P27" s="488"/>
       <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="566" t="s">
+      <c r="N28" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="566"/>
-      <c r="P28" s="567" t="s">
+      <c r="O28" s="558"/>
+      <c r="P28" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="568"/>
+      <c r="Q28" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12407,13 +12423,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12479,50 +12488,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="605">
+      <c r="B2" s="610">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="582"/>
-      <c r="Q2" s="582"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12533,9 +12542,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12554,22 +12563,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="628"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="629"/>
-      <c r="J5" s="630"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12580,22 +12589,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="630"/>
-      <c r="K6" s="631"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12606,27 +12615,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="632"/>
-      <c r="D7" s="513">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="633" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="632"/>
-      <c r="K7" s="501">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12817,12 +12826,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="603" t="s">
+      <c r="B14" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="604"/>
-      <c r="D14" s="604"/>
-      <c r="E14" s="604"/>
+      <c r="C14" s="635"/>
+      <c r="D14" s="635"/>
+      <c r="E14" s="635"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12844,13 +12853,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="556" t="s">
+      <c r="B15" s="596" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="557"/>
-      <c r="D15" s="557"/>
-      <c r="E15" s="557"/>
-      <c r="F15" s="602"/>
+      <c r="C15" s="597"/>
+      <c r="D15" s="597"/>
+      <c r="E15" s="597"/>
+      <c r="F15" s="633"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12869,12 +12878,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="594" t="s">
+      <c r="B16" s="586" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="595"/>
-      <c r="D16" s="595"/>
-      <c r="E16" s="596"/>
+      <c r="C16" s="587"/>
+      <c r="D16" s="587"/>
+      <c r="E16" s="588"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12921,28 +12930,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="569" t="s">
+      <c r="L19" s="561" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="569"/>
-      <c r="N19" s="569"/>
+      <c r="M19" s="561"/>
+      <c r="N19" s="561"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="566" t="s">
+      <c r="O20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="566"/>
-      <c r="Q20" s="567" t="s">
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="568"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12956,17 +12976,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12997,11 +13006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13040,47 +13049,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="570"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="572"/>
-      <c r="E2" s="579" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="580"/>
-      <c r="G2" s="580"/>
-      <c r="H2" s="581"/>
-      <c r="I2" s="586" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="587"/>
-      <c r="K2" s="590">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="591"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="582"/>
-      <c r="Q2" s="582"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="573"/>
-      <c r="C3" s="574"/>
-      <c r="D3" s="575"/>
-      <c r="E3" s="583" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="584"/>
-      <c r="G3" s="584"/>
-      <c r="H3" s="585"/>
-      <c r="I3" s="588"/>
-      <c r="J3" s="589"/>
-      <c r="K3" s="592"/>
-      <c r="L3" s="593"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13091,9 +13100,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="576"/>
-      <c r="C4" s="577"/>
-      <c r="D4" s="578"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13112,22 +13121,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="559"/>
-      <c r="J5" s="560"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13138,22 +13147,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="559"/>
-      <c r="J6" s="560"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13164,27 +13173,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="562"/>
-      <c r="D7" s="513">
+      <c r="C7" s="600"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="561" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="565"/>
-      <c r="K7" s="501">
+      <c r="J7" s="603"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13519,7 +13528,7 @@
       <c r="F17" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="56" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="98"/>
@@ -13555,8 +13564,8 @@
       <c r="F18" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="56" t="s">
-        <v>22</v>
+      <c r="G18" s="656" t="s">
+        <v>157</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
@@ -13574,7 +13583,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13590,7 +13599,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="H19" s="105"/>
       <c r="I19" s="104"/>
@@ -13664,35 +13673,28 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="634" t="s">
+      <c r="L23" s="636" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="634"/>
-      <c r="N23" s="634"/>
+      <c r="M23" s="636"/>
+      <c r="N23" s="636"/>
       <c r="O23" s="472"/>
       <c r="P23" s="472"/>
       <c r="Q23" s="488"/>
       <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="566" t="s">
+      <c r="O24" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="566"/>
-      <c r="Q24" s="567" t="s">
+      <c r="P24" s="558"/>
+      <c r="Q24" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="568"/>
+      <c r="R24" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13707,6 +13709,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13774,47 +13783,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="570"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="572"/>
-      <c r="E2" s="579" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="580"/>
-      <c r="G2" s="580"/>
-      <c r="H2" s="581"/>
-      <c r="I2" s="586" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="587"/>
-      <c r="K2" s="590">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="591"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="573"/>
-      <c r="C3" s="574"/>
-      <c r="D3" s="575"/>
-      <c r="E3" s="583" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="584"/>
-      <c r="G3" s="584"/>
-      <c r="H3" s="585"/>
-      <c r="I3" s="588"/>
-      <c r="J3" s="589"/>
-      <c r="K3" s="592"/>
-      <c r="L3" s="593"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13825,9 +13834,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="576"/>
-      <c r="C4" s="577"/>
-      <c r="D4" s="578"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13846,22 +13855,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="559"/>
-      <c r="J5" s="560"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13872,22 +13881,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="599"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="559"/>
-      <c r="J6" s="560"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13898,27 +13907,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="562"/>
-      <c r="D7" s="513">
+      <c r="C7" s="600"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="561" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="565"/>
-      <c r="K7" s="501">
+      <c r="J7" s="603"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14202,34 +14211,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="634" t="s">
+      <c r="L18" s="636" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="634"/>
-      <c r="N18" s="634"/>
+      <c r="M18" s="636"/>
+      <c r="N18" s="636"/>
       <c r="O18" s="472"/>
       <c r="P18" s="472"/>
       <c r="Q18" s="488"/>
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="566" t="s">
+      <c r="O19" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="566"/>
-      <c r="Q19" s="567" t="s">
+      <c r="P19" s="558"/>
+      <c r="Q19" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="568"/>
+      <c r="R19" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14245,6 +14248,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14316,60 +14325,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="625"/>
-      <c r="M2" s="636"/>
-      <c r="N2" s="637"/>
-      <c r="O2" s="637"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
-      <c r="R2" s="638"/>
+      <c r="L2" s="630"/>
+      <c r="M2" s="638"/>
+      <c r="N2" s="639"/>
+      <c r="O2" s="639"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
+      <c r="R2" s="640"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
-      <c r="M3" s="639"/>
-      <c r="N3" s="640"/>
-      <c r="O3" s="640"/>
-      <c r="P3" s="640"/>
-      <c r="Q3" s="640"/>
-      <c r="R3" s="641"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
+      <c r="M3" s="641"/>
+      <c r="N3" s="642"/>
+      <c r="O3" s="642"/>
+      <c r="P3" s="642"/>
+      <c r="Q3" s="642"/>
+      <c r="R3" s="643"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14378,95 +14387,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="639"/>
-      <c r="N4" s="640"/>
-      <c r="O4" s="640"/>
-      <c r="P4" s="640"/>
-      <c r="Q4" s="640"/>
-      <c r="R4" s="641"/>
+      <c r="M4" s="641"/>
+      <c r="N4" s="642"/>
+      <c r="O4" s="642"/>
+      <c r="P4" s="642"/>
+      <c r="Q4" s="642"/>
+      <c r="R4" s="643"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="628"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="629"/>
-      <c r="J5" s="630"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="512"/>
-      <c r="M5" s="639"/>
-      <c r="N5" s="640"/>
-      <c r="O5" s="640"/>
-      <c r="P5" s="640"/>
-      <c r="Q5" s="640"/>
-      <c r="R5" s="641"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
+      <c r="M5" s="641"/>
+      <c r="N5" s="642"/>
+      <c r="O5" s="642"/>
+      <c r="P5" s="642"/>
+      <c r="Q5" s="642"/>
+      <c r="R5" s="643"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="630"/>
-      <c r="K6" s="631"/>
-      <c r="L6" s="512"/>
-      <c r="M6" s="639"/>
-      <c r="N6" s="640"/>
-      <c r="O6" s="640"/>
-      <c r="P6" s="640"/>
-      <c r="Q6" s="640"/>
-      <c r="R6" s="641"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
+      <c r="M6" s="641"/>
+      <c r="N6" s="642"/>
+      <c r="O6" s="642"/>
+      <c r="P6" s="642"/>
+      <c r="Q6" s="642"/>
+      <c r="R6" s="643"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="632"/>
-      <c r="D7" s="513">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="633" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="632"/>
-      <c r="K7" s="501">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
-      <c r="M7" s="639"/>
-      <c r="N7" s="640"/>
-      <c r="O7" s="640"/>
-      <c r="P7" s="640"/>
-      <c r="Q7" s="640"/>
-      <c r="R7" s="641"/>
+      <c r="L7" s="506"/>
+      <c r="M7" s="641"/>
+      <c r="N7" s="642"/>
+      <c r="O7" s="642"/>
+      <c r="P7" s="642"/>
+      <c r="Q7" s="642"/>
+      <c r="R7" s="643"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14880,12 +14889,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="594" t="s">
+      <c r="B21" s="586" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="595"/>
-      <c r="D21" s="595"/>
-      <c r="E21" s="596"/>
+      <c r="C21" s="587"/>
+      <c r="D21" s="587"/>
+      <c r="E21" s="588"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14930,28 +14939,34 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="634" t="s">
+      <c r="L24" s="636" t="s">
         <v>136</v>
       </c>
-      <c r="M24" s="634"/>
-      <c r="N24" s="634"/>
+      <c r="M24" s="636"/>
+      <c r="N24" s="636"/>
       <c r="O24" s="472"/>
       <c r="P24" s="472"/>
       <c r="Q24" s="488"/>
       <c r="R24" s="488"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="566" t="s">
+      <c r="O25" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="566"/>
-      <c r="Q25" s="567" t="s">
+      <c r="P25" s="558"/>
+      <c r="Q25" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R25" s="568"/>
+      <c r="R25" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14968,12 +14983,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15038,47 +15047,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="607"/>
-      <c r="E2" s="614" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="615"/>
-      <c r="G2" s="615"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="620" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="621"/>
-      <c r="K2" s="624">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="617" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="618"/>
-      <c r="G3" s="618"/>
-      <c r="H3" s="619"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="623"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15089,9 +15098,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="611"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15110,22 +15119,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="597" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="628"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="629"/>
-      <c r="J5" s="630"/>
-      <c r="K5" s="631"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15136,22 +15145,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="597" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="601"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="630"/>
-      <c r="K6" s="631"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15162,27 +15171,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="632"/>
-      <c r="D7" s="513">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="563"/>
-      <c r="F7" s="563"/>
-      <c r="G7" s="563"/>
-      <c r="H7" s="564"/>
-      <c r="I7" s="633" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="632"/>
-      <c r="K7" s="501">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15445,12 +15454,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="594" t="s">
+      <c r="B16" s="586" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="595"/>
-      <c r="D16" s="595"/>
-      <c r="E16" s="596"/>
+      <c r="C16" s="587"/>
+      <c r="D16" s="587"/>
+      <c r="E16" s="588"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15495,28 +15504,38 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="634" t="s">
+      <c r="L19" s="636" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="634"/>
-      <c r="N19" s="634"/>
+      <c r="M19" s="636"/>
+      <c r="N19" s="636"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="566" t="s">
+      <c r="O20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="566"/>
-      <c r="Q20" s="567" t="s">
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="568"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15529,16 +15548,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Шапка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0724B7B-7204-4C95-99FD-0C2D879B908A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2400811-5919-466F-86FC-5CC9222036CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="153">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -358,9 +358,6 @@
     <t>А.Д. Гавриленко</t>
   </si>
   <si>
-    <t>Зам. дирекотора по ПиТ</t>
-  </si>
-  <si>
     <t>И.М. Александрович</t>
   </si>
   <si>
@@ -511,21 +508,6 @@
     <t>По накладным 32 шт., по факту 30 шт.</t>
   </si>
   <si>
-    <t>49 / 23</t>
-  </si>
-  <si>
-    <t>48,9 / 22,9</t>
-  </si>
-  <si>
-    <t>76 / 36</t>
-  </si>
-  <si>
-    <t>0,2 / 0,15</t>
-  </si>
-  <si>
-    <t>47 / 22</t>
-  </si>
-  <si>
     <t>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</t>
   </si>
   <si>
@@ -548,6 +530,9 @@
   </si>
   <si>
     <t>Сопряжение с поддоном</t>
+  </si>
+  <si>
+    <t>Зам. директора</t>
   </si>
 </sst>
 </file>
@@ -3681,11 +3666,8 @@
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3731,23 +3713,50 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3756,6 +3765,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3765,77 +3822,38 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3936,40 +3954,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3989,84 +4055,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4097,38 +4085,35 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5428,16 +5413,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>243416</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>100541</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>986366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5461,8 +5446,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10244859" y="2797848"/>
-          <a:ext cx="3459019" cy="2073852"/>
+          <a:off x="6130925" y="281516"/>
+          <a:ext cx="3479801" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5630,16 +5615,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:rowOff>173567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>559952</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>312302</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>948109</xdr:rowOff>
+      <xdr:rowOff>1005259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5662,8 +5647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6189133" y="222250"/>
-          <a:ext cx="3472486" cy="2101692"/>
+          <a:off x="10252075" y="278342"/>
+          <a:ext cx="3461902" cy="2088992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6827,7 +6812,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+      <selection activeCell="B14" sqref="B14:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6839,25 +6824,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="506" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
+      <c r="B1" s="510"/>
+      <c r="C1" s="510"/>
+      <c r="D1" s="510"/>
+      <c r="E1" s="510"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="508" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="510"/>
+      <c r="A2" s="507" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="508"/>
+      <c r="C2" s="508"/>
+      <c r="D2" s="508"/>
+      <c r="E2" s="509"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6868,45 +6853,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="512" t="s">
+      <c r="A4" s="511" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="513"/>
-      <c r="C4" s="513"/>
-      <c r="D4" s="513"/>
-      <c r="E4" s="513"/>
+      <c r="B4" s="512"/>
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
+      <c r="E4" s="512"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="514" t="s">
+      <c r="A5" s="513" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="515"/>
-      <c r="C5" s="515"/>
-      <c r="D5" s="515"/>
-      <c r="E5" s="516"/>
+      <c r="B5" s="514"/>
+      <c r="C5" s="514"/>
+      <c r="D5" s="514"/>
+      <c r="E5" s="515"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="507" t="s">
+      <c r="A7" s="506" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="511"/>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
+      <c r="B7" s="510"/>
+      <c r="C7" s="510"/>
+      <c r="D7" s="510"/>
+      <c r="E7" s="510"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="517"/>
-      <c r="B8" s="518"/>
-      <c r="C8" s="518"/>
-      <c r="D8" s="518"/>
-      <c r="E8" s="519"/>
+      <c r="A8" s="516"/>
+      <c r="B8" s="517"/>
+      <c r="C8" s="517"/>
+      <c r="D8" s="517"/>
+      <c r="E8" s="518"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="507" t="s">
+      <c r="A10" s="506" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="507"/>
+      <c r="B10" s="506"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6917,33 +6902,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="505"/>
-      <c r="B11" s="506"/>
+      <c r="A11" s="504"/>
+      <c r="B11" s="505"/>
       <c r="D11" s="369">
         <v>43979</v>
       </c>
-      <c r="F11" s="502" t="s">
+      <c r="F11" s="519" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="502"/>
-      <c r="H11" s="502"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="503" t="s">
+      <c r="G11" s="519"/>
+      <c r="H11" s="519"/>
+      <c r="I11" s="519"/>
+      <c r="J11" s="520" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="503"/>
+      <c r="K11" s="520"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="502" t="s">
+      <c r="F12" s="519" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="502"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="502"/>
-      <c r="J12" s="503" t="s">
+      <c r="G12" s="519"/>
+      <c r="H12" s="519"/>
+      <c r="I12" s="519"/>
+      <c r="J12" s="520" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="503"/>
+      <c r="K12" s="520"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6953,176 +6938,158 @@
         <v>89</v>
       </c>
       <c r="C13" s="374" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="374" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="471" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="471" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="502" t="s">
+      <c r="F13" s="519" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="502"/>
-      <c r="H13" s="502"/>
-      <c r="I13" s="502"/>
-      <c r="J13" s="503" t="s">
+      <c r="G13" s="519"/>
+      <c r="H13" s="519"/>
+      <c r="I13" s="519"/>
+      <c r="J13" s="520" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="503"/>
+      <c r="K13" s="520"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="366">
-        <v>24</v>
-      </c>
+      <c r="B14" s="366"/>
       <c r="C14" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="366">
         <v>32.5</v>
       </c>
       <c r="E14" s="366">
         <f>B14*D14</f>
-        <v>780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="365" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="366">
-        <v>24</v>
-      </c>
+      <c r="B15" s="366"/>
       <c r="C15" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D15" s="366">
         <v>3</v>
       </c>
       <c r="E15" s="366">
         <f t="shared" ref="E15:E26" si="0">B15*D15</f>
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="366">
-        <v>32</v>
-      </c>
+      <c r="B16" s="366"/>
       <c r="C16" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D16" s="366">
         <v>34.200000000000003</v>
       </c>
       <c r="E16" s="366">
         <f t="shared" si="0"/>
-        <v>1094.4000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="365" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="366">
-        <v>32</v>
-      </c>
+      <c r="B17" s="366"/>
       <c r="C17" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D17" s="366">
         <v>1.3</v>
       </c>
       <c r="E17" s="366">
         <f t="shared" si="0"/>
-        <v>41.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="365" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="366">
-        <v>60</v>
-      </c>
+      <c r="B18" s="366"/>
       <c r="C18" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D18" s="366">
         <v>1.29</v>
       </c>
       <c r="E18" s="366">
         <f t="shared" si="0"/>
-        <v>77.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="365" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="366">
-        <v>70</v>
-      </c>
+      <c r="B19" s="366"/>
       <c r="C19" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D19" s="366">
         <v>0.3</v>
       </c>
       <c r="E19" s="366">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="365" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="366">
-        <v>40</v>
-      </c>
+      <c r="B20" s="366"/>
       <c r="C20" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D20" s="366">
         <v>0.5</v>
       </c>
       <c r="E20" s="366">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="365" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="366">
-        <v>20</v>
-      </c>
+      <c r="B21" s="366"/>
       <c r="C21" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D21" s="366">
         <v>0.4</v>
       </c>
       <c r="E21" s="366">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="365" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="372">
-        <v>0</v>
-      </c>
+      <c r="B22" s="372"/>
       <c r="C22" s="372"/>
       <c r="D22" s="366"/>
       <c r="E22" s="366">
@@ -7134,36 +7101,32 @@
       <c r="A23" s="365" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="366">
-        <v>20</v>
-      </c>
+      <c r="B23" s="366"/>
       <c r="C23" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D23" s="366">
         <v>1.7</v>
       </c>
       <c r="E23" s="366">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="365" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="366">
-        <v>8</v>
-      </c>
+      <c r="B24" s="366"/>
       <c r="C24" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D24" s="366">
         <v>3</v>
       </c>
       <c r="E24" s="366">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -7182,29 +7145,25 @@
       <c r="A26" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="368">
-        <v>20</v>
-      </c>
+      <c r="B26" s="368"/>
       <c r="C26" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D26" s="366">
         <v>1.5</v>
       </c>
       <c r="E26" s="366">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="367" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="373">
-        <v>20</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B27" s="373"/>
       <c r="C27" s="372" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D27" s="366"/>
       <c r="E27" s="366"/>
@@ -7214,30 +7173,36 @@
       <c r="D28" s="370"/>
       <c r="E28" s="370">
         <f>SUM(E14:E27)</f>
-        <v>2202.4</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>2400</v>
       </c>
       <c r="G28">
         <f>F28-E28</f>
-        <v>197.59999999999991</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="504" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="504"/>
-      <c r="C29" s="504"/>
+      <c r="A29" s="503" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="503"/>
+      <c r="C29" s="503"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7247,12 +7212,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7267,7 +7226,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7306,47 +7265,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B20</f>
-        <v>40</v>
-      </c>
-      <c r="L2" s="630"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="628"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7357,9 +7316,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7378,22 +7337,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7404,22 +7363,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7430,27 +7389,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="635"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="635"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7518,9 +7477,7 @@
       <c r="B10" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="183">
-        <v>68.23</v>
-      </c>
+      <c r="C10" s="183"/>
       <c r="D10" s="183">
         <v>0.05</v>
       </c>
@@ -7553,9 +7510,7 @@
       <c r="B11" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="185">
-        <v>19.850000000000001</v>
-      </c>
+      <c r="C11" s="185"/>
       <c r="D11" s="185">
         <v>0.02</v>
       </c>
@@ -7751,9 +7706,7 @@
       <c r="B17" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="185">
-        <v>30.93</v>
-      </c>
+      <c r="C17" s="185"/>
       <c r="D17" s="185">
         <v>0.05</v>
       </c>
@@ -7835,33 +7788,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="636" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="636"/>
-      <c r="N21" s="636"/>
+      <c r="L21" s="637" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="637"/>
+      <c r="N21" s="637"/>
       <c r="O21" s="472"/>
       <c r="P21" s="472"/>
       <c r="Q21" s="488"/>
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="569"/>
+      <c r="Q22" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="558"/>
-      <c r="Q22" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R22" s="560"/>
+      <c r="R22" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7878,6 +7826,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7943,47 +7896,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B21</f>
-        <v>20</v>
-      </c>
-      <c r="L2" s="630"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="628"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7994,9 +7947,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8015,22 +7968,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -8041,22 +7994,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8067,27 +8020,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="635"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="635"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8464,37 +8417,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="636" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="636"/>
-      <c r="N21" s="636"/>
+      <c r="L21" s="637" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="637"/>
+      <c r="N21" s="637"/>
       <c r="O21" s="472"/>
       <c r="P21" s="472"/>
       <c r="Q21" s="488"/>
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="569"/>
+      <c r="Q22" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="558"/>
-      <c r="Q22" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R22" s="560"/>
+      <c r="R22" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8508,6 +8452,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8582,47 +8535,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B26</f>
-        <v>20</v>
-      </c>
-      <c r="L2" s="630"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="628"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="650"/>
-      <c r="Q2" s="650"/>
+      <c r="P2" s="651"/>
+      <c r="Q2" s="651"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8633,9 +8586,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8654,22 +8607,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8680,22 +8633,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8706,27 +8659,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="635"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="635"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -9037,33 +8990,28 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="636" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="636"/>
-      <c r="N19" s="636"/>
+      <c r="L19" s="637" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="637"/>
+      <c r="N19" s="637"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="569"/>
+      <c r="Q20" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9080,6 +9028,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9097,7 +9050,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9136,45 +9089,45 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
+      <c r="J2" s="624"/>
       <c r="K2" s="652">
         <f>Данные!B23</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L2" s="653"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="651"/>
-      <c r="Q2" s="651"/>
+      <c r="P2" s="656"/>
+      <c r="Q2" s="656"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
       <c r="K3" s="654"/>
       <c r="L3" s="655"/>
       <c r="M3" s="265"/>
@@ -9187,9 +9140,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9208,22 +9161,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9234,22 +9187,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9260,27 +9213,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="635"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="635"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9348,9 +9301,7 @@
       <c r="B10" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="378" t="s">
-        <v>149</v>
-      </c>
+      <c r="C10" s="378"/>
       <c r="D10" s="280">
         <v>0.1</v>
       </c>
@@ -9478,9 +9429,7 @@
       <c r="B14" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="358">
-        <v>52</v>
-      </c>
+      <c r="C14" s="358"/>
       <c r="D14" s="284">
         <v>0.1</v>
       </c>
@@ -9550,33 +9499,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="636" t="s">
-        <v>136</v>
-      </c>
-      <c r="M18" s="636"/>
-      <c r="N18" s="636"/>
+      <c r="L18" s="637" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="637"/>
+      <c r="N18" s="637"/>
       <c r="O18" s="472"/>
       <c r="P18" s="472"/>
       <c r="Q18" s="488"/>
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="558" t="s">
+      <c r="O19" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="569"/>
+      <c r="Q19" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="558"/>
-      <c r="Q19" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R19" s="560"/>
+      <c r="R19" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9593,6 +9537,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9644,7 +9593,7 @@
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
       <c r="B1" s="470" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="380"/>
       <c r="D1" s="469" t="str">
@@ -9663,7 +9612,7 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
@@ -9679,14 +9628,14 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="496"/>
       <c r="B3" s="497" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C3" s="498">
         <f>Данные!D11</f>
         <v>43979</v>
       </c>
       <c r="D3" s="499" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F3" s="496"/>
       <c r="G3" s="496"/>
@@ -9708,28 +9657,28 @@
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="386" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="387" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" s="387" t="s">
-        <v>111</v>
       </c>
       <c r="C5" s="387" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="388" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="387" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="387" t="s">
+      <c r="F5" s="387" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="387" t="s">
+      <c r="G5" s="387" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="387" t="s">
+      <c r="H5" s="389" t="s">
         <v>115</v>
-      </c>
-      <c r="H5" s="389" t="s">
-        <v>116</v>
       </c>
       <c r="I5" s="390"/>
       <c r="J5" s="390"/>
@@ -9750,7 +9699,7 @@
       </c>
       <c r="D6" s="393">
         <f>Данные!$B14</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E6" s="393">
         <v>24</v>
@@ -9781,7 +9730,7 @@
       </c>
       <c r="D7" s="399">
         <f>Данные!$B15</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E7" s="399">
         <v>24</v>
@@ -9812,7 +9761,7 @@
       </c>
       <c r="D8" s="399">
         <f>Данные!$B16</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E8" s="399">
         <v>32</v>
@@ -9843,7 +9792,7 @@
       </c>
       <c r="D9" s="399">
         <f>Данные!$B17</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E9" s="399">
         <v>32</v>
@@ -9874,7 +9823,7 @@
       </c>
       <c r="D10" s="399">
         <f>Данные!$B18</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E10" s="399">
         <v>130</v>
@@ -9905,7 +9854,7 @@
       </c>
       <c r="D11" s="399">
         <f>Данные!$B19</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E11" s="399">
         <v>130</v>
@@ -9936,7 +9885,7 @@
       </c>
       <c r="D12" s="399">
         <f>Данные!$B20</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E12" s="399">
         <v>60</v>
@@ -9968,7 +9917,7 @@
       </c>
       <c r="D13" s="399">
         <f>Данные!$B21</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="399">
         <v>18</v>
@@ -10033,7 +9982,7 @@
       </c>
       <c r="D15" s="399">
         <f>Данные!$B23</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E15" s="399">
         <v>20</v>
@@ -10064,7 +10013,7 @@
       </c>
       <c r="D16" s="399">
         <f>Данные!$B24</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="399">
         <v>8</v>
@@ -10095,7 +10044,7 @@
       </c>
       <c r="D17" s="409">
         <f>Данные!$B26</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E17" s="409">
         <v>18</v>
@@ -10126,7 +10075,7 @@
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="383"/>
       <c r="B19" s="416" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="364"/>
       <c r="D19" s="364"/>
@@ -10141,34 +10090,34 @@
     </row>
     <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="386" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="387" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="387" t="s">
+      <c r="C20" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="387" t="s">
+      <c r="D20" s="387" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="387" t="s">
+      <c r="E20" s="387" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="387" t="s">
+      <c r="F20" s="387" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="387" t="s">
+      <c r="G20" s="418" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="418" t="s">
+      <c r="H20" s="419" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="419" t="s">
+      <c r="I20" s="420" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="420" t="s">
-        <v>126</v>
-      </c>
       <c r="J20" s="420" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K20" s="390"/>
       <c r="L20" s="390"/>
@@ -10176,7 +10125,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="421">
         <f>D6*700000</f>
-        <v>16800000</v>
+        <v>0</v>
       </c>
       <c r="B21" s="422">
         <v>43759</v>
@@ -10193,17 +10142,17 @@
       <c r="F21" s="424">
         <v>1031915</v>
       </c>
-      <c r="G21" s="425">
+      <c r="G21" s="425" t="e">
         <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H21" s="426">
         <f>A21-F21</f>
-        <v>15768085</v>
-      </c>
-      <c r="I21" s="427">
+        <v>-1031915</v>
+      </c>
+      <c r="I21" s="427" t="e">
         <f>1-G21</f>
-        <v>0.93857648809523808</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J21" s="489"/>
       <c r="K21" s="402"/>
@@ -10216,17 +10165,17 @@
       <c r="D22" s="430"/>
       <c r="E22" s="431"/>
       <c r="F22" s="431"/>
-      <c r="G22" s="425">
+      <c r="G22" s="425" t="e">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H22" s="432">
         <f>H21-F22</f>
-        <v>15768085</v>
-      </c>
-      <c r="I22" s="433">
+        <v>-1031915</v>
+      </c>
+      <c r="I22" s="433" t="e">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J22" s="490"/>
       <c r="K22" s="383"/>
@@ -10360,7 +10309,7 @@
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="452" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="453"/>
       <c r="C32" s="453"/>
@@ -10373,17 +10322,17 @@
         <f>SUM(F21:F31)</f>
         <v>1031915</v>
       </c>
-      <c r="G32" s="455">
+      <c r="G32" s="455" t="e">
         <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H32" s="456">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="I32" s="457">
+        <v>-1031915</v>
+      </c>
+      <c r="I32" s="457" t="e">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J32" s="495"/>
       <c r="K32" s="458"/>
@@ -10402,12 +10351,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="525" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="525"/>
-      <c r="C36" s="525"/>
-      <c r="D36" s="525"/>
+      <c r="A36" s="523" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="523"/>
+      <c r="C36" s="523"/>
+      <c r="D36" s="523"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10416,15 +10365,15 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="526" t="s">
+      <c r="A37" s="524" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="524"/>
+      <c r="C37" s="459" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="526"/>
-      <c r="C37" s="459" t="s">
+      <c r="D37" s="459" t="s">
         <v>130</v>
-      </c>
-      <c r="D37" s="459" t="s">
-        <v>131</v>
       </c>
       <c r="E37" s="383"/>
       <c r="F37" s="383"/>
@@ -10434,21 +10383,21 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="527">
+      <c r="A38" s="525">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="528"/>
-      <c r="C38" s="460">
+        <v>-1031915</v>
+      </c>
+      <c r="B38" s="526"/>
+      <c r="C38" s="460" t="e">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D38" s="461">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="461" t="e">
         <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E38" s="462" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F38" s="462"/>
       <c r="G38" s="462"/>
@@ -10500,8 +10449,8 @@
       <c r="F42" s="464"/>
       <c r="G42" s="464"/>
       <c r="H42" s="464"/>
-      <c r="I42" s="520"/>
-      <c r="J42" s="521"/>
+      <c r="I42" s="527"/>
+      <c r="J42" s="528"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="465"/>
@@ -10595,9 +10544,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="523"/>
-      <c r="C52" s="523"/>
-      <c r="D52" s="524"/>
+      <c r="B52" s="521"/>
+      <c r="C52" s="521"/>
+      <c r="D52" s="522"/>
       <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10614,8 +10563,8 @@
       <c r="F53" s="464"/>
       <c r="G53" s="464"/>
       <c r="H53" s="464"/>
-      <c r="I53" s="520"/>
-      <c r="J53" s="521"/>
+      <c r="I53" s="527"/>
+      <c r="J53" s="528"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="465"/>
@@ -10626,8 +10575,8 @@
       <c r="F54" s="412"/>
       <c r="G54" s="412"/>
       <c r="H54" s="466"/>
-      <c r="I54" s="522"/>
-      <c r="J54" s="522"/>
+      <c r="I54" s="529"/>
+      <c r="J54" s="529"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="465"/>
@@ -10638,8 +10587,8 @@
       <c r="F55" s="402"/>
       <c r="G55" s="402"/>
       <c r="H55" s="402"/>
-      <c r="I55" s="522"/>
-      <c r="J55" s="522"/>
+      <c r="I55" s="529"/>
+      <c r="J55" s="529"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10652,25 +10601,25 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="520"/>
-      <c r="C61" s="521"/>
+      <c r="B61" s="527"/>
+      <c r="C61" s="528"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="520"/>
-      <c r="C68" s="521"/>
+      <c r="B68" s="527"/>
+      <c r="C68" s="528"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10685,8 +10634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:J29"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10712,7 +10661,7 @@
     </row>
     <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="H3" s="310"/>
       <c r="I3" s="310"/>
@@ -10721,7 +10670,7 @@
     </row>
     <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="309" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="310"/>
       <c r="I4" s="310"/>
@@ -10732,7 +10681,7 @@
     <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
@@ -10753,47 +10702,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="553" t="s">
+      <c r="A11" s="531" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="553"/>
-      <c r="C11" s="553"/>
-      <c r="D11" s="553"/>
-      <c r="E11" s="553"/>
-      <c r="F11" s="553"/>
-      <c r="G11" s="553"/>
-      <c r="H11" s="553"/>
-      <c r="I11" s="553"/>
-      <c r="J11" s="553"/>
+      <c r="B11" s="531"/>
+      <c r="C11" s="531"/>
+      <c r="D11" s="531"/>
+      <c r="E11" s="531"/>
+      <c r="F11" s="531"/>
+      <c r="G11" s="531"/>
+      <c r="H11" s="531"/>
+      <c r="I11" s="531"/>
+      <c r="J11" s="531"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="552" t="s">
+      <c r="A12" s="530" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="552"/>
-      <c r="C12" s="552"/>
-      <c r="D12" s="552"/>
-      <c r="E12" s="552"/>
-      <c r="F12" s="552"/>
-      <c r="G12" s="552"/>
-      <c r="H12" s="552"/>
-      <c r="I12" s="552"/>
-      <c r="J12" s="552"/>
+      <c r="B12" s="530"/>
+      <c r="C12" s="530"/>
+      <c r="D12" s="530"/>
+      <c r="E12" s="530"/>
+      <c r="F12" s="530"/>
+      <c r="G12" s="530"/>
+      <c r="H12" s="530"/>
+      <c r="I12" s="530"/>
+      <c r="J12" s="530"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="554" t="str">
+      <c r="A13" s="532" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="B13" s="553"/>
-      <c r="C13" s="553"/>
-      <c r="D13" s="553"/>
-      <c r="E13" s="553"/>
-      <c r="F13" s="553"/>
-      <c r="G13" s="553"/>
-      <c r="H13" s="553"/>
-      <c r="I13" s="553"/>
-      <c r="J13" s="553"/>
+      <c r="B13" s="531"/>
+      <c r="C13" s="531"/>
+      <c r="D13" s="531"/>
+      <c r="E13" s="531"/>
+      <c r="F13" s="531"/>
+      <c r="G13" s="531"/>
+      <c r="H13" s="531"/>
+      <c r="I13" s="531"/>
+      <c r="J13" s="531"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10918,495 +10867,495 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="550" t="s">
+      <c r="A22" s="536" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="550" t="s">
+      <c r="B22" s="536" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="550"/>
-      <c r="D22" s="550"/>
-      <c r="E22" s="550" t="s">
+      <c r="C22" s="536"/>
+      <c r="D22" s="536"/>
+      <c r="E22" s="536" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="550"/>
-      <c r="G22" s="551" t="s">
+      <c r="F22" s="536"/>
+      <c r="G22" s="554" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="550" t="s">
+      <c r="H22" s="536" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="550"/>
-      <c r="J22" s="550"/>
+      <c r="I22" s="536"/>
+      <c r="J22" s="536"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="550"/>
-      <c r="B23" s="550"/>
-      <c r="C23" s="550"/>
-      <c r="D23" s="550"/>
-      <c r="E23" s="550"/>
-      <c r="F23" s="550"/>
-      <c r="G23" s="551"/>
-      <c r="H23" s="550"/>
-      <c r="I23" s="550"/>
-      <c r="J23" s="550"/>
+      <c r="A23" s="536"/>
+      <c r="B23" s="536"/>
+      <c r="C23" s="536"/>
+      <c r="D23" s="536"/>
+      <c r="E23" s="536"/>
+      <c r="F23" s="536"/>
+      <c r="G23" s="554"/>
+      <c r="H23" s="536"/>
+      <c r="I23" s="536"/>
+      <c r="J23" s="536"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="529">
+      <c r="A24" s="537">
         <v>1</v>
       </c>
-      <c r="B24" s="555" t="s">
+      <c r="B24" s="551" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="556"/>
-      <c r="D24" s="557"/>
-      <c r="E24" s="534" t="str">
+      <c r="C24" s="552"/>
+      <c r="D24" s="553"/>
+      <c r="E24" s="539" t="str">
         <f>Данные!C14</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F24" s="535"/>
-      <c r="G24" s="538">
+      <c r="F24" s="540"/>
+      <c r="G24" s="543">
         <f>Данные!B14</f>
-        <v>24</v>
-      </c>
-      <c r="H24" s="540"/>
-      <c r="I24" s="541"/>
-      <c r="J24" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="545"/>
+      <c r="I24" s="546"/>
+      <c r="J24" s="547"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="530"/>
-      <c r="B25" s="546" t="str">
+      <c r="A25" s="538"/>
+      <c r="B25" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C25" s="547"/>
-      <c r="D25" s="548"/>
-      <c r="E25" s="549"/>
-      <c r="F25" s="537"/>
-      <c r="G25" s="539"/>
-      <c r="H25" s="543"/>
-      <c r="I25" s="544"/>
-      <c r="J25" s="545"/>
+      <c r="C25" s="534"/>
+      <c r="D25" s="535"/>
+      <c r="E25" s="541"/>
+      <c r="F25" s="542"/>
+      <c r="G25" s="544"/>
+      <c r="H25" s="548"/>
+      <c r="I25" s="549"/>
+      <c r="J25" s="550"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="529">
+      <c r="A26" s="537">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="531" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="532"/>
-      <c r="D26" s="533"/>
-      <c r="E26" s="534" t="str">
+      <c r="B26" s="555" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="556"/>
+      <c r="D26" s="557"/>
+      <c r="E26" s="539" t="str">
         <f>Данные!C15</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F26" s="535"/>
-      <c r="G26" s="538">
+      <c r="F26" s="540"/>
+      <c r="G26" s="543">
         <f>Данные!B15</f>
-        <v>24</v>
-      </c>
-      <c r="H26" s="540"/>
-      <c r="I26" s="541"/>
-      <c r="J26" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="545"/>
+      <c r="I26" s="546"/>
+      <c r="J26" s="547"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="530"/>
-      <c r="B27" s="546" t="str">
+      <c r="A27" s="538"/>
+      <c r="B27" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C27" s="547"/>
-      <c r="D27" s="548"/>
-      <c r="E27" s="549"/>
-      <c r="F27" s="537"/>
-      <c r="G27" s="539"/>
-      <c r="H27" s="543"/>
-      <c r="I27" s="544"/>
-      <c r="J27" s="545"/>
+      <c r="C27" s="534"/>
+      <c r="D27" s="535"/>
+      <c r="E27" s="541"/>
+      <c r="F27" s="542"/>
+      <c r="G27" s="544"/>
+      <c r="H27" s="548"/>
+      <c r="I27" s="549"/>
+      <c r="J27" s="550"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="529">
+      <c r="A28" s="537">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="531" t="s">
+      <c r="B28" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="532"/>
-      <c r="D28" s="533"/>
-      <c r="E28" s="534" t="str">
+      <c r="C28" s="556"/>
+      <c r="D28" s="557"/>
+      <c r="E28" s="539" t="str">
         <f>Данные!C16</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F28" s="535"/>
-      <c r="G28" s="538">
+      <c r="F28" s="540"/>
+      <c r="G28" s="543">
         <f>Данные!B16</f>
-        <v>32</v>
-      </c>
-      <c r="H28" s="540" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="541"/>
-      <c r="J28" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="545" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="546"/>
+      <c r="J28" s="547"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="530"/>
-      <c r="B29" s="546" t="str">
+      <c r="A29" s="538"/>
+      <c r="B29" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C29" s="547"/>
-      <c r="D29" s="548"/>
-      <c r="E29" s="549"/>
-      <c r="F29" s="537"/>
-      <c r="G29" s="539"/>
-      <c r="H29" s="543"/>
-      <c r="I29" s="544"/>
-      <c r="J29" s="545"/>
+      <c r="C29" s="534"/>
+      <c r="D29" s="535"/>
+      <c r="E29" s="541"/>
+      <c r="F29" s="542"/>
+      <c r="G29" s="544"/>
+      <c r="H29" s="548"/>
+      <c r="I29" s="549"/>
+      <c r="J29" s="550"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="529">
+      <c r="A30" s="537">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="531" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="532"/>
-      <c r="D30" s="533"/>
-      <c r="E30" s="534" t="str">
+      <c r="B30" s="555" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="556"/>
+      <c r="D30" s="557"/>
+      <c r="E30" s="539" t="str">
         <f>Данные!C17</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F30" s="535"/>
-      <c r="G30" s="538">
+      <c r="F30" s="540"/>
+      <c r="G30" s="543">
         <f>Данные!B17</f>
-        <v>32</v>
-      </c>
-      <c r="H30" s="540"/>
-      <c r="I30" s="541"/>
-      <c r="J30" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="545"/>
+      <c r="I30" s="546"/>
+      <c r="J30" s="547"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="530"/>
-      <c r="B31" s="546" t="str">
+      <c r="A31" s="538"/>
+      <c r="B31" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C31" s="547"/>
-      <c r="D31" s="548"/>
-      <c r="E31" s="536"/>
-      <c r="F31" s="537"/>
-      <c r="G31" s="539"/>
-      <c r="H31" s="543"/>
-      <c r="I31" s="544"/>
-      <c r="J31" s="545"/>
+      <c r="C31" s="534"/>
+      <c r="D31" s="535"/>
+      <c r="E31" s="558"/>
+      <c r="F31" s="542"/>
+      <c r="G31" s="544"/>
+      <c r="H31" s="548"/>
+      <c r="I31" s="549"/>
+      <c r="J31" s="550"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="529">
+      <c r="A32" s="537">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="531" t="s">
+      <c r="B32" s="555" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="532"/>
-      <c r="D32" s="533"/>
-      <c r="E32" s="534" t="str">
+      <c r="C32" s="556"/>
+      <c r="D32" s="557"/>
+      <c r="E32" s="539" t="str">
         <f>Данные!C18</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F32" s="535"/>
-      <c r="G32" s="538">
+      <c r="F32" s="540"/>
+      <c r="G32" s="543">
         <f>Данные!B18</f>
-        <v>60</v>
-      </c>
-      <c r="H32" s="540"/>
-      <c r="I32" s="541"/>
-      <c r="J32" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="545"/>
+      <c r="I32" s="546"/>
+      <c r="J32" s="547"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="530"/>
-      <c r="B33" s="546" t="str">
+      <c r="A33" s="538"/>
+      <c r="B33" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C33" s="547"/>
-      <c r="D33" s="548"/>
-      <c r="E33" s="536"/>
-      <c r="F33" s="537"/>
-      <c r="G33" s="539"/>
-      <c r="H33" s="543"/>
-      <c r="I33" s="544"/>
-      <c r="J33" s="545"/>
+      <c r="C33" s="534"/>
+      <c r="D33" s="535"/>
+      <c r="E33" s="558"/>
+      <c r="F33" s="542"/>
+      <c r="G33" s="544"/>
+      <c r="H33" s="548"/>
+      <c r="I33" s="549"/>
+      <c r="J33" s="550"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="529">
+      <c r="A34" s="537">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="531" t="s">
+      <c r="B34" s="555" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="532"/>
-      <c r="D34" s="533"/>
-      <c r="E34" s="534" t="str">
+      <c r="C34" s="556"/>
+      <c r="D34" s="557"/>
+      <c r="E34" s="539" t="str">
         <f>Данные!C19</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F34" s="535"/>
-      <c r="G34" s="538">
+      <c r="F34" s="540"/>
+      <c r="G34" s="543">
         <f>Данные!B19</f>
-        <v>70</v>
-      </c>
-      <c r="H34" s="540"/>
-      <c r="I34" s="541"/>
-      <c r="J34" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="545"/>
+      <c r="I34" s="546"/>
+      <c r="J34" s="547"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="530"/>
-      <c r="B35" s="546" t="str">
+      <c r="A35" s="538"/>
+      <c r="B35" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C35" s="547"/>
-      <c r="D35" s="548"/>
-      <c r="E35" s="536"/>
-      <c r="F35" s="537"/>
-      <c r="G35" s="539"/>
-      <c r="H35" s="543"/>
-      <c r="I35" s="544"/>
-      <c r="J35" s="545"/>
+      <c r="C35" s="534"/>
+      <c r="D35" s="535"/>
+      <c r="E35" s="558"/>
+      <c r="F35" s="542"/>
+      <c r="G35" s="544"/>
+      <c r="H35" s="548"/>
+      <c r="I35" s="549"/>
+      <c r="J35" s="550"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="529">
+      <c r="A36" s="537">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="531" t="s">
+      <c r="B36" s="555" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="532"/>
-      <c r="D36" s="533"/>
-      <c r="E36" s="534" t="str">
+      <c r="C36" s="556"/>
+      <c r="D36" s="557"/>
+      <c r="E36" s="539" t="str">
         <f>Данные!C20</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F36" s="535"/>
-      <c r="G36" s="538">
+      <c r="F36" s="540"/>
+      <c r="G36" s="543">
         <f>Данные!B20</f>
-        <v>40</v>
-      </c>
-      <c r="H36" s="540"/>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="545"/>
+      <c r="I36" s="546"/>
+      <c r="J36" s="547"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="530"/>
-      <c r="B37" s="546" t="str">
+      <c r="A37" s="538"/>
+      <c r="B37" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C37" s="547"/>
-      <c r="D37" s="548"/>
-      <c r="E37" s="536"/>
-      <c r="F37" s="537"/>
-      <c r="G37" s="539"/>
-      <c r="H37" s="543"/>
-      <c r="I37" s="544"/>
-      <c r="J37" s="545"/>
+      <c r="C37" s="534"/>
+      <c r="D37" s="535"/>
+      <c r="E37" s="558"/>
+      <c r="F37" s="542"/>
+      <c r="G37" s="544"/>
+      <c r="H37" s="548"/>
+      <c r="I37" s="549"/>
+      <c r="J37" s="550"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="529">
+      <c r="A38" s="537">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="531" t="s">
+      <c r="B38" s="555" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="532"/>
-      <c r="D38" s="533"/>
-      <c r="E38" s="534" t="str">
+      <c r="C38" s="556"/>
+      <c r="D38" s="557"/>
+      <c r="E38" s="539" t="str">
         <f>Данные!C21</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F38" s="535"/>
-      <c r="G38" s="538">
+      <c r="F38" s="540"/>
+      <c r="G38" s="543">
         <f>Данные!B21</f>
-        <v>20</v>
-      </c>
-      <c r="H38" s="540"/>
-      <c r="I38" s="541"/>
-      <c r="J38" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="545"/>
+      <c r="I38" s="546"/>
+      <c r="J38" s="547"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="530"/>
-      <c r="B39" s="546" t="str">
+      <c r="A39" s="538"/>
+      <c r="B39" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C39" s="547"/>
-      <c r="D39" s="548"/>
-      <c r="E39" s="536"/>
-      <c r="F39" s="537"/>
-      <c r="G39" s="539"/>
-      <c r="H39" s="543"/>
-      <c r="I39" s="544"/>
-      <c r="J39" s="545"/>
+      <c r="C39" s="534"/>
+      <c r="D39" s="535"/>
+      <c r="E39" s="558"/>
+      <c r="F39" s="542"/>
+      <c r="G39" s="544"/>
+      <c r="H39" s="548"/>
+      <c r="I39" s="549"/>
+      <c r="J39" s="550"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="529">
+      <c r="A40" s="537">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="531" t="s">
+      <c r="B40" s="555" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="532"/>
-      <c r="D40" s="533"/>
-      <c r="E40" s="534" t="str">
+      <c r="C40" s="556"/>
+      <c r="D40" s="557"/>
+      <c r="E40" s="539" t="str">
         <f>Данные!C23</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F40" s="535"/>
-      <c r="G40" s="538">
+      <c r="F40" s="540"/>
+      <c r="G40" s="543">
         <f>Данные!B23</f>
-        <v>20</v>
-      </c>
-      <c r="H40" s="540"/>
-      <c r="I40" s="541"/>
-      <c r="J40" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="545"/>
+      <c r="I40" s="546"/>
+      <c r="J40" s="547"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="530"/>
-      <c r="B41" s="546" t="str">
+      <c r="A41" s="538"/>
+      <c r="B41" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C41" s="547"/>
-      <c r="D41" s="548"/>
-      <c r="E41" s="536"/>
-      <c r="F41" s="537"/>
-      <c r="G41" s="539"/>
-      <c r="H41" s="543"/>
-      <c r="I41" s="544"/>
-      <c r="J41" s="545"/>
+      <c r="C41" s="534"/>
+      <c r="D41" s="535"/>
+      <c r="E41" s="558"/>
+      <c r="F41" s="542"/>
+      <c r="G41" s="544"/>
+      <c r="H41" s="548"/>
+      <c r="I41" s="549"/>
+      <c r="J41" s="550"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="529">
+      <c r="A42" s="537">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="531" t="s">
+      <c r="B42" s="555" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="532"/>
-      <c r="D42" s="533"/>
-      <c r="E42" s="534" t="str">
+      <c r="C42" s="556"/>
+      <c r="D42" s="557"/>
+      <c r="E42" s="539" t="str">
         <f>Данные!C26</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F42" s="535"/>
-      <c r="G42" s="538">
+      <c r="F42" s="540"/>
+      <c r="G42" s="543">
         <f>Данные!B26</f>
-        <v>20</v>
-      </c>
-      <c r="H42" s="540"/>
-      <c r="I42" s="541"/>
-      <c r="J42" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="545"/>
+      <c r="I42" s="546"/>
+      <c r="J42" s="547"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="530"/>
-      <c r="B43" s="546" t="str">
+      <c r="A43" s="538"/>
+      <c r="B43" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C43" s="547"/>
-      <c r="D43" s="548"/>
-      <c r="E43" s="536"/>
-      <c r="F43" s="537"/>
-      <c r="G43" s="539"/>
-      <c r="H43" s="543"/>
-      <c r="I43" s="544"/>
-      <c r="J43" s="545"/>
+      <c r="C43" s="534"/>
+      <c r="D43" s="535"/>
+      <c r="E43" s="558"/>
+      <c r="F43" s="542"/>
+      <c r="G43" s="544"/>
+      <c r="H43" s="548"/>
+      <c r="I43" s="549"/>
+      <c r="J43" s="550"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="529">
+      <c r="A44" s="537">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="531" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="532"/>
-      <c r="D44" s="533"/>
-      <c r="E44" s="534" t="str">
+      <c r="B44" s="555" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="556"/>
+      <c r="D44" s="557"/>
+      <c r="E44" s="539" t="str">
         <f>Данные!C27</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F44" s="535"/>
-      <c r="G44" s="538">
+      <c r="F44" s="540"/>
+      <c r="G44" s="543">
         <f>Данные!B27</f>
-        <v>20</v>
-      </c>
-      <c r="H44" s="540"/>
-      <c r="I44" s="541"/>
-      <c r="J44" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="545"/>
+      <c r="I44" s="546"/>
+      <c r="J44" s="547"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="530"/>
-      <c r="B45" s="546" t="str">
+      <c r="A45" s="538"/>
+      <c r="B45" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C45" s="547"/>
-      <c r="D45" s="548"/>
-      <c r="E45" s="536"/>
-      <c r="F45" s="537"/>
-      <c r="G45" s="539"/>
-      <c r="H45" s="543"/>
-      <c r="I45" s="544"/>
-      <c r="J45" s="545"/>
+      <c r="C45" s="534"/>
+      <c r="D45" s="535"/>
+      <c r="E45" s="558"/>
+      <c r="F45" s="542"/>
+      <c r="G45" s="544"/>
+      <c r="H45" s="548"/>
+      <c r="I45" s="549"/>
+      <c r="J45" s="550"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="529">
+      <c r="A46" s="537">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="531" t="s">
+      <c r="B46" s="555" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="532"/>
-      <c r="D46" s="533"/>
-      <c r="E46" s="534" t="str">
+      <c r="C46" s="556"/>
+      <c r="D46" s="557"/>
+      <c r="E46" s="539" t="str">
         <f>Данные!C24</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F46" s="535"/>
-      <c r="G46" s="538">
+      <c r="F46" s="540"/>
+      <c r="G46" s="543">
         <f>Данные!B24</f>
-        <v>8</v>
-      </c>
-      <c r="H46" s="540"/>
-      <c r="I46" s="541"/>
-      <c r="J46" s="542"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="545"/>
+      <c r="I46" s="546"/>
+      <c r="J46" s="547"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="530"/>
-      <c r="B47" s="546" t="str">
+      <c r="A47" s="538"/>
+      <c r="B47" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C47" s="547"/>
-      <c r="D47" s="548"/>
-      <c r="E47" s="536"/>
-      <c r="F47" s="537"/>
-      <c r="G47" s="539"/>
-      <c r="H47" s="543"/>
-      <c r="I47" s="544"/>
-      <c r="J47" s="545"/>
+      <c r="C47" s="534"/>
+      <c r="D47" s="535"/>
+      <c r="E47" s="558"/>
+      <c r="F47" s="542"/>
+      <c r="G47" s="544"/>
+      <c r="H47" s="548"/>
+      <c r="I47" s="549"/>
+      <c r="J47" s="550"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11535,6 +11484,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11551,70 +11564,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11630,7 +11579,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23:E23"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11669,47 +11618,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B14</f>
-        <v>24</v>
-      </c>
-      <c r="L2" s="583"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="594"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11720,9 +11669,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11741,22 +11690,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="562"/>
+      <c r="J5" s="563"/>
+      <c r="K5" s="514"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11767,22 +11716,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="562"/>
+      <c r="J6" s="563"/>
+      <c r="K6" s="514"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11793,27 +11742,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="565"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="568"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11881,9 +11830,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93">
-        <v>158.44999999999999</v>
-      </c>
+      <c r="C10" s="93"/>
       <c r="D10" s="93">
         <v>0.08</v>
       </c>
@@ -11947,9 +11894,7 @@
       <c r="B12" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="97">
-        <v>30.47</v>
-      </c>
+      <c r="C12" s="97"/>
       <c r="D12" s="97">
         <v>0.05</v>
       </c>
@@ -12046,9 +11991,7 @@
       <c r="B15" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="376">
-        <v>66.5</v>
-      </c>
+      <c r="C15" s="376"/>
       <c r="D15" s="97">
         <v>0.1</v>
       </c>
@@ -12079,9 +12022,7 @@
       <c r="B16" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="97">
-        <v>133</v>
-      </c>
+      <c r="C16" s="97"/>
       <c r="D16" s="97">
         <v>0.05</v>
       </c>
@@ -12174,9 +12115,7 @@
       <c r="B19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="104">
-        <v>25.2</v>
-      </c>
+      <c r="C19" s="104"/>
       <c r="D19" s="104">
         <v>0.02</v>
       </c>
@@ -12207,9 +12146,7 @@
       <c r="B20" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="104" t="s">
-        <v>147</v>
-      </c>
+      <c r="C20" s="104"/>
       <c r="D20" s="104">
         <v>0.05</v>
       </c>
@@ -12240,9 +12177,7 @@
       <c r="B21" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="353">
-        <v>0.13</v>
-      </c>
+      <c r="C21" s="353"/>
       <c r="D21" s="104">
         <v>0.02</v>
       </c>
@@ -12273,9 +12208,7 @@
       <c r="B22" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="353" t="s">
-        <v>148</v>
-      </c>
+      <c r="C22" s="353"/>
       <c r="D22" s="104">
         <v>0.02</v>
       </c>
@@ -12303,12 +12236,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="596" t="s">
+      <c r="B23" s="559" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="597"/>
-      <c r="D23" s="597"/>
-      <c r="E23" s="598"/>
+      <c r="C23" s="560"/>
+      <c r="D23" s="560"/>
+      <c r="E23" s="561"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12330,12 +12263,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="586" t="s">
+      <c r="B24" s="597" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="587"/>
-      <c r="D24" s="587"/>
-      <c r="E24" s="588"/>
+      <c r="C24" s="598"/>
+      <c r="D24" s="598"/>
+      <c r="E24" s="599"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12378,35 +12311,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="561" t="s">
-        <v>136</v>
-      </c>
-      <c r="L27" s="561"/>
-      <c r="M27" s="561"/>
+      <c r="K27" s="572" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="572"/>
+      <c r="M27" s="572"/>
       <c r="N27" s="472"/>
       <c r="O27" s="472"/>
       <c r="P27" s="488"/>
       <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="558" t="s">
+      <c r="N28" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" s="569"/>
+      <c r="P28" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="558"/>
-      <c r="P28" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q28" s="560"/>
+      <c r="Q28" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12423,6 +12349,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12488,50 +12421,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610">
+      <c r="B2" s="608">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B15</f>
-        <v>24</v>
-      </c>
-      <c r="L2" s="630"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="628"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12542,9 +12475,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12563,22 +12496,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12589,22 +12522,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12615,27 +12548,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="635"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="635"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12826,12 +12759,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="634" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="635"/>
-      <c r="D14" s="635"/>
-      <c r="E14" s="635"/>
+      <c r="B14" s="606" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="607"/>
+      <c r="D14" s="607"/>
+      <c r="E14" s="607"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12853,13 +12786,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="596" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="597"/>
-      <c r="D15" s="597"/>
-      <c r="E15" s="597"/>
-      <c r="F15" s="633"/>
+      <c r="B15" s="559" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="560"/>
+      <c r="D15" s="560"/>
+      <c r="E15" s="560"/>
+      <c r="F15" s="605"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12878,12 +12811,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="597" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="587"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
+      <c r="C16" s="598"/>
+      <c r="D16" s="598"/>
+      <c r="E16" s="599"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12930,39 +12863,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="561" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="561"/>
-      <c r="N19" s="561"/>
+      <c r="L19" s="572" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="572"/>
+      <c r="N19" s="572"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="569"/>
+      <c r="Q20" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12976,6 +12898,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13006,11 +12939,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="C17" activeCellId="2" sqref="C10 C13:C14 C17:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13049,47 +12982,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B16</f>
-        <v>32</v>
-      </c>
-      <c r="L2" s="583"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="594"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13100,9 +13033,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13121,22 +13054,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="562"/>
+      <c r="J5" s="563"/>
+      <c r="K5" s="514"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13147,22 +13080,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="562"/>
+      <c r="J6" s="563"/>
+      <c r="K6" s="514"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13173,27 +13106,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="565"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="568"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13264,9 +13197,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93">
-        <v>151</v>
-      </c>
+      <c r="C10" s="93"/>
       <c r="D10" s="93">
         <v>0.05</v>
       </c>
@@ -13372,9 +13303,7 @@
       <c r="B13" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="376">
-        <v>66.5</v>
-      </c>
+      <c r="C13" s="376"/>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -13408,9 +13337,7 @@
       <c r="B14" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="97">
-        <v>116</v>
-      </c>
+      <c r="C14" s="97"/>
       <c r="D14" s="97">
         <v>0.05</v>
       </c>
@@ -13516,9 +13443,7 @@
       <c r="B17" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="104">
-        <v>24.9</v>
-      </c>
+      <c r="C17" s="104"/>
       <c r="D17" s="104">
         <v>0.05</v>
       </c>
@@ -13552,9 +13477,7 @@
       <c r="B18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="104" t="s">
-        <v>145</v>
-      </c>
+      <c r="C18" s="104"/>
       <c r="D18" s="104">
         <v>0.05</v>
       </c>
@@ -13564,8 +13487,8 @@
       <c r="F18" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="656" t="s">
-        <v>157</v>
+      <c r="G18" s="502" t="s">
+        <v>151</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
@@ -13599,7 +13522,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H19" s="105"/>
       <c r="I19" s="104"/>
@@ -13622,9 +13545,7 @@
       <c r="B20" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="316">
-        <v>0.2</v>
-      </c>
+      <c r="C20" s="316"/>
       <c r="D20" s="104">
         <v>0.02</v>
       </c>
@@ -13673,28 +13594,35 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="636" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" s="636"/>
-      <c r="N23" s="636"/>
+      <c r="L23" s="637" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="637"/>
+      <c r="N23" s="637"/>
       <c r="O23" s="472"/>
       <c r="P23" s="472"/>
       <c r="Q23" s="488"/>
       <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="558" t="s">
+      <c r="O24" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="569"/>
+      <c r="Q24" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="558"/>
-      <c r="Q24" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R24" s="560"/>
+      <c r="R24" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13709,13 +13637,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13744,7 +13665,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13783,47 +13704,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B17</f>
-        <v>32</v>
-      </c>
-      <c r="L2" s="583"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="594"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13834,9 +13755,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13855,22 +13776,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="562"/>
+      <c r="J5" s="563"/>
+      <c r="K5" s="514"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13881,22 +13802,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="562"/>
+      <c r="J6" s="563"/>
+      <c r="K6" s="514"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13907,27 +13828,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="565"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="568"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13995,9 +13916,7 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="377" t="s">
-        <v>146</v>
-      </c>
+      <c r="C10" s="377"/>
       <c r="D10" s="44">
         <v>0.05</v>
       </c>
@@ -14028,9 +13947,7 @@
       <c r="B11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="44">
-        <v>3</v>
-      </c>
+      <c r="C11" s="44"/>
       <c r="D11" s="44">
         <v>0.05</v>
       </c>
@@ -14211,28 +14128,34 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="636" t="s">
-        <v>136</v>
-      </c>
-      <c r="M18" s="636"/>
-      <c r="N18" s="636"/>
+      <c r="L18" s="637" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="637"/>
+      <c r="N18" s="637"/>
       <c r="O18" s="472"/>
       <c r="P18" s="472"/>
       <c r="Q18" s="488"/>
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="558" t="s">
+      <c r="O19" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="569"/>
+      <c r="Q19" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="558"/>
-      <c r="Q19" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R19" s="560"/>
+      <c r="R19" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14248,12 +14171,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14286,7 +14203,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14325,60 +14242,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B18</f>
-        <v>60</v>
-      </c>
-      <c r="L2" s="630"/>
-      <c r="M2" s="638"/>
-      <c r="N2" s="639"/>
-      <c r="O2" s="639"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
-      <c r="R2" s="640"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="628"/>
+      <c r="M2" s="639"/>
+      <c r="N2" s="640"/>
+      <c r="O2" s="640"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
+      <c r="R2" s="641"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
-      <c r="M3" s="641"/>
-      <c r="N3" s="642"/>
-      <c r="O3" s="642"/>
-      <c r="P3" s="642"/>
-      <c r="Q3" s="642"/>
-      <c r="R3" s="643"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
+      <c r="M3" s="642"/>
+      <c r="N3" s="643"/>
+      <c r="O3" s="643"/>
+      <c r="P3" s="643"/>
+      <c r="Q3" s="643"/>
+      <c r="R3" s="644"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14387,95 +14304,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="641"/>
-      <c r="N4" s="642"/>
-      <c r="O4" s="642"/>
-      <c r="P4" s="642"/>
-      <c r="Q4" s="642"/>
-      <c r="R4" s="643"/>
+      <c r="M4" s="642"/>
+      <c r="N4" s="643"/>
+      <c r="O4" s="643"/>
+      <c r="P4" s="643"/>
+      <c r="Q4" s="643"/>
+      <c r="R4" s="644"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
-      <c r="M5" s="641"/>
-      <c r="N5" s="642"/>
-      <c r="O5" s="642"/>
-      <c r="P5" s="642"/>
-      <c r="Q5" s="642"/>
-      <c r="R5" s="643"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="515"/>
+      <c r="M5" s="642"/>
+      <c r="N5" s="643"/>
+      <c r="O5" s="643"/>
+      <c r="P5" s="643"/>
+      <c r="Q5" s="643"/>
+      <c r="R5" s="644"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
-      <c r="M6" s="641"/>
-      <c r="N6" s="642"/>
-      <c r="O6" s="642"/>
-      <c r="P6" s="642"/>
-      <c r="Q6" s="642"/>
-      <c r="R6" s="643"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="515"/>
+      <c r="M6" s="642"/>
+      <c r="N6" s="643"/>
+      <c r="O6" s="643"/>
+      <c r="P6" s="643"/>
+      <c r="Q6" s="643"/>
+      <c r="R6" s="644"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="635"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="635"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
-      <c r="M7" s="641"/>
-      <c r="N7" s="642"/>
-      <c r="O7" s="642"/>
-      <c r="P7" s="642"/>
-      <c r="Q7" s="642"/>
-      <c r="R7" s="643"/>
+      <c r="L7" s="505"/>
+      <c r="M7" s="642"/>
+      <c r="N7" s="643"/>
+      <c r="O7" s="643"/>
+      <c r="P7" s="643"/>
+      <c r="Q7" s="643"/>
+      <c r="R7" s="644"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14570,9 +14487,7 @@
       <c r="B11" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="128">
-        <v>25</v>
-      </c>
+      <c r="C11" s="128"/>
       <c r="D11" s="128">
         <v>0.05</v>
       </c>
@@ -14603,9 +14518,7 @@
       <c r="B12" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="128">
-        <v>24.9</v>
-      </c>
+      <c r="C12" s="128"/>
       <c r="D12" s="128">
         <v>0.05</v>
       </c>
@@ -14649,7 +14562,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="478"/>
       <c r="I13" s="479"/>
@@ -14682,7 +14595,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="296" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="97"/>
@@ -14702,7 +14615,7 @@
       <c r="B15" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="315">
         <v>3.1</v>
       </c>
       <c r="D15" s="97">
@@ -14735,9 +14648,7 @@
       <c r="B16" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="97">
-        <v>50.8</v>
-      </c>
+      <c r="C16" s="97"/>
       <c r="D16" s="97">
         <v>0.1</v>
       </c>
@@ -14768,9 +14679,7 @@
       <c r="B17" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="97">
-        <v>23.6</v>
-      </c>
+      <c r="C17" s="97"/>
       <c r="D17" s="97">
         <v>0.05</v>
       </c>
@@ -14814,7 +14723,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="296" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
@@ -14834,9 +14743,7 @@
       <c r="B19" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="376">
-        <v>27.85</v>
-      </c>
+      <c r="C19" s="376"/>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
       <c r="F19" s="114"/>
@@ -14859,9 +14766,7 @@
       <c r="B20" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="97">
-        <v>27.1</v>
-      </c>
+      <c r="C20" s="97"/>
       <c r="D20" s="97">
         <v>0.05</v>
       </c>
@@ -14889,12 +14794,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="586" t="s">
+      <c r="B21" s="597" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="587"/>
-      <c r="D21" s="587"/>
-      <c r="E21" s="588"/>
+      <c r="C21" s="598"/>
+      <c r="D21" s="598"/>
+      <c r="E21" s="599"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14939,34 +14844,28 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="636" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24" s="636"/>
-      <c r="N24" s="636"/>
+      <c r="L24" s="637" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="637"/>
+      <c r="N24" s="637"/>
       <c r="O24" s="472"/>
       <c r="P24" s="472"/>
       <c r="Q24" s="488"/>
       <c r="R24" s="488"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="558" t="s">
+      <c r="O25" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="569"/>
+      <c r="Q25" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="558"/>
-      <c r="Q25" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R25" s="560"/>
+      <c r="R25" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14983,6 +14882,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15009,7 +14914,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15047,47 +14952,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B19</f>
-        <v>70</v>
-      </c>
-      <c r="L2" s="630"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="628"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15098,9 +15003,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15119,22 +15024,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="600" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="631"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15145,22 +15050,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="600" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="631"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="603"/>
+      <c r="F6" s="603"/>
+      <c r="G6" s="603"/>
+      <c r="H6" s="604"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="633"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15171,27 +15076,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="635"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="566"/>
+      <c r="F7" s="566"/>
+      <c r="G7" s="566"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="635"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15259,9 +15164,7 @@
       <c r="B10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="97">
-        <v>24.7</v>
-      </c>
+      <c r="C10" s="97"/>
       <c r="D10" s="97">
         <v>0.05</v>
       </c>
@@ -15292,9 +15195,7 @@
       <c r="B11" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="97">
-        <v>19.95</v>
-      </c>
+      <c r="C11" s="97"/>
       <c r="D11" s="97">
         <v>0.02</v>
       </c>
@@ -15338,7 +15239,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="486"/>
       <c r="I12" s="479"/>
@@ -15391,9 +15292,7 @@
       <c r="B14" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97">
-        <v>12.9</v>
-      </c>
+      <c r="C14" s="97"/>
       <c r="D14" s="97">
         <v>0</v>
       </c>
@@ -15454,12 +15353,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="597" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="587"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
+      <c r="C16" s="598"/>
+      <c r="D16" s="598"/>
+      <c r="E16" s="599"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15504,38 +15403,28 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="636" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="636"/>
-      <c r="N19" s="636"/>
+      <c r="L19" s="637" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="637"/>
+      <c r="N19" s="637"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="569" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="569"/>
+      <c r="Q20" s="570" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="571"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15548,6 +15437,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
